--- a/实验结果/处理结果/处理结果-ETL版本.xlsx
+++ b/实验结果/处理结果/处理结果-ETL版本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8925" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8925" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="30-30" sheetId="4" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="45-30" sheetId="7" r:id="rId7"/>
     <sheet name="60-40" sheetId="8" r:id="rId8"/>
     <sheet name="90-60" sheetId="9" r:id="rId9"/>
-    <sheet name="180-90" sheetId="10" r:id="rId10"/>
-    <sheet name="180-90-e1" sheetId="11" r:id="rId11"/>
-    <sheet name="180-90-e2" sheetId="12" r:id="rId12"/>
+    <sheet name="180-60" sheetId="10" r:id="rId10"/>
+    <sheet name="180-60-e1" sheetId="11" r:id="rId11"/>
+    <sheet name="180-60-e2" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="83">
   <si>
     <t>test</t>
   </si>
@@ -187,6 +187,104 @@
   </si>
   <si>
     <t>列7</t>
+  </si>
+  <si>
+    <t>y=儼an x^n</t>
+  </si>
+  <si>
+    <t>a0=1.105263e+03</t>
+  </si>
+  <si>
+    <t>a1=3.565892e-02</t>
+  </si>
+  <si>
+    <t>|r|=9.946561e-01</t>
+  </si>
+  <si>
+    <t>a0=1.097755e+03</t>
+  </si>
+  <si>
+    <t>a1=3.196519e-02</t>
+  </si>
+  <si>
+    <t>|r|=9.953550e-01</t>
+  </si>
+  <si>
+    <t>a0=1.088448e+03</t>
+  </si>
+  <si>
+    <t>a0=1.103174e+03</t>
+  </si>
+  <si>
+    <t>a1=2.566890e-02</t>
+  </si>
+  <si>
+    <t>|r|=9.903030e-01</t>
+  </si>
+  <si>
+    <t>均值版本</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>均值版本</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>a0=1.055146e+03</t>
+  </si>
+  <si>
+    <t>a1=3.093511e-02</t>
+  </si>
+  <si>
+    <t>|r|=9.875320e-01</t>
+  </si>
+  <si>
+    <t>a0=1.419469e+03</t>
+  </si>
+  <si>
+    <t>a1=2.577939e-02</t>
+  </si>
+  <si>
+    <t>|r|=9.876672e-01</t>
+  </si>
+  <si>
+    <t>a0=1.676622e+03</t>
+  </si>
+  <si>
+    <t>a1=2.971855e-02</t>
+  </si>
+  <si>
+    <t>|r|=9.666129e-01</t>
+  </si>
+  <si>
+    <t>a1=3.110607e-02</t>
+  </si>
+  <si>
+    <t>|r|=9.899899e-01</t>
+  </si>
+  <si>
+    <t>归一过零点</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1=2.536712e-02</t>
+  </si>
+  <si>
+    <t>|r|=9.873459e-01</t>
+  </si>
+  <si>
+    <t>归一过零点</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1=3.585498e-02</t>
+  </si>
+  <si>
+    <t>|r|=9.449068e-01</t>
+  </si>
+  <si>
+    <t>归一过零点</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1311,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1591,7 +1689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>200</v>
       </c>
@@ -1608,7 +1706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>250</v>
       </c>
@@ -1625,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>250</v>
       </c>
@@ -1642,7 +1740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>250</v>
       </c>
@@ -1659,7 +1757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>250</v>
       </c>
@@ -1676,7 +1774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>250</v>
       </c>
@@ -1693,7 +1791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>300</v>
       </c>
@@ -1709,8 +1807,11 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="J23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>300</v>
       </c>
@@ -1726,8 +1827,14 @@
       <c r="E24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>300</v>
       </c>
@@ -1743,8 +1850,14 @@
       <c r="E25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H25" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>300</v>
       </c>
@@ -1760,8 +1873,14 @@
       <c r="E26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>350</v>
       </c>
@@ -1777,8 +1896,14 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H27" s="1">
+        <v>2.928938</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2.684755</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>350</v>
       </c>
@@ -1794,8 +1919,14 @@
       <c r="E28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H28" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>350</v>
       </c>
@@ -1812,7 +1943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>350</v>
       </c>
@@ -1829,7 +1960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>500</v>
       </c>
@@ -1846,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>500</v>
       </c>
@@ -2095,15 +2226,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2120,7 +2251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2137,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2154,7 +2285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2171,7 +2302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2188,7 +2319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2205,7 +2336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>200</v>
       </c>
@@ -2222,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>200</v>
       </c>
@@ -2238,8 +2369,11 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="M8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>200</v>
       </c>
@@ -2255,8 +2389,14 @@
       <c r="E9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>200</v>
       </c>
@@ -2272,8 +2412,14 @@
       <c r="E10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="I10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>200</v>
       </c>
@@ -2289,8 +2435,14 @@
       <c r="E11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="I11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>200</v>
       </c>
@@ -2306,8 +2458,14 @@
       <c r="E12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="I12" s="1">
+        <v>2.3260700000000001</v>
+      </c>
+      <c r="M12" s="1">
+        <v>2.3260700000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>250</v>
       </c>
@@ -2323,8 +2481,14 @@
       <c r="E13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>250</v>
       </c>
@@ -2341,7 +2505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>250</v>
       </c>
@@ -2358,7 +2522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>250</v>
       </c>
@@ -3321,10 +3485,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K74" sqref="K74"/>
+      <selection activeCell="I58" sqref="I58:I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4145,7 +4309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>400</v>
       </c>
@@ -4162,7 +4326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>400</v>
       </c>
@@ -4179,7 +4343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>400</v>
       </c>
@@ -4196,7 +4360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>400</v>
       </c>
@@ -4213,7 +4377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>400</v>
       </c>
@@ -4230,7 +4394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>400</v>
       </c>
@@ -4247,7 +4411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>400</v>
       </c>
@@ -4264,7 +4428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>500</v>
       </c>
@@ -4281,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>500</v>
       </c>
@@ -4298,7 +4462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>500</v>
       </c>
@@ -4314,8 +4478,11 @@
       <c r="E58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="I58" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>500</v>
       </c>
@@ -4331,8 +4498,11 @@
       <c r="E59">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="I59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>500</v>
       </c>
@@ -4348,8 +4518,11 @@
       <c r="E60">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="I60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>500</v>
       </c>
@@ -4365,8 +4538,11 @@
       <c r="E61">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="I61" s="1">
+        <v>1.8314090000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>500</v>
       </c>
@@ -4382,8 +4558,11 @@
       <c r="E62">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="I62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>1000</v>
       </c>
@@ -4400,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>1000</v>
       </c>
@@ -4751,10 +4930,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5303,7 +5482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>250</v>
       </c>
@@ -5320,7 +5499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>250</v>
       </c>
@@ -5336,8 +5515,11 @@
       <c r="E34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="I34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>250</v>
       </c>
@@ -5353,8 +5535,11 @@
       <c r="E35">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>250</v>
       </c>
@@ -5371,7 +5556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>300</v>
       </c>
@@ -5388,7 +5573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>300</v>
       </c>
@@ -5405,7 +5590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>300</v>
       </c>
@@ -5422,7 +5607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>300</v>
       </c>
@@ -5439,7 +5624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>300</v>
       </c>
@@ -5456,7 +5641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>300</v>
       </c>
@@ -5473,7 +5658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>300</v>
       </c>
@@ -5490,7 +5675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>350</v>
       </c>
@@ -5507,7 +5692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>350</v>
       </c>
@@ -5524,7 +5709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>350</v>
       </c>
@@ -5541,7 +5726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>350</v>
       </c>
@@ -5558,7 +5743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>350</v>
       </c>
@@ -6470,13 +6655,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -6750,7 +6938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>250</v>
       </c>
@@ -6767,7 +6955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>250</v>
       </c>
@@ -6784,7 +6972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>250</v>
       </c>
@@ -6801,7 +6989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>250</v>
       </c>
@@ -6818,7 +7006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>300</v>
       </c>
@@ -6835,7 +7023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>300</v>
       </c>
@@ -6852,7 +7040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>300</v>
       </c>
@@ -6869,7 +7057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>300</v>
       </c>
@@ -6886,7 +7074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>350</v>
       </c>
@@ -6903,7 +7091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>350</v>
       </c>
@@ -6920,7 +7108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>350</v>
       </c>
@@ -6936,8 +7124,11 @@
       <c r="E27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="J27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>350</v>
       </c>
@@ -6953,8 +7144,14 @@
       <c r="E28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H28" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>500</v>
       </c>
@@ -6970,8 +7167,14 @@
       <c r="E29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H29" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>500</v>
       </c>
@@ -6987,8 +7190,14 @@
       <c r="E30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H30" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>500</v>
       </c>
@@ -7004,8 +7213,14 @@
       <c r="E31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H31" s="1">
+        <v>2.5399080000000001</v>
+      </c>
+      <c r="J31" s="1">
+        <v>2.5472109999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>500</v>
       </c>
@@ -7020,6 +7235,12 @@
       </c>
       <c r="E32">
         <v>3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>70</v>
+      </c>
+      <c r="J32" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -7271,13 +7492,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -7551,7 +7775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>200</v>
       </c>
@@ -7568,7 +7792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>200</v>
       </c>
@@ -7585,7 +7809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>200</v>
       </c>
@@ -7602,7 +7826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>200</v>
       </c>
@@ -7619,7 +7843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>200</v>
       </c>
@@ -7636,7 +7860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>250</v>
       </c>
@@ -7653,7 +7877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>250</v>
       </c>
@@ -7670,7 +7894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>250</v>
       </c>
@@ -7687,7 +7911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>250</v>
       </c>
@@ -7704,7 +7928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>250</v>
       </c>
@@ -7721,7 +7945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>250</v>
       </c>
@@ -7738,7 +7962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>300</v>
       </c>
@@ -7755,7 +7979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>300</v>
       </c>
@@ -7772,7 +7996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>300</v>
       </c>
@@ -7788,8 +8012,11 @@
       <c r="E30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="J30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>300</v>
       </c>
@@ -7805,8 +8032,14 @@
       <c r="E31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>300</v>
       </c>
@@ -7822,8 +8055,14 @@
       <c r="E32">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H32" t="s">
+        <v>71</v>
+      </c>
+      <c r="J32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>350</v>
       </c>
@@ -7839,8 +8078,14 @@
       <c r="E33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H33" t="s">
+        <v>72</v>
+      </c>
+      <c r="J33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>350</v>
       </c>
@@ -7856,8 +8101,14 @@
       <c r="E34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H34" s="1">
+        <v>4.1785259999999997</v>
+      </c>
+      <c r="J34" s="1">
+        <v>6.5880669999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>350</v>
       </c>
@@ -7873,8 +8124,14 @@
       <c r="E35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H35" t="s">
+        <v>73</v>
+      </c>
+      <c r="J35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>350</v>
       </c>
@@ -7891,7 +8148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>350</v>
       </c>
@@ -7908,7 +8165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>500</v>
       </c>
@@ -7925,7 +8182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>500</v>
       </c>
@@ -7942,7 +8199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>500</v>
       </c>
@@ -7959,7 +8216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>500</v>
       </c>
@@ -7976,7 +8233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>1000</v>
       </c>
@@ -7993,7 +8250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>1000</v>
       </c>
@@ -8010,7 +8267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>1000</v>
       </c>
@@ -8027,7 +8284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>1000</v>
       </c>
@@ -8044,7 +8301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>2000</v>
       </c>
@@ -8061,7 +8318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>2000</v>
       </c>
@@ -8078,7 +8335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>2000</v>
       </c>
@@ -8126,7 +8383,7 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57:I61"/>
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10898,7 +11155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -13994,10 +14251,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14274,7 +14531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>100</v>
       </c>
@@ -14291,7 +14548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>150</v>
       </c>
@@ -14308,7 +14565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>150</v>
       </c>
@@ -14325,7 +14582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>150</v>
       </c>
@@ -14341,8 +14598,11 @@
       <c r="E20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="N20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>150</v>
       </c>
@@ -14358,8 +14618,11 @@
       <c r="E21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="N21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>150</v>
       </c>
@@ -14375,8 +14638,11 @@
       <c r="E22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="N22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>200</v>
       </c>
@@ -14392,8 +14658,11 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="N23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>200</v>
       </c>
@@ -14409,8 +14678,11 @@
       <c r="E24" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="N24" s="1">
+        <v>1.885448</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>200</v>
       </c>
@@ -14426,8 +14698,11 @@
       <c r="E25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="N25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>200</v>
       </c>
@@ -14444,7 +14719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>200</v>
       </c>
@@ -14461,7 +14736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>250</v>
       </c>
@@ -14478,7 +14753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>250</v>
       </c>
@@ -14495,7 +14770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>250</v>
       </c>
@@ -14512,7 +14787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>250</v>
       </c>
@@ -14529,7 +14804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>250</v>
       </c>

--- a/实验结果/处理结果/处理结果-ETL版本.xlsx
+++ b/实验结果/处理结果/处理结果-ETL版本.xlsx
@@ -9,28 +9,31 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8925" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8925"/>
   </bookViews>
   <sheets>
-    <sheet name="30-30" sheetId="4" r:id="rId1"/>
-    <sheet name="30-30-snr2" sheetId="5" r:id="rId2"/>
-    <sheet name="30-30-snr4" sheetId="6" r:id="rId3"/>
-    <sheet name="40-30" sheetId="1" r:id="rId4"/>
-    <sheet name="40-30-snr2" sheetId="2" r:id="rId5"/>
-    <sheet name="40-30-snr4" sheetId="3" r:id="rId6"/>
-    <sheet name="45-30" sheetId="7" r:id="rId7"/>
-    <sheet name="60-40" sheetId="8" r:id="rId8"/>
-    <sheet name="90-60" sheetId="9" r:id="rId9"/>
-    <sheet name="180-60" sheetId="10" r:id="rId10"/>
-    <sheet name="180-60-e1" sheetId="11" r:id="rId11"/>
-    <sheet name="180-60-e2" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet3" sheetId="15" r:id="rId1"/>
+    <sheet name="30-30" sheetId="4" r:id="rId2"/>
+    <sheet name="30-30-snr2" sheetId="5" r:id="rId3"/>
+    <sheet name="30-30-snr4" sheetId="6" r:id="rId4"/>
+    <sheet name="40-30" sheetId="1" r:id="rId5"/>
+    <sheet name="40-30-snr2" sheetId="2" r:id="rId6"/>
+    <sheet name="40-30-snr4" sheetId="3" r:id="rId7"/>
+    <sheet name="45-30" sheetId="7" r:id="rId8"/>
+    <sheet name="60-40" sheetId="8" r:id="rId9"/>
+    <sheet name="90-60" sheetId="9" r:id="rId10"/>
+    <sheet name="180-60" sheetId="10" r:id="rId11"/>
+    <sheet name="180-60-e1" sheetId="11" r:id="rId12"/>
+    <sheet name="180-60-e2" sheetId="12" r:id="rId13"/>
+    <sheet name="相同半径" sheetId="13" r:id="rId14"/>
+    <sheet name="Sheet2" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="102">
   <si>
     <t>test</t>
   </si>
@@ -286,12 +289,72 @@
     <t>归一过零点</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>45-30</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>90-60</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>60-40</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>a0=1.000000e+00</t>
+  </si>
+  <si>
+    <t>a1=2.714543e-05</t>
+  </si>
+  <si>
+    <t>|r|=9.841059e-01</t>
+  </si>
+  <si>
+    <t>a1=2.724852e-05</t>
+  </si>
+  <si>
+    <t>|r|=9.822550e-01</t>
+  </si>
+  <si>
+    <t>a1=2.742157e-05</t>
+  </si>
+  <si>
+    <t>|r|=9.800135e-01</t>
+  </si>
+  <si>
+    <t>a0=1.095446e+03</t>
+  </si>
+  <si>
+    <t>a1=2.703457e-02</t>
+  </si>
+  <si>
+    <t>|r|=9.891934e-01</t>
+  </si>
+  <si>
+    <t>a0=1.098551e+03</t>
+  </si>
+  <si>
+    <t>a1=2.665721e-02</t>
+  </si>
+  <si>
+    <t>|r|=9.903258e-01</t>
+  </si>
+  <si>
+    <t>a0=1.102798e+03</t>
+  </si>
+  <si>
+    <t>a1=2.652653e-02</t>
+  </si>
+  <si>
+    <t>|r|=9.904456e-01</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,6 +511,15 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -877,11 +949,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1409,10 +1484,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N94"/>
+  <sheetViews>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1439,13 +1527,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1050.96958935879</v>
+        <v>1100.82596211143</v>
       </c>
       <c r="C2">
-        <v>6.57123521208886</v>
+        <v>6.9512188230172098</v>
       </c>
       <c r="D2">
-        <v>6.5698550284923201</v>
+        <v>6.9318910438136596</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1456,13 +1544,13 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>1051.64073689868</v>
+        <v>1102.6480863694201</v>
       </c>
       <c r="C3">
-        <v>6.5759706028472698</v>
+        <v>6.9834073344847898</v>
       </c>
       <c r="D3">
-        <v>6.5734049586088101</v>
+        <v>6.9389679127241504</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1473,13 +1561,13 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>1051.6666352095001</v>
+        <v>1100.5710946249999</v>
       </c>
       <c r="C4">
-        <v>6.5562737809352596</v>
+        <v>6.8981667242831</v>
       </c>
       <c r="D4">
-        <v>6.5399929904325003</v>
+        <v>6.8960410598977404</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1490,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>1051.6568624136401</v>
+        <v>1099.61225066114</v>
       </c>
       <c r="C5">
-        <v>6.60787138345359</v>
+        <v>6.8937040301219303</v>
       </c>
       <c r="D5">
-        <v>6.5967488625170798</v>
+        <v>6.8862763819645103</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1504,715 +1592,1533 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>1055.68337273272</v>
+        <v>1103.4054277370501</v>
       </c>
       <c r="C6">
-        <v>6.7945908007541904</v>
+        <v>7.0340061691821498</v>
       </c>
       <c r="D6">
-        <v>6.7329555492567401</v>
+        <v>6.9955669799397198</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B7">
-        <v>1053.6528103464</v>
+        <v>1104.02634631774</v>
       </c>
       <c r="C7">
-        <v>6.7567638129941399</v>
+        <v>7.0178027664691003</v>
       </c>
       <c r="D7">
-        <v>6.7423811468077002</v>
+        <v>7.0127788639429198</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B8">
-        <v>1053.3410314341199</v>
+        <v>1100.1271202064099</v>
       </c>
       <c r="C8">
-        <v>6.7850513326041302</v>
+        <v>6.9719303725857902</v>
       </c>
       <c r="D8">
-        <v>6.7192634548684502</v>
+        <v>6.9024211768363397</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B9">
-        <v>1053.7605067269201</v>
+        <v>1101.42769901114</v>
       </c>
       <c r="C9">
-        <v>6.8087311171816101</v>
+        <v>7.1014359729074297</v>
       </c>
       <c r="D9">
-        <v>6.7413556338465401</v>
+        <v>7.0110327809687396</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="B10">
-        <v>1059.25991479</v>
+        <v>1099.4020061108399</v>
       </c>
       <c r="C10">
-        <v>7.0377371273883904</v>
+        <v>6.9351063729151701</v>
       </c>
       <c r="D10">
-        <v>6.9680394257951104</v>
+        <v>6.9113691163469904</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="B11">
-        <v>1059.2244984623501</v>
+        <v>1099.9522333627699</v>
       </c>
       <c r="C11">
-        <v>6.9615622511134498</v>
+        <v>6.9966543199766997</v>
       </c>
       <c r="D11">
-        <v>6.9246117656072901</v>
+        <v>6.9862270765065499</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="B12">
-        <v>1060.7522298302299</v>
+        <v>1106.8309492830499</v>
       </c>
       <c r="C12">
-        <v>7.0566606641654399</v>
+        <v>7.0738954716167903</v>
       </c>
       <c r="D12">
-        <v>7.0410318132101102</v>
+        <v>7.0283061903076502</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="B13">
-        <v>1060.4252634797399</v>
+        <v>1105.6051771974801</v>
       </c>
       <c r="C13">
-        <v>7.1581750536309796</v>
+        <v>7.4521031260279003</v>
       </c>
       <c r="D13">
-        <v>7.0688062986570097</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
+        <v>7.3346256976569304</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B14">
-        <v>1059.9484698480701</v>
+        <v>1102.07466340016</v>
       </c>
       <c r="C14">
-        <v>7.4239341360768902</v>
+        <v>7.1036646099035501</v>
       </c>
       <c r="D14">
-        <v>7.2822807196437003</v>
+        <v>7.0628396517389103</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B15">
-        <v>1058.3475218025301</v>
+        <v>1103.98371293986</v>
       </c>
       <c r="C15">
-        <v>7.4117122940602096</v>
+        <v>7.2015061760317698</v>
       </c>
       <c r="D15">
-        <v>7.1760449525747401</v>
+        <v>7.0781040737650098</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B16">
-        <v>1061.45985927847</v>
+        <v>1103.14646730086</v>
       </c>
       <c r="C16">
-        <v>7.3992861201492497</v>
+        <v>7.0741168753444503</v>
       </c>
       <c r="D16">
-        <v>7.2683662158765401</v>
+        <v>7.0436693626524001</v>
       </c>
       <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B17">
-        <v>1062.4497804872401</v>
+        <v>1106.18666310461</v>
       </c>
       <c r="C17">
-        <v>7.2526501512726202</v>
+        <v>7.2042430387328</v>
       </c>
       <c r="D17">
-        <v>7.0792122788334204</v>
+        <v>7.1262381844740101</v>
       </c>
       <c r="E17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="B18">
-        <v>1063.9046617788699</v>
+        <v>1104.69866786789</v>
       </c>
       <c r="C18">
-        <v>7.5997521678127997</v>
+        <v>7.3186684609389703</v>
       </c>
       <c r="D18">
-        <v>7.5146276251844197</v>
+        <v>7.1846668614262397</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="B19">
-        <v>1062.1245862967401</v>
+        <v>1104.33858590059</v>
       </c>
       <c r="C19">
-        <v>7.45766217349854</v>
+        <v>7.5320608122484503</v>
       </c>
       <c r="D19">
-        <v>7.31351835328398</v>
+        <v>7.3233556826114103</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="B20">
-        <v>1067.06905997748</v>
+        <v>1106.9830592911301</v>
       </c>
       <c r="C20">
-        <v>7.6947444518061303</v>
+        <v>7.4557277845933196</v>
       </c>
       <c r="D20">
-        <v>7.4884865682464499</v>
+        <v>7.3873713120750697</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="N20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="B21">
-        <v>1065.2262762589701</v>
+        <v>1106.9001332878199</v>
       </c>
       <c r="C21">
-        <v>7.6180330062098598</v>
+        <v>7.4748677358372602</v>
       </c>
       <c r="D21">
-        <v>7.4700141984310804</v>
+        <v>7.35678122236994</v>
       </c>
       <c r="E21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="N21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="B22">
-        <v>1064.2419481962199</v>
+        <v>1103.5851581546001</v>
       </c>
       <c r="C22">
-        <v>7.8277934435548104</v>
+        <v>7.4203359049182298</v>
       </c>
       <c r="D22">
-        <v>7.6649623965886597</v>
+        <v>7.2383701968085798</v>
       </c>
       <c r="E22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="N22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B23">
-        <v>1065.5619776047499</v>
+        <v>1107.0093834633501</v>
       </c>
       <c r="C23">
-        <v>7.8175342033169803</v>
+        <v>7.6616658511556599</v>
       </c>
       <c r="D23">
-        <v>7.5887706337715004</v>
+        <v>7.5271429713662199</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="J23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="N23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B24">
-        <v>1061.86884977878</v>
+        <v>1105.19773272981</v>
       </c>
       <c r="C24">
-        <v>7.6735959797305702</v>
+        <v>7.8680110827639202</v>
       </c>
       <c r="D24">
-        <v>7.5426530654341404</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+        <v>7.6454730873678098</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1.885448</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B25">
-        <v>1063.04128322765</v>
+        <v>1108.27196338933</v>
       </c>
       <c r="C25">
-        <v>7.8597785129956703</v>
+        <v>7.6070052087310698</v>
       </c>
       <c r="D25">
-        <v>7.6305986790551099</v>
+        <v>7.5569813377882298</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
-      <c r="H25" t="s">
-        <v>65</v>
-      </c>
-      <c r="J25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="N25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B26">
-        <v>1063.9209740558599</v>
+        <v>1107.97513169639</v>
       </c>
       <c r="C26">
-        <v>7.7588148889362003</v>
+        <v>7.5696195131370603</v>
       </c>
       <c r="D26">
-        <v>7.6092586176410597</v>
+        <v>7.5077717600332603</v>
       </c>
       <c r="E26">
         <v>3</v>
       </c>
-      <c r="H26" t="s">
-        <v>66</v>
-      </c>
-      <c r="J26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="B27">
-        <v>1065.3246345857599</v>
+        <v>1106.6238410307001</v>
       </c>
       <c r="C27">
-        <v>8.01672882276522</v>
+        <v>7.6285857266116404</v>
       </c>
       <c r="D27">
-        <v>7.6932121885352496</v>
+        <v>7.4634705151643601</v>
       </c>
       <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <v>2.928938</v>
-      </c>
-      <c r="J27" s="1">
-        <v>2.684755</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="B28">
-        <v>1067.07797367641</v>
+        <v>1110.79458894138</v>
       </c>
       <c r="C28">
-        <v>8.0294009193979203</v>
+        <v>7.78090453411866</v>
       </c>
       <c r="D28">
-        <v>7.8486495451973903</v>
+        <v>7.6957662610736</v>
       </c>
       <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>250</v>
+      </c>
+      <c r="B29">
+        <v>1108.3430153289401</v>
+      </c>
+      <c r="C29">
+        <v>8.0518051043796497</v>
+      </c>
+      <c r="D29">
+        <v>7.8473265656827804</v>
+      </c>
+      <c r="E29">
         <v>1</v>
       </c>
-      <c r="H28" t="s">
-        <v>67</v>
-      </c>
-      <c r="J28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>350</v>
-      </c>
-      <c r="B29">
-        <v>1068.59948935546</v>
-      </c>
-      <c r="C29">
-        <v>8.0690324192773009</v>
-      </c>
-      <c r="D29">
-        <v>7.8117576132259803</v>
-      </c>
-      <c r="E29">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>250</v>
+      </c>
+      <c r="B30">
+        <v>1110.8521843511401</v>
+      </c>
+      <c r="C30">
+        <v>7.7665984112162301</v>
+      </c>
+      <c r="D30">
+        <v>7.6723252582365804</v>
+      </c>
+      <c r="E30">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>350</v>
-      </c>
-      <c r="B30">
-        <v>1070.98885108472</v>
-      </c>
-      <c r="C30">
-        <v>8.0799040734633003</v>
-      </c>
-      <c r="D30">
-        <v>7.8280568199349503</v>
-      </c>
-      <c r="E30">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>250</v>
+      </c>
+      <c r="B31">
+        <v>1112.62151528296</v>
+      </c>
+      <c r="C31">
+        <v>7.7963036754860502</v>
+      </c>
+      <c r="D31">
+        <v>7.6609054651221999</v>
+      </c>
+      <c r="E31">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>500</v>
-      </c>
-      <c r="B31">
-        <v>1075.05978216526</v>
-      </c>
-      <c r="C31">
-        <v>8.4025238947572696</v>
-      </c>
-      <c r="D31">
-        <v>8.1115585345310297</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="B32">
-        <v>1074.17936608027</v>
+        <v>1110.2340158376701</v>
       </c>
       <c r="C32">
-        <v>8.5223095373985291</v>
+        <v>7.9988854037619896</v>
       </c>
       <c r="D32">
-        <v>8.2001757470740806</v>
+        <v>7.80153613975639</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="B33">
-        <v>1072.5695039099801</v>
+        <v>1113.7618422176099</v>
       </c>
       <c r="C33">
-        <v>8.47253135973539</v>
+        <v>8.0316085416688807</v>
       </c>
       <c r="D33">
-        <v>8.2131076022441007</v>
+        <v>7.8349102181339996</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="B34">
-        <v>1073.90116554416</v>
+        <v>1114.5118767006099</v>
       </c>
       <c r="C34">
-        <v>8.6719618199799999</v>
+        <v>8.1542212506797505</v>
       </c>
       <c r="D34">
-        <v>8.3085479900880195</v>
+        <v>8.1219736128158093</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="B35">
-        <v>1075.50299147848</v>
+        <v>1108.0146819322399</v>
       </c>
       <c r="C35">
-        <v>8.5583069995833405</v>
+        <v>7.9800238041689502</v>
       </c>
       <c r="D35">
-        <v>8.3076654869890305</v>
+        <v>7.9517486159498398</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="B36">
-        <v>1087.6079133479</v>
+        <v>1113.1398579628101</v>
       </c>
       <c r="C36">
-        <v>9.8221564690332208</v>
+        <v>7.9628735939229296</v>
       </c>
       <c r="D36">
-        <v>9.1453103011332804</v>
+        <v>7.8523560333196096</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="B37">
-        <v>1089.4886049785</v>
+        <v>1112.3486774677201</v>
       </c>
       <c r="C37">
-        <v>10.057268510268299</v>
+        <v>8.0757194466879305</v>
       </c>
       <c r="D37">
-        <v>9.3096123501392896</v>
+        <v>7.8887945874195102</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="B38">
-        <v>1089.17309217712</v>
+        <v>1112.4157375638899</v>
       </c>
       <c r="C38">
-        <v>9.8724711250878396</v>
+        <v>8.3416237530987196</v>
       </c>
       <c r="D38">
-        <v>9.2125326572639299</v>
+        <v>8.0573548397448302</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="B39">
-        <v>1089.8913374088499</v>
+        <v>1113.5354782204299</v>
       </c>
       <c r="C39">
-        <v>10.099276653078499</v>
+        <v>8.4148673738356798</v>
       </c>
       <c r="D39">
-        <v>9.2804438969701994</v>
+        <v>8.2067805508622307</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="B40">
-        <v>1090.3608031270901</v>
+        <v>1112.4655044126901</v>
       </c>
       <c r="C40">
-        <v>10.0305075150462</v>
+        <v>8.1273316182070605</v>
       </c>
       <c r="D40">
-        <v>9.3333869769932303</v>
+        <v>7.9212337840802798</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>2000</v>
+        <v>350</v>
       </c>
       <c r="B41">
-        <v>1115.9165950415299</v>
+        <v>1113.28171455963</v>
       </c>
       <c r="C41">
-        <v>12.4949160514865</v>
+        <v>8.2338790000813304</v>
       </c>
       <c r="D41">
-        <v>10.922125568893801</v>
+        <v>8.0241623096422305</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>2000</v>
+        <v>350</v>
       </c>
       <c r="B42">
-        <v>1113.3521355939199</v>
+        <v>1109.9681441671401</v>
       </c>
       <c r="C42">
-        <v>11.9907681818678</v>
+        <v>8.14741234703415</v>
       </c>
       <c r="D42">
-        <v>10.441679897675799</v>
+        <v>8.0919223986809801</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="B43">
-        <v>1113.64666571923</v>
+        <v>1113.0125833391901</v>
       </c>
       <c r="C43">
-        <v>11.993516446360101</v>
+        <v>8.4112510154400297</v>
       </c>
       <c r="D43">
-        <v>10.389587830466899</v>
-      </c>
-      <c r="E43">
-        <v>2</v>
+        <v>8.1124020704798792</v>
+      </c>
+      <c r="E43" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="B44">
-        <v>1114.6425964177199</v>
+        <v>1111.4291791854901</v>
       </c>
       <c r="C44">
-        <v>12.579035976967599</v>
+        <v>8.6021533570630009</v>
       </c>
       <c r="D44">
-        <v>10.7966792846041</v>
+        <v>8.2605656271562307</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45">
+        <v>400</v>
+      </c>
+      <c r="B45">
+        <v>1115.1162714867601</v>
+      </c>
+      <c r="C45">
+        <v>8.3821288125447708</v>
+      </c>
+      <c r="D45">
+        <v>8.0852103955639993</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>400</v>
+      </c>
+      <c r="B46">
+        <v>1111.2194735926801</v>
+      </c>
+      <c r="C46">
+        <v>8.4951987772966504</v>
+      </c>
+      <c r="D46">
+        <v>8.2370611746123394</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>400</v>
+      </c>
+      <c r="B47">
+        <v>1108.67295077224</v>
+      </c>
+      <c r="C47">
+        <v>8.3247590757979104</v>
+      </c>
+      <c r="D47">
+        <v>8.1704353094464892</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>400</v>
+      </c>
+      <c r="B48">
+        <v>1115.1499570400999</v>
+      </c>
+      <c r="C48">
+        <v>8.3800347457755393</v>
+      </c>
+      <c r="D48">
+        <v>8.0294009193979203</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>500</v>
+      </c>
+      <c r="B49">
+        <v>1114.34670263625</v>
+      </c>
+      <c r="C49">
+        <v>8.7611570653999191</v>
+      </c>
+      <c r="D49">
+        <v>8.41004623151691</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>500</v>
+      </c>
+      <c r="B50">
+        <v>1116.4723710734499</v>
+      </c>
+      <c r="C50">
+        <v>8.8233105943755703</v>
+      </c>
+      <c r="D50">
+        <v>8.4847693243505606</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>500</v>
+      </c>
+      <c r="B51">
+        <v>1116.94779286781</v>
+      </c>
+      <c r="C51">
+        <v>8.6979493041893097</v>
+      </c>
+      <c r="D51">
+        <v>8.3321478026456699</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>500</v>
+      </c>
+      <c r="B52">
+        <v>1118.8062706532401</v>
+      </c>
+      <c r="C52">
+        <v>8.8239730830991601</v>
+      </c>
+      <c r="D52">
+        <v>8.5121231594368805</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>500</v>
+      </c>
+      <c r="B53">
+        <v>1115.21755693724</v>
+      </c>
+      <c r="C53">
+        <v>9.0773563921165206</v>
+      </c>
+      <c r="D53">
+        <v>8.7227984710768105</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>600</v>
+      </c>
+      <c r="B54">
+        <v>1120.24604654019</v>
+      </c>
+      <c r="C54">
+        <v>8.9564948075726498</v>
+      </c>
+      <c r="D54">
+        <v>8.6147626272084192</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>600</v>
+      </c>
+      <c r="B55">
+        <v>1124.59316350418</v>
+      </c>
+      <c r="C55">
+        <v>9.2778687739661798</v>
+      </c>
+      <c r="D55">
+        <v>8.9316341263320496</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>600</v>
+      </c>
+      <c r="B56">
+        <v>1120.8180743819</v>
+      </c>
+      <c r="C56">
+        <v>9.0111410574767792</v>
+      </c>
+      <c r="D56">
+        <v>8.8793149573180301</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>600</v>
+      </c>
+      <c r="B57">
+        <v>1120.56187403178</v>
+      </c>
+      <c r="C57">
+        <v>9.08544086944908</v>
+      </c>
+      <c r="D57">
+        <v>8.7657306499557901</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>600</v>
+      </c>
+      <c r="B58">
+        <v>1119.1827022636</v>
+      </c>
+      <c r="C58">
+        <v>9.0942454477779808</v>
+      </c>
+      <c r="D58">
+        <v>8.6065624384762494</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>600</v>
+      </c>
+      <c r="B59">
+        <v>1119.96819666432</v>
+      </c>
+      <c r="C59">
+        <v>9.1292879409346508</v>
+      </c>
+      <c r="D59">
+        <v>8.6883061691067596</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>700</v>
+      </c>
+      <c r="B60">
+        <v>1125.88924982858</v>
+      </c>
+      <c r="C60">
+        <v>9.3839675039162493</v>
+      </c>
+      <c r="D60">
+        <v>8.9616208397438992</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>700</v>
+      </c>
+      <c r="B61">
+        <v>1124.83977933605</v>
+      </c>
+      <c r="C61">
+        <v>9.5671633442942507</v>
+      </c>
+      <c r="D61">
+        <v>9.1449536057350205</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>700</v>
+      </c>
+      <c r="B62">
+        <v>1122.19552433627</v>
+      </c>
+      <c r="C62">
+        <v>9.3557945156640603</v>
+      </c>
+      <c r="D62">
+        <v>8.9952606374234598</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>700</v>
+      </c>
+      <c r="B63">
+        <v>1122.3765268924101</v>
+      </c>
+      <c r="C63">
+        <v>9.3263152908473206</v>
+      </c>
+      <c r="D63">
+        <v>8.8379087419660003</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>700</v>
+      </c>
+      <c r="B64">
+        <v>1125.4112221842799</v>
+      </c>
+      <c r="C64">
+        <v>9.3820836081598902</v>
+      </c>
+      <c r="D64">
+        <v>8.8799860451381107</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>800</v>
+      </c>
+      <c r="B65">
+        <v>1125.3520569457301</v>
+      </c>
+      <c r="C65">
+        <v>9.88641046293389</v>
+      </c>
+      <c r="D65">
+        <v>9.2804438969701994</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>800</v>
+      </c>
+      <c r="B66">
+        <v>1125.7089708619501</v>
+      </c>
+      <c r="C66">
+        <v>9.9978290702776995</v>
+      </c>
+      <c r="D66">
+        <v>9.3662910641429598</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>800</v>
+      </c>
+      <c r="B67">
+        <v>1130.49542004777</v>
+      </c>
+      <c r="C67">
+        <v>10.205426819021501</v>
+      </c>
+      <c r="D67">
+        <v>9.4950424111614495</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>800</v>
+      </c>
+      <c r="B68">
+        <v>1124.9648938626799</v>
+      </c>
+      <c r="C68">
+        <v>9.7236503422245608</v>
+      </c>
+      <c r="D68">
+        <v>9.2143444068288307</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>800</v>
+      </c>
+      <c r="B69">
+        <v>1124.4438985961999</v>
+      </c>
+      <c r="C69">
+        <v>9.7670637696339497</v>
+      </c>
+      <c r="D69">
+        <v>9.1456670258301003</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>800</v>
+      </c>
+      <c r="B70">
+        <v>1122.0683084361599</v>
+      </c>
+      <c r="C70">
+        <v>9.7212059079279296</v>
+      </c>
+      <c r="D70">
+        <v>9.3659157502405499</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>900</v>
+      </c>
+      <c r="B71">
+        <v>1127.1662139428699</v>
+      </c>
+      <c r="C71">
+        <v>9.9978290702776995</v>
+      </c>
+      <c r="D71">
+        <v>9.1381819535024995</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>900</v>
+      </c>
+      <c r="B72">
+        <v>1127.7034284901799</v>
+      </c>
+      <c r="C72">
+        <v>10.308171407677399</v>
+      </c>
+      <c r="D72">
+        <v>9.5467702121334295</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>900</v>
+      </c>
+      <c r="B73">
+        <v>1128.1386613638099</v>
+      </c>
+      <c r="C73">
+        <v>10.364482664259</v>
+      </c>
+      <c r="D73">
+        <v>9.4826880394015003</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>900</v>
+      </c>
+      <c r="B74">
+        <v>1128.13715762266</v>
+      </c>
+      <c r="C74">
+        <v>10.038387066319901</v>
+      </c>
+      <c r="D74">
+        <v>9.3300357955030506</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>900</v>
+      </c>
+      <c r="B75">
+        <v>1126.7370446140601</v>
+      </c>
+      <c r="C75">
+        <v>9.9263634568772208</v>
+      </c>
+      <c r="D75">
+        <v>9.3651652197247195</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>1000</v>
+      </c>
+      <c r="B76">
+        <v>1132.9628993720701</v>
+      </c>
+      <c r="C76">
+        <v>10.129149703758801</v>
+      </c>
+      <c r="D76">
+        <v>9.5373901980787803</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>1000</v>
+      </c>
+      <c r="B77">
+        <v>1132.11081457052</v>
+      </c>
+      <c r="C77">
+        <v>10.6656333217372</v>
+      </c>
+      <c r="D77">
+        <v>9.8480795823716605</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>1000</v>
+      </c>
+      <c r="B78">
+        <v>1128.7093738265701</v>
+      </c>
+      <c r="C78">
+        <v>10.607803641451801</v>
+      </c>
+      <c r="D78">
+        <v>9.8113313684909293</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>1000</v>
+      </c>
+      <c r="B79">
+        <v>1131.6157106875601</v>
+      </c>
+      <c r="C79">
+        <v>10.314703556251599</v>
+      </c>
+      <c r="D79">
+        <v>9.5144167510151796</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>1000</v>
+      </c>
+      <c r="B80">
+        <v>1131.79615430692</v>
+      </c>
+      <c r="C80">
+        <v>10.6148027482351</v>
+      </c>
+      <c r="D80">
+        <v>9.7843860796264508</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>1000</v>
+      </c>
+      <c r="B81">
+        <v>1130.1166612237901</v>
+      </c>
+      <c r="C81">
+        <v>10.1904268377038</v>
+      </c>
+      <c r="D81">
+        <v>9.4792196951583101</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>1500</v>
+      </c>
+      <c r="B82">
+        <v>1139.3568924272799</v>
+      </c>
+      <c r="C82">
+        <v>11.183300923279401</v>
+      </c>
+      <c r="D82">
+        <v>10.1336260438985</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>1500</v>
+      </c>
+      <c r="B83">
+        <v>1143.1783802616601</v>
+      </c>
+      <c r="C83">
+        <v>11.726953589102701</v>
+      </c>
+      <c r="D83">
+        <v>10.4599883231843</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>1500</v>
+      </c>
+      <c r="B84">
+        <v>1141.93818798496</v>
+      </c>
+      <c r="C84">
+        <v>11.1890078161098</v>
+      </c>
+      <c r="D84">
+        <v>10.1596801972882</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>1500</v>
+      </c>
+      <c r="B85">
+        <v>1142.28559891841</v>
+      </c>
+      <c r="C85">
+        <v>11.812464095022801</v>
+      </c>
+      <c r="D85">
+        <v>10.346101297848801</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>1500</v>
+      </c>
+      <c r="B86">
+        <v>1141.35765793069</v>
+      </c>
+      <c r="C86">
+        <v>11.349552783069001</v>
+      </c>
+      <c r="D86">
+        <v>10.196329738152199</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>1500</v>
+      </c>
+      <c r="B87">
+        <v>1139.1445119345599</v>
+      </c>
+      <c r="C87">
+        <v>11.782900027016201</v>
+      </c>
+      <c r="D87">
+        <v>10.472559759851</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>1500</v>
+      </c>
+      <c r="B88">
+        <v>1140.1488388457501</v>
+      </c>
+      <c r="C88">
+        <v>11.4587621789883</v>
+      </c>
+      <c r="D88">
+        <v>10.3414006319293</v>
+      </c>
+      <c r="E88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89">
         <v>2000</v>
       </c>
-      <c r="B45">
-        <v>1114.0867644233899</v>
-      </c>
-      <c r="C45">
-        <v>12.3448045690205</v>
-      </c>
-      <c r="D45">
-        <v>10.8380934001946</v>
-      </c>
-      <c r="E45">
+      <c r="B89">
+        <v>1149.7883684087701</v>
+      </c>
+      <c r="C89">
+        <v>12.373964504331999</v>
+      </c>
+      <c r="D89">
+        <v>10.9274991711867</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>2000</v>
+      </c>
+      <c r="B90">
+        <v>1153.4039186405901</v>
+      </c>
+      <c r="C90">
+        <v>12.260673525323501</v>
+      </c>
+      <c r="D90">
+        <v>10.657541189769301</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>2000</v>
+      </c>
+      <c r="B91">
+        <v>1155.05281673384</v>
+      </c>
+      <c r="C91">
+        <v>12.851674875666699</v>
+      </c>
+      <c r="D91">
+        <v>11.363203321241</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>2000</v>
+      </c>
+      <c r="B92">
+        <v>1148.81942909638</v>
+      </c>
+      <c r="C92">
+        <v>11.9983300979864</v>
+      </c>
+      <c r="D92">
+        <v>10.6859298644343</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>2000</v>
+      </c>
+      <c r="B93">
+        <v>1148.3723700255</v>
+      </c>
+      <c r="C93">
+        <v>12.2870655737094</v>
+      </c>
+      <c r="D93">
+        <v>10.758241296980801</v>
+      </c>
+      <c r="E93">
         <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>2000</v>
+      </c>
+      <c r="B94">
+        <v>1149.8025100785901</v>
+      </c>
+      <c r="C94">
+        <v>12.232261975878901</v>
+      </c>
+      <c r="D94">
+        <v>10.7618627890881</v>
+      </c>
+      <c r="E94">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2224,7 +3130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
@@ -3483,7 +4389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I83"/>
   <sheetViews>
@@ -4928,7 +5834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I100"/>
   <sheetViews>
@@ -6653,7 +7559,1458 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1092.6822649999999</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1095.2</v>
+      </c>
+      <c r="F2">
+        <f>(B2+I2)/2</f>
+        <v>1095.8411325</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>1094.6340270000001</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>1097.5</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F18" si="0">(B3+I3)/2</f>
+        <v>1097.9399100000001</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <v>1101.245793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>1095.628101</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>1199.44</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1100.13302</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>1104.637939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>150</v>
+      </c>
+      <c r="B5">
+        <v>1098.080956</v>
+      </c>
+      <c r="D5">
+        <v>150</v>
+      </c>
+      <c r="E5">
+        <v>1100.98</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1101.6910385000001</v>
+      </c>
+      <c r="H5">
+        <v>150</v>
+      </c>
+      <c r="I5">
+        <v>1105.301121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>200</v>
+      </c>
+      <c r="B6">
+        <v>1099.5810389999999</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6">
+        <v>1103</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1103.2983245</v>
+      </c>
+      <c r="H6">
+        <v>200</v>
+      </c>
+      <c r="I6">
+        <v>1107.0156099999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>250</v>
+      </c>
+      <c r="B7">
+        <v>1102.0936389999999</v>
+      </c>
+      <c r="D7">
+        <v>250</v>
+      </c>
+      <c r="E7">
+        <v>1105.77</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1106.3313515</v>
+      </c>
+      <c r="H7">
+        <v>250</v>
+      </c>
+      <c r="I7">
+        <v>1110.569064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>300</v>
+      </c>
+      <c r="B8">
+        <v>1104.2248669999999</v>
+      </c>
+      <c r="D8">
+        <v>300</v>
+      </c>
+      <c r="E8">
+        <v>1107.68</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1108.290127</v>
+      </c>
+      <c r="H8">
+        <v>300</v>
+      </c>
+      <c r="I8">
+        <v>1112.3553870000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>350</v>
+      </c>
+      <c r="B9">
+        <v>1105.357422</v>
+      </c>
+      <c r="D9">
+        <v>350</v>
+      </c>
+      <c r="E9">
+        <v>1108.99</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1109.3453690000001</v>
+      </c>
+      <c r="H9">
+        <v>350</v>
+      </c>
+      <c r="I9">
+        <v>1113.333316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>400</v>
+      </c>
+      <c r="B10">
+        <v>1108.3897689999999</v>
+      </c>
+      <c r="D10">
+        <v>400</v>
+      </c>
+      <c r="E10">
+        <v>1110.56</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1111.4115859999999</v>
+      </c>
+      <c r="H10">
+        <v>400</v>
+      </c>
+      <c r="I10">
+        <v>1114.433403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>500</v>
+      </c>
+      <c r="B11">
+        <v>1109.637019</v>
+      </c>
+      <c r="D11">
+        <v>500</v>
+      </c>
+      <c r="E11">
+        <v>1112.1300000000001</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1112.9975789999999</v>
+      </c>
+      <c r="H11">
+        <v>500</v>
+      </c>
+      <c r="I11">
+        <v>1116.3581389999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>600</v>
+      </c>
+      <c r="B12">
+        <v>1113.503729</v>
+      </c>
+      <c r="D12">
+        <v>600</v>
+      </c>
+      <c r="E12">
+        <v>1116.98</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1117.1993695000001</v>
+      </c>
+      <c r="H12">
+        <v>600</v>
+      </c>
+      <c r="I12">
+        <v>1120.89501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>700</v>
+      </c>
+      <c r="B13">
+        <v>1117.1550339999999</v>
+      </c>
+      <c r="D13">
+        <v>700</v>
+      </c>
+      <c r="E13">
+        <v>1119.22</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1120.6487474999999</v>
+      </c>
+      <c r="H13">
+        <v>700</v>
+      </c>
+      <c r="I13">
+        <v>1124.1424609999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>800</v>
+      </c>
+      <c r="B14">
+        <v>1119.701247</v>
+      </c>
+      <c r="D14">
+        <v>800</v>
+      </c>
+      <c r="E14">
+        <v>1121.77</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1122.603419</v>
+      </c>
+      <c r="H14">
+        <v>800</v>
+      </c>
+      <c r="I14">
+        <v>1125.5055910000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>900</v>
+      </c>
+      <c r="B15">
+        <v>1122.48902</v>
+      </c>
+      <c r="D15">
+        <v>900</v>
+      </c>
+      <c r="E15">
+        <v>1124.93</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1125.0327605</v>
+      </c>
+      <c r="H15">
+        <v>900</v>
+      </c>
+      <c r="I15">
+        <v>1127.576501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>1000</v>
+      </c>
+      <c r="B16">
+        <v>1124.51198</v>
+      </c>
+      <c r="D16">
+        <v>1000</v>
+      </c>
+      <c r="E16">
+        <v>1127.1199999999999</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1127.8652910000001</v>
+      </c>
+      <c r="H16">
+        <v>1000</v>
+      </c>
+      <c r="I16">
+        <v>1131.2186019999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>1500</v>
+      </c>
+      <c r="B17">
+        <v>1133.9691600000001</v>
+      </c>
+      <c r="D17">
+        <v>1500</v>
+      </c>
+      <c r="E17">
+        <v>1136.8119999999999</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1137.5138704999999</v>
+      </c>
+      <c r="H17">
+        <v>1500</v>
+      </c>
+      <c r="I17">
+        <v>1141.058581</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>2000</v>
+      </c>
+      <c r="B18">
+        <v>1145.876841</v>
+      </c>
+      <c r="D18">
+        <v>2000</v>
+      </c>
+      <c r="E18">
+        <v>1148.528</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>1149.3750380000001</v>
+      </c>
+      <c r="H18">
+        <v>2000</v>
+      </c>
+      <c r="I18">
+        <v>1152.873235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>2.5647859999999999E-3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.7241589999999999E-3</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2.9144629999999999E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>2.098058</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.9556960000000001</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1.9338500000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1050.96958935879</v>
+      </c>
+      <c r="C2">
+        <v>6.57123521208886</v>
+      </c>
+      <c r="D2">
+        <v>6.5698550284923201</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1051.64073689868</v>
+      </c>
+      <c r="C3">
+        <v>6.5759706028472698</v>
+      </c>
+      <c r="D3">
+        <v>6.5734049586088101</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>AVERAGE(B2:B5)</f>
+        <v>1051.4834559701524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1051.6666352095001</v>
+      </c>
+      <c r="C4">
+        <v>6.5562737809352596</v>
+      </c>
+      <c r="D4">
+        <v>6.5399929904325003</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <f>AVERAGE(B6:B9)</f>
+        <v>1054.1094303100399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1051.6568624136401</v>
+      </c>
+      <c r="C5">
+        <v>6.60787138345359</v>
+      </c>
+      <c r="D5">
+        <v>6.5967488625170798</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>150</v>
+      </c>
+      <c r="P5">
+        <f>AVERAGE(B10:B13)</f>
+        <v>1059.91547664058</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>1055.68337273272</v>
+      </c>
+      <c r="C6">
+        <v>6.7945908007541904</v>
+      </c>
+      <c r="D6">
+        <v>6.7329555492567401</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>200</v>
+      </c>
+      <c r="P6">
+        <f>AVERAGE(B14:B17)</f>
+        <v>1060.5514078540775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>1053.6528103464</v>
+      </c>
+      <c r="C7">
+        <v>6.7567638129941399</v>
+      </c>
+      <c r="D7">
+        <v>6.7423811468077002</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>250</v>
+      </c>
+      <c r="P7">
+        <f>AVERAGE(B18:B22)</f>
+        <v>1064.1133065016559</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>1053.3410314341199</v>
+      </c>
+      <c r="C8">
+        <v>6.7850513326041302</v>
+      </c>
+      <c r="D8">
+        <v>6.7192634548684502</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>300</v>
+      </c>
+      <c r="P8">
+        <f>AVERAGE(B23:B26)</f>
+        <v>1064.34827116676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <v>1053.7605067269201</v>
+      </c>
+      <c r="C9">
+        <v>6.8087311171816101</v>
+      </c>
+      <c r="D9">
+        <v>6.7413556338465401</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>350</v>
+      </c>
+      <c r="P9">
+        <f>AVERAGE(B27:B30)</f>
+        <v>1067.9977371755876</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>150</v>
+      </c>
+      <c r="B10">
+        <v>1059.25991479</v>
+      </c>
+      <c r="C10">
+        <v>7.0377371273883904</v>
+      </c>
+      <c r="D10">
+        <v>6.9680394257951104</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>500</v>
+      </c>
+      <c r="P10">
+        <f>AVERAGE(B31:B35)</f>
+        <v>1074.2425618356299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>150</v>
+      </c>
+      <c r="B11">
+        <v>1059.2244984623501</v>
+      </c>
+      <c r="C11">
+        <v>6.9615622511134498</v>
+      </c>
+      <c r="D11">
+        <v>6.9246117656072901</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1000</v>
+      </c>
+      <c r="P11">
+        <f>AVERAGE(B36:B40)</f>
+        <v>1089.304350207892</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>150</v>
+      </c>
+      <c r="B12">
+        <v>1060.7522298302299</v>
+      </c>
+      <c r="C12">
+        <v>7.0566606641654399</v>
+      </c>
+      <c r="D12">
+        <v>7.0410318132101102</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>2000</v>
+      </c>
+      <c r="P12">
+        <f>AVERAGE(B41:B45)</f>
+        <v>1114.3289514391581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>150</v>
+      </c>
+      <c r="B13">
+        <v>1060.4252634797399</v>
+      </c>
+      <c r="C13">
+        <v>7.1581750536309796</v>
+      </c>
+      <c r="D13">
+        <v>7.0688062986570097</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>200</v>
+      </c>
+      <c r="B14">
+        <v>1059.9484698480701</v>
+      </c>
+      <c r="C14">
+        <v>7.4239341360768902</v>
+      </c>
+      <c r="D14">
+        <v>7.2822807196437003</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>200</v>
+      </c>
+      <c r="B15">
+        <v>1058.3475218025301</v>
+      </c>
+      <c r="C15">
+        <v>7.4117122940602096</v>
+      </c>
+      <c r="D15">
+        <v>7.1760449525747401</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>200</v>
+      </c>
+      <c r="B16">
+        <v>1061.45985927847</v>
+      </c>
+      <c r="C16">
+        <v>7.3992861201492497</v>
+      </c>
+      <c r="D16">
+        <v>7.2683662158765401</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>200</v>
+      </c>
+      <c r="B17">
+        <v>1062.4497804872401</v>
+      </c>
+      <c r="C17">
+        <v>7.2526501512726202</v>
+      </c>
+      <c r="D17">
+        <v>7.0792122788334204</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>250</v>
+      </c>
+      <c r="B18">
+        <v>1063.9046617788699</v>
+      </c>
+      <c r="C18">
+        <v>7.5997521678127997</v>
+      </c>
+      <c r="D18">
+        <v>7.5146276251844197</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>250</v>
+      </c>
+      <c r="B19">
+        <v>1062.1245862967401</v>
+      </c>
+      <c r="C19">
+        <v>7.45766217349854</v>
+      </c>
+      <c r="D19">
+        <v>7.31351835328398</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>250</v>
+      </c>
+      <c r="B20">
+        <v>1065.06905997748</v>
+      </c>
+      <c r="C20">
+        <v>7.6947444518061303</v>
+      </c>
+      <c r="D20">
+        <v>7.4884865682464499</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>250</v>
+      </c>
+      <c r="B21">
+        <v>1065.2262762589701</v>
+      </c>
+      <c r="C21">
+        <v>7.6180330062098598</v>
+      </c>
+      <c r="D21">
+        <v>7.4700141984310804</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>250</v>
+      </c>
+      <c r="B22">
+        <v>1064.2419481962199</v>
+      </c>
+      <c r="C22">
+        <v>7.8277934435548104</v>
+      </c>
+      <c r="D22">
+        <v>7.6649623965886597</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>300</v>
+      </c>
+      <c r="B23">
+        <v>1065.5619776047499</v>
+      </c>
+      <c r="C23">
+        <v>7.8175342033169803</v>
+      </c>
+      <c r="D23">
+        <v>7.5887706337715004</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>300</v>
+      </c>
+      <c r="B24">
+        <v>1064.86884977878</v>
+      </c>
+      <c r="C24">
+        <v>7.6735959797305702</v>
+      </c>
+      <c r="D24">
+        <v>7.5426530654341404</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>300</v>
+      </c>
+      <c r="B25">
+        <v>1063.04128322765</v>
+      </c>
+      <c r="C25">
+        <v>7.8597785129956703</v>
+      </c>
+      <c r="D25">
+        <v>7.6305986790551099</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>300</v>
+      </c>
+      <c r="B26">
+        <v>1063.9209740558599</v>
+      </c>
+      <c r="C26">
+        <v>7.7588148889362003</v>
+      </c>
+      <c r="D26">
+        <v>7.6092586176410597</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="H26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>350</v>
+      </c>
+      <c r="B27">
+        <v>1065.3246345857599</v>
+      </c>
+      <c r="C27">
+        <v>8.01672882276522</v>
+      </c>
+      <c r="D27">
+        <v>7.6932121885352496</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2.928938</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2.684755</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>350</v>
+      </c>
+      <c r="B28">
+        <v>1067.07797367641</v>
+      </c>
+      <c r="C28">
+        <v>8.0294009193979203</v>
+      </c>
+      <c r="D28">
+        <v>7.8486495451973903</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>350</v>
+      </c>
+      <c r="B29">
+        <v>1068.59948935546</v>
+      </c>
+      <c r="C29">
+        <v>8.0690324192773009</v>
+      </c>
+      <c r="D29">
+        <v>7.8117576132259803</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>350</v>
+      </c>
+      <c r="B30">
+        <v>1070.98885108472</v>
+      </c>
+      <c r="C30">
+        <v>8.0799040734633003</v>
+      </c>
+      <c r="D30">
+        <v>7.8280568199349503</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>500</v>
+      </c>
+      <c r="B31">
+        <v>1075.05978216526</v>
+      </c>
+      <c r="C31">
+        <v>8.4025238947572696</v>
+      </c>
+      <c r="D31">
+        <v>8.1115585345310297</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>500</v>
+      </c>
+      <c r="B32">
+        <v>1074.17936608027</v>
+      </c>
+      <c r="C32">
+        <v>8.5223095373985291</v>
+      </c>
+      <c r="D32">
+        <v>8.2001757470740806</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>500</v>
+      </c>
+      <c r="B33">
+        <v>1072.5695039099801</v>
+      </c>
+      <c r="C33">
+        <v>8.47253135973539</v>
+      </c>
+      <c r="D33">
+        <v>8.2131076022441007</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>500</v>
+      </c>
+      <c r="B34">
+        <v>1073.90116554416</v>
+      </c>
+      <c r="C34">
+        <v>8.6719618199799999</v>
+      </c>
+      <c r="D34">
+        <v>8.3085479900880195</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>500</v>
+      </c>
+      <c r="B35">
+        <v>1075.50299147848</v>
+      </c>
+      <c r="C35">
+        <v>8.5583069995833405</v>
+      </c>
+      <c r="D35">
+        <v>8.3076654869890305</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>1000</v>
+      </c>
+      <c r="B36">
+        <v>1087.6079133479</v>
+      </c>
+      <c r="C36">
+        <v>9.8221564690332208</v>
+      </c>
+      <c r="D36">
+        <v>9.1453103011332804</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>1000</v>
+      </c>
+      <c r="B37">
+        <v>1089.4886049785</v>
+      </c>
+      <c r="C37">
+        <v>10.057268510268299</v>
+      </c>
+      <c r="D37">
+        <v>9.3096123501392896</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>1000</v>
+      </c>
+      <c r="B38">
+        <v>1089.17309217712</v>
+      </c>
+      <c r="C38">
+        <v>9.8724711250878396</v>
+      </c>
+      <c r="D38">
+        <v>9.2125326572639299</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>1000</v>
+      </c>
+      <c r="B39">
+        <v>1089.8913374088499</v>
+      </c>
+      <c r="C39">
+        <v>10.099276653078499</v>
+      </c>
+      <c r="D39">
+        <v>9.2804438969701994</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>1000</v>
+      </c>
+      <c r="B40">
+        <v>1090.3608031270901</v>
+      </c>
+      <c r="C40">
+        <v>10.0305075150462</v>
+      </c>
+      <c r="D40">
+        <v>9.3333869769932303</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>2000</v>
+      </c>
+      <c r="B41">
+        <v>1115.9165950415299</v>
+      </c>
+      <c r="C41">
+        <v>12.4949160514865</v>
+      </c>
+      <c r="D41">
+        <v>10.922125568893801</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>2000</v>
+      </c>
+      <c r="B42">
+        <v>1113.3521355939199</v>
+      </c>
+      <c r="C42">
+        <v>11.9907681818678</v>
+      </c>
+      <c r="D42">
+        <v>10.441679897675799</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>2000</v>
+      </c>
+      <c r="B43">
+        <v>1113.64666571923</v>
+      </c>
+      <c r="C43">
+        <v>11.993516446360101</v>
+      </c>
+      <c r="D43">
+        <v>10.389587830466899</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>2000</v>
+      </c>
+      <c r="B44">
+        <v>1114.6425964177199</v>
+      </c>
+      <c r="C44">
+        <v>12.579035976967599</v>
+      </c>
+      <c r="D44">
+        <v>10.7966792846041</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>2000</v>
+      </c>
+      <c r="B45">
+        <v>1114.0867644233899</v>
+      </c>
+      <c r="C45">
+        <v>12.3448045690205</v>
+      </c>
+      <c r="D45">
+        <v>10.8380934001946</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
@@ -7490,7 +9847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
@@ -8378,12 +10735,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8394,7 +10751,7 @@
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -8411,7 +10768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8427,8 +10784,15 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>AVERAGE(B2:B5)</f>
+        <v>1114.2441758780301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0</v>
       </c>
@@ -8444,8 +10808,15 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <f>AVERAGE(B6:B10)</f>
+        <v>1118.4812333640159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -8461,8 +10832,15 @@
       <c r="E4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L4">
+        <v>150</v>
+      </c>
+      <c r="M4">
+        <f>AVERAGE(B11:B17)</f>
+        <v>1121.0329021216671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0</v>
       </c>
@@ -8478,8 +10856,15 @@
       <c r="E5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L5">
+        <v>200</v>
+      </c>
+      <c r="M5">
+        <f>AVERAGE(B18:B22)</f>
+        <v>1123.2562315536081</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>100</v>
       </c>
@@ -8495,8 +10880,15 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L6">
+        <v>250</v>
+      </c>
+      <c r="M6">
+        <f>AVERAGE(B23:B27)</f>
+        <v>1124.0208414018139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>100</v>
       </c>
@@ -8512,8 +10904,15 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L7">
+        <v>300</v>
+      </c>
+      <c r="M7">
+        <f>AVERAGE(B28:B32)</f>
+        <v>1127.567017160862</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>100</v>
       </c>
@@ -8529,8 +10928,15 @@
       <c r="E8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L8">
+        <v>350</v>
+      </c>
+      <c r="M8">
+        <f>AVERAGE(B33:B37)</f>
+        <v>1128.676450202948</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>100</v>
       </c>
@@ -8546,8 +10952,15 @@
       <c r="E9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L9">
+        <v>500</v>
+      </c>
+      <c r="M9">
+        <f>AVERAGE(B38:B42)</f>
+        <v>1134.804978229266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>100</v>
       </c>
@@ -8563,8 +10976,15 @@
       <c r="E10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L10">
+        <v>1000</v>
+      </c>
+      <c r="M10">
+        <f>AVERAGE(B43:B47)</f>
+        <v>1149.8448068192379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>150</v>
       </c>
@@ -8580,8 +11000,15 @@
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L11">
+        <v>2000</v>
+      </c>
+      <c r="M11">
+        <f>AVERAGE(B48:B51)</f>
+        <v>1173.6610279763026</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>150</v>
       </c>
@@ -8598,7 +11025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>150</v>
       </c>
@@ -8615,7 +11042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>150</v>
       </c>
@@ -8632,7 +11059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>150</v>
       </c>
@@ -8649,7 +11076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>150</v>
       </c>
@@ -9412,7 +11839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M52"/>
   <sheetViews>
@@ -10439,7 +12866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
@@ -11151,12 +13578,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12536,1708 +14963,6 @@
       </c>
       <c r="E81">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E99"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G99" sqref="G99"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1072.7838604378701</v>
-      </c>
-      <c r="C2">
-        <v>6.7647977224566302</v>
-      </c>
-      <c r="D2">
-        <v>6.7323415463594696</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1076.4661188656601</v>
-      </c>
-      <c r="C3">
-        <v>6.7633546439190004</v>
-      </c>
-      <c r="D3">
-        <v>6.7617059982433103</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>1075.1904124366099</v>
-      </c>
-      <c r="C4">
-        <v>6.8306562644046496</v>
-      </c>
-      <c r="D4">
-        <v>6.8210373350704403</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>1078.15141020281</v>
-      </c>
-      <c r="C5">
-        <v>6.7962519797633201</v>
-      </c>
-      <c r="D5">
-        <v>6.76211810099249</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>1077.23300599238</v>
-      </c>
-      <c r="C6">
-        <v>6.7883670323932099</v>
-      </c>
-      <c r="D6">
-        <v>6.7865016397871001</v>
-      </c>
-      <c r="E6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>50</v>
-      </c>
-      <c r="B7">
-        <v>1080.09326843247</v>
-      </c>
-      <c r="C7">
-        <v>6.8592200822078704</v>
-      </c>
-      <c r="D7">
-        <v>6.8145670087797798</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>50</v>
-      </c>
-      <c r="B8">
-        <v>1080.13779006611</v>
-      </c>
-      <c r="C8">
-        <v>6.7701619305160303</v>
-      </c>
-      <c r="D8">
-        <v>6.7503884696264604</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>50</v>
-      </c>
-      <c r="B9">
-        <v>1080.8380597938101</v>
-      </c>
-      <c r="C9">
-        <v>6.85858796739429</v>
-      </c>
-      <c r="D9">
-        <v>6.82458967543851</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>50</v>
-      </c>
-      <c r="B10">
-        <v>1075.16062018658</v>
-      </c>
-      <c r="C10">
-        <v>6.7827732565399099</v>
-      </c>
-      <c r="D10">
-        <v>6.7475123471246299</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>50</v>
-      </c>
-      <c r="B11">
-        <v>1082.46478490659</v>
-      </c>
-      <c r="C11">
-        <v>6.8243806337875403</v>
-      </c>
-      <c r="D11">
-        <v>6.7887816729147197</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>100</v>
-      </c>
-      <c r="B12">
-        <v>1081.97193122352</v>
-      </c>
-      <c r="C12">
-        <v>6.8218729184917803</v>
-      </c>
-      <c r="D12">
-        <v>6.8085228374501803</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>100</v>
-      </c>
-      <c r="B13">
-        <v>1083.7465628513401</v>
-      </c>
-      <c r="C13">
-        <v>7.0020951074626598</v>
-      </c>
-      <c r="D13">
-        <v>6.88119046962096</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>100</v>
-      </c>
-      <c r="B14">
-        <v>1081.9635505538199</v>
-      </c>
-      <c r="C14">
-        <v>7.0754455347936398</v>
-      </c>
-      <c r="D14">
-        <v>7.0031840833764498</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>100</v>
-      </c>
-      <c r="B15">
-        <v>1082.1991091191601</v>
-      </c>
-      <c r="C15">
-        <v>7.0670375485153603</v>
-      </c>
-      <c r="D15">
-        <v>6.9329625557035897</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>100</v>
-      </c>
-      <c r="B16">
-        <v>1081.0935346097599</v>
-      </c>
-      <c r="C16">
-        <v>7.0449887383037701</v>
-      </c>
-      <c r="D16">
-        <v>6.97041681235374</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>150</v>
-      </c>
-      <c r="B17">
-        <v>1089.6761130936</v>
-      </c>
-      <c r="C17">
-        <v>7.2333143815472303</v>
-      </c>
-      <c r="D17">
-        <v>7.1771784368090303</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>150</v>
-      </c>
-      <c r="B18">
-        <v>1083.0387893851801</v>
-      </c>
-      <c r="C18">
-        <v>7.3118809626022001</v>
-      </c>
-      <c r="D18">
-        <v>7.21132126060877</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>150</v>
-      </c>
-      <c r="B19">
-        <v>1082.53385634809</v>
-      </c>
-      <c r="C19">
-        <v>7.2878590279116704</v>
-      </c>
-      <c r="D19">
-        <v>7.1858025984600999</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>150</v>
-      </c>
-      <c r="B20">
-        <v>1083.2376411693399</v>
-      </c>
-      <c r="C20">
-        <v>7.3058046248895101</v>
-      </c>
-      <c r="D20">
-        <v>7.2015061760317698</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>150</v>
-      </c>
-      <c r="B21">
-        <v>1082.13786098418</v>
-      </c>
-      <c r="C21">
-        <v>7.1967208125232398</v>
-      </c>
-      <c r="D21">
-        <v>7.0798773376365398</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>200</v>
-      </c>
-      <c r="B22">
-        <v>1085.5545513223301</v>
-      </c>
-      <c r="C22">
-        <v>7.4936046608840101</v>
-      </c>
-      <c r="D22">
-        <v>7.2901854393766801</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>200</v>
-      </c>
-      <c r="B23">
-        <v>1083.34293848063</v>
-      </c>
-      <c r="C23">
-        <v>7.5564864716961901</v>
-      </c>
-      <c r="D23">
-        <v>7.4569366766871399</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>200</v>
-      </c>
-      <c r="B24">
-        <v>1086.98827315522</v>
-      </c>
-      <c r="C24">
-        <v>7.50019394090471</v>
-      </c>
-      <c r="D24">
-        <v>7.47316838067802</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>200</v>
-      </c>
-      <c r="B25">
-        <v>1083.6631659029899</v>
-      </c>
-      <c r="C25">
-        <v>7.5006824336580502</v>
-      </c>
-      <c r="D25">
-        <v>7.3764384840130797</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>200</v>
-      </c>
-      <c r="B26">
-        <v>1087.5890899876399</v>
-      </c>
-      <c r="C26">
-        <v>7.4704993081572502</v>
-      </c>
-      <c r="D26">
-        <v>7.4057337341294804</v>
-      </c>
-      <c r="E26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>250</v>
-      </c>
-      <c r="B27">
-        <v>1087.00871671197</v>
-      </c>
-      <c r="C27">
-        <v>7.5902664815999596</v>
-      </c>
-      <c r="D27">
-        <v>7.4407654126709897</v>
-      </c>
-      <c r="E27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>250</v>
-      </c>
-      <c r="B28">
-        <v>1087.6527179750799</v>
-      </c>
-      <c r="C28">
-        <v>7.6952553263884198</v>
-      </c>
-      <c r="D28">
-        <v>7.5129126439908198</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>250</v>
-      </c>
-      <c r="B29">
-        <v>1088.5544193284099</v>
-      </c>
-      <c r="C29">
-        <v>7.7715352002584996</v>
-      </c>
-      <c r="D29">
-        <v>7.5728468996089298</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>250</v>
-      </c>
-      <c r="B30">
-        <v>1090.2255243478201</v>
-      </c>
-      <c r="C30">
-        <v>7.7991807506618498</v>
-      </c>
-      <c r="D30">
-        <v>7.5880229030194402</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>250</v>
-      </c>
-      <c r="B31">
-        <v>1086.7119265745</v>
-      </c>
-      <c r="C31">
-        <v>7.6502740159475797</v>
-      </c>
-      <c r="D31">
-        <v>7.52051270742745</v>
-      </c>
-      <c r="E31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>250</v>
-      </c>
-      <c r="B32">
-        <v>1085.6773323750199</v>
-      </c>
-      <c r="C32">
-        <v>7.6978106011261902</v>
-      </c>
-      <c r="D32">
-        <v>7.6065046099386304</v>
-      </c>
-      <c r="E32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <v>300</v>
-      </c>
-      <c r="B33">
-        <v>1088.00997223185</v>
-      </c>
-      <c r="C33">
-        <v>7.8446818150870499</v>
-      </c>
-      <c r="D33">
-        <v>7.6170293212460596</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <v>300</v>
-      </c>
-      <c r="B34">
-        <v>1091.05959612623</v>
-      </c>
-      <c r="C34">
-        <v>7.9201575323384397</v>
-      </c>
-      <c r="D34">
-        <v>7.6738501686521801</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <v>300</v>
-      </c>
-      <c r="B35">
-        <v>1089.7655168394699</v>
-      </c>
-      <c r="C35">
-        <v>7.9279664069197002</v>
-      </c>
-      <c r="D35">
-        <v>7.6667384965014298</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <v>300</v>
-      </c>
-      <c r="B36">
-        <v>1090.99028294408</v>
-      </c>
-      <c r="C36">
-        <v>7.8619015535849899</v>
-      </c>
-      <c r="D36">
-        <v>7.7412237136048203</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37">
-        <v>300</v>
-      </c>
-      <c r="B37">
-        <v>1089.4493217551701</v>
-      </c>
-      <c r="C37">
-        <v>7.8523560333196096</v>
-      </c>
-      <c r="D37">
-        <v>7.78168622510365</v>
-      </c>
-      <c r="E37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <v>300</v>
-      </c>
-      <c r="B38">
-        <v>1088.80312682111</v>
-      </c>
-      <c r="C38">
-        <v>7.9382200248000299</v>
-      </c>
-      <c r="D38">
-        <v>7.6730876465153797</v>
-      </c>
-      <c r="E38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39">
-        <v>350</v>
-      </c>
-      <c r="B39">
-        <v>1090.7419297250101</v>
-      </c>
-      <c r="C39">
-        <v>8.0545790855796309</v>
-      </c>
-      <c r="D39">
-        <v>7.8629634631982102</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40">
-        <v>350</v>
-      </c>
-      <c r="B40">
-        <v>1091.0861323710101</v>
-      </c>
-      <c r="C40">
-        <v>8.2716363987728894</v>
-      </c>
-      <c r="D40">
-        <v>8.0668056962552299</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41">
-        <v>350</v>
-      </c>
-      <c r="B41">
-        <v>1090.4531693839999</v>
-      </c>
-      <c r="C41">
-        <v>8.3386602969489108</v>
-      </c>
-      <c r="D41">
-        <v>8.1818498500052605</v>
-      </c>
-      <c r="E41" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42">
-        <v>350</v>
-      </c>
-      <c r="B42">
-        <v>1092.65860661738</v>
-      </c>
-      <c r="C42">
-        <v>8.1397650688255396</v>
-      </c>
-      <c r="D42">
-        <v>7.9493103573554098</v>
-      </c>
-      <c r="E42" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43">
-        <v>350</v>
-      </c>
-      <c r="B43">
-        <v>1093.0949726240999</v>
-      </c>
-      <c r="C43">
-        <v>8.1667320339836706</v>
-      </c>
-      <c r="D43">
-        <v>7.9048498545736896</v>
-      </c>
-      <c r="E43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44">
-        <v>350</v>
-      </c>
-      <c r="B44">
-        <v>1089.18387312494</v>
-      </c>
-      <c r="C44">
-        <v>8.0310565308872004</v>
-      </c>
-      <c r="D44">
-        <v>7.8813223934333498</v>
-      </c>
-      <c r="E44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45">
-        <v>350</v>
-      </c>
-      <c r="B45">
-        <v>1089.99531694814</v>
-      </c>
-      <c r="C45">
-        <v>7.78611846693655</v>
-      </c>
-      <c r="D45">
-        <v>7.6363911198707601</v>
-      </c>
-      <c r="E45">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46">
-        <v>350</v>
-      </c>
-      <c r="B46">
-        <v>1094.99255805655</v>
-      </c>
-      <c r="C46">
-        <v>8.1219736128158093</v>
-      </c>
-      <c r="D46">
-        <v>8.0183796095392506</v>
-      </c>
-      <c r="E46">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47">
-        <v>400</v>
-      </c>
-      <c r="B47">
-        <v>1094.44026661147</v>
-      </c>
-      <c r="C47">
-        <v>8.2596928196197492</v>
-      </c>
-      <c r="D47">
-        <v>7.9770244386120002</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48">
-        <v>400</v>
-      </c>
-      <c r="B48">
-        <v>1090.3160144533899</v>
-      </c>
-      <c r="C48">
-        <v>8.2821505944587894</v>
-      </c>
-      <c r="D48">
-        <v>8.0754406148802502</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49">
-        <v>400</v>
-      </c>
-      <c r="B49">
-        <v>1092.8986978877599</v>
-      </c>
-      <c r="C49">
-        <v>8.1090289092858203</v>
-      </c>
-      <c r="D49">
-        <v>8.0054652090516996</v>
-      </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50">
-        <v>400</v>
-      </c>
-      <c r="B50">
-        <v>1091.2360734403801</v>
-      </c>
-      <c r="C50">
-        <v>8.1259209757744699</v>
-      </c>
-      <c r="D50">
-        <v>7.9484979085981902</v>
-      </c>
-      <c r="E50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51">
-        <v>400</v>
-      </c>
-      <c r="B51">
-        <v>1093.0624965341799</v>
-      </c>
-      <c r="C51">
-        <v>8.6176047653481191</v>
-      </c>
-      <c r="D51">
-        <v>8.3537951092028901</v>
-      </c>
-      <c r="E51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52">
-        <v>500</v>
-      </c>
-      <c r="B52">
-        <v>1093.1628345052</v>
-      </c>
-      <c r="C52">
-        <v>8.5477250734760606</v>
-      </c>
-      <c r="D52">
-        <v>8.2994374274920002</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53">
-        <v>500</v>
-      </c>
-      <c r="B53">
-        <v>1093.3944513859401</v>
-      </c>
-      <c r="C53">
-        <v>8.6474010148434104</v>
-      </c>
-      <c r="D53">
-        <v>8.2237693836864505</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54">
-        <v>500</v>
-      </c>
-      <c r="B54">
-        <v>1094.53557489066</v>
-      </c>
-      <c r="C54">
-        <v>8.5322101069216707</v>
-      </c>
-      <c r="D54">
-        <v>8.2156986005226198</v>
-      </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55">
-        <v>500</v>
-      </c>
-      <c r="B55">
-        <v>1100.08264738822</v>
-      </c>
-      <c r="C55">
-        <v>8.7703090560625299</v>
-      </c>
-      <c r="D55">
-        <v>8.4305731514777396</v>
-      </c>
-      <c r="E55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56">
-        <v>500</v>
-      </c>
-      <c r="B56">
-        <v>1096.8555550885001</v>
-      </c>
-      <c r="C56">
-        <v>8.8904011887512198</v>
-      </c>
-      <c r="D56">
-        <v>8.4774224081234308</v>
-      </c>
-      <c r="E56" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57">
-        <v>500</v>
-      </c>
-      <c r="B57">
-        <v>1096.6943907920199</v>
-      </c>
-      <c r="C57">
-        <v>8.8458920986607996</v>
-      </c>
-      <c r="D57">
-        <v>8.4496777120903008</v>
-      </c>
-      <c r="E57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58">
-        <v>600</v>
-      </c>
-      <c r="B58">
-        <v>1099.1638652982199</v>
-      </c>
-      <c r="C58">
-        <v>9.1671243067271693</v>
-      </c>
-      <c r="D58">
-        <v>8.7474651397520198</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59">
-        <v>600</v>
-      </c>
-      <c r="B59">
-        <v>1098.61891964498</v>
-      </c>
-      <c r="C59">
-        <v>8.8203306450823291</v>
-      </c>
-      <c r="D59">
-        <v>8.5254010415289496</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60">
-        <v>600</v>
-      </c>
-      <c r="B60">
-        <v>1100.6358465209501</v>
-      </c>
-      <c r="C60">
-        <v>8.9797814307584698</v>
-      </c>
-      <c r="D60">
-        <v>8.5829944300260994</v>
-      </c>
-      <c r="E60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61">
-        <v>600</v>
-      </c>
-      <c r="B61">
-        <v>1099.25543257656</v>
-      </c>
-      <c r="C61">
-        <v>8.7654038055666206</v>
-      </c>
-      <c r="D61">
-        <v>8.4484622223485193</v>
-      </c>
-      <c r="E61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62">
-        <v>600</v>
-      </c>
-      <c r="B62">
-        <v>1099.18991534782</v>
-      </c>
-      <c r="C62">
-        <v>8.8369118534458408</v>
-      </c>
-      <c r="D62">
-        <v>8.4390536936057305</v>
-      </c>
-      <c r="E62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63">
-        <v>600</v>
-      </c>
-      <c r="B63">
-        <v>1098.51002754315</v>
-      </c>
-      <c r="C63">
-        <v>9.0500509905538795</v>
-      </c>
-      <c r="D63">
-        <v>8.5983777038636298</v>
-      </c>
-      <c r="E63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64">
-        <v>700</v>
-      </c>
-      <c r="B64">
-        <v>1100.2605349569401</v>
-      </c>
-      <c r="C64">
-        <v>9.2551269501431008</v>
-      </c>
-      <c r="D64">
-        <v>8.7549577516571802</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65">
-        <v>700</v>
-      </c>
-      <c r="B65">
-        <v>1103.19575369624</v>
-      </c>
-      <c r="C65">
-        <v>9.1681999587002299</v>
-      </c>
-      <c r="D65">
-        <v>8.8422312384103705</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66">
-        <v>700</v>
-      </c>
-      <c r="B66">
-        <v>1103.5640872346901</v>
-      </c>
-      <c r="C66">
-        <v>9.3539227986937306</v>
-      </c>
-      <c r="D66">
-        <v>8.8558919760216295</v>
-      </c>
-      <c r="E66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67">
-        <v>700</v>
-      </c>
-      <c r="B67">
-        <v>1102.35974973405</v>
-      </c>
-      <c r="C67">
-        <v>9.2951882493398106</v>
-      </c>
-      <c r="D67">
-        <v>8.8239730830991601</v>
-      </c>
-      <c r="E67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68">
-        <v>700</v>
-      </c>
-      <c r="B68">
-        <v>1103.00292491814</v>
-      </c>
-      <c r="C68">
-        <v>9.2285020528303097</v>
-      </c>
-      <c r="D68">
-        <v>8.7752198531848897</v>
-      </c>
-      <c r="E68">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69">
-        <v>700</v>
-      </c>
-      <c r="B69">
-        <v>1106.5404649270899</v>
-      </c>
-      <c r="C69">
-        <v>9.4214379125811192</v>
-      </c>
-      <c r="D69">
-        <v>8.9722338511655906</v>
-      </c>
-      <c r="E69">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70">
-        <v>700</v>
-      </c>
-      <c r="B70">
-        <v>1104.8346908342201</v>
-      </c>
-      <c r="C70">
-        <v>9.1538797913474905</v>
-      </c>
-      <c r="D70">
-        <v>8.5795485184225608</v>
-      </c>
-      <c r="E70">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71">
-        <v>800</v>
-      </c>
-      <c r="B71">
-        <v>1104.9273551802601</v>
-      </c>
-      <c r="C71">
-        <v>9.6968369401141494</v>
-      </c>
-      <c r="D71">
-        <v>9.0924831035509701</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72">
-        <v>800</v>
-      </c>
-      <c r="B72">
-        <v>1107.4787845779299</v>
-      </c>
-      <c r="C72">
-        <v>9.7576069393090705</v>
-      </c>
-      <c r="D72">
-        <v>9.06543292501396</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73">
-        <v>800</v>
-      </c>
-      <c r="B73">
-        <v>1107.3327113631401</v>
-      </c>
-      <c r="C73">
-        <v>9.5987255821854394</v>
-      </c>
-      <c r="D73">
-        <v>8.9956052472089194</v>
-      </c>
-      <c r="E73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74">
-        <v>800</v>
-      </c>
-      <c r="B74">
-        <v>1107.2100804536401</v>
-      </c>
-      <c r="C74">
-        <v>9.6098267800258803</v>
-      </c>
-      <c r="D74">
-        <v>9.1339105542705195</v>
-      </c>
-      <c r="E74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75">
-        <v>800</v>
-      </c>
-      <c r="B75">
-        <v>1107.7213884594501</v>
-      </c>
-      <c r="C75">
-        <v>9.7041332836954304</v>
-      </c>
-      <c r="D75">
-        <v>9.1445969396305191</v>
-      </c>
-      <c r="E75">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76">
-        <v>900</v>
-      </c>
-      <c r="B76">
-        <v>1108.14260057519</v>
-      </c>
-      <c r="C76">
-        <v>9.8568951903669308</v>
-      </c>
-      <c r="D76">
-        <v>9.3033190308840403</v>
-      </c>
-      <c r="E76" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77">
-        <v>900</v>
-      </c>
-      <c r="B77">
-        <v>1109.5030122143901</v>
-      </c>
-      <c r="C77">
-        <v>9.8707845445544002</v>
-      </c>
-      <c r="D77">
-        <v>9.2679504351140505</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78">
-        <v>900</v>
-      </c>
-      <c r="B78">
-        <v>1107.6225275890499</v>
-      </c>
-      <c r="C78">
-        <v>10.113072974501801</v>
-      </c>
-      <c r="D78">
-        <v>9.4134625842762993</v>
-      </c>
-      <c r="E78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79">
-        <v>900</v>
-      </c>
-      <c r="B79">
-        <v>1106.27552053774</v>
-      </c>
-      <c r="C79">
-        <v>9.9610883376308905</v>
-      </c>
-      <c r="D79">
-        <v>9.3937769569004406</v>
-      </c>
-      <c r="E79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80">
-        <v>900</v>
-      </c>
-      <c r="B80">
-        <v>1111.98130024683</v>
-      </c>
-      <c r="C80">
-        <v>10.1972385892216</v>
-      </c>
-      <c r="D80">
-        <v>9.4092908690701993</v>
-      </c>
-      <c r="E80">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81">
-        <v>1000</v>
-      </c>
-      <c r="B81">
-        <v>1108.1287863068301</v>
-      </c>
-      <c r="C81">
-        <v>10.131834954144599</v>
-      </c>
-      <c r="D81">
-        <v>9.4985234197969604</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82">
-        <v>1000</v>
-      </c>
-      <c r="B82">
-        <v>1109.7220593212301</v>
-      </c>
-      <c r="C82">
-        <v>10.0361968676659</v>
-      </c>
-      <c r="D82">
-        <v>9.3296636015773799</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83">
-        <v>1000</v>
-      </c>
-      <c r="B83">
-        <v>1111.20636719135</v>
-      </c>
-      <c r="C83">
-        <v>10.019587356365699</v>
-      </c>
-      <c r="D83">
-        <v>9.29371155948572</v>
-      </c>
-      <c r="E83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84">
-        <v>1000</v>
-      </c>
-      <c r="B84">
-        <v>1111.0521534347899</v>
-      </c>
-      <c r="C84">
-        <v>10.390062910576599</v>
-      </c>
-      <c r="D84">
-        <v>9.5362191195172699</v>
-      </c>
-      <c r="E84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85">
-        <v>1000</v>
-      </c>
-      <c r="B85">
-        <v>1109.98416480576</v>
-      </c>
-      <c r="C85">
-        <v>10.1556270520392</v>
-      </c>
-      <c r="D85">
-        <v>9.4443055993901002</v>
-      </c>
-      <c r="E85">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86">
-        <v>1000</v>
-      </c>
-      <c r="B86">
-        <v>1110.3403311714801</v>
-      </c>
-      <c r="C86">
-        <v>10.089512235473199</v>
-      </c>
-      <c r="D86">
-        <v>9.4538694544311195</v>
-      </c>
-      <c r="E86">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87">
-        <v>1000</v>
-      </c>
-      <c r="B87">
-        <v>1113.2359248186201</v>
-      </c>
-      <c r="C87">
-        <v>9.9602275815446308</v>
-      </c>
-      <c r="D87">
-        <v>9.2489120358349997</v>
-      </c>
-      <c r="E87">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88">
-        <v>1500</v>
-      </c>
-      <c r="B88">
-        <v>1124.0119699363399</v>
-      </c>
-      <c r="C88">
-        <v>11.3942244875558</v>
-      </c>
-      <c r="D88">
-        <v>10.251200269930701</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89">
-        <v>1500</v>
-      </c>
-      <c r="B89">
-        <v>1119.60112643308</v>
-      </c>
-      <c r="C89">
-        <v>11.111468330170601</v>
-      </c>
-      <c r="D89">
-        <v>9.9037915918567503</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90">
-        <v>1500</v>
-      </c>
-      <c r="B90">
-        <v>1119.64739445695</v>
-      </c>
-      <c r="C90">
-        <v>11.1987267778338</v>
-      </c>
-      <c r="D90">
-        <v>10.015226969634901</v>
-      </c>
-      <c r="E90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91">
-        <v>1500</v>
-      </c>
-      <c r="B91">
-        <v>1127.0630451560201</v>
-      </c>
-      <c r="C91">
-        <v>11.4917004015147</v>
-      </c>
-      <c r="D91">
-        <v>10.442160710830899</v>
-      </c>
-      <c r="E91">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92">
-        <v>1500</v>
-      </c>
-      <c r="B92">
-        <v>1124.77685314884</v>
-      </c>
-      <c r="C92">
-        <v>11.210762660324299</v>
-      </c>
-      <c r="D92">
-        <v>10.1184252744325</v>
-      </c>
-      <c r="E92">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93">
-        <v>1500</v>
-      </c>
-      <c r="B93">
-        <v>1124.6150990241199</v>
-      </c>
-      <c r="C93">
-        <v>11.2119106764079</v>
-      </c>
-      <c r="D93">
-        <v>10.0665196007674</v>
-      </c>
-      <c r="E93">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94">
-        <v>2000</v>
-      </c>
-      <c r="B94">
-        <v>1133.0615790977099</v>
-      </c>
-      <c r="C94">
-        <v>12.2694530663574</v>
-      </c>
-      <c r="D94">
-        <v>10.655015487564301</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95">
-        <v>2000</v>
-      </c>
-      <c r="B95">
-        <v>1132.6719099245699</v>
-      </c>
-      <c r="C95">
-        <v>11.7076057185861</v>
-      </c>
-      <c r="D95">
-        <v>10.308171407677399</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96">
-        <v>2000</v>
-      </c>
-      <c r="B96">
-        <v>1134.1301663849499</v>
-      </c>
-      <c r="C96">
-        <v>12.276049389180001</v>
-      </c>
-      <c r="D96">
-        <v>10.813407065781799</v>
-      </c>
-      <c r="E96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97">
-        <v>2000</v>
-      </c>
-      <c r="B97">
-        <v>1137.2007620028101</v>
-      </c>
-      <c r="C97">
-        <v>12.554723265274299</v>
-      </c>
-      <c r="D97">
-        <v>10.7930286553008</v>
-      </c>
-      <c r="E97">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98">
-        <v>2000</v>
-      </c>
-      <c r="B98">
-        <v>1129.1117212121401</v>
-      </c>
-      <c r="C98">
-        <v>12.404076913540299</v>
-      </c>
-      <c r="D98">
-        <v>10.618306536096799</v>
-      </c>
-      <c r="E98">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99">
-        <v>2000</v>
-      </c>
-      <c r="B99">
-        <v>1133.9660075688701</v>
-      </c>
-      <c r="C99">
-        <v>12.7107835362714</v>
-      </c>
-      <c r="D99">
-        <v>11.0143935506029</v>
-      </c>
-      <c r="E99">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -14251,10 +14976,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N94"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14281,13 +15006,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1100.82596211143</v>
+        <v>1072.7838604378701</v>
       </c>
       <c r="C2">
-        <v>6.9512188230172098</v>
+        <v>6.7647977224566302</v>
       </c>
       <c r="D2">
-        <v>6.9318910438136596</v>
+        <v>6.7323415463594696</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -14298,13 +15023,13 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>1102.6480863694201</v>
+        <v>1076.4661188656601</v>
       </c>
       <c r="C3">
-        <v>6.9834073344847898</v>
+        <v>6.7633546439190004</v>
       </c>
       <c r="D3">
-        <v>6.9389679127241504</v>
+        <v>6.7617059982433103</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -14315,13 +15040,13 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>1100.5710946249999</v>
+        <v>1075.1904124366099</v>
       </c>
       <c r="C4">
-        <v>6.8981667242831</v>
+        <v>6.8306562644046496</v>
       </c>
       <c r="D4">
-        <v>6.8960410598977404</v>
+        <v>6.8210373350704403</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -14332,13 +15057,13 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>1099.61225066114</v>
+        <v>1078.15141020281</v>
       </c>
       <c r="C5">
-        <v>6.8937040301219303</v>
+        <v>6.7962519797633201</v>
       </c>
       <c r="D5">
-        <v>6.8862763819645103</v>
+        <v>6.76211810099249</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -14349,16 +15074,16 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>1103.4054277370501</v>
+        <v>1077.23300599238</v>
       </c>
       <c r="C6">
-        <v>7.0340061691821498</v>
+        <v>6.7883670323932099</v>
       </c>
       <c r="D6">
-        <v>6.9955669799397198</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
+        <v>6.7865016397871001</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -14366,13 +15091,13 @@
         <v>50</v>
       </c>
       <c r="B7">
-        <v>1104.02634631774</v>
+        <v>1080.09326843247</v>
       </c>
       <c r="C7">
-        <v>7.0178027664691003</v>
+        <v>6.8592200822078704</v>
       </c>
       <c r="D7">
-        <v>7.0127788639429198</v>
+        <v>6.8145670087797798</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14383,13 +15108,13 @@
         <v>50</v>
       </c>
       <c r="B8">
-        <v>1100.1271202064099</v>
+        <v>1080.13779006611</v>
       </c>
       <c r="C8">
-        <v>6.9719303725857902</v>
+        <v>6.7701619305160303</v>
       </c>
       <c r="D8">
-        <v>6.9024211768363397</v>
+        <v>6.7503884696264604</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -14400,13 +15125,13 @@
         <v>50</v>
       </c>
       <c r="B9">
-        <v>1101.42769901114</v>
+        <v>1080.8380597938101</v>
       </c>
       <c r="C9">
-        <v>7.1014359729074297</v>
+        <v>6.85858796739429</v>
       </c>
       <c r="D9">
-        <v>7.0110327809687396</v>
+        <v>6.82458967543851</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -14417,13 +15142,13 @@
         <v>50</v>
       </c>
       <c r="B10">
-        <v>1099.4020061108399</v>
+        <v>1075.16062018658</v>
       </c>
       <c r="C10">
-        <v>6.9351063729151701</v>
+        <v>6.7827732565399099</v>
       </c>
       <c r="D10">
-        <v>6.9113691163469904</v>
+        <v>6.7475123471246299</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -14434,13 +15159,13 @@
         <v>50</v>
       </c>
       <c r="B11">
-        <v>1099.9522333627699</v>
+        <v>1082.46478490659</v>
       </c>
       <c r="C11">
-        <v>6.9966543199766997</v>
+        <v>6.8243806337875403</v>
       </c>
       <c r="D11">
-        <v>6.9862270765065499</v>
+        <v>6.7887816729147197</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -14451,16 +15176,16 @@
         <v>100</v>
       </c>
       <c r="B12">
-        <v>1106.8309492830499</v>
+        <v>1081.97193122352</v>
       </c>
       <c r="C12">
-        <v>7.0738954716167903</v>
+        <v>6.8218729184917803</v>
       </c>
       <c r="D12">
-        <v>7.0283061903076502</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>6.8085228374501803</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -14468,16 +15193,16 @@
         <v>100</v>
       </c>
       <c r="B13">
-        <v>1105.6051771974801</v>
+        <v>1083.7465628513401</v>
       </c>
       <c r="C13">
-        <v>7.4521031260279003</v>
+        <v>7.0020951074626598</v>
       </c>
       <c r="D13">
-        <v>7.3346256976569304</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
+        <v>6.88119046962096</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -14485,13 +15210,13 @@
         <v>100</v>
       </c>
       <c r="B14">
-        <v>1102.07466340016</v>
+        <v>1081.9635505538199</v>
       </c>
       <c r="C14">
-        <v>7.1036646099035501</v>
+        <v>7.0754455347936398</v>
       </c>
       <c r="D14">
-        <v>7.0628396517389103</v>
+        <v>7.0031840833764498</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -14502,13 +15227,13 @@
         <v>100</v>
       </c>
       <c r="B15">
-        <v>1103.98371293986</v>
+        <v>1082.1991091191601</v>
       </c>
       <c r="C15">
-        <v>7.2015061760317698</v>
+        <v>7.0670375485153603</v>
       </c>
       <c r="D15">
-        <v>7.0781040737650098</v>
+        <v>6.9329625557035897</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -14519,306 +15244,288 @@
         <v>100</v>
       </c>
       <c r="B16">
-        <v>1103.14646730086</v>
+        <v>1081.0935346097599</v>
       </c>
       <c r="C16">
-        <v>7.0741168753444503</v>
+        <v>7.0449887383037701</v>
       </c>
       <c r="D16">
-        <v>7.0436693626524001</v>
+        <v>6.97041681235374</v>
       </c>
       <c r="E16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="B17">
-        <v>1106.18666310461</v>
+        <v>1089.6761130936</v>
       </c>
       <c r="C17">
-        <v>7.2042430387328</v>
+        <v>7.2333143815472303</v>
       </c>
       <c r="D17">
-        <v>7.1262381844740101</v>
+        <v>7.1771784368090303</v>
       </c>
       <c r="E17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>150</v>
       </c>
       <c r="B18">
-        <v>1104.69866786789</v>
+        <v>1083.0387893851801</v>
       </c>
       <c r="C18">
-        <v>7.3186684609389703</v>
+        <v>7.3118809626022001</v>
       </c>
       <c r="D18">
-        <v>7.1846668614262397</v>
+        <v>7.21132126060877</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>150</v>
       </c>
       <c r="B19">
-        <v>1104.33858590059</v>
+        <v>1082.53385634809</v>
       </c>
       <c r="C19">
-        <v>7.5320608122484503</v>
+        <v>7.2878590279116704</v>
       </c>
       <c r="D19">
-        <v>7.3233556826114103</v>
+        <v>7.1858025984600999</v>
       </c>
       <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>150</v>
       </c>
       <c r="B20">
-        <v>1106.9830592911301</v>
+        <v>1083.2376411693399</v>
       </c>
       <c r="C20">
-        <v>7.4557277845933196</v>
+        <v>7.3058046248895101</v>
       </c>
       <c r="D20">
-        <v>7.3873713120750697</v>
+        <v>7.2015061760317698</v>
       </c>
       <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="N20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>150</v>
       </c>
       <c r="B21">
-        <v>1106.9001332878199</v>
+        <v>1082.13786098418</v>
       </c>
       <c r="C21">
-        <v>7.4748677358372602</v>
+        <v>7.1967208125232398</v>
       </c>
       <c r="D21">
-        <v>7.35678122236994</v>
+        <v>7.0798773376365398</v>
       </c>
       <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="N21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="B22">
-        <v>1103.5851581546001</v>
+        <v>1085.5545513223301</v>
       </c>
       <c r="C22">
-        <v>7.4203359049182298</v>
+        <v>7.4936046608840101</v>
       </c>
       <c r="D22">
-        <v>7.2383701968085798</v>
+        <v>7.2901854393766801</v>
       </c>
       <c r="E22">
-        <v>4</v>
-      </c>
-      <c r="N22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>200</v>
       </c>
       <c r="B23">
-        <v>1107.0093834633501</v>
+        <v>1083.34293848063</v>
       </c>
       <c r="C23">
-        <v>7.6616658511556599</v>
+        <v>7.5564864716961901</v>
       </c>
       <c r="D23">
-        <v>7.5271429713662199</v>
+        <v>7.4569366766871399</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="N23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>200</v>
       </c>
       <c r="B24">
-        <v>1105.19773272981</v>
+        <v>1086.98827315522</v>
       </c>
       <c r="C24">
-        <v>7.8680110827639202</v>
+        <v>7.50019394090471</v>
       </c>
       <c r="D24">
-        <v>7.6454730873678098</v>
-      </c>
-      <c r="E24" t="s">
-        <v>49</v>
-      </c>
-      <c r="N24" s="1">
-        <v>1.885448</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+        <v>7.47316838067802</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>200</v>
       </c>
       <c r="B25">
-        <v>1108.27196338933</v>
+        <v>1083.6631659029899</v>
       </c>
       <c r="C25">
-        <v>7.6070052087310698</v>
+        <v>7.5006824336580502</v>
       </c>
       <c r="D25">
-        <v>7.5569813377882298</v>
+        <v>7.3764384840130797</v>
       </c>
       <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="N25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>200</v>
       </c>
       <c r="B26">
-        <v>1107.97513169639</v>
+        <v>1087.5890899876399</v>
       </c>
       <c r="C26">
-        <v>7.5696195131370603</v>
+        <v>7.4704993081572502</v>
       </c>
       <c r="D26">
-        <v>7.5077717600332603</v>
+        <v>7.4057337341294804</v>
       </c>
       <c r="E26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="B27">
-        <v>1106.6238410307001</v>
+        <v>1087.00871671197</v>
       </c>
       <c r="C27">
-        <v>7.6285857266116404</v>
+        <v>7.5902664815999596</v>
       </c>
       <c r="D27">
-        <v>7.4634705151643601</v>
-      </c>
-      <c r="E27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+        <v>7.4407654126709897</v>
+      </c>
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>250</v>
       </c>
       <c r="B28">
-        <v>1110.79458894138</v>
+        <v>1087.6527179750799</v>
       </c>
       <c r="C28">
-        <v>7.78090453411866</v>
+        <v>7.6952553263884198</v>
       </c>
       <c r="D28">
-        <v>7.6957662610736</v>
+        <v>7.5129126439908198</v>
       </c>
       <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>250</v>
       </c>
       <c r="B29">
-        <v>1108.3430153289401</v>
+        <v>1088.5544193284099</v>
       </c>
       <c r="C29">
-        <v>8.0518051043796497</v>
+        <v>7.7715352002584996</v>
       </c>
       <c r="D29">
-        <v>7.8473265656827804</v>
+        <v>7.5728468996089298</v>
       </c>
       <c r="E29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>250</v>
       </c>
       <c r="B30">
-        <v>1110.8521843511401</v>
+        <v>1090.2255243478201</v>
       </c>
       <c r="C30">
-        <v>7.7665984112162301</v>
+        <v>7.7991807506618498</v>
       </c>
       <c r="D30">
-        <v>7.6723252582365804</v>
+        <v>7.5880229030194402</v>
       </c>
       <c r="E30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>250</v>
       </c>
       <c r="B31">
-        <v>1112.62151528296</v>
+        <v>1086.7119265745</v>
       </c>
       <c r="C31">
-        <v>7.7963036754860502</v>
+        <v>7.6502740159475797</v>
       </c>
       <c r="D31">
-        <v>7.6609054651221999</v>
+        <v>7.52051270742745</v>
       </c>
       <c r="E31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>250</v>
       </c>
       <c r="B32">
-        <v>1110.2340158376701</v>
+        <v>1085.6773323750199</v>
       </c>
       <c r="C32">
-        <v>7.9988854037619896</v>
+        <v>7.6978106011261902</v>
       </c>
       <c r="D32">
-        <v>7.80153613975639</v>
+        <v>7.6065046099386304</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -14826,13 +15533,13 @@
         <v>300</v>
       </c>
       <c r="B33">
-        <v>1113.7618422176099</v>
+        <v>1088.00997223185</v>
       </c>
       <c r="C33">
-        <v>8.0316085416688807</v>
+        <v>7.8446818150870499</v>
       </c>
       <c r="D33">
-        <v>7.8349102181339996</v>
+        <v>7.6170293212460596</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -14843,13 +15550,13 @@
         <v>300</v>
       </c>
       <c r="B34">
-        <v>1114.5118767006099</v>
+        <v>1091.05959612623</v>
       </c>
       <c r="C34">
-        <v>8.1542212506797505</v>
+        <v>7.9201575323384397</v>
       </c>
       <c r="D34">
-        <v>8.1219736128158093</v>
+        <v>7.6738501686521801</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -14860,13 +15567,13 @@
         <v>300</v>
       </c>
       <c r="B35">
-        <v>1108.0146819322399</v>
+        <v>1089.7655168394699</v>
       </c>
       <c r="C35">
-        <v>7.9800238041689502</v>
+        <v>7.9279664069197002</v>
       </c>
       <c r="D35">
-        <v>7.9517486159498398</v>
+        <v>7.6667384965014298</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -14877,13 +15584,13 @@
         <v>300</v>
       </c>
       <c r="B36">
-        <v>1113.1398579628101</v>
+        <v>1090.99028294408</v>
       </c>
       <c r="C36">
-        <v>7.9628735939229296</v>
+        <v>7.8619015535849899</v>
       </c>
       <c r="D36">
-        <v>7.8523560333196096</v>
+        <v>7.7412237136048203</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -14894,13 +15601,13 @@
         <v>300</v>
       </c>
       <c r="B37">
-        <v>1112.3486774677201</v>
+        <v>1089.4493217551701</v>
       </c>
       <c r="C37">
-        <v>8.0757194466879305</v>
+        <v>7.8523560333196096</v>
       </c>
       <c r="D37">
-        <v>7.8887945874195102</v>
+        <v>7.78168622510365</v>
       </c>
       <c r="E37">
         <v>4</v>
@@ -14908,19 +15615,19 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="B38">
-        <v>1112.4157375638899</v>
+        <v>1088.80312682111</v>
       </c>
       <c r="C38">
-        <v>8.3416237530987196</v>
+        <v>7.9382200248000299</v>
       </c>
       <c r="D38">
-        <v>8.0573548397448302</v>
+        <v>7.6730876465153797</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -14928,16 +15635,16 @@
         <v>350</v>
       </c>
       <c r="B39">
-        <v>1113.5354782204299</v>
+        <v>1090.7419297250101</v>
       </c>
       <c r="C39">
-        <v>8.4148673738356798</v>
+        <v>8.0545790855796309</v>
       </c>
       <c r="D39">
-        <v>8.2067805508622307</v>
+        <v>7.8629634631982102</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -14945,16 +15652,16 @@
         <v>350</v>
       </c>
       <c r="B40">
-        <v>1112.4655044126901</v>
+        <v>1091.0861323710101</v>
       </c>
       <c r="C40">
-        <v>8.1273316182070605</v>
+        <v>8.2716363987728894</v>
       </c>
       <c r="D40">
-        <v>7.9212337840802798</v>
+        <v>8.0668056962552299</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
@@ -14962,16 +15669,16 @@
         <v>350</v>
       </c>
       <c r="B41">
-        <v>1113.28171455963</v>
+        <v>1090.4531693839999</v>
       </c>
       <c r="C41">
-        <v>8.2338790000813304</v>
+        <v>8.3386602969489108</v>
       </c>
       <c r="D41">
-        <v>8.0241623096422305</v>
-      </c>
-      <c r="E41">
-        <v>3</v>
+        <v>8.1818498500052605</v>
+      </c>
+      <c r="E41" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
@@ -14979,84 +15686,84 @@
         <v>350</v>
       </c>
       <c r="B42">
-        <v>1109.9681441671401</v>
+        <v>1092.65860661738</v>
       </c>
       <c r="C42">
-        <v>8.14741234703415</v>
+        <v>8.1397650688255396</v>
       </c>
       <c r="D42">
-        <v>8.0919223986809801</v>
-      </c>
-      <c r="E42">
-        <v>4</v>
+        <v>7.9493103573554098</v>
+      </c>
+      <c r="E42" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="B43">
-        <v>1113.0125833391901</v>
+        <v>1093.0949726240999</v>
       </c>
       <c r="C43">
-        <v>8.4112510154400297</v>
+        <v>8.1667320339836706</v>
       </c>
       <c r="D43">
-        <v>8.1124020704798792</v>
-      </c>
-      <c r="E43" t="s">
-        <v>45</v>
+        <v>7.9048498545736896</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="B44">
-        <v>1111.4291791854901</v>
+        <v>1089.18387312494</v>
       </c>
       <c r="C44">
-        <v>8.6021533570630009</v>
+        <v>8.0310565308872004</v>
       </c>
       <c r="D44">
-        <v>8.2605656271562307</v>
+        <v>7.8813223934333498</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="B45">
-        <v>1115.1162714867601</v>
+        <v>1089.99531694814</v>
       </c>
       <c r="C45">
-        <v>8.3821288125447708</v>
+        <v>7.78611846693655</v>
       </c>
       <c r="D45">
-        <v>8.0852103955639993</v>
+        <v>7.6363911198707601</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="B46">
-        <v>1111.2194735926801</v>
+        <v>1094.99255805655</v>
       </c>
       <c r="C46">
-        <v>8.4951987772966504</v>
+        <v>8.1219736128158093</v>
       </c>
       <c r="D46">
-        <v>8.2370611746123394</v>
+        <v>8.0183796095392506</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
@@ -15064,16 +15771,16 @@
         <v>400</v>
       </c>
       <c r="B47">
-        <v>1108.67295077224</v>
+        <v>1094.44026661147</v>
       </c>
       <c r="C47">
-        <v>8.3247590757979104</v>
+        <v>8.2596928196197492</v>
       </c>
       <c r="D47">
-        <v>8.1704353094464892</v>
+        <v>7.9770244386120002</v>
       </c>
       <c r="E47">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
@@ -15081,67 +15788,67 @@
         <v>400</v>
       </c>
       <c r="B48">
-        <v>1115.1499570400999</v>
+        <v>1090.3160144533899</v>
       </c>
       <c r="C48">
-        <v>8.3800347457755393</v>
+        <v>8.2821505944587894</v>
       </c>
       <c r="D48">
-        <v>8.0294009193979203</v>
+        <v>8.0754406148802502</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="B49">
-        <v>1114.34670263625</v>
+        <v>1092.8986978877599</v>
       </c>
       <c r="C49">
-        <v>8.7611570653999191</v>
+        <v>8.1090289092858203</v>
       </c>
       <c r="D49">
-        <v>8.41004623151691</v>
+        <v>8.0054652090516996</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="B50">
-        <v>1116.4723710734499</v>
+        <v>1091.2360734403801</v>
       </c>
       <c r="C50">
-        <v>8.8233105943755703</v>
+        <v>8.1259209757744699</v>
       </c>
       <c r="D50">
-        <v>8.4847693243505606</v>
+        <v>7.9484979085981902</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="B51">
-        <v>1116.94779286781</v>
+        <v>1093.0624965341799</v>
       </c>
       <c r="C51">
-        <v>8.6979493041893097</v>
+        <v>8.6176047653481191</v>
       </c>
       <c r="D51">
-        <v>8.3321478026456699</v>
+        <v>8.3537951092028901</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
@@ -15149,16 +15856,16 @@
         <v>500</v>
       </c>
       <c r="B52">
-        <v>1118.8062706532401</v>
+        <v>1093.1628345052</v>
       </c>
       <c r="C52">
-        <v>8.8239730830991601</v>
+        <v>8.5477250734760606</v>
       </c>
       <c r="D52">
-        <v>8.5121231594368805</v>
+        <v>8.2994374274920002</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
@@ -15166,84 +15873,84 @@
         <v>500</v>
       </c>
       <c r="B53">
-        <v>1115.21755693724</v>
+        <v>1093.3944513859401</v>
       </c>
       <c r="C53">
-        <v>9.0773563921165206</v>
+        <v>8.6474010148434104</v>
       </c>
       <c r="D53">
-        <v>8.7227984710768105</v>
+        <v>8.2237693836864505</v>
       </c>
       <c r="E53">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="B54">
-        <v>1120.24604654019</v>
+        <v>1094.53557489066</v>
       </c>
       <c r="C54">
-        <v>8.9564948075726498</v>
+        <v>8.5322101069216707</v>
       </c>
       <c r="D54">
-        <v>8.6147626272084192</v>
+        <v>8.2156986005226198</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="B55">
-        <v>1124.59316350418</v>
+        <v>1100.08264738822</v>
       </c>
       <c r="C55">
-        <v>9.2778687739661798</v>
+        <v>8.7703090560625299</v>
       </c>
       <c r="D55">
-        <v>8.9316341263320496</v>
+        <v>8.4305731514777396</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="B56">
-        <v>1120.8180743819</v>
+        <v>1096.8555550885001</v>
       </c>
       <c r="C56">
-        <v>9.0111410574767792</v>
+        <v>8.8904011887512198</v>
       </c>
       <c r="D56">
-        <v>8.8793149573180301</v>
-      </c>
-      <c r="E56">
-        <v>2</v>
+        <v>8.4774224081234308</v>
+      </c>
+      <c r="E56" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="B57">
-        <v>1120.56187403178</v>
+        <v>1096.6943907920199</v>
       </c>
       <c r="C57">
-        <v>9.08544086944908</v>
+        <v>8.8458920986607996</v>
       </c>
       <c r="D57">
-        <v>8.7657306499557901</v>
+        <v>8.4496777120903008</v>
       </c>
       <c r="E57">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
@@ -15251,16 +15958,16 @@
         <v>600</v>
       </c>
       <c r="B58">
-        <v>1119.1827022636</v>
+        <v>1099.1638652982199</v>
       </c>
       <c r="C58">
-        <v>9.0942454477779808</v>
+        <v>9.1671243067271693</v>
       </c>
       <c r="D58">
-        <v>8.6065624384762494</v>
+        <v>8.7474651397520198</v>
       </c>
       <c r="E58">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
@@ -15268,84 +15975,84 @@
         <v>600</v>
       </c>
       <c r="B59">
-        <v>1119.96819666432</v>
+        <v>1098.61891964498</v>
       </c>
       <c r="C59">
-        <v>9.1292879409346508</v>
+        <v>8.8203306450823291</v>
       </c>
       <c r="D59">
-        <v>8.6883061691067596</v>
+        <v>8.5254010415289496</v>
       </c>
       <c r="E59">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="B60">
-        <v>1125.88924982858</v>
+        <v>1100.6358465209501</v>
       </c>
       <c r="C60">
-        <v>9.3839675039162493</v>
+        <v>8.9797814307584698</v>
       </c>
       <c r="D60">
-        <v>8.9616208397438992</v>
+        <v>8.5829944300260994</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="B61">
-        <v>1124.83977933605</v>
+        <v>1099.25543257656</v>
       </c>
       <c r="C61">
-        <v>9.5671633442942507</v>
+        <v>8.7654038055666206</v>
       </c>
       <c r="D61">
-        <v>9.1449536057350205</v>
+        <v>8.4484622223485193</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="B62">
-        <v>1122.19552433627</v>
+        <v>1099.18991534782</v>
       </c>
       <c r="C62">
-        <v>9.3557945156640603</v>
+        <v>8.8369118534458408</v>
       </c>
       <c r="D62">
-        <v>8.9952606374234598</v>
+        <v>8.4390536936057305</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="B63">
-        <v>1122.3765268924101</v>
+        <v>1098.51002754315</v>
       </c>
       <c r="C63">
-        <v>9.3263152908473206</v>
+        <v>9.0500509905538795</v>
       </c>
       <c r="D63">
-        <v>8.8379087419660003</v>
+        <v>8.5983777038636298</v>
       </c>
       <c r="E63">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
@@ -15353,132 +16060,132 @@
         <v>700</v>
       </c>
       <c r="B64">
-        <v>1125.4112221842799</v>
+        <v>1100.2605349569401</v>
       </c>
       <c r="C64">
-        <v>9.3820836081598902</v>
+        <v>9.2551269501431008</v>
       </c>
       <c r="D64">
-        <v>8.8799860451381107</v>
+        <v>8.7549577516571802</v>
       </c>
       <c r="E64">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="B65">
-        <v>1125.3520569457301</v>
+        <v>1103.19575369624</v>
       </c>
       <c r="C65">
-        <v>9.88641046293389</v>
+        <v>9.1681999587002299</v>
       </c>
       <c r="D65">
-        <v>9.2804438969701994</v>
+        <v>8.8422312384103705</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="B66">
-        <v>1125.7089708619501</v>
+        <v>1103.5640872346901</v>
       </c>
       <c r="C66">
-        <v>9.9978290702776995</v>
+        <v>9.3539227986937306</v>
       </c>
       <c r="D66">
-        <v>9.3662910641429598</v>
+        <v>8.8558919760216295</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="B67">
-        <v>1130.49542004777</v>
+        <v>1102.35974973405</v>
       </c>
       <c r="C67">
-        <v>10.205426819021501</v>
+        <v>9.2951882493398106</v>
       </c>
       <c r="D67">
-        <v>9.4950424111614495</v>
+        <v>8.8239730830991601</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="B68">
-        <v>1124.9648938626799</v>
+        <v>1103.00292491814</v>
       </c>
       <c r="C68">
-        <v>9.7236503422245608</v>
+        <v>9.2285020528303097</v>
       </c>
       <c r="D68">
-        <v>9.2143444068288307</v>
+        <v>8.7752198531848897</v>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="B69">
-        <v>1124.4438985961999</v>
+        <v>1106.5404649270899</v>
       </c>
       <c r="C69">
-        <v>9.7670637696339497</v>
+        <v>9.4214379125811192</v>
       </c>
       <c r="D69">
-        <v>9.1456670258301003</v>
+        <v>8.9722338511655906</v>
       </c>
       <c r="E69">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="B70">
-        <v>1122.0683084361599</v>
+        <v>1104.8346908342201</v>
       </c>
       <c r="C70">
-        <v>9.7212059079279296</v>
+        <v>9.1538797913474905</v>
       </c>
       <c r="D70">
-        <v>9.3659157502405499</v>
+        <v>8.5795485184225608</v>
       </c>
       <c r="E70">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="B71">
-        <v>1127.1662139428699</v>
+        <v>1104.9273551802601</v>
       </c>
       <c r="C71">
-        <v>9.9978290702776995</v>
+        <v>9.6968369401141494</v>
       </c>
       <c r="D71">
-        <v>9.1381819535024995</v>
+        <v>9.0924831035509701</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -15486,16 +16193,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="B72">
-        <v>1127.7034284901799</v>
+        <v>1107.4787845779299</v>
       </c>
       <c r="C72">
-        <v>10.308171407677399</v>
+        <v>9.7576069393090705</v>
       </c>
       <c r="D72">
-        <v>9.5467702121334295</v>
+        <v>9.06543292501396</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -15503,16 +16210,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="B73">
-        <v>1128.1386613638099</v>
+        <v>1107.3327113631401</v>
       </c>
       <c r="C73">
-        <v>10.364482664259</v>
+        <v>9.5987255821854394</v>
       </c>
       <c r="D73">
-        <v>9.4826880394015003</v>
+        <v>8.9956052472089194</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -15520,16 +16227,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="B74">
-        <v>1128.13715762266</v>
+        <v>1107.2100804536401</v>
       </c>
       <c r="C74">
-        <v>10.038387066319901</v>
+        <v>9.6098267800258803</v>
       </c>
       <c r="D74">
-        <v>9.3300357955030506</v>
+        <v>9.1339105542705195</v>
       </c>
       <c r="E74">
         <v>3</v>
@@ -15537,16 +16244,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="B75">
-        <v>1126.7370446140601</v>
+        <v>1107.7213884594501</v>
       </c>
       <c r="C75">
-        <v>9.9263634568772208</v>
+        <v>9.7041332836954304</v>
       </c>
       <c r="D75">
-        <v>9.3651652197247195</v>
+        <v>9.1445969396305191</v>
       </c>
       <c r="E75">
         <v>4</v>
@@ -15554,33 +16261,33 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="B76">
-        <v>1132.9628993720701</v>
+        <v>1108.14260057519</v>
       </c>
       <c r="C76">
-        <v>10.129149703758801</v>
+        <v>9.8568951903669308</v>
       </c>
       <c r="D76">
-        <v>9.5373901980787803</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
+        <v>9.3033190308840403</v>
+      </c>
+      <c r="E76" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="B77">
-        <v>1132.11081457052</v>
+        <v>1109.5030122143901</v>
       </c>
       <c r="C77">
-        <v>10.6656333217372</v>
+        <v>9.8707845445544002</v>
       </c>
       <c r="D77">
-        <v>9.8480795823716605</v>
+        <v>9.2679504351140505</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -15588,16 +16295,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="B78">
-        <v>1128.7093738265701</v>
+        <v>1107.6225275890499</v>
       </c>
       <c r="C78">
-        <v>10.607803641451801</v>
+        <v>10.113072974501801</v>
       </c>
       <c r="D78">
-        <v>9.8113313684909293</v>
+        <v>9.4134625842762993</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -15605,16 +16312,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="B79">
-        <v>1131.6157106875601</v>
+        <v>1106.27552053774</v>
       </c>
       <c r="C79">
-        <v>10.314703556251599</v>
+        <v>9.9610883376308905</v>
       </c>
       <c r="D79">
-        <v>9.5144167510151796</v>
+        <v>9.3937769569004406</v>
       </c>
       <c r="E79">
         <v>3</v>
@@ -15622,16 +16329,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="B80">
-        <v>1131.79615430692</v>
+        <v>1111.98130024683</v>
       </c>
       <c r="C80">
-        <v>10.6148027482351</v>
+        <v>10.1972385892216</v>
       </c>
       <c r="D80">
-        <v>9.7843860796264508</v>
+        <v>9.4092908690701993</v>
       </c>
       <c r="E80">
         <v>4</v>
@@ -15642,118 +16349,118 @@
         <v>1000</v>
       </c>
       <c r="B81">
-        <v>1130.1166612237901</v>
+        <v>1108.1287863068301</v>
       </c>
       <c r="C81">
-        <v>10.1904268377038</v>
+        <v>10.131834954144599</v>
       </c>
       <c r="D81">
-        <v>9.4792196951583101</v>
+        <v>9.4985234197969604</v>
       </c>
       <c r="E81">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="B82">
-        <v>1139.3568924272799</v>
+        <v>1109.7220593212301</v>
       </c>
       <c r="C82">
-        <v>11.183300923279401</v>
+        <v>10.0361968676659</v>
       </c>
       <c r="D82">
-        <v>10.1336260438985</v>
+        <v>9.3296636015773799</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="B83">
-        <v>1143.1783802616601</v>
+        <v>1111.20636719135</v>
       </c>
       <c r="C83">
-        <v>11.726953589102701</v>
+        <v>10.019587356365699</v>
       </c>
       <c r="D83">
-        <v>10.4599883231843</v>
+        <v>9.29371155948572</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="B84">
-        <v>1141.93818798496</v>
+        <v>1111.0521534347899</v>
       </c>
       <c r="C84">
-        <v>11.1890078161098</v>
+        <v>10.390062910576599</v>
       </c>
       <c r="D84">
-        <v>10.1596801972882</v>
+        <v>9.5362191195172699</v>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="B85">
-        <v>1142.28559891841</v>
+        <v>1109.98416480576</v>
       </c>
       <c r="C85">
-        <v>11.812464095022801</v>
+        <v>10.1556270520392</v>
       </c>
       <c r="D85">
-        <v>10.346101297848801</v>
+        <v>9.4443055993901002</v>
       </c>
       <c r="E85">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="B86">
-        <v>1141.35765793069</v>
+        <v>1110.3403311714801</v>
       </c>
       <c r="C86">
-        <v>11.349552783069001</v>
+        <v>10.089512235473199</v>
       </c>
       <c r="D86">
-        <v>10.196329738152199</v>
+        <v>9.4538694544311195</v>
       </c>
       <c r="E86">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="B87">
-        <v>1139.1445119345599</v>
+        <v>1113.2359248186201</v>
       </c>
       <c r="C87">
-        <v>11.782900027016201</v>
+        <v>9.9602275815446308</v>
       </c>
       <c r="D87">
-        <v>10.472559759851</v>
+        <v>9.2489120358349997</v>
       </c>
       <c r="E87">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
@@ -15761,101 +16468,101 @@
         <v>1500</v>
       </c>
       <c r="B88">
-        <v>1140.1488388457501</v>
+        <v>1124.0119699363399</v>
       </c>
       <c r="C88">
-        <v>11.4587621789883</v>
+        <v>11.3942244875558</v>
       </c>
       <c r="D88">
-        <v>10.3414006319293</v>
+        <v>10.251200269930701</v>
       </c>
       <c r="E88">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="B89">
-        <v>1149.7883684087701</v>
+        <v>1119.60112643308</v>
       </c>
       <c r="C89">
-        <v>12.373964504331999</v>
+        <v>11.111468330170601</v>
       </c>
       <c r="D89">
-        <v>10.9274991711867</v>
+        <v>9.9037915918567503</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="B90">
-        <v>1153.4039186405901</v>
+        <v>1119.64739445695</v>
       </c>
       <c r="C90">
-        <v>12.260673525323501</v>
+        <v>11.1987267778338</v>
       </c>
       <c r="D90">
-        <v>10.657541189769301</v>
+        <v>10.015226969634901</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="B91">
-        <v>1155.05281673384</v>
+        <v>1127.0630451560201</v>
       </c>
       <c r="C91">
-        <v>12.851674875666699</v>
+        <v>11.4917004015147</v>
       </c>
       <c r="D91">
-        <v>11.363203321241</v>
+        <v>10.442160710830899</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="B92">
-        <v>1148.81942909638</v>
+        <v>1124.77685314884</v>
       </c>
       <c r="C92">
-        <v>11.9983300979864</v>
+        <v>11.210762660324299</v>
       </c>
       <c r="D92">
-        <v>10.6859298644343</v>
+        <v>10.1184252744325</v>
       </c>
       <c r="E92">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="B93">
-        <v>1148.3723700255</v>
+        <v>1124.6150990241199</v>
       </c>
       <c r="C93">
-        <v>12.2870655737094</v>
+        <v>11.2119106764079</v>
       </c>
       <c r="D93">
-        <v>10.758241296980801</v>
+        <v>10.0665196007674</v>
       </c>
       <c r="E93">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
@@ -15863,15 +16570,100 @@
         <v>2000</v>
       </c>
       <c r="B94">
-        <v>1149.8025100785901</v>
+        <v>1133.0615790977099</v>
       </c>
       <c r="C94">
-        <v>12.232261975878901</v>
+        <v>12.2694530663574</v>
       </c>
       <c r="D94">
-        <v>10.7618627890881</v>
+        <v>10.655015487564301</v>
       </c>
       <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>2000</v>
+      </c>
+      <c r="B95">
+        <v>1132.6719099245699</v>
+      </c>
+      <c r="C95">
+        <v>11.7076057185861</v>
+      </c>
+      <c r="D95">
+        <v>10.308171407677399</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>2000</v>
+      </c>
+      <c r="B96">
+        <v>1134.1301663849499</v>
+      </c>
+      <c r="C96">
+        <v>12.276049389180001</v>
+      </c>
+      <c r="D96">
+        <v>10.813407065781799</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>2000</v>
+      </c>
+      <c r="B97">
+        <v>1137.2007620028101</v>
+      </c>
+      <c r="C97">
+        <v>12.554723265274299</v>
+      </c>
+      <c r="D97">
+        <v>10.7930286553008</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>2000</v>
+      </c>
+      <c r="B98">
+        <v>1129.1117212121401</v>
+      </c>
+      <c r="C98">
+        <v>12.404076913540299</v>
+      </c>
+      <c r="D98">
+        <v>10.618306536096799</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>2000</v>
+      </c>
+      <c r="B99">
+        <v>1133.9660075688701</v>
+      </c>
+      <c r="C99">
+        <v>12.7107835362714</v>
+      </c>
+      <c r="D99">
+        <v>11.0143935506029</v>
+      </c>
+      <c r="E99">
         <v>5</v>
       </c>
     </row>

--- a/实验结果/处理结果/处理结果-ETL版本.xlsx
+++ b/实验结果/处理结果/处理结果-ETL版本.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8925" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8925" firstSheet="9" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="17" r:id="rId1"/>
     <sheet name="0-1000out" sheetId="23" r:id="rId2"/>
-    <sheet name="0-1000out2" sheetId="24" r:id="rId3"/>
+    <sheet name="0-2000out" sheetId="25" r:id="rId3"/>
     <sheet name="10-30" sheetId="15" r:id="rId4"/>
     <sheet name="10-30-2000out" sheetId="16" r:id="rId5"/>
     <sheet name="20-30" sheetId="18" r:id="rId6"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="156">
   <si>
     <t>test</t>
   </si>
@@ -462,6 +462,63 @@
   </si>
   <si>
     <t>29min</t>
+  </si>
+  <si>
+    <t>2000PPM</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>1165.748728</t>
+  </si>
+  <si>
+    <t>11.96611175</t>
+  </si>
+  <si>
+    <t>10.72219151</t>
+  </si>
+  <si>
+    <t>122min</t>
+  </si>
+  <si>
+    <t>130min</t>
+  </si>
+  <si>
+    <t>135min</t>
+  </si>
+  <si>
+    <t>15min</t>
+  </si>
+  <si>
+    <t>45min</t>
+  </si>
+  <si>
+    <t>60min</t>
+  </si>
+  <si>
+    <t>82min</t>
+  </si>
+  <si>
+    <t>85min</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>y=a + b ln x</t>
+  </si>
+  <si>
+    <t>a=1.153300e+03</t>
+  </si>
+  <si>
+    <t>b=</t>
+  </si>
+  <si>
+    <t>|r|=9.387244e</t>
   </si>
 </sst>
 </file>
@@ -1603,11 +1660,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1578202208"/>
-        <c:axId val="1578188608"/>
+        <c:axId val="201477856"/>
+        <c:axId val="201488736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1578202208"/>
+        <c:axId val="201477856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1664,12 +1721,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1578188608"/>
+        <c:crossAx val="201488736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1578188608"/>
+        <c:axId val="201488736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1726,7 +1783,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1578202208"/>
+        <c:crossAx val="201477856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1853,198 +1910,186 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'0-1000out2'!$D$2:$D$31</c:f>
+              <c:f>'0-2000out'!$D$2:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.5</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>16</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>29</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>50</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'0-1000out2'!$E$2:$E$31</c:f>
+              <c:f>'0-2000out'!$E$2:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>1151.7427637420201</c:v>
+                  <c:v>1166.4835863553701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1151.2335056336899</c:v>
+                  <c:v>1164.4266992632299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1154.5926725863501</c:v>
+                  <c:v>1167.9053855673701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1153.2316894073999</c:v>
+                  <c:v>1167.0005695867201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1153.15321296251</c:v>
+                  <c:v>1162.67023639642</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1147.8403576073999</c:v>
+                  <c:v>1160.5050380044299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1148.79251959574</c:v>
+                  <c:v>1157.52360042842</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1148.5963054951501</c:v>
+                  <c:v>1154.1109656620999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1144.24410506237</c:v>
+                  <c:v>1157.6058609854599</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1148.35002409463</c:v>
+                  <c:v>1158.8966602303201</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1145.8545532598901</c:v>
+                  <c:v>1150.14356172365</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1142.5343835082101</c:v>
+                  <c:v>1151.5304181698</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1143.0754450131301</c:v>
+                  <c:v>1150.59772011631</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1139.9766312858901</c:v>
+                  <c:v>1152.98927330378</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1145.8058803234501</c:v>
+                  <c:v>1151.01696396329</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1138.4399875874201</c:v>
+                  <c:v>1144.4946173298099</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1142.8346267080699</c:v>
+                  <c:v>1141.9363937907599</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1144.6136576981201</c:v>
+                  <c:v>1127.01240701801</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1140.4936742131799</c:v>
+                  <c:v>1120.2799085761901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1142.2240697838799</c:v>
+                  <c:v>1119.4682882965201</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1138.8034014935399</c:v>
+                  <c:v>1117.89673266356</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1136.4164844055599</c:v>
+                  <c:v>1117.00313222149</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1137.9141793244501</c:v>
+                  <c:v>1112.9785607138001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1137.5502244039001</c:v>
+                  <c:v>1116.4215827809901</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1142.7080274236</c:v>
+                  <c:v>1110.2779941226199</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1135.3604541685399</c:v>
+                  <c:v>1105.87840912922</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1137.78505689704</c:v>
+                  <c:v>1112.45644872614</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1138.07203724428</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1135.9496083712199</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1132.39020004748</c:v>
+                  <c:v>1106.87966656596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2059,11 +2104,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1577998272"/>
-        <c:axId val="1578003712"/>
+        <c:axId val="199661872"/>
+        <c:axId val="201478400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1577998272"/>
+        <c:axId val="199661872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2120,12 +2165,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1578003712"/>
+        <c:crossAx val="201478400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1578003712"/>
+        <c:axId val="201478400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2182,7 +2227,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1577998272"/>
+        <c:crossAx val="199661872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2246,7 +2291,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2557,11 +2601,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1928579920"/>
-        <c:axId val="1928579376"/>
+        <c:axId val="201480032"/>
+        <c:axId val="201480576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1928579920"/>
+        <c:axId val="201480032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2618,12 +2662,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1928579376"/>
+        <c:crossAx val="201480576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1928579376"/>
+        <c:axId val="201480576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2680,7 +2724,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1928579920"/>
+        <c:crossAx val="201480032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2694,7 +2738,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3003,11 +3046,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1928578832"/>
-        <c:axId val="1928583184"/>
+        <c:axId val="201483840"/>
+        <c:axId val="199658064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1928578832"/>
+        <c:axId val="201483840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3064,12 +3107,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1928583184"/>
+        <c:crossAx val="199658064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1928583184"/>
+        <c:axId val="199658064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3126,7 +3169,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1928578832"/>
+        <c:crossAx val="201483840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3405,11 +3448,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1594890112"/>
-        <c:axId val="1594887936"/>
+        <c:axId val="468643584"/>
+        <c:axId val="468641952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1594890112"/>
+        <c:axId val="468643584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3466,12 +3509,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1594887936"/>
+        <c:crossAx val="468641952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1594887936"/>
+        <c:axId val="468641952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3528,7 +3571,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1594890112"/>
+        <c:crossAx val="468643584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6396,16 +6439,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6724,21 +6767,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="表20" displayName="表20" ref="A1:G31" totalsRowShown="0">
-  <autoFilter ref="A1:G31"/>
-  <sortState ref="A2:G31">
-    <sortCondition ref="D1:D31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="表20" displayName="表20" ref="A1:G29" totalsRowShown="0">
+  <autoFilter ref="A1:G29"/>
+  <sortState ref="A2:G29">
+    <sortCondition ref="D1:D29"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="列1"/>
-    <tableColumn id="2" name="列2"/>
-    <tableColumn id="3" name="列3"/>
-    <tableColumn id="4" name="列4">
-      <calculatedColumnFormula>C2*30/60</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" name="列5"/>
-    <tableColumn id="6" name="列6"/>
-    <tableColumn id="7" name="列7"/>
+    <tableColumn id="1" name="2000ppm"/>
+    <tableColumn id="2" name="out"/>
+    <tableColumn id="3" name="0"/>
+    <tableColumn id="4" name="02"/>
+    <tableColumn id="5" name="1165.748728"/>
+    <tableColumn id="6" name="11.96611175"/>
+    <tableColumn id="7" name="10.72219151"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6762,17 +6803,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="表13" displayName="表13" ref="A1:E43" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="表13" displayName="表13" ref="A1:E43" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E43"/>
   <sortState ref="A2:E43">
     <sortCondition ref="A1:A43"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="列1" dataDxfId="6"/>
-    <tableColumn id="2" name="列2" dataDxfId="5"/>
-    <tableColumn id="3" name="列3" dataDxfId="4"/>
-    <tableColumn id="4" name="列4" dataDxfId="3"/>
-    <tableColumn id="5" name="列5" dataDxfId="2"/>
+    <tableColumn id="1" name="列1" dataDxfId="4"/>
+    <tableColumn id="2" name="列2" dataDxfId="3"/>
+    <tableColumn id="3" name="列3" dataDxfId="2"/>
+    <tableColumn id="4" name="列4" dataDxfId="1"/>
+    <tableColumn id="5" name="列5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7247,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f>B2*30/60</f>
+        <f t="shared" ref="C2:C22" si="0">B2*30/60</f>
         <v>0</v>
       </c>
       <c r="D2">
@@ -7280,7 +7321,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <f>B3*30/60</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="D3">
@@ -7313,7 +7354,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <f>B4*30/60</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D4">
@@ -7346,7 +7387,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <f>B5*30/60</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="D5">
@@ -7379,7 +7420,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <f>B6*30/60</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D6">
@@ -7412,7 +7453,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <f>B7*30/60</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="D7">
@@ -7445,7 +7486,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <f>B8*30/60</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D8">
@@ -7478,7 +7519,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <f>B9*30/60</f>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="D9">
@@ -7511,7 +7552,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <f>B10*30/60</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D10">
@@ -7544,7 +7585,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <f>B11*30/60</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="D11">
@@ -7577,7 +7618,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <f>B12*30/60</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D12">
@@ -7610,7 +7651,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <f>B13*30/60</f>
+        <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
       <c r="D13">
@@ -7643,7 +7684,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <f>B14*30/60</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D14">
@@ -7676,7 +7717,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <f>B15*30/60</f>
+        <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
       <c r="D15">
@@ -7709,7 +7750,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <f>B16*30/60</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D16">
@@ -7742,7 +7783,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <f>B17*30/60</f>
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
       <c r="D17">
@@ -7775,7 +7816,7 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <f>B18*30/60</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D18">
@@ -7808,7 +7849,7 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <f>B19*30/60</f>
+        <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
       <c r="D19">
@@ -7841,7 +7882,7 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <f>B20*30/60</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D20">
@@ -7874,7 +7915,7 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <f>B21*30/60</f>
+        <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
       <c r="D21">
@@ -7907,7 +7948,7 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <f>B22*30/60</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D22">
@@ -12689,8 +12730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12698,7 +12739,7 @@
     <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -12715,7 +12756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -12731,8 +12772,15 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE(B2:B5)</f>
+        <v>1855.99374833461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0</v>
       </c>
@@ -12748,8 +12796,15 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <f>AVERAGE(B6:B9)</f>
+        <v>1857.5546235247202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -12765,8 +12820,15 @@
       <c r="E4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H4">
+        <v>200</v>
+      </c>
+      <c r="I4">
+        <f>AVERAGE(B10:B13)</f>
+        <v>1866.6585736888351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0</v>
       </c>
@@ -12782,8 +12844,15 @@
       <c r="E5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H5">
+        <v>300</v>
+      </c>
+      <c r="I5">
+        <f>AVERAGE(B14:B18)</f>
+        <v>1866.41058445368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>100</v>
       </c>
@@ -12799,8 +12868,15 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H6">
+        <v>400</v>
+      </c>
+      <c r="I6">
+        <f>AVERAGE(B19:B22)</f>
+        <v>1874.2394012221898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>100</v>
       </c>
@@ -12816,8 +12892,15 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H7">
+        <v>500</v>
+      </c>
+      <c r="I7">
+        <f>AVERAGE(B23:B26)</f>
+        <v>1877.705840792665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>100</v>
       </c>
@@ -12833,8 +12916,15 @@
       <c r="E8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H8">
+        <v>1000</v>
+      </c>
+      <c r="I8">
+        <f>AVERAGE(B27:B31)</f>
+        <v>1887.9042796330982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>100</v>
       </c>
@@ -12850,8 +12940,15 @@
       <c r="E9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H9">
+        <v>2000</v>
+      </c>
+      <c r="I9">
+        <f>AVERAGE(B32:B34)</f>
+        <v>1921.7069106741801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>200</v>
       </c>
@@ -12868,7 +12965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>200</v>
       </c>
@@ -12885,7 +12982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>200</v>
       </c>
@@ -12902,7 +12999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>200</v>
       </c>
@@ -12919,7 +13016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>300</v>
       </c>
@@ -12936,7 +13033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>300</v>
       </c>
@@ -12953,7 +13050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>300</v>
       </c>
@@ -18132,10 +18229,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18174,7 +18271,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f>C2*30/60</f>
+        <f t="shared" ref="D2:D22" si="0">C2*30/60</f>
         <v>0</v>
       </c>
       <c r="E2">
@@ -18198,7 +18295,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <f>C3*30/60</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="E3">
@@ -18222,7 +18319,7 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <f>C4*30/60</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E4">
@@ -18246,7 +18343,7 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <f>C5*30/60</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="E5">
@@ -18270,7 +18367,7 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <f>C6*30/60</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E6">
@@ -18294,7 +18391,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <f>C7*30/60</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="E7">
@@ -18318,7 +18415,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <f>C8*30/60</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E8">
@@ -18342,7 +18439,7 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <f>C9*30/60</f>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="E9">
@@ -18366,7 +18463,7 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <f>C10*30/60</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E10">
@@ -18390,7 +18487,7 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <f>C11*30/60</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="E11">
@@ -18414,7 +18511,7 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <f>C12*30/60</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E12">
@@ -18438,7 +18535,7 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <f>C13*30/60</f>
+        <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
       <c r="E13">
@@ -18462,7 +18559,7 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <f>C14*30/60</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E14">
@@ -18486,7 +18583,7 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <f>C15*30/60</f>
+        <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
       <c r="E15">
@@ -18510,7 +18607,7 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <f>C16*30/60</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="E16">
@@ -18523,7 +18620,7 @@
         <v>9.1474510889612297</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>133</v>
       </c>
@@ -18534,7 +18631,7 @@
         <v>15</v>
       </c>
       <c r="D17">
-        <f>C17*30/60</f>
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
       <c r="E17">
@@ -18547,7 +18644,7 @@
         <v>9.1275113220434196</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>133</v>
       </c>
@@ -18558,7 +18655,7 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <f>C18*30/60</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="E18">
@@ -18571,7 +18668,7 @@
         <v>9.0392463391489404</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>133</v>
       </c>
@@ -18582,7 +18679,7 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <f>C19*30/60</f>
+        <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
       <c r="E19">
@@ -18595,7 +18692,7 @@
         <v>9.1122623268955198</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -18606,7 +18703,7 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <f>C20*30/60</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="E20">
@@ -18619,7 +18716,7 @@
         <v>9.1317764290093795</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>133</v>
       </c>
@@ -18630,7 +18727,7 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <f>C21*30/60</f>
+        <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
       <c r="E21">
@@ -18643,7 +18740,7 @@
         <v>8.9746339312592909</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -18654,7 +18751,7 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <f>C22*30/60</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E22">
@@ -18667,7 +18764,7 @@
         <v>9.0080294462007995</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>133</v>
       </c>
@@ -18690,7 +18787,7 @@
         <v>8.7758750458872008</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>133</v>
       </c>
@@ -18712,8 +18809,11 @@
       <c r="G24">
         <v>8.6777233926663193</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="P24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>133</v>
       </c>
@@ -18735,8 +18835,11 @@
       <c r="G25">
         <v>8.8485564820689309</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="P25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -18758,8 +18861,14 @@
       <c r="G26">
         <v>8.5804880413724707</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="P26" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>5.3041239999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>133</v>
       </c>
@@ -18781,8 +18890,11 @@
       <c r="G27">
         <v>8.2953292361406294</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="P27" s="1">
+        <v>2.1139220000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -18804,8 +18916,14 @@
       <c r="G28">
         <v>8.2359037504415795</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="P28" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>133</v>
       </c>
@@ -18827,8 +18945,14 @@
       <c r="G29">
         <v>8.3300776916989001</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>1123.1199999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>133</v>
       </c>
@@ -18850,8 +18974,14 @@
       <c r="G30">
         <v>8.1295895995767093</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="N30">
+        <v>1000</v>
+      </c>
+      <c r="O30">
+        <v>1140.5999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>133</v>
       </c>
@@ -23879,746 +24009,709 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.75" customWidth="1"/>
+    <col min="5" max="7" width="13.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
         <v>124</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <f>C2*30/60</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>1151.7427637420201</v>
+        <v>1166.4835863553701</v>
       </c>
       <c r="F2">
-        <v>10.431115453499199</v>
+        <v>12.1545402594548</v>
       </c>
       <c r="G2">
-        <v>9.6261334741762301</v>
+        <v>10.801377464444601</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
         <v>124</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <f>C3*30/60</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>1151.2335056336899</v>
+        <v>1164.4266992632299</v>
       </c>
       <c r="F3">
-        <v>9.7244654594977895</v>
+        <v>12.404076913540299</v>
       </c>
       <c r="G3">
-        <v>9.2303204780208095</v>
+        <v>11.089087735322799</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
         <v>124</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <f>C4*30/60</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E4">
-        <v>1154.5926725863501</v>
+        <v>1167.9053855673701</v>
       </c>
       <c r="F4">
-        <v>10.289097868628801</v>
+        <v>11.825007381322401</v>
       </c>
       <c r="G4">
-        <v>9.5448143711550699</v>
+        <v>10.6058059667068</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>124</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <f>C5*30/60</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>1153.2316894073999</v>
+        <v>1167.0005695867201</v>
       </c>
       <c r="F5">
-        <v>9.3218548883815995</v>
+        <v>12.4710684511541</v>
       </c>
       <c r="G5">
-        <v>8.8028234089450503</v>
+        <v>11.003983408538801</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
         <v>124</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <f>C6*30/60</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E6">
-        <v>1153.15321296251</v>
+        <v>1162.67023639642</v>
       </c>
       <c r="F6">
-        <v>9.8830271188585694</v>
+        <v>11.6749108729376</v>
       </c>
       <c r="G6">
-        <v>9.2609844168579301</v>
+        <v>10.311436253853101</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
         <v>124</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <f>C7*30/60</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>1147.8403576073999</v>
+        <v>1160.5050380044299</v>
       </c>
       <c r="F7">
-        <v>10.0802120900542</v>
+        <v>11.317083119821399</v>
       </c>
       <c r="G7">
-        <v>9.5276408454031891</v>
+        <v>10.12780770092</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <f>C8*30/60</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>1148.79251959574</v>
+        <v>1157.52360042842</v>
       </c>
       <c r="F8">
-        <v>9.5420776727044103</v>
+        <v>11.9044028536473</v>
       </c>
       <c r="G8">
-        <v>9.0552887135835505</v>
+        <v>10.515870342214001</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
         <v>124</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <f>C9*30/60</f>
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="E9">
-        <v>1148.5963054951501</v>
+        <v>1154.1109656620999</v>
       </c>
       <c r="F9">
-        <v>10.001303078917299</v>
+        <v>11.270865583796001</v>
       </c>
       <c r="G9">
-        <v>9.4108073928111509</v>
+        <v>10.1139645665434</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
         <v>124</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <f>C10*30/60</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>1144.24410506237</v>
+        <v>1157.6058609854599</v>
       </c>
       <c r="F10">
-        <v>9.7506303196255608</v>
+        <v>11.1305829401658</v>
       </c>
       <c r="G10">
-        <v>9.0752498707401994</v>
+        <v>10.1063918622375</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <f>C11*30/60</f>
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="E11">
-        <v>1148.35002409463</v>
+        <v>1158.8966602303201</v>
       </c>
       <c r="F11">
-        <v>9.6972419711071201</v>
+        <v>11.0149421446564</v>
       </c>
       <c r="G11">
-        <v>9.2775010238648505</v>
+        <v>10.1363140642973</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <f>C12*30/60</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>1145.8545532598901</v>
+        <v>1150.14356172365</v>
       </c>
       <c r="F12">
-        <v>9.9727252731017</v>
+        <v>10.561593735987399</v>
       </c>
       <c r="G12">
-        <v>9.4153601439774892</v>
+        <v>9.8434690146453505</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <f>C13*30/60</f>
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="E13">
-        <v>1142.5343835082101</v>
+        <v>1151.5304181698</v>
       </c>
       <c r="F13">
-        <v>9.8242413160892603</v>
+        <v>10.747394904805599</v>
       </c>
       <c r="G13">
-        <v>9.3756844683738798</v>
+        <v>9.9939241293711003</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <f>C14*30/60</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E14">
-        <v>1143.0754450131301</v>
+        <v>1150.59772011631</v>
       </c>
       <c r="F14">
-        <v>9.6677735332975008</v>
+        <v>10.8650404038288</v>
       </c>
       <c r="G14">
-        <v>9.2907596852385002</v>
+        <v>9.7901755708158102</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D15">
         <f>C15*30/60</f>
-        <v>6.5</v>
+        <v>10.5</v>
       </c>
       <c r="E15">
-        <v>1139.9766312858901</v>
+        <v>1152.98927330378</v>
       </c>
       <c r="F15">
-        <v>9.9076162903153406</v>
+        <v>10.328265770444601</v>
       </c>
       <c r="G15">
-        <v>9.2719885059015095</v>
+        <v>9.5078197732981806</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16">
-        <v>14</v>
+        <v>138</v>
+      </c>
+      <c r="C16" t="s">
+        <v>145</v>
       </c>
       <c r="D16">
-        <f>C16*30/60</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E16">
-        <v>1145.8058803234501</v>
+        <v>1151.01696396329</v>
       </c>
       <c r="F16">
-        <v>9.9477657514186397</v>
+        <v>10.521253451023</v>
       </c>
       <c r="G16">
-        <v>9.1474510889612297</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+        <v>9.9809329595911507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17">
-        <v>15</v>
+        <v>138</v>
+      </c>
+      <c r="C17" t="s">
+        <v>115</v>
       </c>
       <c r="D17">
-        <f>C17*30/60</f>
-        <v>7.5</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1138.4399875874201</v>
+        <v>1144.4946173298099</v>
       </c>
       <c r="F17">
-        <v>9.7506303196255608</v>
+        <v>9.6493065557889608</v>
       </c>
       <c r="G17">
-        <v>9.1275113220434196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+        <v>9.1193482230979495</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18">
-        <v>16</v>
+        <v>138</v>
+      </c>
+      <c r="C18" t="s">
+        <v>114</v>
       </c>
       <c r="D18">
-        <f>C18*30/60</f>
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E18">
-        <v>1142.8346267080699</v>
+        <v>1141.9363937907599</v>
       </c>
       <c r="F18">
-        <v>9.5604858173672298</v>
+        <v>9.5459877700415792</v>
       </c>
       <c r="G18">
-        <v>9.0392463391489404</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+        <v>9.0601829608588709</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19">
-        <v>17</v>
+        <v>138</v>
+      </c>
+      <c r="C19" t="s">
+        <v>111</v>
       </c>
       <c r="D19">
-        <f>C19*30/60</f>
-        <v>8.5</v>
+        <v>40</v>
       </c>
       <c r="E19">
-        <v>1144.6136576981201</v>
+        <v>1127.01240701801</v>
       </c>
       <c r="F19">
-        <v>9.5179133297585405</v>
+        <v>7.96151536253765</v>
       </c>
       <c r="G19">
-        <v>9.1122623268955198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+        <v>7.8272667387067898</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20">
-        <v>18</v>
+        <v>138</v>
+      </c>
+      <c r="C20" t="s">
+        <v>146</v>
       </c>
       <c r="D20">
-        <f>C20*30/60</f>
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E20">
-        <v>1140.4936742131799</v>
+        <v>1120.2799085761901</v>
       </c>
       <c r="F20">
-        <v>9.5837049152486191</v>
+        <v>7.8170087411482703</v>
       </c>
       <c r="G20">
-        <v>9.1317764290093795</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+        <v>7.6520441177935803</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21">
-        <v>19</v>
+        <v>138</v>
+      </c>
+      <c r="C21" t="s">
+        <v>110</v>
       </c>
       <c r="D21">
-        <f>C21*30/60</f>
-        <v>9.5</v>
+        <v>50</v>
       </c>
       <c r="E21">
-        <v>1142.2240697838799</v>
+        <v>1119.4682882965201</v>
       </c>
       <c r="F21">
-        <v>9.5608783289874602</v>
+        <v>7.68836358494901</v>
       </c>
       <c r="G21">
-        <v>8.9746339312592909</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+        <v>7.5251773932294599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22">
-        <v>20</v>
+        <v>138</v>
+      </c>
+      <c r="C22" t="s">
+        <v>147</v>
       </c>
       <c r="D22">
-        <f>C22*30/60</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E22">
-        <v>1138.8034014935399</v>
+        <v>1117.89673266356</v>
       </c>
       <c r="F22">
-        <v>9.4062594093404197</v>
+        <v>7.4460687429269603</v>
       </c>
       <c r="G22">
-        <v>9.0080294462007995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+        <v>7.3785753510912198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="E23">
-        <v>1136.4164844055599</v>
+        <v>1117.00313222149</v>
       </c>
       <c r="F23">
-        <v>9.0896648394552901</v>
+        <v>7.0736740791757304</v>
       </c>
       <c r="G23">
-        <v>8.7758750458872008</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+        <v>7.0392743364016503</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="E24">
-        <v>1137.9141793244501</v>
+        <v>1112.9785607138001</v>
       </c>
       <c r="F24">
-        <v>9.2215989726500602</v>
+        <v>7.5369842282830897</v>
       </c>
       <c r="G24">
-        <v>8.6777233926663193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+        <v>7.3838032345206503</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25">
+        <v>82</v>
+      </c>
+      <c r="E25">
+        <v>1116.4215827809901</v>
+      </c>
+      <c r="F25">
+        <v>7.2188688402016599</v>
+      </c>
+      <c r="G25">
+        <v>7.14105287519161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26">
+        <v>85</v>
+      </c>
+      <c r="E26">
+        <v>1110.2779941226199</v>
+      </c>
+      <c r="F26">
+        <v>7.0197702244531301</v>
+      </c>
+      <c r="G26">
+        <v>7.0160546628705402</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27">
+        <v>122</v>
+      </c>
+      <c r="E27">
+        <v>1105.87840912922</v>
+      </c>
+      <c r="F27">
+        <v>7.1837584855979904</v>
+      </c>
+      <c r="G27">
+        <v>7.1615624220415599</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1115.53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28">
+        <v>130</v>
+      </c>
+      <c r="E28">
+        <v>1112.45644872614</v>
+      </c>
+      <c r="F28">
+        <v>7.01430726262807</v>
+      </c>
+      <c r="G28">
+        <v>6.9983946304864801</v>
+      </c>
+      <c r="K28">
+        <v>2000</v>
+      </c>
+      <c r="L28">
+        <v>1173.6600000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29">
         <v>135</v>
       </c>
-      <c r="D25">
-        <v>16</v>
-      </c>
-      <c r="E25">
-        <v>1137.5502244039001</v>
-      </c>
-      <c r="F25">
-        <v>9.2855987282211192</v>
-      </c>
-      <c r="G25">
-        <v>8.8485564820689309</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>1142.7080274236</v>
-      </c>
-      <c r="F26">
-        <v>9.1076626863460195</v>
-      </c>
-      <c r="G26">
-        <v>8.5804880413724707</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>133</v>
-      </c>
-      <c r="B27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" t="s">
-        <v>136</v>
-      </c>
-      <c r="D27">
-        <v>29</v>
-      </c>
-      <c r="E27">
-        <v>1135.3604541685399</v>
-      </c>
-      <c r="F27">
-        <v>8.6286752399100699</v>
-      </c>
-      <c r="G27">
-        <v>8.2953292361406294</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B28" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28">
-        <v>30</v>
-      </c>
-      <c r="E28">
-        <v>1137.78505689704</v>
-      </c>
-      <c r="F28">
-        <v>8.4022232721275198</v>
-      </c>
-      <c r="G28">
-        <v>8.2359037504415795</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29">
-        <v>35</v>
-      </c>
       <c r="E29">
-        <v>1138.07203724428</v>
+        <v>1106.87966656596</v>
       </c>
       <c r="F29">
-        <v>8.5007304088641007</v>
+        <v>6.9613465115729598</v>
       </c>
       <c r="G29">
-        <v>8.3300776916989001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>133</v>
-      </c>
-      <c r="B30" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30">
-        <v>40</v>
-      </c>
-      <c r="E30">
-        <v>1135.9496083712199</v>
-      </c>
-      <c r="F30">
-        <v>8.3259404276770805</v>
-      </c>
-      <c r="G30">
-        <v>8.1295895995767093</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>133</v>
-      </c>
-      <c r="B31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31">
-        <v>50</v>
-      </c>
-      <c r="E31">
-        <v>1132.39020004748</v>
-      </c>
-      <c r="F31">
-        <v>8.1273316182070605</v>
-      </c>
-      <c r="G31">
-        <v>8.0008034840943196</v>
+        <v>6.9458413616196504</v>
       </c>
     </row>
   </sheetData>
@@ -25492,7 +25585,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f>B2*30/60</f>
+        <f t="shared" ref="C2:C22" si="0">B2*30/60</f>
         <v>0</v>
       </c>
       <c r="E2">
@@ -25513,7 +25606,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <f>B3*30/60</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="E3">
@@ -25534,7 +25627,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <f>B4*30/60</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E4">
@@ -25555,7 +25648,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <f>B5*30/60</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="E5">
@@ -25576,7 +25669,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <f>B6*30/60</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E6">
@@ -25597,7 +25690,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <f>B7*30/60</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="E7">
@@ -25618,7 +25711,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <f>B8*30/60</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E8">
@@ -25639,7 +25732,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <f>B9*30/60</f>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="E9">
@@ -25660,7 +25753,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <f>B10*30/60</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E10">
@@ -25681,7 +25774,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <f>B11*30/60</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="E11">
@@ -25702,7 +25795,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <f>B12*30/60</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E12">
@@ -25723,7 +25816,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <f>B13*30/60</f>
+        <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
       <c r="E13">
@@ -25744,7 +25837,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <f>B14*30/60</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E14">
@@ -25765,7 +25858,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <f>B15*30/60</f>
+        <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
       <c r="E15">
@@ -25786,7 +25879,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <f>B16*30/60</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="E16">
@@ -25807,7 +25900,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <f>B17*30/60</f>
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
       <c r="E17">
@@ -25828,7 +25921,7 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <f>B18*30/60</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="E18">
@@ -25849,7 +25942,7 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <f>B19*30/60</f>
+        <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
       <c r="E19">
@@ -25870,7 +25963,7 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <f>B20*30/60</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="E20">
@@ -25891,7 +25984,7 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <f>B21*30/60</f>
+        <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
       <c r="E21">
@@ -25912,7 +26005,7 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <f>B22*30/60</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E22">
@@ -27852,7 +27945,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:I20"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28799,7 +28892,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <f>B1*30/60</f>
+        <f t="shared" ref="C1:C6" si="0">B1*30/60</f>
         <v>0</v>
       </c>
       <c r="D1">
@@ -28832,7 +28925,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <f>B2*30/60</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="D2">
@@ -28865,7 +28958,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <f>B3*30/60</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D3">
@@ -28898,7 +28991,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <f>B4*30/60</f>
+        <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
       <c r="D4">
@@ -28931,7 +29024,7 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <f>B5*30/60</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D5">
@@ -28964,7 +29057,7 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <f>B6*30/60</f>
+        <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
       <c r="D6">
@@ -29094,7 +29187,7 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <f>B10*30/60</f>
+        <f t="shared" ref="C10:C23" si="1">B10*30/60</f>
         <v>7.5</v>
       </c>
       <c r="D10">
@@ -29127,7 +29220,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <f>B11*30/60</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D11">
@@ -29160,7 +29253,7 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <f>B12*30/60</f>
+        <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
       <c r="D12">
@@ -29193,7 +29286,7 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <f>B13*30/60</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D13">
@@ -29226,7 +29319,7 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <f>B14*30/60</f>
+        <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
       <c r="D14">
@@ -29259,7 +29352,7 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <f>B15*30/60</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D15">
@@ -29292,7 +29385,7 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <f>B16*30/60</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D16">
@@ -29325,7 +29418,7 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <f>B17*30/60</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="D17">
@@ -29358,7 +29451,7 @@
         <v>4</v>
       </c>
       <c r="C18">
-        <f>B18*30/60</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D18">
@@ -29391,7 +29484,7 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <f>B19*30/60</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="D19">
@@ -29424,7 +29517,7 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <f>B20*30/60</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D20">
@@ -29457,7 +29550,7 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <f>B21*30/60</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="D21">
@@ -29490,7 +29583,7 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <f>B22*30/60</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D22">
@@ -29523,7 +29616,7 @@
         <v>9</v>
       </c>
       <c r="C23">
-        <f>B23*30/60</f>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="D23">

--- a/实验结果/处理结果/处理结果-ETL版本.xlsx
+++ b/实验结果/处理结果/处理结果-ETL版本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8925" firstSheet="9" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8925" firstSheet="14" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="17" r:id="rId1"/>
@@ -29,20 +29,21 @@
     <sheet name="40-30-snr2" sheetId="2" r:id="rId15"/>
     <sheet name="40-30-snr4" sheetId="3" r:id="rId16"/>
     <sheet name="45-30" sheetId="7" r:id="rId17"/>
-    <sheet name="60-40" sheetId="8" r:id="rId18"/>
-    <sheet name="90-60" sheetId="9" r:id="rId19"/>
-    <sheet name="180-60" sheetId="10" r:id="rId20"/>
-    <sheet name="180-60-e1" sheetId="11" r:id="rId21"/>
-    <sheet name="180-60-e2" sheetId="12" r:id="rId22"/>
-    <sheet name="相同半径" sheetId="13" r:id="rId23"/>
-    <sheet name="Sheet2" sheetId="14" r:id="rId24"/>
+    <sheet name="90-30" sheetId="26" r:id="rId18"/>
+    <sheet name="60-40" sheetId="8" r:id="rId19"/>
+    <sheet name="90-60" sheetId="9" r:id="rId20"/>
+    <sheet name="180-60" sheetId="10" r:id="rId21"/>
+    <sheet name="180-60-e1" sheetId="11" r:id="rId22"/>
+    <sheet name="180-60-e2" sheetId="12" r:id="rId23"/>
+    <sheet name="相同半径" sheetId="13" r:id="rId24"/>
+    <sheet name="Sheet2" sheetId="14" r:id="rId25"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="156">
   <si>
     <t>test</t>
   </si>
@@ -1391,7 +1392,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1660,11 +1660,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201477856"/>
-        <c:axId val="201488736"/>
+        <c:axId val="404159648"/>
+        <c:axId val="404161280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201477856"/>
+        <c:axId val="404159648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1721,12 +1721,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201488736"/>
+        <c:crossAx val="404161280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201488736"/>
+        <c:axId val="404161280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1783,7 +1783,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201477856"/>
+        <c:crossAx val="404159648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1847,7 +1847,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2104,11 +2103,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199661872"/>
-        <c:axId val="201478400"/>
+        <c:axId val="404154752"/>
+        <c:axId val="404156384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199661872"/>
+        <c:axId val="404154752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2165,12 +2164,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201478400"/>
+        <c:crossAx val="404156384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201478400"/>
+        <c:axId val="404156384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2227,7 +2226,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199661872"/>
+        <c:crossAx val="404154752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2601,11 +2600,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201480032"/>
-        <c:axId val="201480576"/>
+        <c:axId val="404162912"/>
+        <c:axId val="404148768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201480032"/>
+        <c:axId val="404162912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2662,12 +2661,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201480576"/>
+        <c:crossAx val="404148768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201480576"/>
+        <c:axId val="404148768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2724,7 +2723,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201480032"/>
+        <c:crossAx val="404162912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2819,7 +2818,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3046,11 +3044,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201483840"/>
-        <c:axId val="199658064"/>
+        <c:axId val="404160192"/>
+        <c:axId val="404149312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201483840"/>
+        <c:axId val="404160192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3107,12 +3105,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199658064"/>
+        <c:crossAx val="404149312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199658064"/>
+        <c:axId val="404149312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3169,7 +3167,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201483840"/>
+        <c:crossAx val="404160192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3233,7 +3231,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3448,11 +3445,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="468643584"/>
-        <c:axId val="468641952"/>
+        <c:axId val="471419760"/>
+        <c:axId val="471420304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="468643584"/>
+        <c:axId val="471419760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3509,12 +3506,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468641952"/>
+        <c:crossAx val="471420304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="468641952"/>
+        <c:axId val="471420304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3571,7 +3568,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468643584"/>
+        <c:crossAx val="471419760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6699,6 +6696,23 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="表21" displayName="表21" ref="A1:E103" totalsRowShown="0">
+  <autoFilter ref="A1:E103"/>
+  <sortState ref="A2:E105">
+    <sortCondition ref="A1:A105"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" name="列1"/>
+    <tableColumn id="2" name="列2"/>
+    <tableColumn id="3" name="列3"/>
+    <tableColumn id="4" name="列4"/>
+    <tableColumn id="5" name="列5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A1:E99" totalsRowShown="0">
   <autoFilter ref="A1:E99"/>
   <sortState ref="A2:E99">
@@ -6715,7 +6729,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="表9" displayName="表9" ref="A1:E94" totalsRowShown="0">
   <autoFilter ref="A1:E94"/>
   <sortState ref="A2:E94">
@@ -6732,7 +6746,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="表10" displayName="表10" ref="A1:E71" totalsRowShown="0">
   <autoFilter ref="A1:E71"/>
   <sortState ref="A2:G71">
@@ -6744,23 +6758,6 @@
     <tableColumn id="6" name="列6"/>
     <tableColumn id="7" name="列7"/>
     <tableColumn id="2" name="列2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="表11" displayName="表11" ref="A1:E83" totalsRowShown="0">
-  <autoFilter ref="A1:E83"/>
-  <sortState ref="A2:E83">
-    <sortCondition ref="A1:A83"/>
-  </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" name="列1"/>
-    <tableColumn id="2" name="列2"/>
-    <tableColumn id="3" name="列3"/>
-    <tableColumn id="4" name="列4"/>
-    <tableColumn id="5" name="列5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6786,6 +6783,23 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="表11" displayName="表11" ref="A1:E83" totalsRowShown="0">
+  <autoFilter ref="A1:E83"/>
+  <sortState ref="A2:E83">
+    <sortCondition ref="A1:A83"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" name="列1"/>
+    <tableColumn id="2" name="列2"/>
+    <tableColumn id="3" name="列3"/>
+    <tableColumn id="4" name="列4"/>
+    <tableColumn id="5" name="列5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="表12" displayName="表12" ref="A1:E100" totalsRowShown="0">
   <autoFilter ref="A1:E100"/>
   <sortState ref="A2:E100">
@@ -12730,7 +12744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -14892,6 +14906,1912 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1068.6543053166799</v>
+      </c>
+      <c r="C2">
+        <v>7.3781004008699496</v>
+      </c>
+      <c r="D2">
+        <v>7.1014359729074297</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1069.0511442547199</v>
+      </c>
+      <c r="C3">
+        <v>6.6865369834743298</v>
+      </c>
+      <c r="D3">
+        <v>6.6778379412171596</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1070.61815183669</v>
+      </c>
+      <c r="C4">
+        <v>6.7247759728317904</v>
+      </c>
+      <c r="D4">
+        <v>6.7172235559023203</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1069.21699252036</v>
+      </c>
+      <c r="C5">
+        <v>6.6972830883249497</v>
+      </c>
+      <c r="D5">
+        <v>6.6885625162842599</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>1075.8120463748101</v>
+      </c>
+      <c r="C6">
+        <v>6.74443289948867</v>
+      </c>
+      <c r="D6">
+        <v>6.7386904328920503</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>1072.04940491299</v>
+      </c>
+      <c r="C7">
+        <v>6.9591897054007799</v>
+      </c>
+      <c r="D7">
+        <v>6.8951910853732503</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>1074.7594213688101</v>
+      </c>
+      <c r="C8">
+        <v>6.8012393326084997</v>
+      </c>
+      <c r="D8">
+        <v>6.7869161022409097</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>1073.66891643483</v>
+      </c>
+      <c r="C9">
+        <v>6.8932792506987601</v>
+      </c>
+      <c r="D9">
+        <v>6.8033190878532297</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>1074.6338246035</v>
+      </c>
+      <c r="C10">
+        <v>6.8943412771680102</v>
+      </c>
+      <c r="D10">
+        <v>6.8447046678615102</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>1073.4356002915499</v>
+      </c>
+      <c r="C11">
+        <v>6.7354124292877797</v>
+      </c>
+      <c r="D11">
+        <v>6.7141655028579796</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>1071.6931502735099</v>
+      </c>
+      <c r="C12">
+        <v>6.8128988108165904</v>
+      </c>
+      <c r="D12">
+        <v>6.7612939345949101</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <v>1073.2119346668301</v>
+      </c>
+      <c r="C13">
+        <v>6.9357497244931299</v>
+      </c>
+      <c r="D13">
+        <v>6.8606953746653803</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>100</v>
+      </c>
+      <c r="B14">
+        <v>1077.86463641249</v>
+      </c>
+      <c r="C14">
+        <v>7.0108145699490203</v>
+      </c>
+      <c r="D14">
+        <v>6.9329625557035897</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>1073.8290661866199</v>
+      </c>
+      <c r="C15">
+        <v>6.9862270765065499</v>
+      </c>
+      <c r="D15">
+        <v>6.9081713068961097</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>100</v>
+      </c>
+      <c r="B16">
+        <v>1076.5072599699899</v>
+      </c>
+      <c r="C16">
+        <v>7.0809859953453298</v>
+      </c>
+      <c r="D16">
+        <v>6.9591897054007799</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17">
+        <v>1071.94297084769</v>
+      </c>
+      <c r="C17">
+        <v>6.9494973108277698</v>
+      </c>
+      <c r="D17">
+        <v>6.8480662430428598</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f>AVERAGE(B2:B5)</f>
+        <v>1069.3851484821125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>100</v>
+      </c>
+      <c r="B18">
+        <v>1074.0163139757601</v>
+      </c>
+      <c r="C18">
+        <v>7.0101600026661597</v>
+      </c>
+      <c r="D18">
+        <v>6.9462713135870304</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>50</v>
+      </c>
+      <c r="J18">
+        <f>AVERAGE(B6:B12)</f>
+        <v>1073.7217663228571</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>100</v>
+      </c>
+      <c r="B19">
+        <v>1075.4823328638399</v>
+      </c>
+      <c r="C19">
+        <v>7.0086330625598601</v>
+      </c>
+      <c r="D19">
+        <v>6.9522951147674101</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>100</v>
+      </c>
+      <c r="J19">
+        <f>AVERAGE(B13:B19)</f>
+        <v>1074.6935021318884</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>150</v>
+      </c>
+      <c r="B20">
+        <v>1075.28731217515</v>
+      </c>
+      <c r="C20">
+        <v>7.4167406525102804</v>
+      </c>
+      <c r="D20">
+        <v>7.2974052447337598</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>150</v>
+      </c>
+      <c r="J20">
+        <f>AVERAGE(B20:B25)</f>
+        <v>1077.2862870032832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>150</v>
+      </c>
+      <c r="B21">
+        <v>1080.44688838306</v>
+      </c>
+      <c r="C21">
+        <v>8.1496807956723192</v>
+      </c>
+      <c r="D21">
+        <v>7.7848143967772101</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>200</v>
+      </c>
+      <c r="J21">
+        <f>AVERAGE(B26:B31)</f>
+        <v>1081.0589798514184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>150</v>
+      </c>
+      <c r="B22">
+        <v>1079.2568511966001</v>
+      </c>
+      <c r="C22">
+        <v>7.3160926437006903</v>
+      </c>
+      <c r="D22">
+        <v>7.2621192043248</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>250</v>
+      </c>
+      <c r="J22">
+        <f>AVERAGE(B32:B37)</f>
+        <v>1083.6387600942132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>150</v>
+      </c>
+      <c r="B23">
+        <v>1077.36850403728</v>
+      </c>
+      <c r="C23">
+        <v>7.2133783909001901</v>
+      </c>
+      <c r="D23">
+        <v>7.0434495056741397</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>300</v>
+      </c>
+      <c r="J23">
+        <f>AVERAGE(B39:B45)</f>
+        <v>1085.4782549355243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>150</v>
+      </c>
+      <c r="B24">
+        <v>1074.9549912868299</v>
+      </c>
+      <c r="C24">
+        <v>7.3902278862752002</v>
+      </c>
+      <c r="D24">
+        <v>7.2750859931143204</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>350</v>
+      </c>
+      <c r="J24">
+        <f>AVERAGE(B46:B50)</f>
+        <v>1086.889435952914</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>150</v>
+      </c>
+      <c r="B25">
+        <v>1076.40317494078</v>
+      </c>
+      <c r="C25">
+        <v>7.2778696347985701</v>
+      </c>
+      <c r="D25">
+        <v>7.1692502526452904</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>400</v>
+      </c>
+      <c r="J25">
+        <f>AVERAGE(B51:B55)</f>
+        <v>1090.922109008382</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>200</v>
+      </c>
+      <c r="B26">
+        <v>1079.4351413929401</v>
+      </c>
+      <c r="C26">
+        <v>7.6147718778170601</v>
+      </c>
+      <c r="D26">
+        <v>7.4724402891142701</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>450</v>
+      </c>
+      <c r="J26">
+        <f>AVERAGE(B56:B59)</f>
+        <v>1090.9204785492125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>200</v>
+      </c>
+      <c r="B27">
+        <v>1081.0352865597699</v>
+      </c>
+      <c r="C27">
+        <v>7.5389551585728896</v>
+      </c>
+      <c r="D27">
+        <v>7.4035834657113897</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>500</v>
+      </c>
+      <c r="J27">
+        <f>AVERAGE(B60:B65)</f>
+        <v>1093.1945580705985</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>200</v>
+      </c>
+      <c r="B28">
+        <v>1079.79517920321</v>
+      </c>
+      <c r="C28">
+        <v>7.5530239870329199</v>
+      </c>
+      <c r="D28">
+        <v>7.3716936514434002</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>600</v>
+      </c>
+      <c r="J28">
+        <f>AVERAGE(B66:B69)</f>
+        <v>1095.6087091733875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>200</v>
+      </c>
+      <c r="B29">
+        <v>1078.9319244455601</v>
+      </c>
+      <c r="C29">
+        <v>7.4688016611311303</v>
+      </c>
+      <c r="D29">
+        <v>7.3572538466841602</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>700</v>
+      </c>
+      <c r="J29">
+        <f>AVERAGE(B70:B74)</f>
+        <v>1098.0397491259239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>200</v>
+      </c>
+      <c r="B30">
+        <v>1083.3160033617601</v>
+      </c>
+      <c r="C30">
+        <v>7.4688016611311303</v>
+      </c>
+      <c r="D30">
+        <v>7.4021505446692997</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>800</v>
+      </c>
+      <c r="J30">
+        <f>AVERAGE(B75:B80)</f>
+        <v>1100.0702912466802</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>200</v>
+      </c>
+      <c r="B31">
+        <v>1083.8403441452699</v>
+      </c>
+      <c r="C31">
+        <v>7.4277755381242603</v>
+      </c>
+      <c r="D31">
+        <v>7.2262002533274501</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>900</v>
+      </c>
+      <c r="J31">
+        <f>AVERAGE(B81:B86)</f>
+        <v>1103.57402419969</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>250</v>
+      </c>
+      <c r="B32">
+        <v>1084.42573961005</v>
+      </c>
+      <c r="C32">
+        <v>7.8775911119846604</v>
+      </c>
+      <c r="D32">
+        <v>7.6495156216700799</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1000</v>
+      </c>
+      <c r="J32">
+        <f>AVERAGE(B87:B92)</f>
+        <v>1106.2769482732735</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>250</v>
+      </c>
+      <c r="B33">
+        <v>1085.2327181196199</v>
+      </c>
+      <c r="C33">
+        <v>8.0104066132979703</v>
+      </c>
+      <c r="D33">
+        <v>7.7900330285263202</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1500</v>
+      </c>
+      <c r="J33">
+        <f>AVERAGE(B93:B98)</f>
+        <v>1118.2506445101365</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>250</v>
+      </c>
+      <c r="B34">
+        <v>1083.15721021631</v>
+      </c>
+      <c r="C34">
+        <v>7.97266541954557</v>
+      </c>
+      <c r="D34">
+        <v>7.7803834849495797</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>2000</v>
+      </c>
+      <c r="J34">
+        <f>AVERAGE(B99:B103)</f>
+        <v>1129.4636462793501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>250</v>
+      </c>
+      <c r="B35">
+        <v>1082.6042919205699</v>
+      </c>
+      <c r="C35">
+        <v>7.7541514626846899</v>
+      </c>
+      <c r="D35">
+        <v>7.5031257219469802</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>250</v>
+      </c>
+      <c r="B36">
+        <v>1083.1976687885499</v>
+      </c>
+      <c r="C36">
+        <v>7.9019019421462096</v>
+      </c>
+      <c r="D36">
+        <v>7.6593850923361302</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>250</v>
+      </c>
+      <c r="B37">
+        <v>1083.21493191018</v>
+      </c>
+      <c r="C37">
+        <v>7.7788207124177804</v>
+      </c>
+      <c r="D37">
+        <v>7.6454730873678098</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>300</v>
+      </c>
+      <c r="B38">
+        <v>1083.720901165</v>
+      </c>
+      <c r="C38">
+        <v>7.9233870880321797</v>
+      </c>
+      <c r="D38">
+        <v>7.82068831214219</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>2.9352E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>300</v>
+      </c>
+      <c r="B39">
+        <v>1084.6998294806499</v>
+      </c>
+      <c r="C39">
+        <v>8.3212169470194493</v>
+      </c>
+      <c r="D39">
+        <v>8.0137040090798095</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1075.4000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>300</v>
+      </c>
+      <c r="B40">
+        <v>1084.6970727134601</v>
+      </c>
+      <c r="C40">
+        <v>8.0958425296671006</v>
+      </c>
+      <c r="D40">
+        <v>7.9013661729845301</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>300</v>
+      </c>
+      <c r="B41">
+        <v>1086.3459453115099</v>
+      </c>
+      <c r="C41">
+        <v>8.0947221311264705</v>
+      </c>
+      <c r="D41">
+        <v>7.8882604327150601</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>300</v>
+      </c>
+      <c r="B42">
+        <v>1084.0527974259501</v>
+      </c>
+      <c r="C42">
+        <v>7.9969681701841502</v>
+      </c>
+      <c r="D42">
+        <v>7.9452496325910902</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>300</v>
+      </c>
+      <c r="B43">
+        <v>1085.36891417572</v>
+      </c>
+      <c r="C43">
+        <v>8.0518051043796497</v>
+      </c>
+      <c r="D43">
+        <v>7.9077997693500697</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>300</v>
+      </c>
+      <c r="B44">
+        <v>1083.33511193756</v>
+      </c>
+      <c r="C44">
+        <v>8.2021848416301708</v>
+      </c>
+      <c r="D44">
+        <v>7.92096469613948</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>300</v>
+      </c>
+      <c r="B45">
+        <v>1089.8481135038201</v>
+      </c>
+      <c r="C45">
+        <v>8.2286768295822501</v>
+      </c>
+      <c r="D45">
+        <v>8.0429402525290197</v>
+      </c>
+      <c r="E45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>350</v>
+      </c>
+      <c r="B46">
+        <v>1088.82461045337</v>
+      </c>
+      <c r="C46">
+        <v>8.2885884897161795</v>
+      </c>
+      <c r="D46">
+        <v>8.0723746459431496</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>350</v>
+      </c>
+      <c r="B47">
+        <v>1085.2256151870799</v>
+      </c>
+      <c r="C47">
+        <v>8.3573639197733893</v>
+      </c>
+      <c r="D47">
+        <v>8.0891244699545002</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>350</v>
+      </c>
+      <c r="B48">
+        <v>1088.25303972865</v>
+      </c>
+      <c r="C48">
+        <v>8.4013215290743304</v>
+      </c>
+      <c r="D48">
+        <v>8.1295895995767093</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>350</v>
+      </c>
+      <c r="B49">
+        <v>1084.46351705303</v>
+      </c>
+      <c r="C49">
+        <v>8.27659826375187</v>
+      </c>
+      <c r="D49">
+        <v>8.04266351726789</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>350</v>
+      </c>
+      <c r="B50">
+        <v>1087.6803973424401</v>
+      </c>
+      <c r="C50">
+        <v>8.3416237530987196</v>
+      </c>
+      <c r="D50">
+        <v>8.0523597588911304</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>400</v>
+      </c>
+      <c r="B51">
+        <v>1089.3571875683699</v>
+      </c>
+      <c r="C51">
+        <v>8.4850757157450207</v>
+      </c>
+      <c r="D51">
+        <v>8.2387978894391392</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>400</v>
+      </c>
+      <c r="B52">
+        <v>1090.83057862121</v>
+      </c>
+      <c r="C52">
+        <v>8.4493738077607894</v>
+      </c>
+      <c r="D52">
+        <v>8.2010366737929292</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>400</v>
+      </c>
+      <c r="B53">
+        <v>1090.10770664145</v>
+      </c>
+      <c r="C53">
+        <v>8.4248279146738803</v>
+      </c>
+      <c r="D53">
+        <v>8.1067815897950304</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>400</v>
+      </c>
+      <c r="B54">
+        <v>1092.5731253635099</v>
+      </c>
+      <c r="C54">
+        <v>8.5288042397803494</v>
+      </c>
+      <c r="D54">
+        <v>8.1547891414708893</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>400</v>
+      </c>
+      <c r="B55">
+        <v>1091.7419468473699</v>
+      </c>
+      <c r="C55">
+        <v>8.8123940955761793</v>
+      </c>
+      <c r="D55">
+        <v>8.4838502798398707</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>450</v>
+      </c>
+      <c r="B56">
+        <v>1090.50046577071</v>
+      </c>
+      <c r="C56">
+        <v>8.5711019456095805</v>
+      </c>
+      <c r="D56">
+        <v>8.2707613637145503</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>450</v>
+      </c>
+      <c r="B57">
+        <v>1090.86616563763</v>
+      </c>
+      <c r="C57">
+        <v>8.6261423566602993</v>
+      </c>
+      <c r="D57">
+        <v>8.3392528264292007</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>450</v>
+      </c>
+      <c r="B58">
+        <v>1091.3310487189899</v>
+      </c>
+      <c r="C58">
+        <v>8.6195005579511008</v>
+      </c>
+      <c r="D58">
+        <v>8.3191520385931703</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>450</v>
+      </c>
+      <c r="B59">
+        <v>1090.98423406952</v>
+      </c>
+      <c r="C59">
+        <v>8.5676654534682992</v>
+      </c>
+      <c r="D59">
+        <v>8.2582385300776302</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>500</v>
+      </c>
+      <c r="B60">
+        <v>1089.0522745189701</v>
+      </c>
+      <c r="C60">
+        <v>8.6960189634719907</v>
+      </c>
+      <c r="D60">
+        <v>8.2748463698922805</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>500</v>
+      </c>
+      <c r="B61">
+        <v>1091.7088034216699</v>
+      </c>
+      <c r="C61">
+        <v>8.7683462909708094</v>
+      </c>
+      <c r="D61">
+        <v>8.4457286136020198</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>500</v>
+      </c>
+      <c r="B62">
+        <v>1094.6236765264</v>
+      </c>
+      <c r="C62">
+        <v>8.6857382785255002</v>
+      </c>
+      <c r="D62">
+        <v>8.3974161379733108</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>500</v>
+      </c>
+      <c r="B63">
+        <v>1095.6693930480401</v>
+      </c>
+      <c r="C63">
+        <v>8.82165481456253</v>
+      </c>
+      <c r="D63">
+        <v>8.50688494092085</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>500</v>
+      </c>
+      <c r="B64">
+        <v>1094.6932815837999</v>
+      </c>
+      <c r="C64">
+        <v>8.8282817248573302</v>
+      </c>
+      <c r="D64">
+        <v>8.4290605100291902</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>500</v>
+      </c>
+      <c r="B65">
+        <v>1093.41991932471</v>
+      </c>
+      <c r="C65">
+        <v>8.8262925897909401</v>
+      </c>
+      <c r="D65">
+        <v>8.4749761953887397</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>600</v>
+      </c>
+      <c r="B66">
+        <v>1094.1909076368499</v>
+      </c>
+      <c r="C66">
+        <v>9.0104493956153107</v>
+      </c>
+      <c r="D66">
+        <v>8.6899118720935995</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>600</v>
+      </c>
+      <c r="B67">
+        <v>1096.9657034572499</v>
+      </c>
+      <c r="C67">
+        <v>9.0315947966861092</v>
+      </c>
+      <c r="D67">
+        <v>8.4429967244068305</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>600</v>
+      </c>
+      <c r="B68">
+        <v>1097.1400756309099</v>
+      </c>
+      <c r="C68">
+        <v>9.0146010200713906</v>
+      </c>
+      <c r="D68">
+        <v>8.5842481669918005</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>600</v>
+      </c>
+      <c r="B69">
+        <v>1094.1381499685399</v>
+      </c>
+      <c r="C69">
+        <v>9.0696374705483702</v>
+      </c>
+      <c r="D69">
+        <v>8.7014904921108993</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>700</v>
+      </c>
+      <c r="B70">
+        <v>1099.0801444640001</v>
+      </c>
+      <c r="C70">
+        <v>9.4684469703811995</v>
+      </c>
+      <c r="D70">
+        <v>8.9150262865174099</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>700</v>
+      </c>
+      <c r="B71">
+        <v>1099.3521065269499</v>
+      </c>
+      <c r="C71">
+        <v>9.3278031102585892</v>
+      </c>
+      <c r="D71">
+        <v>8.9116447206539409</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>700</v>
+      </c>
+      <c r="B72">
+        <v>1096.62443567534</v>
+      </c>
+      <c r="C72">
+        <v>9.4703687124449694</v>
+      </c>
+      <c r="D72">
+        <v>9.0319423017728298</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>700</v>
+      </c>
+      <c r="B73">
+        <v>1099.91933686422</v>
+      </c>
+      <c r="C73">
+        <v>9.9349117222471008</v>
+      </c>
+      <c r="D73">
+        <v>9.27603033478238</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>700</v>
+      </c>
+      <c r="B74">
+        <v>1095.2227220991099</v>
+      </c>
+      <c r="C74">
+        <v>9.1743003573007709</v>
+      </c>
+      <c r="D74">
+        <v>8.7140689308129495</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>800</v>
+      </c>
+      <c r="B75">
+        <v>1103.8951455556301</v>
+      </c>
+      <c r="C75">
+        <v>9.8334265517779809</v>
+      </c>
+      <c r="D75">
+        <v>9.2819160816687099</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>800</v>
+      </c>
+      <c r="B76">
+        <v>1099.3364883392801</v>
+      </c>
+      <c r="C76">
+        <v>9.5264723924606596</v>
+      </c>
+      <c r="D76">
+        <v>8.8961233412491296</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>800</v>
+      </c>
+      <c r="B77">
+        <v>1098.81048620605</v>
+      </c>
+      <c r="C77">
+        <v>9.6333118969990306</v>
+      </c>
+      <c r="D77">
+        <v>9.0493531045136493</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>800</v>
+      </c>
+      <c r="B78">
+        <v>1096.989581244</v>
+      </c>
+      <c r="C78">
+        <v>9.7138808493377002</v>
+      </c>
+      <c r="D78">
+        <v>9.1104926578196395</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>800</v>
+      </c>
+      <c r="B79">
+        <v>1102.9518641131799</v>
+      </c>
+      <c r="C79">
+        <v>9.8716277529482799</v>
+      </c>
+      <c r="D79">
+        <v>9.2103595549823893</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>800</v>
+      </c>
+      <c r="B80">
+        <v>1098.4381820219401</v>
+      </c>
+      <c r="C80">
+        <v>9.2063783560695391</v>
+      </c>
+      <c r="D80">
+        <v>8.74876727448002</v>
+      </c>
+      <c r="E80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>900</v>
+      </c>
+      <c r="B81">
+        <v>1103.5622342875999</v>
+      </c>
+      <c r="C81">
+        <v>10.181813928293399</v>
+      </c>
+      <c r="D81">
+        <v>9.3915112696119305</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>900</v>
+      </c>
+      <c r="B82">
+        <v>1104.36992586981</v>
+      </c>
+      <c r="C82">
+        <v>10.0541891874011</v>
+      </c>
+      <c r="D82">
+        <v>9.2118081690115101</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>900</v>
+      </c>
+      <c r="B83">
+        <v>1104.7226812700601</v>
+      </c>
+      <c r="C83">
+        <v>10.039701715889199</v>
+      </c>
+      <c r="D83">
+        <v>9.3696703496090308</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>900</v>
+      </c>
+      <c r="B84">
+        <v>1105.52128217376</v>
+      </c>
+      <c r="C84">
+        <v>10.079327399723301</v>
+      </c>
+      <c r="D84">
+        <v>9.4036086167627495</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>900</v>
+      </c>
+      <c r="B85">
+        <v>1101.4738052815501</v>
+      </c>
+      <c r="C85">
+        <v>10.101498903968199</v>
+      </c>
+      <c r="D85">
+        <v>9.4263823701496108</v>
+      </c>
+      <c r="E85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>900</v>
+      </c>
+      <c r="B86">
+        <v>1101.79421631536</v>
+      </c>
+      <c r="C86">
+        <v>9.7728301994897002</v>
+      </c>
+      <c r="D86">
+        <v>9.0798152924720306</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>1000</v>
+      </c>
+      <c r="B87">
+        <v>1105.2106421022499</v>
+      </c>
+      <c r="C87">
+        <v>10.0656376950239</v>
+      </c>
+      <c r="D87">
+        <v>9.3647900031000901</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>1000</v>
+      </c>
+      <c r="B88">
+        <v>1105.81369469998</v>
+      </c>
+      <c r="C88">
+        <v>10.314703556251599</v>
+      </c>
+      <c r="D88">
+        <v>9.5307582576996506</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>1000</v>
+      </c>
+      <c r="B89">
+        <v>1104.90273747884</v>
+      </c>
+      <c r="C89">
+        <v>10.389587830466899</v>
+      </c>
+      <c r="D89">
+        <v>9.5225798181935808</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>1000</v>
+      </c>
+      <c r="B90">
+        <v>1107.46689184672</v>
+      </c>
+      <c r="C90">
+        <v>10.264565314675099</v>
+      </c>
+      <c r="D90">
+        <v>9.5707026665683994</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>1000</v>
+      </c>
+      <c r="B91">
+        <v>1109.12141609384</v>
+      </c>
+      <c r="C91">
+        <v>10.2886337052319</v>
+      </c>
+      <c r="D91">
+        <v>9.5864679795302603</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>1000</v>
+      </c>
+      <c r="B92">
+        <v>1105.1463074180101</v>
+      </c>
+      <c r="C92">
+        <v>10.346101297848801</v>
+      </c>
+      <c r="D92">
+        <v>9.5167474906877807</v>
+      </c>
+      <c r="E92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>1500</v>
+      </c>
+      <c r="B93">
+        <v>1118.83672403879</v>
+      </c>
+      <c r="C93">
+        <v>11.3483678049391</v>
+      </c>
+      <c r="D93">
+        <v>10.2004210665933</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>1500</v>
+      </c>
+      <c r="B94">
+        <v>1120.13977892969</v>
+      </c>
+      <c r="C94">
+        <v>11.4327110961712</v>
+      </c>
+      <c r="D94">
+        <v>10.313302982796101</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>1500</v>
+      </c>
+      <c r="B95">
+        <v>1119.0926496104</v>
+      </c>
+      <c r="C95">
+        <v>11.4490504884138</v>
+      </c>
+      <c r="D95">
+        <v>10.283531179356901</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>1500</v>
+      </c>
+      <c r="B96">
+        <v>1117.17909698016</v>
+      </c>
+      <c r="C96">
+        <v>11.578277706143799</v>
+      </c>
+      <c r="D96">
+        <v>10.3677901347701</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>1500</v>
+      </c>
+      <c r="B97">
+        <v>1120.4178493849799</v>
+      </c>
+      <c r="C97">
+        <v>11.312380417879501</v>
+      </c>
+      <c r="D97">
+        <v>10.0718147993332</v>
+      </c>
+      <c r="E97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>1500</v>
+      </c>
+      <c r="B98">
+        <v>1113.8377681167999</v>
+      </c>
+      <c r="C98">
+        <v>11.1747546204512</v>
+      </c>
+      <c r="D98">
+        <v>9.8346805904273502</v>
+      </c>
+      <c r="E98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>2000</v>
+      </c>
+      <c r="B99">
+        <v>1129.1430704581201</v>
+      </c>
+      <c r="C99">
+        <v>12.304011516125501</v>
+      </c>
+      <c r="D99">
+        <v>10.754106143305799</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>2000</v>
+      </c>
+      <c r="B100">
+        <v>1131.10024798774</v>
+      </c>
+      <c r="C100">
+        <v>12.1027830601908</v>
+      </c>
+      <c r="D100">
+        <v>10.494404383881999</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>2000</v>
+      </c>
+      <c r="B101">
+        <v>1128.4627391302499</v>
+      </c>
+      <c r="C101">
+        <v>12.511919950414001</v>
+      </c>
+      <c r="D101">
+        <v>10.850225275556699</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>2000</v>
+      </c>
+      <c r="B102">
+        <v>1128.1013786544499</v>
+      </c>
+      <c r="C102">
+        <v>12.275315969467201</v>
+      </c>
+      <c r="D102">
+        <v>10.7365755337434</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>2000</v>
+      </c>
+      <c r="B103">
+        <v>1130.5107951661901</v>
+      </c>
+      <c r="C103">
+        <v>12.819137052169101</v>
+      </c>
+      <c r="D103">
+        <v>10.9941441335004</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
@@ -16580,1641 +18500,6 @@
         <v>11.0143935506029</v>
       </c>
       <c r="E99">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N94"/>
-  <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D94"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1100.82596211143</v>
-      </c>
-      <c r="C2">
-        <v>6.9512188230172098</v>
-      </c>
-      <c r="D2">
-        <v>6.9318910438136596</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1102.6480863694201</v>
-      </c>
-      <c r="C3">
-        <v>6.9834073344847898</v>
-      </c>
-      <c r="D3">
-        <v>6.9389679127241504</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>1100.5710946249999</v>
-      </c>
-      <c r="C4">
-        <v>6.8981667242831</v>
-      </c>
-      <c r="D4">
-        <v>6.8960410598977404</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>1099.61225066114</v>
-      </c>
-      <c r="C5">
-        <v>6.8937040301219303</v>
-      </c>
-      <c r="D5">
-        <v>6.8862763819645103</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>1103.4054277370501</v>
-      </c>
-      <c r="C6">
-        <v>7.0340061691821498</v>
-      </c>
-      <c r="D6">
-        <v>6.9955669799397198</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>50</v>
-      </c>
-      <c r="B7">
-        <v>1104.02634631774</v>
-      </c>
-      <c r="C7">
-        <v>7.0178027664691003</v>
-      </c>
-      <c r="D7">
-        <v>7.0127788639429198</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>50</v>
-      </c>
-      <c r="B8">
-        <v>1100.1271202064099</v>
-      </c>
-      <c r="C8">
-        <v>6.9719303725857902</v>
-      </c>
-      <c r="D8">
-        <v>6.9024211768363397</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>50</v>
-      </c>
-      <c r="B9">
-        <v>1101.42769901114</v>
-      </c>
-      <c r="C9">
-        <v>7.1014359729074297</v>
-      </c>
-      <c r="D9">
-        <v>7.0110327809687396</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>50</v>
-      </c>
-      <c r="B10">
-        <v>1099.4020061108399</v>
-      </c>
-      <c r="C10">
-        <v>6.9351063729151701</v>
-      </c>
-      <c r="D10">
-        <v>6.9113691163469904</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>50</v>
-      </c>
-      <c r="B11">
-        <v>1099.9522333627699</v>
-      </c>
-      <c r="C11">
-        <v>6.9966543199766997</v>
-      </c>
-      <c r="D11">
-        <v>6.9862270765065499</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>100</v>
-      </c>
-      <c r="B12">
-        <v>1106.8309492830499</v>
-      </c>
-      <c r="C12">
-        <v>7.0738954716167903</v>
-      </c>
-      <c r="D12">
-        <v>7.0283061903076502</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>100</v>
-      </c>
-      <c r="B13">
-        <v>1105.6051771974801</v>
-      </c>
-      <c r="C13">
-        <v>7.4521031260279003</v>
-      </c>
-      <c r="D13">
-        <v>7.3346256976569304</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>100</v>
-      </c>
-      <c r="B14">
-        <v>1102.07466340016</v>
-      </c>
-      <c r="C14">
-        <v>7.1036646099035501</v>
-      </c>
-      <c r="D14">
-        <v>7.0628396517389103</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>100</v>
-      </c>
-      <c r="B15">
-        <v>1103.98371293986</v>
-      </c>
-      <c r="C15">
-        <v>7.2015061760317698</v>
-      </c>
-      <c r="D15">
-        <v>7.0781040737650098</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>100</v>
-      </c>
-      <c r="B16">
-        <v>1103.14646730086</v>
-      </c>
-      <c r="C16">
-        <v>7.0741168753444503</v>
-      </c>
-      <c r="D16">
-        <v>7.0436693626524001</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>100</v>
-      </c>
-      <c r="B17">
-        <v>1106.18666310461</v>
-      </c>
-      <c r="C17">
-        <v>7.2042430387328</v>
-      </c>
-      <c r="D17">
-        <v>7.1262381844740101</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>150</v>
-      </c>
-      <c r="B18">
-        <v>1104.69866786789</v>
-      </c>
-      <c r="C18">
-        <v>7.3186684609389703</v>
-      </c>
-      <c r="D18">
-        <v>7.1846668614262397</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>150</v>
-      </c>
-      <c r="B19">
-        <v>1104.33858590059</v>
-      </c>
-      <c r="C19">
-        <v>7.5320608122484503</v>
-      </c>
-      <c r="D19">
-        <v>7.3233556826114103</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>150</v>
-      </c>
-      <c r="B20">
-        <v>1106.9830592911301</v>
-      </c>
-      <c r="C20">
-        <v>7.4557277845933196</v>
-      </c>
-      <c r="D20">
-        <v>7.3873713120750697</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="N20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>150</v>
-      </c>
-      <c r="B21">
-        <v>1106.9001332878199</v>
-      </c>
-      <c r="C21">
-        <v>7.4748677358372602</v>
-      </c>
-      <c r="D21">
-        <v>7.35678122236994</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="N21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>150</v>
-      </c>
-      <c r="B22">
-        <v>1103.5851581546001</v>
-      </c>
-      <c r="C22">
-        <v>7.4203359049182298</v>
-      </c>
-      <c r="D22">
-        <v>7.2383701968085798</v>
-      </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
-      <c r="N22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>200</v>
-      </c>
-      <c r="B23">
-        <v>1107.0093834633501</v>
-      </c>
-      <c r="C23">
-        <v>7.6616658511556599</v>
-      </c>
-      <c r="D23">
-        <v>7.5271429713662199</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="N23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>200</v>
-      </c>
-      <c r="B24">
-        <v>1105.19773272981</v>
-      </c>
-      <c r="C24">
-        <v>7.8680110827639202</v>
-      </c>
-      <c r="D24">
-        <v>7.6454730873678098</v>
-      </c>
-      <c r="E24" t="s">
-        <v>49</v>
-      </c>
-      <c r="N24" s="1">
-        <v>1.885448</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>200</v>
-      </c>
-      <c r="B25">
-        <v>1108.27196338933</v>
-      </c>
-      <c r="C25">
-        <v>7.6070052087310698</v>
-      </c>
-      <c r="D25">
-        <v>7.5569813377882298</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="N25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>200</v>
-      </c>
-      <c r="B26">
-        <v>1107.97513169639</v>
-      </c>
-      <c r="C26">
-        <v>7.5696195131370603</v>
-      </c>
-      <c r="D26">
-        <v>7.5077717600332603</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>200</v>
-      </c>
-      <c r="B27">
-        <v>1106.6238410307001</v>
-      </c>
-      <c r="C27">
-        <v>7.6285857266116404</v>
-      </c>
-      <c r="D27">
-        <v>7.4634705151643601</v>
-      </c>
-      <c r="E27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>250</v>
-      </c>
-      <c r="B28">
-        <v>1110.79458894138</v>
-      </c>
-      <c r="C28">
-        <v>7.78090453411866</v>
-      </c>
-      <c r="D28">
-        <v>7.6957662610736</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>250</v>
-      </c>
-      <c r="B29">
-        <v>1108.3430153289401</v>
-      </c>
-      <c r="C29">
-        <v>8.0518051043796497</v>
-      </c>
-      <c r="D29">
-        <v>7.8473265656827804</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>250</v>
-      </c>
-      <c r="B30">
-        <v>1110.8521843511401</v>
-      </c>
-      <c r="C30">
-        <v>7.7665984112162301</v>
-      </c>
-      <c r="D30">
-        <v>7.6723252582365804</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>250</v>
-      </c>
-      <c r="B31">
-        <v>1112.62151528296</v>
-      </c>
-      <c r="C31">
-        <v>7.7963036754860502</v>
-      </c>
-      <c r="D31">
-        <v>7.6609054651221999</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>250</v>
-      </c>
-      <c r="B32">
-        <v>1110.2340158376701</v>
-      </c>
-      <c r="C32">
-        <v>7.9988854037619896</v>
-      </c>
-      <c r="D32">
-        <v>7.80153613975639</v>
-      </c>
-      <c r="E32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <v>300</v>
-      </c>
-      <c r="B33">
-        <v>1113.7618422176099</v>
-      </c>
-      <c r="C33">
-        <v>8.0316085416688807</v>
-      </c>
-      <c r="D33">
-        <v>7.8349102181339996</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <v>300</v>
-      </c>
-      <c r="B34">
-        <v>1114.5118767006099</v>
-      </c>
-      <c r="C34">
-        <v>8.1542212506797505</v>
-      </c>
-      <c r="D34">
-        <v>8.1219736128158093</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <v>300</v>
-      </c>
-      <c r="B35">
-        <v>1108.0146819322399</v>
-      </c>
-      <c r="C35">
-        <v>7.9800238041689502</v>
-      </c>
-      <c r="D35">
-        <v>7.9517486159498398</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <v>300</v>
-      </c>
-      <c r="B36">
-        <v>1113.1398579628101</v>
-      </c>
-      <c r="C36">
-        <v>7.9628735939229296</v>
-      </c>
-      <c r="D36">
-        <v>7.8523560333196096</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37">
-        <v>300</v>
-      </c>
-      <c r="B37">
-        <v>1112.3486774677201</v>
-      </c>
-      <c r="C37">
-        <v>8.0757194466879305</v>
-      </c>
-      <c r="D37">
-        <v>7.8887945874195102</v>
-      </c>
-      <c r="E37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <v>350</v>
-      </c>
-      <c r="B38">
-        <v>1112.4157375638899</v>
-      </c>
-      <c r="C38">
-        <v>8.3416237530987196</v>
-      </c>
-      <c r="D38">
-        <v>8.0573548397448302</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39">
-        <v>350</v>
-      </c>
-      <c r="B39">
-        <v>1113.5354782204299</v>
-      </c>
-      <c r="C39">
-        <v>8.4148673738356798</v>
-      </c>
-      <c r="D39">
-        <v>8.2067805508622307</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40">
-        <v>350</v>
-      </c>
-      <c r="B40">
-        <v>1112.4655044126901</v>
-      </c>
-      <c r="C40">
-        <v>8.1273316182070605</v>
-      </c>
-      <c r="D40">
-        <v>7.9212337840802798</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41">
-        <v>350</v>
-      </c>
-      <c r="B41">
-        <v>1113.28171455963</v>
-      </c>
-      <c r="C41">
-        <v>8.2338790000813304</v>
-      </c>
-      <c r="D41">
-        <v>8.0241623096422305</v>
-      </c>
-      <c r="E41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42">
-        <v>350</v>
-      </c>
-      <c r="B42">
-        <v>1109.9681441671401</v>
-      </c>
-      <c r="C42">
-        <v>8.14741234703415</v>
-      </c>
-      <c r="D42">
-        <v>8.0919223986809801</v>
-      </c>
-      <c r="E42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43">
-        <v>400</v>
-      </c>
-      <c r="B43">
-        <v>1113.0125833391901</v>
-      </c>
-      <c r="C43">
-        <v>8.4112510154400297</v>
-      </c>
-      <c r="D43">
-        <v>8.1124020704798792</v>
-      </c>
-      <c r="E43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44">
-        <v>400</v>
-      </c>
-      <c r="B44">
-        <v>1111.4291791854901</v>
-      </c>
-      <c r="C44">
-        <v>8.6021533570630009</v>
-      </c>
-      <c r="D44">
-        <v>8.2605656271562307</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45">
-        <v>400</v>
-      </c>
-      <c r="B45">
-        <v>1115.1162714867601</v>
-      </c>
-      <c r="C45">
-        <v>8.3821288125447708</v>
-      </c>
-      <c r="D45">
-        <v>8.0852103955639993</v>
-      </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46">
-        <v>400</v>
-      </c>
-      <c r="B46">
-        <v>1111.2194735926801</v>
-      </c>
-      <c r="C46">
-        <v>8.4951987772966504</v>
-      </c>
-      <c r="D46">
-        <v>8.2370611746123394</v>
-      </c>
-      <c r="E46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47">
-        <v>400</v>
-      </c>
-      <c r="B47">
-        <v>1108.67295077224</v>
-      </c>
-      <c r="C47">
-        <v>8.3247590757979104</v>
-      </c>
-      <c r="D47">
-        <v>8.1704353094464892</v>
-      </c>
-      <c r="E47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48">
-        <v>400</v>
-      </c>
-      <c r="B48">
-        <v>1115.1499570400999</v>
-      </c>
-      <c r="C48">
-        <v>8.3800347457755393</v>
-      </c>
-      <c r="D48">
-        <v>8.0294009193979203</v>
-      </c>
-      <c r="E48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49">
-        <v>500</v>
-      </c>
-      <c r="B49">
-        <v>1114.34670263625</v>
-      </c>
-      <c r="C49">
-        <v>8.7611570653999191</v>
-      </c>
-      <c r="D49">
-        <v>8.41004623151691</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50">
-        <v>500</v>
-      </c>
-      <c r="B50">
-        <v>1116.4723710734499</v>
-      </c>
-      <c r="C50">
-        <v>8.8233105943755703</v>
-      </c>
-      <c r="D50">
-        <v>8.4847693243505606</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51">
-        <v>500</v>
-      </c>
-      <c r="B51">
-        <v>1116.94779286781</v>
-      </c>
-      <c r="C51">
-        <v>8.6979493041893097</v>
-      </c>
-      <c r="D51">
-        <v>8.3321478026456699</v>
-      </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52">
-        <v>500</v>
-      </c>
-      <c r="B52">
-        <v>1118.8062706532401</v>
-      </c>
-      <c r="C52">
-        <v>8.8239730830991601</v>
-      </c>
-      <c r="D52">
-        <v>8.5121231594368805</v>
-      </c>
-      <c r="E52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53">
-        <v>500</v>
-      </c>
-      <c r="B53">
-        <v>1115.21755693724</v>
-      </c>
-      <c r="C53">
-        <v>9.0773563921165206</v>
-      </c>
-      <c r="D53">
-        <v>8.7227984710768105</v>
-      </c>
-      <c r="E53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54">
-        <v>600</v>
-      </c>
-      <c r="B54">
-        <v>1120.24604654019</v>
-      </c>
-      <c r="C54">
-        <v>8.9564948075726498</v>
-      </c>
-      <c r="D54">
-        <v>8.6147626272084192</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55">
-        <v>600</v>
-      </c>
-      <c r="B55">
-        <v>1124.59316350418</v>
-      </c>
-      <c r="C55">
-        <v>9.2778687739661798</v>
-      </c>
-      <c r="D55">
-        <v>8.9316341263320496</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56">
-        <v>600</v>
-      </c>
-      <c r="B56">
-        <v>1120.8180743819</v>
-      </c>
-      <c r="C56">
-        <v>9.0111410574767792</v>
-      </c>
-      <c r="D56">
-        <v>8.8793149573180301</v>
-      </c>
-      <c r="E56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57">
-        <v>600</v>
-      </c>
-      <c r="B57">
-        <v>1120.56187403178</v>
-      </c>
-      <c r="C57">
-        <v>9.08544086944908</v>
-      </c>
-      <c r="D57">
-        <v>8.7657306499557901</v>
-      </c>
-      <c r="E57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58">
-        <v>600</v>
-      </c>
-      <c r="B58">
-        <v>1119.1827022636</v>
-      </c>
-      <c r="C58">
-        <v>9.0942454477779808</v>
-      </c>
-      <c r="D58">
-        <v>8.6065624384762494</v>
-      </c>
-      <c r="E58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59">
-        <v>600</v>
-      </c>
-      <c r="B59">
-        <v>1119.96819666432</v>
-      </c>
-      <c r="C59">
-        <v>9.1292879409346508</v>
-      </c>
-      <c r="D59">
-        <v>8.6883061691067596</v>
-      </c>
-      <c r="E59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60">
-        <v>700</v>
-      </c>
-      <c r="B60">
-        <v>1125.88924982858</v>
-      </c>
-      <c r="C60">
-        <v>9.3839675039162493</v>
-      </c>
-      <c r="D60">
-        <v>8.9616208397438992</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61">
-        <v>700</v>
-      </c>
-      <c r="B61">
-        <v>1124.83977933605</v>
-      </c>
-      <c r="C61">
-        <v>9.5671633442942507</v>
-      </c>
-      <c r="D61">
-        <v>9.1449536057350205</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62">
-        <v>700</v>
-      </c>
-      <c r="B62">
-        <v>1122.19552433627</v>
-      </c>
-      <c r="C62">
-        <v>9.3557945156640603</v>
-      </c>
-      <c r="D62">
-        <v>8.9952606374234598</v>
-      </c>
-      <c r="E62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63">
-        <v>700</v>
-      </c>
-      <c r="B63">
-        <v>1122.3765268924101</v>
-      </c>
-      <c r="C63">
-        <v>9.3263152908473206</v>
-      </c>
-      <c r="D63">
-        <v>8.8379087419660003</v>
-      </c>
-      <c r="E63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64">
-        <v>700</v>
-      </c>
-      <c r="B64">
-        <v>1125.4112221842799</v>
-      </c>
-      <c r="C64">
-        <v>9.3820836081598902</v>
-      </c>
-      <c r="D64">
-        <v>8.8799860451381107</v>
-      </c>
-      <c r="E64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65">
-        <v>800</v>
-      </c>
-      <c r="B65">
-        <v>1125.3520569457301</v>
-      </c>
-      <c r="C65">
-        <v>9.88641046293389</v>
-      </c>
-      <c r="D65">
-        <v>9.2804438969701994</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66">
-        <v>800</v>
-      </c>
-      <c r="B66">
-        <v>1125.7089708619501</v>
-      </c>
-      <c r="C66">
-        <v>9.9978290702776995</v>
-      </c>
-      <c r="D66">
-        <v>9.3662910641429598</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67">
-        <v>800</v>
-      </c>
-      <c r="B67">
-        <v>1130.49542004777</v>
-      </c>
-      <c r="C67">
-        <v>10.205426819021501</v>
-      </c>
-      <c r="D67">
-        <v>9.4950424111614495</v>
-      </c>
-      <c r="E67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68">
-        <v>800</v>
-      </c>
-      <c r="B68">
-        <v>1124.9648938626799</v>
-      </c>
-      <c r="C68">
-        <v>9.7236503422245608</v>
-      </c>
-      <c r="D68">
-        <v>9.2143444068288307</v>
-      </c>
-      <c r="E68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69">
-        <v>800</v>
-      </c>
-      <c r="B69">
-        <v>1124.4438985961999</v>
-      </c>
-      <c r="C69">
-        <v>9.7670637696339497</v>
-      </c>
-      <c r="D69">
-        <v>9.1456670258301003</v>
-      </c>
-      <c r="E69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70">
-        <v>800</v>
-      </c>
-      <c r="B70">
-        <v>1122.0683084361599</v>
-      </c>
-      <c r="C70">
-        <v>9.7212059079279296</v>
-      </c>
-      <c r="D70">
-        <v>9.3659157502405499</v>
-      </c>
-      <c r="E70">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71">
-        <v>900</v>
-      </c>
-      <c r="B71">
-        <v>1127.1662139428699</v>
-      </c>
-      <c r="C71">
-        <v>9.9978290702776995</v>
-      </c>
-      <c r="D71">
-        <v>9.1381819535024995</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72">
-        <v>900</v>
-      </c>
-      <c r="B72">
-        <v>1127.7034284901799</v>
-      </c>
-      <c r="C72">
-        <v>10.308171407677399</v>
-      </c>
-      <c r="D72">
-        <v>9.5467702121334295</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73">
-        <v>900</v>
-      </c>
-      <c r="B73">
-        <v>1128.1386613638099</v>
-      </c>
-      <c r="C73">
-        <v>10.364482664259</v>
-      </c>
-      <c r="D73">
-        <v>9.4826880394015003</v>
-      </c>
-      <c r="E73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74">
-        <v>900</v>
-      </c>
-      <c r="B74">
-        <v>1128.13715762266</v>
-      </c>
-      <c r="C74">
-        <v>10.038387066319901</v>
-      </c>
-      <c r="D74">
-        <v>9.3300357955030506</v>
-      </c>
-      <c r="E74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75">
-        <v>900</v>
-      </c>
-      <c r="B75">
-        <v>1126.7370446140601</v>
-      </c>
-      <c r="C75">
-        <v>9.9263634568772208</v>
-      </c>
-      <c r="D75">
-        <v>9.3651652197247195</v>
-      </c>
-      <c r="E75">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76">
-        <v>1000</v>
-      </c>
-      <c r="B76">
-        <v>1132.9628993720701</v>
-      </c>
-      <c r="C76">
-        <v>10.129149703758801</v>
-      </c>
-      <c r="D76">
-        <v>9.5373901980787803</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77">
-        <v>1000</v>
-      </c>
-      <c r="B77">
-        <v>1132.11081457052</v>
-      </c>
-      <c r="C77">
-        <v>10.6656333217372</v>
-      </c>
-      <c r="D77">
-        <v>9.8480795823716605</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78">
-        <v>1000</v>
-      </c>
-      <c r="B78">
-        <v>1128.7093738265701</v>
-      </c>
-      <c r="C78">
-        <v>10.607803641451801</v>
-      </c>
-      <c r="D78">
-        <v>9.8113313684909293</v>
-      </c>
-      <c r="E78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79">
-        <v>1000</v>
-      </c>
-      <c r="B79">
-        <v>1131.6157106875601</v>
-      </c>
-      <c r="C79">
-        <v>10.314703556251599</v>
-      </c>
-      <c r="D79">
-        <v>9.5144167510151796</v>
-      </c>
-      <c r="E79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80">
-        <v>1000</v>
-      </c>
-      <c r="B80">
-        <v>1131.79615430692</v>
-      </c>
-      <c r="C80">
-        <v>10.6148027482351</v>
-      </c>
-      <c r="D80">
-        <v>9.7843860796264508</v>
-      </c>
-      <c r="E80">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81">
-        <v>1000</v>
-      </c>
-      <c r="B81">
-        <v>1130.1166612237901</v>
-      </c>
-      <c r="C81">
-        <v>10.1904268377038</v>
-      </c>
-      <c r="D81">
-        <v>9.4792196951583101</v>
-      </c>
-      <c r="E81">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82">
-        <v>1500</v>
-      </c>
-      <c r="B82">
-        <v>1139.3568924272799</v>
-      </c>
-      <c r="C82">
-        <v>11.183300923279401</v>
-      </c>
-      <c r="D82">
-        <v>10.1336260438985</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83">
-        <v>1500</v>
-      </c>
-      <c r="B83">
-        <v>1143.1783802616601</v>
-      </c>
-      <c r="C83">
-        <v>11.726953589102701</v>
-      </c>
-      <c r="D83">
-        <v>10.4599883231843</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84">
-        <v>1500</v>
-      </c>
-      <c r="B84">
-        <v>1141.93818798496</v>
-      </c>
-      <c r="C84">
-        <v>11.1890078161098</v>
-      </c>
-      <c r="D84">
-        <v>10.1596801972882</v>
-      </c>
-      <c r="E84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85">
-        <v>1500</v>
-      </c>
-      <c r="B85">
-        <v>1142.28559891841</v>
-      </c>
-      <c r="C85">
-        <v>11.812464095022801</v>
-      </c>
-      <c r="D85">
-        <v>10.346101297848801</v>
-      </c>
-      <c r="E85">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86">
-        <v>1500</v>
-      </c>
-      <c r="B86">
-        <v>1141.35765793069</v>
-      </c>
-      <c r="C86">
-        <v>11.349552783069001</v>
-      </c>
-      <c r="D86">
-        <v>10.196329738152199</v>
-      </c>
-      <c r="E86">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87">
-        <v>1500</v>
-      </c>
-      <c r="B87">
-        <v>1139.1445119345599</v>
-      </c>
-      <c r="C87">
-        <v>11.782900027016201</v>
-      </c>
-      <c r="D87">
-        <v>10.472559759851</v>
-      </c>
-      <c r="E87">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88">
-        <v>1500</v>
-      </c>
-      <c r="B88">
-        <v>1140.1488388457501</v>
-      </c>
-      <c r="C88">
-        <v>11.4587621789883</v>
-      </c>
-      <c r="D88">
-        <v>10.3414006319293</v>
-      </c>
-      <c r="E88">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89">
-        <v>2000</v>
-      </c>
-      <c r="B89">
-        <v>1149.7883684087701</v>
-      </c>
-      <c r="C89">
-        <v>12.373964504331999</v>
-      </c>
-      <c r="D89">
-        <v>10.9274991711867</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90">
-        <v>2000</v>
-      </c>
-      <c r="B90">
-        <v>1153.4039186405901</v>
-      </c>
-      <c r="C90">
-        <v>12.260673525323501</v>
-      </c>
-      <c r="D90">
-        <v>10.657541189769301</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91">
-        <v>2000</v>
-      </c>
-      <c r="B91">
-        <v>1155.05281673384</v>
-      </c>
-      <c r="C91">
-        <v>12.851674875666699</v>
-      </c>
-      <c r="D91">
-        <v>11.363203321241</v>
-      </c>
-      <c r="E91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92">
-        <v>2000</v>
-      </c>
-      <c r="B92">
-        <v>1148.81942909638</v>
-      </c>
-      <c r="C92">
-        <v>11.9983300979864</v>
-      </c>
-      <c r="D92">
-        <v>10.6859298644343</v>
-      </c>
-      <c r="E92">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93">
-        <v>2000</v>
-      </c>
-      <c r="B93">
-        <v>1148.3723700255</v>
-      </c>
-      <c r="C93">
-        <v>12.2870655737094</v>
-      </c>
-      <c r="D93">
-        <v>10.758241296980801</v>
-      </c>
-      <c r="E93">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94">
-        <v>2000</v>
-      </c>
-      <c r="B94">
-        <v>1149.8025100785901</v>
-      </c>
-      <c r="C94">
-        <v>12.232261975878901</v>
-      </c>
-      <c r="D94">
-        <v>10.7618627890881</v>
-      </c>
-      <c r="E94">
         <v>5</v>
       </c>
     </row>
@@ -19016,1251 +19301,1627 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1114.85904325454</v>
+        <v>1100.82596211143</v>
       </c>
       <c r="C2">
-        <v>6.94369224003034</v>
+        <v>6.9512188230172098</v>
       </c>
       <c r="D2">
-        <v>6.9434773863523596</v>
+        <v>6.9318910438136596</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>1113.52184886949</v>
+        <v>1102.6480863694201</v>
       </c>
       <c r="C3">
-        <v>7.0261158811937303</v>
+        <v>6.9834073344847898</v>
       </c>
       <c r="D3">
-        <v>7.0134338260885398</v>
+        <v>6.9389679127241504</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>1112.1859550833001</v>
+        <v>1100.5710946249999</v>
       </c>
       <c r="C4">
-        <v>7.0894210556572403</v>
+        <v>6.8981667242831</v>
       </c>
       <c r="D4">
-        <v>7.0553377383840701</v>
+        <v>6.8960410598977404</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>1111.8103636696101</v>
+        <v>1099.61225066114</v>
       </c>
       <c r="C5">
-        <v>7.0883102428473803</v>
+        <v>6.8937040301219303</v>
       </c>
       <c r="D5">
-        <v>7.0478487613370202</v>
+        <v>6.8862763819645103</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
-        <v>1112.6115051131801</v>
+        <v>1103.4054277370501</v>
       </c>
       <c r="C6">
-        <v>6.9546638959348197</v>
+        <v>7.0340061691821498</v>
       </c>
       <c r="D6">
-        <v>6.9486368105636096</v>
+        <v>6.9955669799397198</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="B7">
-        <v>1109.7713207162501</v>
+        <v>1104.02634631774</v>
       </c>
       <c r="C7">
-        <v>7.8065128268642097</v>
+        <v>7.0178027664691003</v>
       </c>
       <c r="D7">
-        <v>7.6238087005381097</v>
+        <v>7.0127788639429198</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="B8">
-        <v>1108.45269904426</v>
+        <v>1100.1271202064099</v>
       </c>
       <c r="C8">
-        <v>7.5716053132718102</v>
+        <v>6.9719303725857902</v>
       </c>
       <c r="D8">
-        <v>7.4734111049938097</v>
+        <v>6.9024211768363397</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="M8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="B9">
-        <v>1108.5427210938101</v>
+        <v>1101.42769901114</v>
       </c>
       <c r="C9">
-        <v>7.8101835121507399</v>
+        <v>7.1014359729074297</v>
       </c>
       <c r="D9">
-        <v>7.7044613601886303</v>
+        <v>7.0110327809687396</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="I9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="B10">
-        <v>1112.91734544774</v>
+        <v>1099.4020061108399</v>
       </c>
       <c r="C10">
-        <v>7.7469071827413698</v>
+        <v>6.9351063729151701</v>
       </c>
       <c r="D10">
-        <v>7.6165275657352502</v>
+        <v>6.9113691163469904</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
-      <c r="I10" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="B11">
-        <v>1108.5443166861501</v>
+        <v>1099.9522333627699</v>
       </c>
       <c r="C11">
-        <v>7.6690231213529696</v>
+        <v>6.9966543199766997</v>
       </c>
       <c r="D11">
-        <v>7.5686269534666302</v>
+        <v>6.9862270765065499</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
-      <c r="I11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B12">
-        <v>1109.0220061310199</v>
+        <v>1106.8309492830499</v>
       </c>
       <c r="C12">
-        <v>7.7198482489821201</v>
+        <v>7.0738954716167903</v>
       </c>
       <c r="D12">
-        <v>7.5915134151463901</v>
+        <v>7.0283061903076502</v>
       </c>
       <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="I12" s="1">
-        <v>2.3260700000000001</v>
-      </c>
-      <c r="M12" s="1">
-        <v>2.3260700000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="B13">
-        <v>1110.97596829077</v>
+        <v>1105.6051771974801</v>
       </c>
       <c r="C13">
-        <v>7.8151701240635498</v>
+        <v>7.4521031260279003</v>
       </c>
       <c r="D13">
-        <v>7.6404252053337904</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>55</v>
-      </c>
-      <c r="M13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+        <v>7.3346256976569304</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="B14">
-        <v>1114.4789300995401</v>
+        <v>1102.07466340016</v>
       </c>
       <c r="C14">
-        <v>7.8933375569088398</v>
+        <v>7.1036646099035501</v>
       </c>
       <c r="D14">
-        <v>7.65862510549037</v>
+        <v>7.0628396517389103</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="B15">
-        <v>1112.3491755058201</v>
+        <v>1103.98371293986</v>
       </c>
       <c r="C15">
-        <v>7.9010983131874202</v>
+        <v>7.2015061760317698</v>
       </c>
       <c r="D15">
-        <v>7.7422565185607004</v>
+        <v>7.0781040737650098</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="B16">
-        <v>1110.5732099852401</v>
+        <v>1103.14646730086</v>
       </c>
       <c r="C16">
-        <v>7.8031071091419602</v>
+        <v>7.0741168753444503</v>
       </c>
       <c r="D16">
-        <v>7.6190369231859103</v>
+        <v>7.0436693626524001</v>
       </c>
       <c r="E16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="B17">
-        <v>1112.51124171589</v>
+        <v>1106.18666310461</v>
       </c>
       <c r="C17">
-        <v>7.6598918241282101</v>
+        <v>7.2042430387328</v>
       </c>
       <c r="D17">
-        <v>7.5038589765541897</v>
+        <v>7.1262381844740101</v>
       </c>
       <c r="E17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18">
+        <v>150</v>
+      </c>
+      <c r="B18">
+        <v>1104.69866786789</v>
+      </c>
+      <c r="C18">
+        <v>7.3186684609389703</v>
+      </c>
+      <c r="D18">
+        <v>7.1846668614262397</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>150</v>
+      </c>
+      <c r="B19">
+        <v>1104.33858590059</v>
+      </c>
+      <c r="C19">
+        <v>7.5320608122484503</v>
+      </c>
+      <c r="D19">
+        <v>7.3233556826114103</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>150</v>
+      </c>
+      <c r="B20">
+        <v>1106.9830592911301</v>
+      </c>
+      <c r="C20">
+        <v>7.4557277845933196</v>
+      </c>
+      <c r="D20">
+        <v>7.3873713120750697</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>150</v>
+      </c>
+      <c r="B21">
+        <v>1106.9001332878199</v>
+      </c>
+      <c r="C21">
+        <v>7.4748677358372602</v>
+      </c>
+      <c r="D21">
+        <v>7.35678122236994</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>150</v>
+      </c>
+      <c r="B22">
+        <v>1103.5851581546001</v>
+      </c>
+      <c r="C22">
+        <v>7.4203359049182298</v>
+      </c>
+      <c r="D22">
+        <v>7.2383701968085798</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>200</v>
+      </c>
+      <c r="B23">
+        <v>1107.0093834633501</v>
+      </c>
+      <c r="C23">
+        <v>7.6616658511556599</v>
+      </c>
+      <c r="D23">
+        <v>7.5271429713662199</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>200</v>
+      </c>
+      <c r="B24">
+        <v>1105.19773272981</v>
+      </c>
+      <c r="C24">
+        <v>7.8680110827639202</v>
+      </c>
+      <c r="D24">
+        <v>7.6454730873678098</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1.885448</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>200</v>
+      </c>
+      <c r="B25">
+        <v>1108.27196338933</v>
+      </c>
+      <c r="C25">
+        <v>7.6070052087310698</v>
+      </c>
+      <c r="D25">
+        <v>7.5569813377882298</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>200</v>
+      </c>
+      <c r="B26">
+        <v>1107.97513169639</v>
+      </c>
+      <c r="C26">
+        <v>7.5696195131370603</v>
+      </c>
+      <c r="D26">
+        <v>7.5077717600332603</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>200</v>
+      </c>
+      <c r="B27">
+        <v>1106.6238410307001</v>
+      </c>
+      <c r="C27">
+        <v>7.6285857266116404</v>
+      </c>
+      <c r="D27">
+        <v>7.4634705151643601</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A28">
         <v>250</v>
       </c>
-      <c r="B18">
-        <v>1110.0262058635899</v>
-      </c>
-      <c r="C18">
-        <v>7.7006231409206602</v>
-      </c>
-      <c r="D18">
-        <v>7.4892173551599797</v>
-      </c>
-      <c r="E18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>300</v>
-      </c>
-      <c r="B19">
-        <v>1116.42597296589</v>
-      </c>
-      <c r="C19">
-        <v>8.2133954146183097</v>
-      </c>
-      <c r="D19">
-        <v>7.97130412284789</v>
-      </c>
-      <c r="E19">
+      <c r="B28">
+        <v>1110.79458894138</v>
+      </c>
+      <c r="C28">
+        <v>7.78090453411866</v>
+      </c>
+      <c r="D28">
+        <v>7.6957662610736</v>
+      </c>
+      <c r="E28">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>300</v>
-      </c>
-      <c r="B20">
-        <v>1116.43728865604</v>
-      </c>
-      <c r="C20">
-        <v>8.1869961973317995</v>
-      </c>
-      <c r="D20">
-        <v>7.9645040324925898</v>
-      </c>
-      <c r="E20">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>250</v>
+      </c>
+      <c r="B29">
+        <v>1108.3430153289401</v>
+      </c>
+      <c r="C29">
+        <v>8.0518051043796497</v>
+      </c>
+      <c r="D29">
+        <v>7.8473265656827804</v>
+      </c>
+      <c r="E29">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>300</v>
-      </c>
-      <c r="B21">
-        <v>1115.9298175153299</v>
-      </c>
-      <c r="C21">
-        <v>8.0327127737671304</v>
-      </c>
-      <c r="D21">
-        <v>7.8637600658391298</v>
-      </c>
-      <c r="E21">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>250</v>
+      </c>
+      <c r="B30">
+        <v>1110.8521843511401</v>
+      </c>
+      <c r="C30">
+        <v>7.7665984112162301</v>
+      </c>
+      <c r="D30">
+        <v>7.6723252582365804</v>
+      </c>
+      <c r="E30">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>300</v>
-      </c>
-      <c r="B22">
-        <v>1115.67691309117</v>
-      </c>
-      <c r="C22">
-        <v>7.8960121134775596</v>
-      </c>
-      <c r="D22">
-        <v>7.8080855978202104</v>
-      </c>
-      <c r="E22">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>250</v>
+      </c>
+      <c r="B31">
+        <v>1112.62151528296</v>
+      </c>
+      <c r="C31">
+        <v>7.7963036754860502</v>
+      </c>
+      <c r="D31">
+        <v>7.6609054651221999</v>
+      </c>
+      <c r="E31">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>300</v>
-      </c>
-      <c r="B23">
-        <v>1114.1237248653199</v>
-      </c>
-      <c r="C23">
-        <v>8.0192052382896808</v>
-      </c>
-      <c r="D23">
-        <v>7.9360593556912704</v>
-      </c>
-      <c r="E23">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>250</v>
+      </c>
+      <c r="B32">
+        <v>1110.2340158376701</v>
+      </c>
+      <c r="C32">
+        <v>7.9988854037619896</v>
+      </c>
+      <c r="D32">
+        <v>7.80153613975639</v>
+      </c>
+      <c r="E32">
         <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>300</v>
-      </c>
-      <c r="B24">
-        <v>1119.0636172294701</v>
-      </c>
-      <c r="C24">
-        <v>8.0159036646223907</v>
-      </c>
-      <c r="D24">
-        <v>7.8028452414449898</v>
-      </c>
-      <c r="E24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>350</v>
-      </c>
-      <c r="B25">
-        <v>1117.68300274741</v>
-      </c>
-      <c r="C25">
-        <v>8.3737585969215296</v>
-      </c>
-      <c r="D25">
-        <v>8.1528018484972904</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>350</v>
-      </c>
-      <c r="B26">
-        <v>1119.46379154839</v>
-      </c>
-      <c r="C26">
-        <v>8.3117853699017594</v>
-      </c>
-      <c r="D26">
-        <v>8.1730009666395702</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>350</v>
-      </c>
-      <c r="B27">
-        <v>1117.5270302501101</v>
-      </c>
-      <c r="C27">
-        <v>8.4212032561084609</v>
-      </c>
-      <c r="D27">
-        <v>8.1878545150958502</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>350</v>
-      </c>
-      <c r="B28">
-        <v>1116.8198719489301</v>
-      </c>
-      <c r="C28">
-        <v>8.2188674768536796</v>
-      </c>
-      <c r="D28">
-        <v>8.0874465775373494</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>350</v>
-      </c>
-      <c r="B29">
-        <v>1116.7532918371801</v>
-      </c>
-      <c r="C29">
-        <v>8.4390536936057305</v>
-      </c>
-      <c r="D29">
-        <v>8.2448818663655192</v>
-      </c>
-      <c r="E29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>400</v>
-      </c>
-      <c r="B30">
-        <v>1119.7634886016399</v>
-      </c>
-      <c r="C30">
-        <v>8.6049872526408997</v>
-      </c>
-      <c r="D30">
-        <v>8.2460416860596997</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>400</v>
-      </c>
-      <c r="B31">
-        <v>1120.5330600992299</v>
-      </c>
-      <c r="C31">
-        <v>8.6185525582051294</v>
-      </c>
-      <c r="D31">
-        <v>8.4205994403523299</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>400</v>
-      </c>
-      <c r="B32">
-        <v>1120.9191571163799</v>
-      </c>
-      <c r="C32">
-        <v>8.5176764035509507</v>
-      </c>
-      <c r="D32">
-        <v>8.3103135344523391</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B33">
-        <v>1120.21322795071</v>
+        <v>1113.7618422176099</v>
       </c>
       <c r="C33">
-        <v>8.5589302695067708</v>
+        <v>8.0316085416688807</v>
       </c>
       <c r="D33">
-        <v>8.2559126792687803</v>
+        <v>7.8349102181339996</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B34">
-        <v>1118.3522480885399</v>
+        <v>1114.5118767006099</v>
       </c>
       <c r="C34">
-        <v>8.4649001069916192</v>
+        <v>8.1542212506797505</v>
       </c>
       <c r="D34">
-        <v>8.2521358263266293</v>
+        <v>8.1219736128158093</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="B35">
-        <v>1123.64726788589</v>
+        <v>1108.0146819322399</v>
       </c>
       <c r="C35">
-        <v>8.7637699524872605</v>
+        <v>7.9800238041689502</v>
       </c>
       <c r="D35">
-        <v>8.4691719563816807</v>
+        <v>7.9517486159498398</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="B36">
-        <v>1124.64482069887</v>
+        <v>1113.1398579628101</v>
       </c>
       <c r="C36">
-        <v>8.82165481456253</v>
+        <v>7.9628735939229296</v>
       </c>
       <c r="D36">
-        <v>8.6071926728147599</v>
+        <v>7.8523560333196096</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="B37">
-        <v>1127.59094772495</v>
+        <v>1112.3486774677201</v>
       </c>
       <c r="C37">
-        <v>9.0035388287676898</v>
+        <v>8.0757194466879305</v>
       </c>
       <c r="D37">
-        <v>8.5443070220701092</v>
+        <v>7.8887945874195102</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="B38">
-        <v>1126.6129891123001</v>
+        <v>1112.4157375638899</v>
       </c>
       <c r="C38">
-        <v>8.8625713757064997</v>
+        <v>8.3416237530987196</v>
       </c>
       <c r="D38">
-        <v>8.6928036343704793</v>
+        <v>8.0573548397448302</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="B39">
-        <v>1122.9416507389401</v>
+        <v>1113.5354782204299</v>
       </c>
       <c r="C39">
-        <v>8.80942162476763</v>
+        <v>8.4148673738356798</v>
       </c>
       <c r="D39">
-        <v>8.5065770070873405</v>
+        <v>8.2067805508622307</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="B40">
-        <v>1136.47209955569</v>
+        <v>1112.4655044126901</v>
       </c>
       <c r="C40">
-        <v>10.000868675834299</v>
+        <v>8.1273316182070605</v>
       </c>
       <c r="D40">
-        <v>9.36178943656288</v>
+        <v>7.9212337840802798</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="B41">
-        <v>1134.9352022888199</v>
+        <v>1113.28171455963</v>
       </c>
       <c r="C41">
-        <v>9.9576463364053307</v>
+        <v>8.2338790000813304</v>
       </c>
       <c r="D41">
-        <v>9.2386950545699396</v>
+        <v>8.0241623096422305</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="B42">
-        <v>1135.2818093667199</v>
+        <v>1109.9681441671401</v>
       </c>
       <c r="C42">
-        <v>9.7732423804627295</v>
+        <v>8.14741234703415</v>
       </c>
       <c r="D42">
-        <v>9.3192551009235203</v>
+        <v>8.0919223986809801</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="B43">
-        <v>1139.55361476591</v>
+        <v>1113.0125833391901</v>
       </c>
       <c r="C43">
-        <v>10.044086757476499</v>
+        <v>8.4112510154400297</v>
       </c>
       <c r="D43">
-        <v>9.5245256692136504</v>
-      </c>
-      <c r="E43">
-        <v>3</v>
+        <v>8.1124020704798792</v>
+      </c>
+      <c r="E43" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="B44">
-        <v>1138.8438654747399</v>
+        <v>1111.4291791854901</v>
       </c>
       <c r="C44">
-        <v>9.5856783531973502</v>
+        <v>8.6021533570630009</v>
       </c>
       <c r="D44">
-        <v>9.0942454477779808</v>
+        <v>8.2605656271562307</v>
       </c>
       <c r="E44">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="B45">
-        <v>1144.9979341317101</v>
+        <v>1115.1162714867601</v>
       </c>
       <c r="C45">
-        <v>10.425363842700699</v>
+        <v>8.3821288125447708</v>
       </c>
       <c r="D45">
-        <v>9.7728301994897002</v>
+        <v>8.0852103955639993</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="B46">
-        <v>1147.5745990524899</v>
+        <v>1111.2194735926801</v>
       </c>
       <c r="C46">
-        <v>10.264565314675099</v>
+        <v>8.4951987772966504</v>
       </c>
       <c r="D46">
-        <v>9.7163211630293898</v>
+        <v>8.2370611746123394</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="B47">
-        <v>1145.37266767446</v>
+        <v>1108.67295077224</v>
       </c>
       <c r="C47">
-        <v>10.4493793032497</v>
+        <v>8.3247590757979104</v>
       </c>
       <c r="D47">
-        <v>9.6465032347701207</v>
+        <v>8.1704353094464892</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="B48">
-        <v>1144.2082666462099</v>
+        <v>1115.1499570400999</v>
       </c>
       <c r="C48">
-        <v>9.8296666070122001</v>
+        <v>8.3800347457755393</v>
       </c>
       <c r="D48">
-        <v>9.2874412231870505</v>
+        <v>8.0294009193979203</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="B49">
-        <v>1145.65413202943</v>
+        <v>1114.34670263625</v>
       </c>
       <c r="C49">
-        <v>10.520274207542201</v>
+        <v>8.7611570653999191</v>
       </c>
       <c r="D49">
-        <v>9.68672342238869</v>
+        <v>8.41004623151691</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="B50">
-        <v>1150.57054198997</v>
+        <v>1116.4723710734499</v>
       </c>
       <c r="C50">
-        <v>10.849168983487999</v>
+        <v>8.8233105943755703</v>
       </c>
       <c r="D50">
-        <v>9.8733146610366997</v>
+        <v>8.4847693243505606</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="B51">
-        <v>1149.84365759763</v>
+        <v>1116.94779286781</v>
       </c>
       <c r="C51">
-        <v>11.297131710074099</v>
+        <v>8.6979493041893097</v>
       </c>
       <c r="D51">
-        <v>10.0471589231074</v>
+        <v>8.3321478026456699</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="B52">
-        <v>1148.85734483596</v>
+        <v>1118.8062706532401</v>
       </c>
       <c r="C52">
-        <v>10.9307265269104</v>
+        <v>8.8239730830991601</v>
       </c>
       <c r="D52">
-        <v>9.9744519185151805</v>
+        <v>8.5121231594368805</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="B53">
-        <v>1150.2568352916501</v>
+        <v>1115.21755693724</v>
       </c>
       <c r="C53">
-        <v>11.278437272517101</v>
+        <v>9.0773563921165206</v>
       </c>
       <c r="D53">
-        <v>10.304909014034299</v>
+        <v>8.7227984710768105</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="B54">
-        <v>1148.8249080389701</v>
+        <v>1120.24604654019</v>
       </c>
       <c r="C54">
-        <v>11.1249522576462</v>
+        <v>8.9564948075726498</v>
       </c>
       <c r="D54">
-        <v>10.052430554123699</v>
+        <v>8.6147626272084192</v>
       </c>
       <c r="E54">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="B55">
-        <v>1160.1632179112601</v>
+        <v>1124.59316350418</v>
       </c>
       <c r="C55">
-        <v>11.9749993223561</v>
+        <v>9.2778687739661798</v>
       </c>
       <c r="D55">
-        <v>10.6403953101083</v>
+        <v>8.9316341263320496</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="B56">
-        <v>1158.2429201257301</v>
+        <v>1120.8180743819</v>
       </c>
       <c r="C56">
-        <v>11.611509092627401</v>
+        <v>9.0111410574767792</v>
       </c>
       <c r="D56">
-        <v>10.253041280903201</v>
+        <v>8.8793149573180301</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="B57">
-        <v>1159.9352771172801</v>
+        <v>1120.56187403178</v>
       </c>
       <c r="C57">
-        <v>11.3566694496661</v>
+        <v>9.08544086944908</v>
       </c>
       <c r="D57">
-        <v>10.3800971255994</v>
+        <v>8.7657306499557901</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="B58">
-        <v>1160.58695168802</v>
+        <v>1119.1827022636</v>
       </c>
       <c r="C58">
-        <v>11.288358671970499</v>
+        <v>9.0942454477779808</v>
       </c>
       <c r="D58">
-        <v>10.250740139102399</v>
+        <v>8.6065624384762494</v>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="B59">
-        <v>1158.3460103689699</v>
+        <v>1119.96819666432</v>
       </c>
       <c r="C59">
-        <v>11.817081092</v>
+        <v>9.1292879409346508</v>
       </c>
       <c r="D59">
-        <v>10.572976311113299</v>
+        <v>8.6883061691067596</v>
       </c>
       <c r="E59">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="B60">
-        <v>1156.98583151049</v>
+        <v>1125.88924982858</v>
       </c>
       <c r="C60">
-        <v>11.303576553484101</v>
+        <v>9.3839675039162493</v>
       </c>
       <c r="D60">
-        <v>10.057268510268299</v>
+        <v>8.9616208397438992</v>
       </c>
       <c r="E60">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="B61">
-        <v>1168.1164655759301</v>
+        <v>1124.83977933605</v>
       </c>
       <c r="C61">
-        <v>12.145989750076099</v>
+        <v>9.5671633442942507</v>
       </c>
       <c r="D61">
-        <v>10.6338573802479</v>
+        <v>9.1449536057350205</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="B62">
-        <v>1170.8792176184299</v>
+        <v>1122.19552433627</v>
       </c>
       <c r="C62">
-        <v>12.2206595116222</v>
+        <v>9.3557945156640603</v>
       </c>
       <c r="D62">
-        <v>10.6838959363704</v>
+        <v>8.9952606374234598</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="B63">
-        <v>1165.32809477815</v>
+        <v>1122.3765268924101</v>
       </c>
       <c r="C63">
-        <v>12.379970306248801</v>
+        <v>9.3263152908473206</v>
       </c>
       <c r="D63">
-        <v>10.902835467656599</v>
+        <v>8.8379087419660003</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="B64">
-        <v>1164.9491757855201</v>
+        <v>1125.4112221842799</v>
       </c>
       <c r="C64">
-        <v>12.256290401500801</v>
+        <v>9.3820836081598902</v>
       </c>
       <c r="D64">
-        <v>10.6961138175568</v>
+        <v>8.8799860451381107</v>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="B65">
-        <v>1166.96247092662</v>
+        <v>1125.3520569457301</v>
       </c>
       <c r="C65">
-        <v>12.379970306248801</v>
+        <v>9.88641046293389</v>
       </c>
       <c r="D65">
-        <v>10.8280969148844</v>
+        <v>9.2804438969701994</v>
       </c>
       <c r="E65">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="B66">
-        <v>1175.8556340212499</v>
+        <v>1125.7089708619501</v>
       </c>
       <c r="C66">
-        <v>13.0513167201754</v>
+        <v>9.9978290702776995</v>
       </c>
       <c r="D66">
-        <v>11.240710150770701</v>
+        <v>9.3662910641429598</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="B67">
-        <v>1172.0074042236499</v>
+        <v>1130.49542004777</v>
       </c>
       <c r="C67">
-        <v>12.7294698864614</v>
+        <v>10.205426819021501</v>
       </c>
       <c r="D67">
-        <v>11.0746019534136</v>
+        <v>9.4950424111614495</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="B68">
-        <v>1173.94703486909</v>
+        <v>1124.9648938626799</v>
       </c>
       <c r="C68">
-        <v>12.4741382125959</v>
+        <v>9.7236503422245608</v>
       </c>
       <c r="D68">
-        <v>10.956632077975099</v>
+        <v>9.2143444068288307</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="B69">
-        <v>1174.89689119631</v>
+        <v>1124.4438985961999</v>
       </c>
       <c r="C69">
-        <v>12.499546879882301</v>
+        <v>9.7670637696339497</v>
       </c>
       <c r="D69">
-        <v>10.8687520961044</v>
+        <v>9.1456670258301003</v>
       </c>
       <c r="E69">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="B70">
-        <v>1171.8374382822001</v>
+        <v>1122.0683084361599</v>
       </c>
       <c r="C70">
-        <v>12.358986235237699</v>
+        <v>9.7212059079279296</v>
       </c>
       <c r="D70">
-        <v>10.915149811213499</v>
+        <v>9.3659157502405499</v>
       </c>
       <c r="E70">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71">
+        <v>900</v>
+      </c>
+      <c r="B71">
+        <v>1127.1662139428699</v>
+      </c>
+      <c r="C71">
+        <v>9.9978290702776995</v>
+      </c>
+      <c r="D71">
+        <v>9.1381819535024995</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>900</v>
+      </c>
+      <c r="B72">
+        <v>1127.7034284901799</v>
+      </c>
+      <c r="C72">
+        <v>10.308171407677399</v>
+      </c>
+      <c r="D72">
+        <v>9.5467702121334295</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>900</v>
+      </c>
+      <c r="B73">
+        <v>1128.1386613638099</v>
+      </c>
+      <c r="C73">
+        <v>10.364482664259</v>
+      </c>
+      <c r="D73">
+        <v>9.4826880394015003</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>900</v>
+      </c>
+      <c r="B74">
+        <v>1128.13715762266</v>
+      </c>
+      <c r="C74">
+        <v>10.038387066319901</v>
+      </c>
+      <c r="D74">
+        <v>9.3300357955030506</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>900</v>
+      </c>
+      <c r="B75">
+        <v>1126.7370446140601</v>
+      </c>
+      <c r="C75">
+        <v>9.9263634568772208</v>
+      </c>
+      <c r="D75">
+        <v>9.3651652197247195</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>1000</v>
+      </c>
+      <c r="B76">
+        <v>1132.9628993720701</v>
+      </c>
+      <c r="C76">
+        <v>10.129149703758801</v>
+      </c>
+      <c r="D76">
+        <v>9.5373901980787803</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>1000</v>
+      </c>
+      <c r="B77">
+        <v>1132.11081457052</v>
+      </c>
+      <c r="C77">
+        <v>10.6656333217372</v>
+      </c>
+      <c r="D77">
+        <v>9.8480795823716605</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>1000</v>
+      </c>
+      <c r="B78">
+        <v>1128.7093738265701</v>
+      </c>
+      <c r="C78">
+        <v>10.607803641451801</v>
+      </c>
+      <c r="D78">
+        <v>9.8113313684909293</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>1000</v>
+      </c>
+      <c r="B79">
+        <v>1131.6157106875601</v>
+      </c>
+      <c r="C79">
+        <v>10.314703556251599</v>
+      </c>
+      <c r="D79">
+        <v>9.5144167510151796</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>1000</v>
+      </c>
+      <c r="B80">
+        <v>1131.79615430692</v>
+      </c>
+      <c r="C80">
+        <v>10.6148027482351</v>
+      </c>
+      <c r="D80">
+        <v>9.7843860796264508</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>1000</v>
+      </c>
+      <c r="B81">
+        <v>1130.1166612237901</v>
+      </c>
+      <c r="C81">
+        <v>10.1904268377038</v>
+      </c>
+      <c r="D81">
+        <v>9.4792196951583101</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>1500</v>
+      </c>
+      <c r="B82">
+        <v>1139.3568924272799</v>
+      </c>
+      <c r="C82">
+        <v>11.183300923279401</v>
+      </c>
+      <c r="D82">
+        <v>10.1336260438985</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>1500</v>
+      </c>
+      <c r="B83">
+        <v>1143.1783802616601</v>
+      </c>
+      <c r="C83">
+        <v>11.726953589102701</v>
+      </c>
+      <c r="D83">
+        <v>10.4599883231843</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>1500</v>
+      </c>
+      <c r="B84">
+        <v>1141.93818798496</v>
+      </c>
+      <c r="C84">
+        <v>11.1890078161098</v>
+      </c>
+      <c r="D84">
+        <v>10.1596801972882</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>1500</v>
+      </c>
+      <c r="B85">
+        <v>1142.28559891841</v>
+      </c>
+      <c r="C85">
+        <v>11.812464095022801</v>
+      </c>
+      <c r="D85">
+        <v>10.346101297848801</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>1500</v>
+      </c>
+      <c r="B86">
+        <v>1141.35765793069</v>
+      </c>
+      <c r="C86">
+        <v>11.349552783069001</v>
+      </c>
+      <c r="D86">
+        <v>10.196329738152199</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>1500</v>
+      </c>
+      <c r="B87">
+        <v>1139.1445119345599</v>
+      </c>
+      <c r="C87">
+        <v>11.782900027016201</v>
+      </c>
+      <c r="D87">
+        <v>10.472559759851</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>1500</v>
+      </c>
+      <c r="B88">
+        <v>1140.1488388457501</v>
+      </c>
+      <c r="C88">
+        <v>11.4587621789883</v>
+      </c>
+      <c r="D88">
+        <v>10.3414006319293</v>
+      </c>
+      <c r="E88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89">
         <v>2000</v>
       </c>
-      <c r="B71">
-        <v>1176.02712926605</v>
-      </c>
-      <c r="C71">
-        <v>12.613779720820601</v>
-      </c>
-      <c r="D71">
-        <v>11.0132965703447</v>
-      </c>
-      <c r="E71">
+      <c r="B89">
+        <v>1149.7883684087701</v>
+      </c>
+      <c r="C89">
+        <v>12.373964504331999</v>
+      </c>
+      <c r="D89">
+        <v>10.9274991711867</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>2000</v>
+      </c>
+      <c r="B90">
+        <v>1153.4039186405901</v>
+      </c>
+      <c r="C90">
+        <v>12.260673525323501</v>
+      </c>
+      <c r="D90">
+        <v>10.657541189769301</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>2000</v>
+      </c>
+      <c r="B91">
+        <v>1155.05281673384</v>
+      </c>
+      <c r="C91">
+        <v>12.851674875666699</v>
+      </c>
+      <c r="D91">
+        <v>11.363203321241</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>2000</v>
+      </c>
+      <c r="B92">
+        <v>1148.81942909638</v>
+      </c>
+      <c r="C92">
+        <v>11.9983300979864</v>
+      </c>
+      <c r="D92">
+        <v>10.6859298644343</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>2000</v>
+      </c>
+      <c r="B93">
+        <v>1148.3723700255</v>
+      </c>
+      <c r="C93">
+        <v>12.2870655737094</v>
+      </c>
+      <c r="D93">
+        <v>10.758241296980801</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>2000</v>
+      </c>
+      <c r="B94">
+        <v>1149.8025100785901</v>
+      </c>
+      <c r="C94">
+        <v>12.232261975878901</v>
+      </c>
+      <c r="D94">
+        <v>10.7618627890881</v>
+      </c>
+      <c r="E94">
         <v>5</v>
       </c>
     </row>
@@ -20274,6 +20935,1265 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1114.85904325454</v>
+      </c>
+      <c r="C2">
+        <v>6.94369224003034</v>
+      </c>
+      <c r="D2">
+        <v>6.9434773863523596</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1113.52184886949</v>
+      </c>
+      <c r="C3">
+        <v>7.0261158811937303</v>
+      </c>
+      <c r="D3">
+        <v>7.0134338260885398</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1112.1859550833001</v>
+      </c>
+      <c r="C4">
+        <v>7.0894210556572403</v>
+      </c>
+      <c r="D4">
+        <v>7.0553377383840701</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1111.8103636696101</v>
+      </c>
+      <c r="C5">
+        <v>7.0883102428473803</v>
+      </c>
+      <c r="D5">
+        <v>7.0478487613370202</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1112.6115051131801</v>
+      </c>
+      <c r="C6">
+        <v>6.9546638959348197</v>
+      </c>
+      <c r="D6">
+        <v>6.9486368105636096</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>200</v>
+      </c>
+      <c r="B7">
+        <v>1109.7713207162501</v>
+      </c>
+      <c r="C7">
+        <v>7.8065128268642097</v>
+      </c>
+      <c r="D7">
+        <v>7.6238087005381097</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>200</v>
+      </c>
+      <c r="B8">
+        <v>1108.45269904426</v>
+      </c>
+      <c r="C8">
+        <v>7.5716053132718102</v>
+      </c>
+      <c r="D8">
+        <v>7.4734111049938097</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>200</v>
+      </c>
+      <c r="B9">
+        <v>1108.5427210938101</v>
+      </c>
+      <c r="C9">
+        <v>7.8101835121507399</v>
+      </c>
+      <c r="D9">
+        <v>7.7044613601886303</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>200</v>
+      </c>
+      <c r="B10">
+        <v>1112.91734544774</v>
+      </c>
+      <c r="C10">
+        <v>7.7469071827413698</v>
+      </c>
+      <c r="D10">
+        <v>7.6165275657352502</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>200</v>
+      </c>
+      <c r="B11">
+        <v>1108.5443166861501</v>
+      </c>
+      <c r="C11">
+        <v>7.6690231213529696</v>
+      </c>
+      <c r="D11">
+        <v>7.5686269534666302</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>200</v>
+      </c>
+      <c r="B12">
+        <v>1109.0220061310199</v>
+      </c>
+      <c r="C12">
+        <v>7.7198482489821201</v>
+      </c>
+      <c r="D12">
+        <v>7.5915134151463901</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2.3260700000000001</v>
+      </c>
+      <c r="M12" s="1">
+        <v>2.3260700000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>250</v>
+      </c>
+      <c r="B13">
+        <v>1110.97596829077</v>
+      </c>
+      <c r="C13">
+        <v>7.8151701240635498</v>
+      </c>
+      <c r="D13">
+        <v>7.6404252053337904</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>250</v>
+      </c>
+      <c r="B14">
+        <v>1114.4789300995401</v>
+      </c>
+      <c r="C14">
+        <v>7.8933375569088398</v>
+      </c>
+      <c r="D14">
+        <v>7.65862510549037</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>250</v>
+      </c>
+      <c r="B15">
+        <v>1112.3491755058201</v>
+      </c>
+      <c r="C15">
+        <v>7.9010983131874202</v>
+      </c>
+      <c r="D15">
+        <v>7.7422565185607004</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>250</v>
+      </c>
+      <c r="B16">
+        <v>1110.5732099852401</v>
+      </c>
+      <c r="C16">
+        <v>7.8031071091419602</v>
+      </c>
+      <c r="D16">
+        <v>7.6190369231859103</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>250</v>
+      </c>
+      <c r="B17">
+        <v>1112.51124171589</v>
+      </c>
+      <c r="C17">
+        <v>7.6598918241282101</v>
+      </c>
+      <c r="D17">
+        <v>7.5038589765541897</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>250</v>
+      </c>
+      <c r="B18">
+        <v>1110.0262058635899</v>
+      </c>
+      <c r="C18">
+        <v>7.7006231409206602</v>
+      </c>
+      <c r="D18">
+        <v>7.4892173551599797</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>300</v>
+      </c>
+      <c r="B19">
+        <v>1116.42597296589</v>
+      </c>
+      <c r="C19">
+        <v>8.2133954146183097</v>
+      </c>
+      <c r="D19">
+        <v>7.97130412284789</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>300</v>
+      </c>
+      <c r="B20">
+        <v>1116.43728865604</v>
+      </c>
+      <c r="C20">
+        <v>8.1869961973317995</v>
+      </c>
+      <c r="D20">
+        <v>7.9645040324925898</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>300</v>
+      </c>
+      <c r="B21">
+        <v>1115.9298175153299</v>
+      </c>
+      <c r="C21">
+        <v>8.0327127737671304</v>
+      </c>
+      <c r="D21">
+        <v>7.8637600658391298</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>300</v>
+      </c>
+      <c r="B22">
+        <v>1115.67691309117</v>
+      </c>
+      <c r="C22">
+        <v>7.8960121134775596</v>
+      </c>
+      <c r="D22">
+        <v>7.8080855978202104</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>300</v>
+      </c>
+      <c r="B23">
+        <v>1114.1237248653199</v>
+      </c>
+      <c r="C23">
+        <v>8.0192052382896808</v>
+      </c>
+      <c r="D23">
+        <v>7.9360593556912704</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>300</v>
+      </c>
+      <c r="B24">
+        <v>1119.0636172294701</v>
+      </c>
+      <c r="C24">
+        <v>8.0159036646223907</v>
+      </c>
+      <c r="D24">
+        <v>7.8028452414449898</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>350</v>
+      </c>
+      <c r="B25">
+        <v>1117.68300274741</v>
+      </c>
+      <c r="C25">
+        <v>8.3737585969215296</v>
+      </c>
+      <c r="D25">
+        <v>8.1528018484972904</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>350</v>
+      </c>
+      <c r="B26">
+        <v>1119.46379154839</v>
+      </c>
+      <c r="C26">
+        <v>8.3117853699017594</v>
+      </c>
+      <c r="D26">
+        <v>8.1730009666395702</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>350</v>
+      </c>
+      <c r="B27">
+        <v>1117.5270302501101</v>
+      </c>
+      <c r="C27">
+        <v>8.4212032561084609</v>
+      </c>
+      <c r="D27">
+        <v>8.1878545150958502</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>350</v>
+      </c>
+      <c r="B28">
+        <v>1116.8198719489301</v>
+      </c>
+      <c r="C28">
+        <v>8.2188674768536796</v>
+      </c>
+      <c r="D28">
+        <v>8.0874465775373494</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>350</v>
+      </c>
+      <c r="B29">
+        <v>1116.7532918371801</v>
+      </c>
+      <c r="C29">
+        <v>8.4390536936057305</v>
+      </c>
+      <c r="D29">
+        <v>8.2448818663655192</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>400</v>
+      </c>
+      <c r="B30">
+        <v>1119.7634886016399</v>
+      </c>
+      <c r="C30">
+        <v>8.6049872526408997</v>
+      </c>
+      <c r="D30">
+        <v>8.2460416860596997</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>400</v>
+      </c>
+      <c r="B31">
+        <v>1120.5330600992299</v>
+      </c>
+      <c r="C31">
+        <v>8.6185525582051294</v>
+      </c>
+      <c r="D31">
+        <v>8.4205994403523299</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>400</v>
+      </c>
+      <c r="B32">
+        <v>1120.9191571163799</v>
+      </c>
+      <c r="C32">
+        <v>8.5176764035509507</v>
+      </c>
+      <c r="D32">
+        <v>8.3103135344523391</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>400</v>
+      </c>
+      <c r="B33">
+        <v>1120.21322795071</v>
+      </c>
+      <c r="C33">
+        <v>8.5589302695067708</v>
+      </c>
+      <c r="D33">
+        <v>8.2559126792687803</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>400</v>
+      </c>
+      <c r="B34">
+        <v>1118.3522480885399</v>
+      </c>
+      <c r="C34">
+        <v>8.4649001069916192</v>
+      </c>
+      <c r="D34">
+        <v>8.2521358263266293</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>500</v>
+      </c>
+      <c r="B35">
+        <v>1123.64726788589</v>
+      </c>
+      <c r="C35">
+        <v>8.7637699524872605</v>
+      </c>
+      <c r="D35">
+        <v>8.4691719563816807</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>500</v>
+      </c>
+      <c r="B36">
+        <v>1124.64482069887</v>
+      </c>
+      <c r="C36">
+        <v>8.82165481456253</v>
+      </c>
+      <c r="D36">
+        <v>8.6071926728147599</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>500</v>
+      </c>
+      <c r="B37">
+        <v>1127.59094772495</v>
+      </c>
+      <c r="C37">
+        <v>9.0035388287676898</v>
+      </c>
+      <c r="D37">
+        <v>8.5443070220701092</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>500</v>
+      </c>
+      <c r="B38">
+        <v>1126.6129891123001</v>
+      </c>
+      <c r="C38">
+        <v>8.8625713757064997</v>
+      </c>
+      <c r="D38">
+        <v>8.6928036343704793</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>500</v>
+      </c>
+      <c r="B39">
+        <v>1122.9416507389401</v>
+      </c>
+      <c r="C39">
+        <v>8.80942162476763</v>
+      </c>
+      <c r="D39">
+        <v>8.5065770070873405</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>800</v>
+      </c>
+      <c r="B40">
+        <v>1136.47209955569</v>
+      </c>
+      <c r="C40">
+        <v>10.000868675834299</v>
+      </c>
+      <c r="D40">
+        <v>9.36178943656288</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>800</v>
+      </c>
+      <c r="B41">
+        <v>1134.9352022888199</v>
+      </c>
+      <c r="C41">
+        <v>9.9576463364053307</v>
+      </c>
+      <c r="D41">
+        <v>9.2386950545699396</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>800</v>
+      </c>
+      <c r="B42">
+        <v>1135.2818093667199</v>
+      </c>
+      <c r="C42">
+        <v>9.7732423804627295</v>
+      </c>
+      <c r="D42">
+        <v>9.3192551009235203</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>800</v>
+      </c>
+      <c r="B43">
+        <v>1139.55361476591</v>
+      </c>
+      <c r="C43">
+        <v>10.044086757476499</v>
+      </c>
+      <c r="D43">
+        <v>9.5245256692136504</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>800</v>
+      </c>
+      <c r="B44">
+        <v>1138.8438654747399</v>
+      </c>
+      <c r="C44">
+        <v>9.5856783531973502</v>
+      </c>
+      <c r="D44">
+        <v>9.0942454477779808</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>1000</v>
+      </c>
+      <c r="B45">
+        <v>1144.9979341317101</v>
+      </c>
+      <c r="C45">
+        <v>10.425363842700699</v>
+      </c>
+      <c r="D45">
+        <v>9.7728301994897002</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>1000</v>
+      </c>
+      <c r="B46">
+        <v>1147.5745990524899</v>
+      </c>
+      <c r="C46">
+        <v>10.264565314675099</v>
+      </c>
+      <c r="D46">
+        <v>9.7163211630293898</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>1000</v>
+      </c>
+      <c r="B47">
+        <v>1145.37266767446</v>
+      </c>
+      <c r="C47">
+        <v>10.4493793032497</v>
+      </c>
+      <c r="D47">
+        <v>9.6465032347701207</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>1000</v>
+      </c>
+      <c r="B48">
+        <v>1144.2082666462099</v>
+      </c>
+      <c r="C48">
+        <v>9.8296666070122001</v>
+      </c>
+      <c r="D48">
+        <v>9.2874412231870505</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>1000</v>
+      </c>
+      <c r="B49">
+        <v>1145.65413202943</v>
+      </c>
+      <c r="C49">
+        <v>10.520274207542201</v>
+      </c>
+      <c r="D49">
+        <v>9.68672342238869</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>1200</v>
+      </c>
+      <c r="B50">
+        <v>1150.57054198997</v>
+      </c>
+      <c r="C50">
+        <v>10.849168983487999</v>
+      </c>
+      <c r="D50">
+        <v>9.8733146610366997</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>1200</v>
+      </c>
+      <c r="B51">
+        <v>1149.84365759763</v>
+      </c>
+      <c r="C51">
+        <v>11.297131710074099</v>
+      </c>
+      <c r="D51">
+        <v>10.0471589231074</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>1200</v>
+      </c>
+      <c r="B52">
+        <v>1148.85734483596</v>
+      </c>
+      <c r="C52">
+        <v>10.9307265269104</v>
+      </c>
+      <c r="D52">
+        <v>9.9744519185151805</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>1200</v>
+      </c>
+      <c r="B53">
+        <v>1150.2568352916501</v>
+      </c>
+      <c r="C53">
+        <v>11.278437272517101</v>
+      </c>
+      <c r="D53">
+        <v>10.304909014034299</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>1200</v>
+      </c>
+      <c r="B54">
+        <v>1148.8249080389701</v>
+      </c>
+      <c r="C54">
+        <v>11.1249522576462</v>
+      </c>
+      <c r="D54">
+        <v>10.052430554123699</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>1500</v>
+      </c>
+      <c r="B55">
+        <v>1160.1632179112601</v>
+      </c>
+      <c r="C55">
+        <v>11.9749993223561</v>
+      </c>
+      <c r="D55">
+        <v>10.6403953101083</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>1500</v>
+      </c>
+      <c r="B56">
+        <v>1158.2429201257301</v>
+      </c>
+      <c r="C56">
+        <v>11.611509092627401</v>
+      </c>
+      <c r="D56">
+        <v>10.253041280903201</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>1500</v>
+      </c>
+      <c r="B57">
+        <v>1159.9352771172801</v>
+      </c>
+      <c r="C57">
+        <v>11.3566694496661</v>
+      </c>
+      <c r="D57">
+        <v>10.3800971255994</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>1500</v>
+      </c>
+      <c r="B58">
+        <v>1160.58695168802</v>
+      </c>
+      <c r="C58">
+        <v>11.288358671970499</v>
+      </c>
+      <c r="D58">
+        <v>10.250740139102399</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>1500</v>
+      </c>
+      <c r="B59">
+        <v>1158.3460103689699</v>
+      </c>
+      <c r="C59">
+        <v>11.817081092</v>
+      </c>
+      <c r="D59">
+        <v>10.572976311113299</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>1500</v>
+      </c>
+      <c r="B60">
+        <v>1156.98583151049</v>
+      </c>
+      <c r="C60">
+        <v>11.303576553484101</v>
+      </c>
+      <c r="D60">
+        <v>10.057268510268299</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>1800</v>
+      </c>
+      <c r="B61">
+        <v>1168.1164655759301</v>
+      </c>
+      <c r="C61">
+        <v>12.145989750076099</v>
+      </c>
+      <c r="D61">
+        <v>10.6338573802479</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>1800</v>
+      </c>
+      <c r="B62">
+        <v>1170.8792176184299</v>
+      </c>
+      <c r="C62">
+        <v>12.2206595116222</v>
+      </c>
+      <c r="D62">
+        <v>10.6838959363704</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>1800</v>
+      </c>
+      <c r="B63">
+        <v>1165.32809477815</v>
+      </c>
+      <c r="C63">
+        <v>12.379970306248801</v>
+      </c>
+      <c r="D63">
+        <v>10.902835467656599</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>1800</v>
+      </c>
+      <c r="B64">
+        <v>1164.9491757855201</v>
+      </c>
+      <c r="C64">
+        <v>12.256290401500801</v>
+      </c>
+      <c r="D64">
+        <v>10.6961138175568</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>1800</v>
+      </c>
+      <c r="B65">
+        <v>1166.96247092662</v>
+      </c>
+      <c r="C65">
+        <v>12.379970306248801</v>
+      </c>
+      <c r="D65">
+        <v>10.8280969148844</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>2000</v>
+      </c>
+      <c r="B66">
+        <v>1175.8556340212499</v>
+      </c>
+      <c r="C66">
+        <v>13.0513167201754</v>
+      </c>
+      <c r="D66">
+        <v>11.240710150770701</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>2000</v>
+      </c>
+      <c r="B67">
+        <v>1172.0074042236499</v>
+      </c>
+      <c r="C67">
+        <v>12.7294698864614</v>
+      </c>
+      <c r="D67">
+        <v>11.0746019534136</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>2000</v>
+      </c>
+      <c r="B68">
+        <v>1173.94703486909</v>
+      </c>
+      <c r="C68">
+        <v>12.4741382125959</v>
+      </c>
+      <c r="D68">
+        <v>10.956632077975099</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>2000</v>
+      </c>
+      <c r="B69">
+        <v>1174.89689119631</v>
+      </c>
+      <c r="C69">
+        <v>12.499546879882301</v>
+      </c>
+      <c r="D69">
+        <v>10.8687520961044</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>2000</v>
+      </c>
+      <c r="B70">
+        <v>1171.8374382822001</v>
+      </c>
+      <c r="C70">
+        <v>12.358986235237699</v>
+      </c>
+      <c r="D70">
+        <v>10.915149811213499</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>2000</v>
+      </c>
+      <c r="B71">
+        <v>1176.02712926605</v>
+      </c>
+      <c r="C71">
+        <v>12.613779720820601</v>
+      </c>
+      <c r="D71">
+        <v>11.0132965703447</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I83"/>
   <sheetViews>
@@ -21718,7 +23638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I100"/>
   <sheetViews>
@@ -23443,7 +25363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -23992,7 +25912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -24055,7 +25975,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <f>C2*30/60</f>
+        <f t="shared" ref="D2:D15" si="0">C2*30/60</f>
         <v>0.5</v>
       </c>
       <c r="E2">
@@ -24079,7 +25999,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <f>C3*30/60</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E3">
@@ -24103,7 +26023,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <f>C4*30/60</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="E4">
@@ -24127,7 +26047,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <f>C5*30/60</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E5">
@@ -24151,7 +26071,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <f>C6*30/60</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="E6">
@@ -24175,7 +26095,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <f>C7*30/60</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E7">
@@ -24199,7 +26119,7 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <f>C8*30/60</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="E8">
@@ -24223,7 +26143,7 @@
         <v>15</v>
       </c>
       <c r="D9">
-        <f>C9*30/60</f>
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
       <c r="E9">
@@ -24247,7 +26167,7 @@
         <v>16</v>
       </c>
       <c r="D10">
-        <f>C10*30/60</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="E10">
@@ -24271,7 +26191,7 @@
         <v>17</v>
       </c>
       <c r="D11">
-        <f>C11*30/60</f>
+        <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
       <c r="E11">
@@ -24295,7 +26215,7 @@
         <v>18</v>
       </c>
       <c r="D12">
-        <f>C12*30/60</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="E12">
@@ -24319,7 +26239,7 @@
         <v>19</v>
       </c>
       <c r="D13">
-        <f>C13*30/60</f>
+        <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
       <c r="E13">
@@ -24343,7 +26263,7 @@
         <v>20</v>
       </c>
       <c r="D14">
-        <f>C14*30/60</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E14">
@@ -24367,7 +26287,7 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <f>C15*30/60</f>
+        <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
       <c r="E15">

--- a/实验结果/处理结果/处理结果-ETL版本.xlsx
+++ b/实验结果/处理结果/处理结果-ETL版本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8925" firstSheet="14" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8925" firstSheet="19" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="17" r:id="rId1"/>
@@ -33,17 +33,20 @@
     <sheet name="60-40" sheetId="8" r:id="rId19"/>
     <sheet name="90-60" sheetId="9" r:id="rId20"/>
     <sheet name="180-60" sheetId="10" r:id="rId21"/>
-    <sheet name="180-60-e1" sheetId="11" r:id="rId22"/>
-    <sheet name="180-60-e2" sheetId="12" r:id="rId23"/>
-    <sheet name="相同半径" sheetId="13" r:id="rId24"/>
-    <sheet name="Sheet2" sheetId="14" r:id="rId25"/>
+    <sheet name="3.3-3.34" sheetId="29" r:id="rId22"/>
+    <sheet name="7.6-7.75" sheetId="27" r:id="rId23"/>
+    <sheet name="7-8.2" sheetId="28" r:id="rId24"/>
+    <sheet name="180-60-e1" sheetId="11" r:id="rId25"/>
+    <sheet name="180-60-e2" sheetId="12" r:id="rId26"/>
+    <sheet name="相同半径" sheetId="13" r:id="rId27"/>
+    <sheet name="Sheet2" sheetId="14" r:id="rId28"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="156">
   <si>
     <t>test</t>
   </si>
@@ -1660,11 +1663,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404159648"/>
-        <c:axId val="404161280"/>
+        <c:axId val="-1156353856"/>
+        <c:axId val="-1156352768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404159648"/>
+        <c:axId val="-1156353856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1721,12 +1724,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404161280"/>
+        <c:crossAx val="-1156352768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404161280"/>
+        <c:axId val="-1156352768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1783,7 +1786,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404159648"/>
+        <c:crossAx val="-1156353856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2103,11 +2106,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404154752"/>
-        <c:axId val="404156384"/>
+        <c:axId val="-1156363648"/>
+        <c:axId val="-1156362560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404154752"/>
+        <c:axId val="-1156363648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2164,12 +2167,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404156384"/>
+        <c:crossAx val="-1156362560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404156384"/>
+        <c:axId val="-1156362560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2226,7 +2229,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404154752"/>
+        <c:crossAx val="-1156363648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2600,11 +2603,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404162912"/>
-        <c:axId val="404148768"/>
+        <c:axId val="-877546016"/>
+        <c:axId val="-877544928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404162912"/>
+        <c:axId val="-877546016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2661,12 +2664,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404148768"/>
+        <c:crossAx val="-877544928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404148768"/>
+        <c:axId val="-877544928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2723,7 +2726,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404162912"/>
+        <c:crossAx val="-877546016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3044,11 +3047,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404160192"/>
-        <c:axId val="404149312"/>
+        <c:axId val="-877536224"/>
+        <c:axId val="-875377664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404160192"/>
+        <c:axId val="-877536224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3105,12 +3108,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404149312"/>
+        <c:crossAx val="-875377664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404149312"/>
+        <c:axId val="-875377664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3167,7 +3170,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404160192"/>
+        <c:crossAx val="-877536224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3445,11 +3448,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="471419760"/>
-        <c:axId val="471420304"/>
+        <c:axId val="-875384736"/>
+        <c:axId val="-875375488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="471419760"/>
+        <c:axId val="-875384736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3506,12 +3509,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471420304"/>
+        <c:crossAx val="-875375488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="471420304"/>
+        <c:axId val="-875375488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3568,7 +3571,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471419760"/>
+        <c:crossAx val="-875384736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6749,7 +6752,7 @@
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="表10" displayName="表10" ref="A1:E71" totalsRowShown="0">
   <autoFilter ref="A1:E71"/>
-  <sortState ref="A2:G71">
+  <sortState ref="A2:E71">
     <sortCondition ref="A1:A71"/>
   </sortState>
   <tableColumns count="5">
@@ -6783,6 +6786,54 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="表22" displayName="表22" ref="A1:D102" totalsRowShown="0">
+  <autoFilter ref="A1:D102"/>
+  <sortState ref="A2:D102">
+    <sortCondition ref="A1:A102"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" name="列1"/>
+    <tableColumn id="2" name="列2"/>
+    <tableColumn id="3" name="列3"/>
+    <tableColumn id="4" name="列4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="表24" displayName="表24" ref="A1:D102" totalsRowShown="0">
+  <autoFilter ref="A1:D102"/>
+  <sortState ref="A2:D102">
+    <sortCondition ref="A1:A102"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" name="列1"/>
+    <tableColumn id="2" name="列2"/>
+    <tableColumn id="3" name="列3"/>
+    <tableColumn id="4" name="列4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="表23" displayName="表23" ref="A1:D102" totalsRowShown="0">
+  <autoFilter ref="A1:D102"/>
+  <sortState ref="A2:D102">
+    <sortCondition ref="A1:A102"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" name="列1"/>
+    <tableColumn id="2" name="列2"/>
+    <tableColumn id="3" name="列3"/>
+    <tableColumn id="4" name="列4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="表11" displayName="表11" ref="A1:E83" totalsRowShown="0">
   <autoFilter ref="A1:E83"/>
   <sortState ref="A2:E83">
@@ -6799,7 +6850,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="表12" displayName="表12" ref="A1:E100" totalsRowShown="0">
   <autoFilter ref="A1:E100"/>
   <sortState ref="A2:E100">
@@ -14908,7 +14959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
@@ -20938,8 +20989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21249,7 +21300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>250</v>
       </c>
@@ -21266,7 +21317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>250</v>
       </c>
@@ -21283,7 +21334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>300</v>
       </c>
@@ -21300,7 +21351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>300</v>
       </c>
@@ -21317,7 +21368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>300</v>
       </c>
@@ -21334,7 +21385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>300</v>
       </c>
@@ -21350,8 +21401,23 @@
       <c r="E22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f>AVERAGE(B2:B6)</f>
+        <v>1112.997743198024</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22:K22" si="0">AVERAGE(C2:C6)</f>
+        <v>7.0204406631327014</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>7.0017469045451204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>300</v>
       </c>
@@ -21367,8 +21433,23 @@
       <c r="E23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H23">
+        <v>200</v>
+      </c>
+      <c r="I23">
+        <f>AVERAGE(B7:B12)</f>
+        <v>1109.5417348532051</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ref="J23:K23" si="1">AVERAGE(C7:C12)</f>
+        <v>7.7206800342272031</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>7.5963915166781355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>300</v>
       </c>
@@ -21384,8 +21465,23 @@
       <c r="E24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H24">
+        <v>250</v>
+      </c>
+      <c r="I24">
+        <f>AVERAGE(B13:B18)</f>
+        <v>1111.8191219101416</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ref="J24:K24" si="2">AVERAGE(C13:C18)</f>
+        <v>7.7955380113917734</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>7.6089033473808234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>350</v>
       </c>
@@ -21401,8 +21497,23 @@
       <c r="E25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H25">
+        <v>300</v>
+      </c>
+      <c r="I25">
+        <f>AVERAGE(B19:B24)</f>
+        <v>1116.2762223872032</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25:K25" si="3">AVERAGE(C19:C24)</f>
+        <v>8.0607042336844774</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>7.891093069356014</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>350</v>
       </c>
@@ -21418,8 +21529,23 @@
       <c r="E26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H26">
+        <v>350</v>
+      </c>
+      <c r="I26">
+        <f>AVERAGE(B25:B29)</f>
+        <v>1117.649397666404</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26:K26" si="4">AVERAGE(C25:C29)</f>
+        <v>8.352933678678232</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>8.1691971548271152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>350</v>
       </c>
@@ -21435,8 +21561,23 @@
       <c r="E27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H27">
+        <v>400</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(B30:B34)</f>
+        <v>1119.9562363713001</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ref="J27:K27" si="5">AVERAGE(C30:C34)</f>
+        <v>8.5530093181790736</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>8.2970006332919564</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>350</v>
       </c>
@@ -21452,8 +21593,23 @@
       <c r="E28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H28">
+        <v>500</v>
+      </c>
+      <c r="I28">
+        <f>AVERAGE(B35:B39)</f>
+        <v>1125.0875352321898</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ref="J28:K28" si="6">AVERAGE(C35:C39)</f>
+        <v>8.8521913192583224</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="6"/>
+        <v>8.5640104585448746</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>350</v>
       </c>
@@ -21469,8 +21625,23 @@
       <c r="E29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H29">
+        <v>800</v>
+      </c>
+      <c r="I29">
+        <f>AVERAGE(B40:B44)</f>
+        <v>1137.0173182903759</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ref="J29:K29" si="7">AVERAGE(C40:C44)</f>
+        <v>9.8723045006752415</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="7"/>
+        <v>9.3077021418095942</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>400</v>
       </c>
@@ -21486,8 +21657,23 @@
       <c r="E30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H30">
+        <v>1000</v>
+      </c>
+      <c r="I30">
+        <f>AVERAGE(B45:B49)</f>
+        <v>1145.56151990686</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ref="J30:K30" si="8">AVERAGE(C45:C49)</f>
+        <v>10.297849855035981</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="8"/>
+        <v>9.6219638485729906</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>400</v>
       </c>
@@ -21503,8 +21689,23 @@
       <c r="E31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H31">
+        <v>1200</v>
+      </c>
+      <c r="I31">
+        <f>AVERAGE(B50:B54)</f>
+        <v>1149.670657550836</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ref="J31:K31" si="9">AVERAGE(C50:C54)</f>
+        <v>11.096083350127159</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="9"/>
+        <v>10.050453014163455</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>400</v>
       </c>
@@ -21520,8 +21721,23 @@
       <c r="E32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H32">
+        <v>1500</v>
+      </c>
+      <c r="I32">
+        <f>AVERAGE(B55:B60)</f>
+        <v>1159.0433681202919</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ref="J32:K32" si="10">AVERAGE(C55:C60)</f>
+        <v>11.5586990303507</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="10"/>
+        <v>10.359086446182483</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>400</v>
       </c>
@@ -21537,8 +21753,23 @@
       <c r="E33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H33">
+        <v>1800</v>
+      </c>
+      <c r="I33">
+        <f>AVERAGE(B61:B65)</f>
+        <v>1167.2470849369299</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ref="J33:K33" si="11">AVERAGE(C61:C65)</f>
+        <v>12.276576055139341</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="11"/>
+        <v>10.74895990334322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>400</v>
       </c>
@@ -21554,8 +21785,23 @@
       <c r="E34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H34">
+        <v>2000</v>
+      </c>
+      <c r="I34">
+        <f>AVERAGE(B66:B71)</f>
+        <v>1174.0952553097584</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ref="J34:K34" si="12">AVERAGE(C66:C71)</f>
+        <v>12.621206275862216</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="12"/>
+        <v>11.011523776637</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>500</v>
       </c>
@@ -21572,7 +21818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>500</v>
       </c>
@@ -21589,7 +21835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>500</v>
       </c>
@@ -21606,7 +21852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>500</v>
       </c>
@@ -21623,7 +21869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>500</v>
       </c>
@@ -21640,7 +21886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>800</v>
       </c>
@@ -21657,7 +21903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>800</v>
       </c>
@@ -21674,7 +21920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>800</v>
       </c>
@@ -21691,7 +21937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>800</v>
       </c>
@@ -21708,7 +21954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>800</v>
       </c>
@@ -21725,7 +21971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>1000</v>
       </c>
@@ -21742,7 +21988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>1000</v>
       </c>
@@ -21759,7 +22005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>1000</v>
       </c>
@@ -21776,7 +22022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>1000</v>
       </c>
@@ -22194,6 +22440,5024 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="L37" sqref="I23:L37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>127.84604884534799</v>
+      </c>
+      <c r="C2">
+        <v>6.87336133849369</v>
+      </c>
+      <c r="D2">
+        <v>6.8642803156018299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>126.389083444901</v>
+      </c>
+      <c r="C3">
+        <v>6.7573812786693104</v>
+      </c>
+      <c r="D3">
+        <v>6.7563522179771001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>127.044444245367</v>
+      </c>
+      <c r="C4">
+        <v>6.7481284987634602</v>
+      </c>
+      <c r="D4">
+        <v>6.7221209240695003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>126.688795658944</v>
+      </c>
+      <c r="C5">
+        <v>6.7483339020703799</v>
+      </c>
+      <c r="D5">
+        <v>6.7446381280792602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>126.89307740792999</v>
+      </c>
+      <c r="C6">
+        <v>6.7538834667107901</v>
+      </c>
+      <c r="D6">
+        <v>6.7475123471246299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>123.46255874419499</v>
+      </c>
+      <c r="C7">
+        <v>6.6302022479934504</v>
+      </c>
+      <c r="D7">
+        <v>6.5763654519082797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>126.129967539982</v>
+      </c>
+      <c r="C8">
+        <v>6.73971531662992</v>
+      </c>
+      <c r="D8">
+        <v>6.7104986793021597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>124.636263759965</v>
+      </c>
+      <c r="C9">
+        <v>6.6372042564967</v>
+      </c>
+      <c r="D9">
+        <v>6.6202189214074103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>125.064769652979</v>
+      </c>
+      <c r="C10">
+        <v>6.7011419494557503</v>
+      </c>
+      <c r="D10">
+        <v>6.6709719431420904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>124.22622692585701</v>
+      </c>
+      <c r="C11">
+        <v>6.6240098826001104</v>
+      </c>
+      <c r="D11">
+        <v>6.6136424750880698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>125.848319404965</v>
+      </c>
+      <c r="C12">
+        <v>6.7280459549676701</v>
+      </c>
+      <c r="D12">
+        <v>6.7045975234333604</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>125.725907169563</v>
+      </c>
+      <c r="C13">
+        <v>6.7372560018632202</v>
+      </c>
+      <c r="D13">
+        <v>6.7239588618568504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>124.657428255093</v>
+      </c>
+      <c r="C14">
+        <v>6.6625053751802996</v>
+      </c>
+      <c r="D14">
+        <v>6.6568701524176896</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>125.280000062067</v>
+      </c>
+      <c r="C15">
+        <v>6.6911971220556898</v>
+      </c>
+      <c r="D15">
+        <v>6.6750094508182203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>100</v>
+      </c>
+      <c r="B16">
+        <v>125.877851143759</v>
+      </c>
+      <c r="C16">
+        <v>7.0423503877022799</v>
+      </c>
+      <c r="D16">
+        <v>7.0012241232894699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17">
+        <v>125.426694706178</v>
+      </c>
+      <c r="C17">
+        <v>6.9169175700177403</v>
+      </c>
+      <c r="D17">
+        <v>6.8877608956754397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>100</v>
+      </c>
+      <c r="B18">
+        <v>126.28502500531501</v>
+      </c>
+      <c r="C18">
+        <v>7.0254590038092797</v>
+      </c>
+      <c r="D18">
+        <v>6.9999179744618703</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>100</v>
+      </c>
+      <c r="B19">
+        <v>127.452567187301</v>
+      </c>
+      <c r="C19">
+        <v>7.0040554607507701</v>
+      </c>
+      <c r="D19">
+        <v>6.9812395472684603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>126.564567079973</v>
+      </c>
+      <c r="C20">
+        <v>6.8737841741301899</v>
+      </c>
+      <c r="D20">
+        <v>6.8413456926322098</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>150</v>
+      </c>
+      <c r="B21">
+        <v>126.603590836008</v>
+      </c>
+      <c r="C21">
+        <v>7.1325170338628796</v>
+      </c>
+      <c r="D21">
+        <v>7.06085258968898</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>150</v>
+      </c>
+      <c r="B22">
+        <v>127.927783713365</v>
+      </c>
+      <c r="C22">
+        <v>7.2568047544137899</v>
+      </c>
+      <c r="D22">
+        <v>7.1944439199372603</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>150</v>
+      </c>
+      <c r="B23">
+        <v>127.451811746774</v>
+      </c>
+      <c r="C23">
+        <v>7.2466560657423296</v>
+      </c>
+      <c r="D23">
+        <v>7.16337009941169</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f>AVERAGE(B2:B14)</f>
+        <v>125.73945315808376</v>
+      </c>
+      <c r="K23">
+        <f>AVERAGE(C2:C14)</f>
+        <v>6.7185514976842118</v>
+      </c>
+      <c r="L23">
+        <f>AVERAGE(D2:D14)</f>
+        <v>6.7009252262621732</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>150</v>
+      </c>
+      <c r="B24">
+        <v>127.25528057425601</v>
+      </c>
+      <c r="C24">
+        <v>7.2685977593318798</v>
+      </c>
+      <c r="D24">
+        <v>7.2466560657423296</v>
+      </c>
+      <c r="I24">
+        <v>100</v>
+      </c>
+      <c r="J24">
+        <f>AVERAGE(B15:B20)</f>
+        <v>126.14778419743216</v>
+      </c>
+      <c r="K24">
+        <f>AVERAGE(C15:C20)</f>
+        <v>6.9256272864109905</v>
+      </c>
+      <c r="L24">
+        <f>AVERAGE(D15:D20)</f>
+        <v>6.8977496140242787</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>150</v>
+      </c>
+      <c r="B25">
+        <v>127.56947269039399</v>
+      </c>
+      <c r="C25">
+        <v>7.21749557700634</v>
+      </c>
+      <c r="D25">
+        <v>7.1735523281026099</v>
+      </c>
+      <c r="I25">
+        <v>150</v>
+      </c>
+      <c r="J25">
+        <f>AVERAGE(B21:B26)</f>
+        <v>127.29981641394033</v>
+      </c>
+      <c r="K25">
+        <f>AVERAGE(C21:C26)</f>
+        <v>7.2160882936398663</v>
+      </c>
+      <c r="L25">
+        <f>AVERAGE(D21:D26)</f>
+        <v>7.1648218559421535</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>150</v>
+      </c>
+      <c r="B26">
+        <v>126.990958922845</v>
+      </c>
+      <c r="C26">
+        <v>7.1744585714819804</v>
+      </c>
+      <c r="D26">
+        <v>7.1500561327700503</v>
+      </c>
+      <c r="I26">
+        <v>200</v>
+      </c>
+      <c r="J26">
+        <f>AVERAGE(B27:B37)</f>
+        <v>129.06681145154297</v>
+      </c>
+      <c r="K26">
+        <f>AVERAGE(C27:C37)</f>
+        <v>7.6300440640200913</v>
+      </c>
+      <c r="L26">
+        <f>AVERAGE(D27:D37)</f>
+        <v>7.5209095717034948</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>200</v>
+      </c>
+      <c r="B27">
+        <v>129.73546718708101</v>
+      </c>
+      <c r="C27">
+        <v>7.8065128268642097</v>
+      </c>
+      <c r="D27">
+        <v>7.6238087005381097</v>
+      </c>
+      <c r="I27">
+        <v>250</v>
+      </c>
+      <c r="J27">
+        <f>AVERAGE(B38:B49)</f>
+        <v>129.58106546972908</v>
+      </c>
+      <c r="K27">
+        <f>AVERAGE(C38:C49)</f>
+        <v>7.7913293868706992</v>
+      </c>
+      <c r="L27">
+        <f>AVERAGE(D38:D49)</f>
+        <v>7.6094948668546891</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>200</v>
+      </c>
+      <c r="B28">
+        <v>129.284964292675</v>
+      </c>
+      <c r="C28">
+        <v>7.5716053132718102</v>
+      </c>
+      <c r="D28">
+        <v>7.4734111049938097</v>
+      </c>
+      <c r="I28">
+        <v>300</v>
+      </c>
+      <c r="J28">
+        <f>AVERAGE(B50:B55)</f>
+        <v>131.381228736856</v>
+      </c>
+      <c r="K28">
+        <f>AVERAGE(C50:C55)</f>
+        <v>8.0607042336844774</v>
+      </c>
+      <c r="L28">
+        <f>AVERAGE(D50:D55)</f>
+        <v>7.891093069356014</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>200</v>
+      </c>
+      <c r="B29">
+        <v>130.296556318928</v>
+      </c>
+      <c r="C29">
+        <v>7.8101835121507399</v>
+      </c>
+      <c r="D29">
+        <v>7.7044613601886303</v>
+      </c>
+      <c r="I29">
+        <v>350</v>
+      </c>
+      <c r="J29">
+        <f>AVERAGE(B56:B60)</f>
+        <v>132.16570854219302</v>
+      </c>
+      <c r="K29">
+        <f>AVERAGE(C56:C60)</f>
+        <v>8.352933678678232</v>
+      </c>
+      <c r="L29">
+        <f>AVERAGE(D56:D60)</f>
+        <v>8.1691971548271152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>200</v>
+      </c>
+      <c r="B30">
+        <v>129.97654943625801</v>
+      </c>
+      <c r="C30">
+        <v>7.7469071827413698</v>
+      </c>
+      <c r="D30">
+        <v>7.6165275657352502</v>
+      </c>
+      <c r="I30">
+        <v>400</v>
+      </c>
+      <c r="J30">
+        <f>AVERAGE(B61:B65)</f>
+        <v>132.9464539102004</v>
+      </c>
+      <c r="K30">
+        <f>AVERAGE(C61:C65)</f>
+        <v>8.5530093181790736</v>
+      </c>
+      <c r="L30">
+        <f>AVERAGE(D61:D65)</f>
+        <v>8.2970006332919564</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>200</v>
+      </c>
+      <c r="B31">
+        <v>129.653069590348</v>
+      </c>
+      <c r="C31">
+        <v>7.6690231213529696</v>
+      </c>
+      <c r="D31">
+        <v>7.5686269534666302</v>
+      </c>
+      <c r="I31">
+        <v>500</v>
+      </c>
+      <c r="J31">
+        <f>AVERAGE(B66:B70)</f>
+        <v>134.74562675266279</v>
+      </c>
+      <c r="K31">
+        <f>AVERAGE(C66:C70)</f>
+        <v>8.8521913192583224</v>
+      </c>
+      <c r="L31">
+        <f>AVERAGE(D66:D70)</f>
+        <v>8.5640104585448746</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>200</v>
+      </c>
+      <c r="B32">
+        <v>129.826538091354</v>
+      </c>
+      <c r="C32">
+        <v>7.7198482489821201</v>
+      </c>
+      <c r="D32">
+        <v>7.5915134151463901</v>
+      </c>
+      <c r="I32">
+        <v>800</v>
+      </c>
+      <c r="J32">
+        <f>AVERAGE(B72:B75)</f>
+        <v>138.24554639161025</v>
+      </c>
+      <c r="K32">
+        <f>AVERAGE(C72:C75)</f>
+        <v>9.8401634568854774</v>
+      </c>
+      <c r="L32">
+        <f>AVERAGE(D72:D75)</f>
+        <v>9.2941803181212723</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>200</v>
+      </c>
+      <c r="B33">
+        <v>128.886806916724</v>
+      </c>
+      <c r="C33">
+        <v>7.6741043724521303</v>
+      </c>
+      <c r="D33">
+        <v>7.6520441177935803</v>
+      </c>
+      <c r="I33">
+        <v>1000</v>
+      </c>
+      <c r="J33">
+        <f>AVERAGE(B76:B80)</f>
+        <v>140.29881871919821</v>
+      </c>
+      <c r="K33">
+        <f>AVERAGE(C76:C80)</f>
+        <v>10.297849855035981</v>
+      </c>
+      <c r="L33">
+        <f>AVERAGE(D76:D80)</f>
+        <v>9.6219638485729906</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>200</v>
+      </c>
+      <c r="B34">
+        <v>128.09934691379101</v>
+      </c>
+      <c r="C34">
+        <v>7.4637126980624604</v>
+      </c>
+      <c r="D34">
+        <v>7.3360365081140699</v>
+      </c>
+      <c r="I34">
+        <v>1200</v>
+      </c>
+      <c r="J34">
+        <f>AVERAGE(B81:B85)</f>
+        <v>142.88208330113258</v>
+      </c>
+      <c r="K34">
+        <f>AVERAGE(C81:C85)</f>
+        <v>11.096083350127159</v>
+      </c>
+      <c r="L34">
+        <f>AVERAGE(D81:D85)</f>
+        <v>10.050453014163455</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>200</v>
+      </c>
+      <c r="B35">
+        <v>127.40065239744</v>
+      </c>
+      <c r="C35">
+        <v>7.4446217377539696</v>
+      </c>
+      <c r="D35">
+        <v>7.3612732313477602</v>
+      </c>
+      <c r="I35">
+        <v>1500</v>
+      </c>
+      <c r="J35">
+        <f>AVERAGE(B86:B91)</f>
+        <v>145.02110446000682</v>
+      </c>
+      <c r="K35">
+        <f>AVERAGE(C86:C91)</f>
+        <v>11.5586990303507</v>
+      </c>
+      <c r="L35">
+        <f>AVERAGE(D86:D91)</f>
+        <v>10.359086446182483</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>200</v>
+      </c>
+      <c r="B36">
+        <v>128.83995548962301</v>
+      </c>
+      <c r="C36">
+        <v>7.5327989689289101</v>
+      </c>
+      <c r="D36">
+        <v>7.4775394952688199</v>
+      </c>
+      <c r="I36">
+        <v>1800</v>
+      </c>
+      <c r="J36">
+        <f>AVERAGE(B92:B96)</f>
+        <v>147.70216476316781</v>
+      </c>
+      <c r="K36">
+        <f>AVERAGE(C92:C96)</f>
+        <v>12.276576055139341</v>
+      </c>
+      <c r="L36">
+        <f>AVERAGE(D92:D96)</f>
+        <v>10.74895990334322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>200</v>
+      </c>
+      <c r="B37">
+        <v>127.73501933275099</v>
+      </c>
+      <c r="C37">
+        <v>7.4911667216603197</v>
+      </c>
+      <c r="D37">
+        <v>7.32476283614539</v>
+      </c>
+      <c r="I37">
+        <v>2000</v>
+      </c>
+      <c r="J37">
+        <f>AVERAGE(B97:B102)</f>
+        <v>149.68030129972101</v>
+      </c>
+      <c r="K37">
+        <f>AVERAGE(C97:C102)</f>
+        <v>12.621206275862216</v>
+      </c>
+      <c r="L37">
+        <f>AVERAGE(D97:D102)</f>
+        <v>11.011523776637</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>250</v>
+      </c>
+      <c r="B38">
+        <v>129.668126355048</v>
+      </c>
+      <c r="C38">
+        <v>7.9317412396815001</v>
+      </c>
+      <c r="D38">
+        <v>7.6273281049600703</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>250</v>
+      </c>
+      <c r="B39">
+        <v>130.80208235593599</v>
+      </c>
+      <c r="C39">
+        <v>7.8151701240635498</v>
+      </c>
+      <c r="D39">
+        <v>7.6404252053337904</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>250</v>
+      </c>
+      <c r="B40">
+        <v>130.939358308707</v>
+      </c>
+      <c r="C40">
+        <v>7.8933375569088398</v>
+      </c>
+      <c r="D40">
+        <v>7.65862510549037</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>250</v>
+      </c>
+      <c r="B41">
+        <v>130.622772352993</v>
+      </c>
+      <c r="C41">
+        <v>7.9010983131874202</v>
+      </c>
+      <c r="D41">
+        <v>7.7422565185607004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>250</v>
+      </c>
+      <c r="B42">
+        <v>129.30206390359501</v>
+      </c>
+      <c r="C42">
+        <v>7.8031071091419602</v>
+      </c>
+      <c r="D42">
+        <v>7.6190369231859103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>250</v>
+      </c>
+      <c r="B43">
+        <v>129.863163243483</v>
+      </c>
+      <c r="C43">
+        <v>7.6598918241282101</v>
+      </c>
+      <c r="D43">
+        <v>7.5038589765541897</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>250</v>
+      </c>
+      <c r="B44">
+        <v>129.17465776223801</v>
+      </c>
+      <c r="C44">
+        <v>7.7006231409206602</v>
+      </c>
+      <c r="D44">
+        <v>7.4892173551599797</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>250</v>
+      </c>
+      <c r="B45">
+        <v>128.91783932033101</v>
+      </c>
+      <c r="C45">
+        <v>7.8041547378574503</v>
+      </c>
+      <c r="D45">
+        <v>7.5970041799728696</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>250</v>
+      </c>
+      <c r="B46">
+        <v>129.255185646466</v>
+      </c>
+      <c r="C46">
+        <v>7.7730953528865898</v>
+      </c>
+      <c r="D46">
+        <v>7.65862510549037</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>250</v>
+      </c>
+      <c r="B47">
+        <v>129.41252752180799</v>
+      </c>
+      <c r="C47">
+        <v>7.6667384965014298</v>
+      </c>
+      <c r="D47">
+        <v>7.5512937793475796</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>250</v>
+      </c>
+      <c r="B48">
+        <v>128.64666002894</v>
+      </c>
+      <c r="C48">
+        <v>7.8086099814019896</v>
+      </c>
+      <c r="D48">
+        <v>7.5812991131438103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>250</v>
+      </c>
+      <c r="B49">
+        <v>128.368348837204</v>
+      </c>
+      <c r="C49">
+        <v>7.7383847657688003</v>
+      </c>
+      <c r="D49">
+        <v>7.6449680350566203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>300</v>
+      </c>
+      <c r="B50">
+        <v>131.78451719051299</v>
+      </c>
+      <c r="C50">
+        <v>8.2133954146183097</v>
+      </c>
+      <c r="D50">
+        <v>7.97130412284789</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>300</v>
+      </c>
+      <c r="B51">
+        <v>131.792249978852</v>
+      </c>
+      <c r="C51">
+        <v>8.1869961973317995</v>
+      </c>
+      <c r="D51">
+        <v>7.9645040324925898</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>300</v>
+      </c>
+      <c r="B52">
+        <v>131.37011089479799</v>
+      </c>
+      <c r="C52">
+        <v>8.0327127737671304</v>
+      </c>
+      <c r="D52">
+        <v>7.8637600658391298</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>300</v>
+      </c>
+      <c r="B53">
+        <v>130.65638521717801</v>
+      </c>
+      <c r="C53">
+        <v>7.8960121134775596</v>
+      </c>
+      <c r="D53">
+        <v>7.8080855978202104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>300</v>
+      </c>
+      <c r="B54">
+        <v>130.61126135847499</v>
+      </c>
+      <c r="C54">
+        <v>8.0192052382896808</v>
+      </c>
+      <c r="D54">
+        <v>7.9360593556912704</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>300</v>
+      </c>
+      <c r="B55">
+        <v>132.07284778132001</v>
+      </c>
+      <c r="C55">
+        <v>8.0159036646223907</v>
+      </c>
+      <c r="D55">
+        <v>7.8028452414449898</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>350</v>
+      </c>
+      <c r="B56">
+        <v>132.18462336847401</v>
+      </c>
+      <c r="C56">
+        <v>8.3737585969215296</v>
+      </c>
+      <c r="D56">
+        <v>8.1528018484972904</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>350</v>
+      </c>
+      <c r="B57">
+        <v>131.99191780801701</v>
+      </c>
+      <c r="C57">
+        <v>8.3117853699017594</v>
+      </c>
+      <c r="D57">
+        <v>8.1730009666395702</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>350</v>
+      </c>
+      <c r="B58">
+        <v>132.83406251543599</v>
+      </c>
+      <c r="C58">
+        <v>8.4212032561084609</v>
+      </c>
+      <c r="D58">
+        <v>8.1878545150958502</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>350</v>
+      </c>
+      <c r="B59">
+        <v>132.17104313628701</v>
+      </c>
+      <c r="C59">
+        <v>8.2188674768536796</v>
+      </c>
+      <c r="D59">
+        <v>8.0874465775373494</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>350</v>
+      </c>
+      <c r="B60">
+        <v>131.64689588275101</v>
+      </c>
+      <c r="C60">
+        <v>8.4390536936057305</v>
+      </c>
+      <c r="D60">
+        <v>8.2448818663655192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>400</v>
+      </c>
+      <c r="B61">
+        <v>133.02857085763</v>
+      </c>
+      <c r="C61">
+        <v>8.6049872526408997</v>
+      </c>
+      <c r="D61">
+        <v>8.2460416860596997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>400</v>
+      </c>
+      <c r="B62">
+        <v>133.70416373530401</v>
+      </c>
+      <c r="C62">
+        <v>8.6185525582051294</v>
+      </c>
+      <c r="D62">
+        <v>8.4205994403523299</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>400</v>
+      </c>
+      <c r="B63">
+        <v>133.350528853989</v>
+      </c>
+      <c r="C63">
+        <v>8.5176764035509507</v>
+      </c>
+      <c r="D63">
+        <v>8.3103135344523391</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>400</v>
+      </c>
+      <c r="B64">
+        <v>132.445448134488</v>
+      </c>
+      <c r="C64">
+        <v>8.5589302695067708</v>
+      </c>
+      <c r="D64">
+        <v>8.2559126792687803</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>400</v>
+      </c>
+      <c r="B65">
+        <v>132.203557969591</v>
+      </c>
+      <c r="C65">
+        <v>8.4649001069916192</v>
+      </c>
+      <c r="D65">
+        <v>8.2521358263266293</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>500</v>
+      </c>
+      <c r="B66">
+        <v>133.75943497473401</v>
+      </c>
+      <c r="C66">
+        <v>8.7637699524872605</v>
+      </c>
+      <c r="D66">
+        <v>8.4691719563816807</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>500</v>
+      </c>
+      <c r="B67">
+        <v>134.222290434982</v>
+      </c>
+      <c r="C67">
+        <v>8.82165481456253</v>
+      </c>
+      <c r="D67">
+        <v>8.6071926728147599</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>500</v>
+      </c>
+      <c r="B68">
+        <v>136.50280105032499</v>
+      </c>
+      <c r="C68">
+        <v>9.0035388287676898</v>
+      </c>
+      <c r="D68">
+        <v>8.5443070220701092</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>500</v>
+      </c>
+      <c r="B69">
+        <v>134.44467077131301</v>
+      </c>
+      <c r="C69">
+        <v>8.8625713757064997</v>
+      </c>
+      <c r="D69">
+        <v>8.6928036343704793</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>500</v>
+      </c>
+      <c r="B70">
+        <v>134.79893653196001</v>
+      </c>
+      <c r="C70">
+        <v>8.80942162476763</v>
+      </c>
+      <c r="D70">
+        <v>8.5065770070873405</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>800</v>
+      </c>
+      <c r="B71">
+        <v>138.17873733356001</v>
+      </c>
+      <c r="C71">
+        <v>10.000868675834299</v>
+      </c>
+      <c r="D71">
+        <v>9.36178943656288</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>800</v>
+      </c>
+      <c r="B72">
+        <v>138.78766661830099</v>
+      </c>
+      <c r="C72">
+        <v>9.9576463364053307</v>
+      </c>
+      <c r="D72">
+        <v>9.2386950545699396</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>800</v>
+      </c>
+      <c r="B73">
+        <v>138.56945446833299</v>
+      </c>
+      <c r="C73">
+        <v>9.7732423804627295</v>
+      </c>
+      <c r="D73">
+        <v>9.3192551009235203</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>800</v>
+      </c>
+      <c r="B74">
+        <v>138.140030366796</v>
+      </c>
+      <c r="C74">
+        <v>10.044086757476499</v>
+      </c>
+      <c r="D74">
+        <v>9.5245256692136504</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>800</v>
+      </c>
+      <c r="B75">
+        <v>137.48503411301101</v>
+      </c>
+      <c r="C75">
+        <v>9.5856783531973502</v>
+      </c>
+      <c r="D75">
+        <v>9.0942454477779808</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>1000</v>
+      </c>
+      <c r="B76">
+        <v>139.36868534438099</v>
+      </c>
+      <c r="C76">
+        <v>10.425363842700699</v>
+      </c>
+      <c r="D76">
+        <v>9.7728301994897002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>1000</v>
+      </c>
+      <c r="B77">
+        <v>140.915759204209</v>
+      </c>
+      <c r="C77">
+        <v>10.264565314675099</v>
+      </c>
+      <c r="D77">
+        <v>9.7163211630293898</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>1000</v>
+      </c>
+      <c r="B78">
+        <v>140.96058246785799</v>
+      </c>
+      <c r="C78">
+        <v>10.4493793032497</v>
+      </c>
+      <c r="D78">
+        <v>9.6465032347701207</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>1000</v>
+      </c>
+      <c r="B79">
+        <v>139.84589879635399</v>
+      </c>
+      <c r="C79">
+        <v>9.8296666070122001</v>
+      </c>
+      <c r="D79">
+        <v>9.2874412231870505</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>1000</v>
+      </c>
+      <c r="B80">
+        <v>140.40316778318899</v>
+      </c>
+      <c r="C80">
+        <v>10.520274207542201</v>
+      </c>
+      <c r="D80">
+        <v>9.68672342238869</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>1200</v>
+      </c>
+      <c r="B81">
+        <v>142.47941410339101</v>
+      </c>
+      <c r="C81">
+        <v>10.849168983487999</v>
+      </c>
+      <c r="D81">
+        <v>9.8733146610366997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>1200</v>
+      </c>
+      <c r="B82">
+        <v>143.12295066234</v>
+      </c>
+      <c r="C82">
+        <v>11.297131710074099</v>
+      </c>
+      <c r="D82">
+        <v>10.0471589231074</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>1200</v>
+      </c>
+      <c r="B83">
+        <v>143.150751311965</v>
+      </c>
+      <c r="C83">
+        <v>10.9307265269104</v>
+      </c>
+      <c r="D83">
+        <v>9.9744519185151805</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>1200</v>
+      </c>
+      <c r="B84">
+        <v>144.29876204045499</v>
+      </c>
+      <c r="C84">
+        <v>11.278437272517101</v>
+      </c>
+      <c r="D84">
+        <v>10.304909014034299</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>1200</v>
+      </c>
+      <c r="B85">
+        <v>141.358538387512</v>
+      </c>
+      <c r="C85">
+        <v>11.1249522576462</v>
+      </c>
+      <c r="D85">
+        <v>10.052430554123699</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>1500</v>
+      </c>
+      <c r="B86">
+        <v>145.50415487668499</v>
+      </c>
+      <c r="C86">
+        <v>11.9749993223561</v>
+      </c>
+      <c r="D86">
+        <v>10.6403953101083</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>1500</v>
+      </c>
+      <c r="B87">
+        <v>144.41390198033699</v>
+      </c>
+      <c r="C87">
+        <v>11.611509092627401</v>
+      </c>
+      <c r="D87">
+        <v>10.253041280903201</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>1500</v>
+      </c>
+      <c r="B88">
+        <v>144.607209687151</v>
+      </c>
+      <c r="C88">
+        <v>11.3566694496661</v>
+      </c>
+      <c r="D88">
+        <v>10.3800971255994</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>1500</v>
+      </c>
+      <c r="B89">
+        <v>144.90584543309799</v>
+      </c>
+      <c r="C89">
+        <v>11.288358671970499</v>
+      </c>
+      <c r="D89">
+        <v>10.250740139102399</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>1500</v>
+      </c>
+      <c r="B90">
+        <v>146.12704214055799</v>
+      </c>
+      <c r="C90">
+        <v>11.817081092</v>
+      </c>
+      <c r="D90">
+        <v>10.572976311113299</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>1500</v>
+      </c>
+      <c r="B91">
+        <v>144.56847264221199</v>
+      </c>
+      <c r="C91">
+        <v>11.303576553484101</v>
+      </c>
+      <c r="D91">
+        <v>10.057268510268299</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>1800</v>
+      </c>
+      <c r="B92">
+        <v>147.579078443127</v>
+      </c>
+      <c r="C92">
+        <v>12.145989750076099</v>
+      </c>
+      <c r="D92">
+        <v>10.6338573802479</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>1800</v>
+      </c>
+      <c r="B93">
+        <v>147.563348401127</v>
+      </c>
+      <c r="C93">
+        <v>12.2206595116222</v>
+      </c>
+      <c r="D93">
+        <v>10.6838959363704</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>1800</v>
+      </c>
+      <c r="B94">
+        <v>148.88043242860101</v>
+      </c>
+      <c r="C94">
+        <v>12.379970306248801</v>
+      </c>
+      <c r="D94">
+        <v>10.902835467656599</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>1800</v>
+      </c>
+      <c r="B95">
+        <v>147.36338931475399</v>
+      </c>
+      <c r="C95">
+        <v>12.256290401500801</v>
+      </c>
+      <c r="D95">
+        <v>10.6961138175568</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>1800</v>
+      </c>
+      <c r="B96">
+        <v>147.12457522822999</v>
+      </c>
+      <c r="C96">
+        <v>12.379970306248801</v>
+      </c>
+      <c r="D96">
+        <v>10.8280969148844</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>2000</v>
+      </c>
+      <c r="B97">
+        <v>150.52017272739801</v>
+      </c>
+      <c r="C97">
+        <v>13.0513167201754</v>
+      </c>
+      <c r="D97">
+        <v>11.240710150770701</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>2000</v>
+      </c>
+      <c r="B98">
+        <v>149.80901784529601</v>
+      </c>
+      <c r="C98">
+        <v>12.7294698864614</v>
+      </c>
+      <c r="D98">
+        <v>11.0746019534136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>2000</v>
+      </c>
+      <c r="B99">
+        <v>149.837530959936</v>
+      </c>
+      <c r="C99">
+        <v>12.4741382125959</v>
+      </c>
+      <c r="D99">
+        <v>10.956632077975099</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>2000</v>
+      </c>
+      <c r="B100">
+        <v>148.857247195112</v>
+      </c>
+      <c r="C100">
+        <v>12.499546879882301</v>
+      </c>
+      <c r="D100">
+        <v>10.8687520961044</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>2000</v>
+      </c>
+      <c r="B101">
+        <v>149.19275820129599</v>
+      </c>
+      <c r="C101">
+        <v>12.358986235237699</v>
+      </c>
+      <c r="D101">
+        <v>10.915149811213499</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>2000</v>
+      </c>
+      <c r="B102">
+        <v>149.86508086928799</v>
+      </c>
+      <c r="C102">
+        <v>12.613779720820601</v>
+      </c>
+      <c r="D102">
+        <v>11.0132965703447</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>106.561632492569</v>
+      </c>
+      <c r="C2">
+        <v>8.37345995880424</v>
+      </c>
+      <c r="D2">
+        <v>8.3564714421556303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>105.951223847214</v>
+      </c>
+      <c r="C3">
+        <v>8.3111965758635709</v>
+      </c>
+      <c r="D3">
+        <v>8.3067831631816293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>105.588886650459</v>
+      </c>
+      <c r="C4">
+        <v>8.2387978894391392</v>
+      </c>
+      <c r="D4">
+        <v>8.2240579035217305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>106.153339150976</v>
+      </c>
+      <c r="C5">
+        <v>8.3442925936709997</v>
+      </c>
+      <c r="D5">
+        <v>8.2742625622802901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>106.126986557623</v>
+      </c>
+      <c r="C6">
+        <v>8.26609748534805</v>
+      </c>
+      <c r="D6">
+        <v>8.2414042645629699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>104.121850973283</v>
+      </c>
+      <c r="C7">
+        <v>8.1542212506797505</v>
+      </c>
+      <c r="D7">
+        <v>8.1488299885740805</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>106.287680137838</v>
+      </c>
+      <c r="C8">
+        <v>8.3944143789244201</v>
+      </c>
+      <c r="D8">
+        <v>8.3824280473827297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>105.080833411431</v>
+      </c>
+      <c r="C9">
+        <v>8.2515550634454407</v>
+      </c>
+      <c r="D9">
+        <v>8.2373505788585408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>105.818518966932</v>
+      </c>
+      <c r="C10">
+        <v>8.4417831028203292</v>
+      </c>
+      <c r="D10">
+        <v>8.3615312420579606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>103.977191313045</v>
+      </c>
+      <c r="C11">
+        <v>8.0548565811753292</v>
+      </c>
+      <c r="D11">
+        <v>8.0504187779341194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>103.946888744113</v>
+      </c>
+      <c r="C12">
+        <v>8.0852103955639993</v>
+      </c>
+      <c r="D12">
+        <v>8.0720960287934709</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>104.681847374719</v>
+      </c>
+      <c r="C13">
+        <v>8.1744269869508699</v>
+      </c>
+      <c r="D13">
+        <v>8.1468454199634408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>105.013054643705</v>
+      </c>
+      <c r="C14">
+        <v>8.1476958383243705</v>
+      </c>
+      <c r="D14">
+        <v>8.1324137281838595</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>104.62733109128401</v>
+      </c>
+      <c r="C15">
+        <v>8.2004627036845203</v>
+      </c>
+      <c r="D15">
+        <v>8.1858520374571597</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>100</v>
+      </c>
+      <c r="B16">
+        <v>105.081648911128</v>
+      </c>
+      <c r="C16">
+        <v>8.20821770790206</v>
+      </c>
+      <c r="D16">
+        <v>8.1778513473246406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17">
+        <v>105.049258768512</v>
+      </c>
+      <c r="C17">
+        <v>8.1732861332452096</v>
+      </c>
+      <c r="D17">
+        <v>8.1496807956723192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>100</v>
+      </c>
+      <c r="B18">
+        <v>105.100776602032</v>
+      </c>
+      <c r="C18">
+        <v>8.3100192272100593</v>
+      </c>
+      <c r="D18">
+        <v>8.2387978894391392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>100</v>
+      </c>
+      <c r="B19">
+        <v>105.130135307077</v>
+      </c>
+      <c r="C19">
+        <v>8.3100192272100593</v>
+      </c>
+      <c r="D19">
+        <v>8.2454617374951695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>104.828013922572</v>
+      </c>
+      <c r="C20">
+        <v>8.2079302384451296</v>
+      </c>
+      <c r="D20">
+        <v>8.1815641205522809</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>150</v>
+      </c>
+      <c r="B21">
+        <v>105.837262120746</v>
+      </c>
+      <c r="C21">
+        <v>8.3794366263944795</v>
+      </c>
+      <c r="D21">
+        <v>8.3226924829351994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>150</v>
+      </c>
+      <c r="B22">
+        <v>106.732198779833</v>
+      </c>
+      <c r="C22">
+        <v>8.3995186044712504</v>
+      </c>
+      <c r="D22">
+        <v>8.3995186044712504</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>150</v>
+      </c>
+      <c r="B23">
+        <v>104.795707064345</v>
+      </c>
+      <c r="C23">
+        <v>8.3941143170996497</v>
+      </c>
+      <c r="D23">
+        <v>8.31856224504042</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f>AVERAGE(B2:B14)</f>
+        <v>105.33153340491593</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23:L23" si="0">AVERAGE(C2:C14)</f>
+        <v>8.2490775462315771</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>8.2257610113423443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>150</v>
+      </c>
+      <c r="B24">
+        <v>106.649093179807</v>
+      </c>
+      <c r="C24">
+        <v>8.4257345521955003</v>
+      </c>
+      <c r="D24">
+        <v>8.4109497881245598</v>
+      </c>
+      <c r="I24">
+        <v>100</v>
+      </c>
+      <c r="J24">
+        <f>AVERAGE(B15:B20)</f>
+        <v>104.9695274337675</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ref="K24:L24" si="1">AVERAGE(C15:C20)</f>
+        <v>8.2349892062828403</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>8.1965346546567854</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>150</v>
+      </c>
+      <c r="B25">
+        <v>106.603406425046</v>
+      </c>
+      <c r="C25">
+        <v>8.4927425341380491</v>
+      </c>
+      <c r="D25">
+        <v>8.4436036624022393</v>
+      </c>
+      <c r="I25">
+        <v>150</v>
+      </c>
+      <c r="J25">
+        <f>AVERAGE(B21:B26)</f>
+        <v>106.16678905964284</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ref="K25:L25" si="2">AVERAGE(C21:C26)</f>
+        <v>8.4151274706817016</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>8.3810736035873212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>150</v>
+      </c>
+      <c r="B26">
+        <v>106.38306678808</v>
+      </c>
+      <c r="C26">
+        <v>8.3992181897912896</v>
+      </c>
+      <c r="D26">
+        <v>8.3911148385502603</v>
+      </c>
+      <c r="I26">
+        <v>200</v>
+      </c>
+      <c r="J26">
+        <f>AVERAGE(B27:B37)</f>
+        <v>106.56556644416609</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ref="K26:L26" si="3">AVERAGE(C27:C37)</f>
+        <v>8.5235632112364286</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="3"/>
+        <v>8.4927180745440882</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>200</v>
+      </c>
+      <c r="B27">
+        <v>107.23168785985099</v>
+      </c>
+      <c r="C27">
+        <v>8.6119223478228495</v>
+      </c>
+      <c r="D27">
+        <v>8.56516789329938</v>
+      </c>
+      <c r="I27">
+        <v>250</v>
+      </c>
+      <c r="J27">
+        <f>AVERAGE(B38:B48)</f>
+        <v>107.20693132149091</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ref="K27:L27" si="4">AVERAGE(C38:C48)</f>
+        <v>8.6553874210106567</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>8.5912438000998907</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>200</v>
+      </c>
+      <c r="B28">
+        <v>107.142419108502</v>
+      </c>
+      <c r="C28">
+        <v>8.5093491979237896</v>
+      </c>
+      <c r="D28">
+        <v>8.5090410893202701</v>
+      </c>
+      <c r="I28">
+        <v>300</v>
+      </c>
+      <c r="J28">
+        <f>AVERAGE(B50:B55)</f>
+        <v>108.36772596605933</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ref="K28:L28" si="5">AVERAGE(C50:C55)</f>
+        <v>8.842271865756727</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="5"/>
+        <v>8.8072652334915915</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>200</v>
+      </c>
+      <c r="B29">
+        <v>106.776620879982</v>
+      </c>
+      <c r="C29">
+        <v>8.5127398360185307</v>
+      </c>
+      <c r="D29">
+        <v>8.4881408191392698</v>
+      </c>
+      <c r="I29">
+        <v>350</v>
+      </c>
+      <c r="J29">
+        <f>AVERAGE(B56:B60)</f>
+        <v>108.09328620819501</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ref="K29:L29" si="6">AVERAGE(C56:C60)</f>
+        <v>8.8759142525857211</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="6"/>
+        <v>8.7926805401377912</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>200</v>
+      </c>
+      <c r="B30">
+        <v>107.24736194067999</v>
+      </c>
+      <c r="C30">
+        <v>8.6764423824604293</v>
+      </c>
+      <c r="D30">
+        <v>8.6461289161761403</v>
+      </c>
+      <c r="I30">
+        <v>400</v>
+      </c>
+      <c r="J30">
+        <f>AVERAGE(B61:B65)</f>
+        <v>108.77173102296419</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ref="K30:L30" si="7">AVERAGE(C61:C65)</f>
+        <v>8.9380696553184933</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="7"/>
+        <v>8.8740466215667588</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>200</v>
+      </c>
+      <c r="B31">
+        <v>107.383141776508</v>
+      </c>
+      <c r="C31">
+        <v>8.5920922337469801</v>
+      </c>
+      <c r="D31">
+        <v>8.5920922337469801</v>
+      </c>
+      <c r="I31">
+        <v>500</v>
+      </c>
+      <c r="J31">
+        <f>AVERAGE(B66:B70)</f>
+        <v>109.88784070657542</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ref="K31:L31" si="8">AVERAGE(C66:C70)</f>
+        <v>9.1312770754327524</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="8"/>
+        <v>9.0816036739511965</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>200</v>
+      </c>
+      <c r="B32">
+        <v>105.69864384856</v>
+      </c>
+      <c r="C32">
+        <v>8.4221091371795094</v>
+      </c>
+      <c r="D32">
+        <v>8.4205994403523299</v>
+      </c>
+      <c r="I32">
+        <v>800</v>
+      </c>
+      <c r="J32">
+        <f>AVERAGE(B71:B75)</f>
+        <v>111.54930649584961</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ref="K32:L32" si="9">AVERAGE(C71:C75)</f>
+        <v>9.6936667644977206</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="9"/>
+        <v>9.595589112378125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>200</v>
+      </c>
+      <c r="B33">
+        <v>105.80001708509199</v>
+      </c>
+      <c r="C33">
+        <v>8.6242436631795893</v>
+      </c>
+      <c r="D33">
+        <v>8.6034126379182307</v>
+      </c>
+      <c r="I33">
+        <v>1000</v>
+      </c>
+      <c r="J33">
+        <f>AVERAGE(B76:B80)</f>
+        <v>113.62209463958099</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ref="K33:L33" si="10">AVERAGE(C76:C80)</f>
+        <v>9.9813320043823666</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="10"/>
+        <v>9.8509384267177733</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>200</v>
+      </c>
+      <c r="B34">
+        <v>106.02543893550001</v>
+      </c>
+      <c r="C34">
+        <v>8.4010209896590293</v>
+      </c>
+      <c r="D34">
+        <v>8.3597447571216001</v>
+      </c>
+      <c r="I34">
+        <v>1200</v>
+      </c>
+      <c r="J34">
+        <f>AVERAGE(B81:B85)</f>
+        <v>115.0352752317726</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ref="K34:L34" si="11">AVERAGE(C81:C85)</f>
+        <v>10.309269945284859</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="11"/>
+        <v>10.121067966635731</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>200</v>
+      </c>
+      <c r="B35">
+        <v>105.759445161739</v>
+      </c>
+      <c r="C35">
+        <v>8.4655101139901703</v>
+      </c>
+      <c r="D35">
+        <v>8.3695795308580205</v>
+      </c>
+      <c r="I35">
+        <v>1500</v>
+      </c>
+      <c r="J35">
+        <f>AVERAGE(B86:B91)</f>
+        <v>117.59473710030466</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ref="K35:L35" si="12">AVERAGE(C86:C91)</f>
+        <v>10.836001823593483</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="12"/>
+        <v>10.557180011155067</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>200</v>
+      </c>
+      <c r="B36">
+        <v>106.387204394722</v>
+      </c>
+      <c r="C36">
+        <v>8.5034988690188502</v>
+      </c>
+      <c r="D36">
+        <v>8.4296655033879802</v>
+      </c>
+      <c r="I36">
+        <v>1800</v>
+      </c>
+      <c r="J36">
+        <f>AVERAGE(B92:B96)</f>
+        <v>119.42469913708801</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ref="K36:L36" si="13">AVERAGE(C92:C96)</f>
+        <v>11.102242758343101</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="13"/>
+        <v>10.829623389544</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>200</v>
+      </c>
+      <c r="B37">
+        <v>106.769249894691</v>
+      </c>
+      <c r="C37">
+        <v>8.4402665526009795</v>
+      </c>
+      <c r="D37">
+        <v>8.4363259986647794</v>
+      </c>
+      <c r="I37">
+        <v>2000</v>
+      </c>
+      <c r="J37">
+        <f>AVERAGE(B97:B102)</f>
+        <v>119.74886150690035</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ref="K37:L37" si="14">AVERAGE(C97:C102)</f>
+        <v>11.434628992185836</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="14"/>
+        <v>11.077272612727315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>250</v>
+      </c>
+      <c r="B38">
+        <v>107.891376056808</v>
+      </c>
+      <c r="C38">
+        <v>8.6474010148434104</v>
+      </c>
+      <c r="D38">
+        <v>8.6305758722463306</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>250</v>
+      </c>
+      <c r="B39">
+        <v>106.880540419715</v>
+      </c>
+      <c r="C39">
+        <v>8.57767008205286</v>
+      </c>
+      <c r="D39">
+        <v>8.5486577363850493</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>250</v>
+      </c>
+      <c r="B40">
+        <v>105.79338077078999</v>
+      </c>
+      <c r="C40">
+        <v>8.5288042397803494</v>
+      </c>
+      <c r="D40">
+        <v>8.4594138962302896</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>250</v>
+      </c>
+      <c r="B41">
+        <v>106.99917486133999</v>
+      </c>
+      <c r="C41">
+        <v>8.5933486002326394</v>
+      </c>
+      <c r="D41">
+        <v>8.5711019456095805</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>250</v>
+      </c>
+      <c r="B42">
+        <v>108.264615662556</v>
+      </c>
+      <c r="C42">
+        <v>8.9211197481720106</v>
+      </c>
+      <c r="D42">
+        <v>8.7781689990613199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>250</v>
+      </c>
+      <c r="B43">
+        <v>109.375747734727</v>
+      </c>
+      <c r="C43">
+        <v>8.9251868108875705</v>
+      </c>
+      <c r="D43">
+        <v>8.8887196365487604</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>250</v>
+      </c>
+      <c r="B44">
+        <v>107.620592367963</v>
+      </c>
+      <c r="C44">
+        <v>8.6726016173911606</v>
+      </c>
+      <c r="D44">
+        <v>8.5639196516240403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>250</v>
+      </c>
+      <c r="B45">
+        <v>104.732417143506</v>
+      </c>
+      <c r="C45">
+        <v>8.4290605100291902</v>
+      </c>
+      <c r="D45">
+        <v>8.3215120140997101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>250</v>
+      </c>
+      <c r="B46">
+        <v>107.704125826272</v>
+      </c>
+      <c r="C46">
+        <v>8.68798509973767</v>
+      </c>
+      <c r="D46">
+        <v>8.6410442443598097</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>250</v>
+      </c>
+      <c r="B47">
+        <v>107.001761758981</v>
+      </c>
+      <c r="C47">
+        <v>8.6015238535368894</v>
+      </c>
+      <c r="D47">
+        <v>8.57516676340496</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>250</v>
+      </c>
+      <c r="B48">
+        <v>107.012511933742</v>
+      </c>
+      <c r="C48">
+        <v>8.62456005445347</v>
+      </c>
+      <c r="D48">
+        <v>8.5254010415289496</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>250</v>
+      </c>
+      <c r="B49">
+        <v>106.58158010668301</v>
+      </c>
+      <c r="C49">
+        <v>8.6582289242323398</v>
+      </c>
+      <c r="D49">
+        <v>8.5707894248438503</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>300</v>
+      </c>
+      <c r="B50">
+        <v>108.264587010787</v>
+      </c>
+      <c r="C50">
+        <v>8.8806572366731906</v>
+      </c>
+      <c r="D50">
+        <v>8.8508891591810794</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>300</v>
+      </c>
+      <c r="B51">
+        <v>108.650866013195</v>
+      </c>
+      <c r="C51">
+        <v>8.8402357054518195</v>
+      </c>
+      <c r="D51">
+        <v>8.8259611558365698</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>300</v>
+      </c>
+      <c r="B52">
+        <v>108.213112795941</v>
+      </c>
+      <c r="C52">
+        <v>8.7182698525027096</v>
+      </c>
+      <c r="D52">
+        <v>8.6582289242323398</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>300</v>
+      </c>
+      <c r="B53">
+        <v>108.395100503256</v>
+      </c>
+      <c r="C53">
+        <v>8.8880471979286906</v>
+      </c>
+      <c r="D53">
+        <v>8.8746202439069197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>300</v>
+      </c>
+      <c r="B54">
+        <v>108.364493850085</v>
+      </c>
+      <c r="C54">
+        <v>8.7321942298799105</v>
+      </c>
+      <c r="D54">
+        <v>8.65376710337563</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>300</v>
+      </c>
+      <c r="B55">
+        <v>108.318195623092</v>
+      </c>
+      <c r="C55">
+        <v>8.9942269721040393</v>
+      </c>
+      <c r="D55">
+        <v>8.9801248144170103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>350</v>
+      </c>
+      <c r="B56">
+        <v>108.460637734442</v>
+      </c>
+      <c r="C56">
+        <v>8.8632398810289992</v>
+      </c>
+      <c r="D56">
+        <v>8.82165481456253</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>350</v>
+      </c>
+      <c r="B57">
+        <v>107.960960640588</v>
+      </c>
+      <c r="C57">
+        <v>8.8826714338890191</v>
+      </c>
+      <c r="D57">
+        <v>8.7896569752770102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>350</v>
+      </c>
+      <c r="B58">
+        <v>107.610874786506</v>
+      </c>
+      <c r="C58">
+        <v>8.7899856501035991</v>
+      </c>
+      <c r="D58">
+        <v>8.7403103690744395</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>350</v>
+      </c>
+      <c r="B59">
+        <v>108.406724476966</v>
+      </c>
+      <c r="C59">
+        <v>8.8428966198762105</v>
+      </c>
+      <c r="D59">
+        <v>8.74486204095885</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>350</v>
+      </c>
+      <c r="B60">
+        <v>108.027233402473</v>
+      </c>
+      <c r="C60">
+        <v>9.0007776780307793</v>
+      </c>
+      <c r="D60">
+        <v>8.86691850081613</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>400</v>
+      </c>
+      <c r="B61">
+        <v>108.388014615053</v>
+      </c>
+      <c r="C61">
+        <v>8.8602324171015407</v>
+      </c>
+      <c r="D61">
+        <v>8.8412333573155593</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>400</v>
+      </c>
+      <c r="B62">
+        <v>108.69886506582699</v>
+      </c>
+      <c r="C62">
+        <v>8.9207809981372108</v>
+      </c>
+      <c r="D62">
+        <v>8.8256297471738101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>400</v>
+      </c>
+      <c r="B63">
+        <v>109.497500613401</v>
+      </c>
+      <c r="C63">
+        <v>9.2701525537207008</v>
+      </c>
+      <c r="D63">
+        <v>9.1207667907470302</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>400</v>
+      </c>
+      <c r="B64">
+        <v>108.22009184129401</v>
+      </c>
+      <c r="C64">
+        <v>8.7919582215920293</v>
+      </c>
+      <c r="D64">
+        <v>8.7883425246558904</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>400</v>
+      </c>
+      <c r="B65">
+        <v>109.05418297924599</v>
+      </c>
+      <c r="C65">
+        <v>8.8472240860409901</v>
+      </c>
+      <c r="D65">
+        <v>8.7942606879415006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>500</v>
+      </c>
+      <c r="B66">
+        <v>109.357000864851</v>
+      </c>
+      <c r="C66">
+        <v>9.1549521675377203</v>
+      </c>
+      <c r="D66">
+        <v>9.1513786095157794</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>500</v>
+      </c>
+      <c r="B67">
+        <v>110.47176088319</v>
+      </c>
+      <c r="C67">
+        <v>9.0135627418294302</v>
+      </c>
+      <c r="D67">
+        <v>9.0059562765445804</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>500</v>
+      </c>
+      <c r="B68">
+        <v>108.83120265559501</v>
+      </c>
+      <c r="C68">
+        <v>9.1912108965818309</v>
+      </c>
+      <c r="D68">
+        <v>9.1438836952835398</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>500</v>
+      </c>
+      <c r="B69">
+        <v>109.425909764566</v>
+      </c>
+      <c r="C69">
+        <v>9.0703386240563493</v>
+      </c>
+      <c r="D69">
+        <v>8.9231528034415799</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>500</v>
+      </c>
+      <c r="B70">
+        <v>111.35332936467501</v>
+      </c>
+      <c r="C70">
+        <v>9.2263209471584293</v>
+      </c>
+      <c r="D70">
+        <v>9.1836469849704905</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>800</v>
+      </c>
+      <c r="B71">
+        <v>112.78203383604</v>
+      </c>
+      <c r="C71">
+        <v>9.6750211714289005</v>
+      </c>
+      <c r="D71">
+        <v>9.6018944585164991</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>800</v>
+      </c>
+      <c r="B72">
+        <v>110.00708525237999</v>
+      </c>
+      <c r="C72">
+        <v>9.4734452696047295</v>
+      </c>
+      <c r="D72">
+        <v>9.35916564036404</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>800</v>
+      </c>
+      <c r="B73">
+        <v>111.32646458780999</v>
+      </c>
+      <c r="C73">
+        <v>9.6309177707978098</v>
+      </c>
+      <c r="D73">
+        <v>9.5389521275396092</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>800</v>
+      </c>
+      <c r="B74">
+        <v>110.666124085587</v>
+      </c>
+      <c r="C74">
+        <v>9.7613049861166807</v>
+      </c>
+      <c r="D74">
+        <v>9.6054622103826404</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>800</v>
+      </c>
+      <c r="B75">
+        <v>112.964824717431</v>
+      </c>
+      <c r="C75">
+        <v>9.9276446245404806</v>
+      </c>
+      <c r="D75">
+        <v>9.8724711250878396</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>1000</v>
+      </c>
+      <c r="B76">
+        <v>112.908980831663</v>
+      </c>
+      <c r="C76">
+        <v>9.8526950499824704</v>
+      </c>
+      <c r="D76">
+        <v>9.6621448315776899</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>1000</v>
+      </c>
+      <c r="B77">
+        <v>114.779939151665</v>
+      </c>
+      <c r="C77">
+        <v>10.0669606208053</v>
+      </c>
+      <c r="D77">
+        <v>9.9216690729868091</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>1000</v>
+      </c>
+      <c r="B78">
+        <v>113.132206355549</v>
+      </c>
+      <c r="C78">
+        <v>9.9238022548259703</v>
+      </c>
+      <c r="D78">
+        <v>9.8150754659852701</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>1000</v>
+      </c>
+      <c r="B79">
+        <v>112.897887046194</v>
+      </c>
+      <c r="C79">
+        <v>10.031819781204799</v>
+      </c>
+      <c r="D79">
+        <v>9.8296666070122001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>1000</v>
+      </c>
+      <c r="B80">
+        <v>114.391459812834</v>
+      </c>
+      <c r="C80">
+        <v>10.0313823150933</v>
+      </c>
+      <c r="D80">
+        <v>10.026136156026899</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>1200</v>
+      </c>
+      <c r="B81">
+        <v>114.81626770486901</v>
+      </c>
+      <c r="C81">
+        <v>10.1917883335566</v>
+      </c>
+      <c r="D81">
+        <v>9.9856918775360199</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>1200</v>
+      </c>
+      <c r="B82">
+        <v>114.399518521263</v>
+      </c>
+      <c r="C82">
+        <v>10.273806609403801</v>
+      </c>
+      <c r="D82">
+        <v>10.139003749448699</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>1200</v>
+      </c>
+      <c r="B83">
+        <v>116.034589007056</v>
+      </c>
+      <c r="C83">
+        <v>10.4431224968649</v>
+      </c>
+      <c r="D83">
+        <v>10.3621217265444</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>1200</v>
+      </c>
+      <c r="B84">
+        <v>116.109955303381</v>
+      </c>
+      <c r="C84">
+        <v>10.632852417888</v>
+      </c>
+      <c r="D84">
+        <v>10.435434165901</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>1200</v>
+      </c>
+      <c r="B85">
+        <v>113.816045622294</v>
+      </c>
+      <c r="C85">
+        <v>10.004779868710999</v>
+      </c>
+      <c r="D85">
+        <v>9.6830883137485397</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>1500</v>
+      </c>
+      <c r="B86">
+        <v>116.88377211686</v>
+      </c>
+      <c r="C86">
+        <v>10.645431192883899</v>
+      </c>
+      <c r="D86">
+        <v>10.441199137746199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>1500</v>
+      </c>
+      <c r="B87">
+        <v>117.141204099096</v>
+      </c>
+      <c r="C87">
+        <v>10.756690152913199</v>
+      </c>
+      <c r="D87">
+        <v>10.259029962058699</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>1500</v>
+      </c>
+      <c r="B88">
+        <v>118.367845536651</v>
+      </c>
+      <c r="C88">
+        <v>11.186153432294301</v>
+      </c>
+      <c r="D88">
+        <v>10.935572061829699</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>1500</v>
+      </c>
+      <c r="B89">
+        <v>117.38092091957201</v>
+      </c>
+      <c r="C89">
+        <v>10.7124579782335</v>
+      </c>
+      <c r="D89">
+        <v>10.5759505914389</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>1500</v>
+      </c>
+      <c r="B90">
+        <v>119.304033753452</v>
+      </c>
+      <c r="C90">
+        <v>11.115958322629499</v>
+      </c>
+      <c r="D90">
+        <v>10.9076499663169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>1500</v>
+      </c>
+      <c r="B91">
+        <v>116.490646176197</v>
+      </c>
+      <c r="C91">
+        <v>10.599319862606499</v>
+      </c>
+      <c r="D91">
+        <v>10.22367834754</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>1800</v>
+      </c>
+      <c r="B92">
+        <v>118.374723105863</v>
+      </c>
+      <c r="C92">
+        <v>10.968014529570199</v>
+      </c>
+      <c r="D92">
+        <v>10.6671522765131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>1800</v>
+      </c>
+      <c r="B93">
+        <v>117.763870818426</v>
+      </c>
+      <c r="C93">
+        <v>10.976706941416801</v>
+      </c>
+      <c r="D93">
+        <v>10.754106143305799</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>1800</v>
+      </c>
+      <c r="B94">
+        <v>121.491977056341</v>
+      </c>
+      <c r="C94">
+        <v>11.489863931763299</v>
+      </c>
+      <c r="D94">
+        <v>11.077940540242301</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>1800</v>
+      </c>
+      <c r="B95">
+        <v>120.264057155663</v>
+      </c>
+      <c r="C95">
+        <v>11.122702027119701</v>
+      </c>
+      <c r="D95">
+        <v>10.8756536662443</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>1800</v>
+      </c>
+      <c r="B96">
+        <v>119.228867549147</v>
+      </c>
+      <c r="C96">
+        <v>10.9539263618455</v>
+      </c>
+      <c r="D96">
+        <v>10.7732643214145</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>2000</v>
+      </c>
+      <c r="B97">
+        <v>120.24302025812899</v>
+      </c>
+      <c r="C97">
+        <v>11.6551571466519</v>
+      </c>
+      <c r="D97">
+        <v>11.1272036546998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>2000</v>
+      </c>
+      <c r="B98">
+        <v>119.468244508163</v>
+      </c>
+      <c r="C98">
+        <v>11.302990263261201</v>
+      </c>
+      <c r="D98">
+        <v>10.944199717647599</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>2000</v>
+      </c>
+      <c r="B99">
+        <v>119.94243643029</v>
+      </c>
+      <c r="C99">
+        <v>11.5137988256587</v>
+      </c>
+      <c r="D99">
+        <v>11.223407558883901</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>2000</v>
+      </c>
+      <c r="B100">
+        <v>120.367173588089</v>
+      </c>
+      <c r="C100">
+        <v>11.4880282382584</v>
+      </c>
+      <c r="D100">
+        <v>11.1435612816424</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>2000</v>
+      </c>
+      <c r="B101">
+        <v>118.874524793482</v>
+      </c>
+      <c r="C101">
+        <v>11.303576553484101</v>
+      </c>
+      <c r="D101">
+        <v>10.9756194380134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>2000</v>
+      </c>
+      <c r="B102">
+        <v>119.59776946324899</v>
+      </c>
+      <c r="C102">
+        <v>11.3442229258007</v>
+      </c>
+      <c r="D102">
+        <v>11.0496440254768</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>873.56699869921397</v>
+      </c>
+      <c r="C2">
+        <v>8.5127398360185307</v>
+      </c>
+      <c r="D2">
+        <v>8.4563689933368398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>874.27068881058995</v>
+      </c>
+      <c r="C3">
+        <v>8.5263289220621292</v>
+      </c>
+      <c r="D3">
+        <v>8.4998079808485194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>877.62743425321901</v>
+      </c>
+      <c r="C4">
+        <v>8.6754818727099696</v>
+      </c>
+      <c r="D4">
+        <v>8.6448571900121394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>874.51356176272998</v>
+      </c>
+      <c r="C5">
+        <v>8.5670409287592797</v>
+      </c>
+      <c r="D5">
+        <v>8.5567492159951204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>874.05083091808501</v>
+      </c>
+      <c r="C6">
+        <v>8.4933564647043909</v>
+      </c>
+      <c r="D6">
+        <v>8.4758933637042198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>860.23175894301596</v>
+      </c>
+      <c r="C7">
+        <v>8.3971158686871199</v>
+      </c>
+      <c r="D7">
+        <v>8.3932142559961491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>869.64117341125302</v>
+      </c>
+      <c r="C8">
+        <v>8.4768107257535501</v>
+      </c>
+      <c r="D8">
+        <v>8.4612418632102209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>867.36785630758095</v>
+      </c>
+      <c r="C9">
+        <v>8.5142819106784309</v>
+      </c>
+      <c r="D9">
+        <v>8.4979637123719201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>865.06037465942495</v>
+      </c>
+      <c r="C10">
+        <v>8.5244733591973194</v>
+      </c>
+      <c r="D10">
+        <v>8.5136650151065094</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>859.60461657594999</v>
+      </c>
+      <c r="C11">
+        <v>8.4484622223485193</v>
+      </c>
+      <c r="D11">
+        <v>8.4357200768195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>864.69006065427902</v>
+      </c>
+      <c r="C12">
+        <v>8.5939769197966793</v>
+      </c>
+      <c r="D12">
+        <v>8.4967346350129205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>864.83306939965098</v>
+      </c>
+      <c r="C13">
+        <v>8.4287580449513104</v>
+      </c>
+      <c r="D13">
+        <v>8.3755508570002206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>866.30004426361199</v>
+      </c>
+      <c r="C14">
+        <v>8.5626717686130807</v>
+      </c>
+      <c r="D14">
+        <v>8.4025238947572696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>866.36511975163398</v>
+      </c>
+      <c r="C15">
+        <v>8.4621561353062997</v>
+      </c>
+      <c r="D15">
+        <v>8.4597185039680305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>100</v>
+      </c>
+      <c r="B16">
+        <v>861.54657962288195</v>
+      </c>
+      <c r="C16">
+        <v>8.3944143789244201</v>
+      </c>
+      <c r="D16">
+        <v>8.3776427623379792</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17">
+        <v>862.86962228468599</v>
+      </c>
+      <c r="C17">
+        <v>8.4866079970363799</v>
+      </c>
+      <c r="D17">
+        <v>8.4697825637386206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>100</v>
+      </c>
+      <c r="B18">
+        <v>864.06567421859302</v>
+      </c>
+      <c r="C18">
+        <v>8.4783400932444497</v>
+      </c>
+      <c r="D18">
+        <v>8.4357200768195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>100</v>
+      </c>
+      <c r="B19">
+        <v>865.148751768647</v>
+      </c>
+      <c r="C19">
+        <v>8.6639722948983895</v>
+      </c>
+      <c r="D19">
+        <v>8.5990067514920607</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>867.05659363822497</v>
+      </c>
+      <c r="C20">
+        <v>8.5795485184225608</v>
+      </c>
+      <c r="D20">
+        <v>8.4369320050592709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>150</v>
+      </c>
+      <c r="B21">
+        <v>869.66792217346404</v>
+      </c>
+      <c r="C21">
+        <v>8.6863801088405701</v>
+      </c>
+      <c r="D21">
+        <v>8.6350139184330104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>150</v>
+      </c>
+      <c r="B22">
+        <v>867.31289017109304</v>
+      </c>
+      <c r="C22">
+        <v>8.5071928965897605</v>
+      </c>
+      <c r="D22">
+        <v>8.4948916709203299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>150</v>
+      </c>
+      <c r="B23">
+        <v>862.88294566290801</v>
+      </c>
+      <c r="C23">
+        <v>8.4212032561084609</v>
+      </c>
+      <c r="D23">
+        <v>8.3941143170996497</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>150</v>
+      </c>
+      <c r="B24">
+        <v>869.17702506318301</v>
+      </c>
+      <c r="C24">
+        <v>8.4257345521955003</v>
+      </c>
+      <c r="D24">
+        <v>8.4142644382774403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>150</v>
+      </c>
+      <c r="B25">
+        <v>869.76837062253298</v>
+      </c>
+      <c r="C25">
+        <v>8.5315906596493303</v>
+      </c>
+      <c r="D25">
+        <v>8.5297328477776908</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>150</v>
+      </c>
+      <c r="B26">
+        <v>867.34547122429797</v>
+      </c>
+      <c r="C26">
+        <v>8.4673406492413097</v>
+      </c>
+      <c r="D26">
+        <v>8.4600231330719993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>200</v>
+      </c>
+      <c r="B27">
+        <v>875.85297810027305</v>
+      </c>
+      <c r="C27">
+        <v>9.6899571863646301</v>
+      </c>
+      <c r="D27">
+        <v>9.0556381198204399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>200</v>
+      </c>
+      <c r="B28">
+        <v>879.29320957531502</v>
+      </c>
+      <c r="C28">
+        <v>10.4229695845117</v>
+      </c>
+      <c r="D28">
+        <v>9.6948123515645808</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>200</v>
+      </c>
+      <c r="B29">
+        <v>874.14075569731199</v>
+      </c>
+      <c r="C29">
+        <v>9.4294279136257799</v>
+      </c>
+      <c r="D29">
+        <v>9.2441654480618691</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>200</v>
+      </c>
+      <c r="B30">
+        <v>871.94400890057295</v>
+      </c>
+      <c r="C30">
+        <v>8.6764423824604293</v>
+      </c>
+      <c r="D30">
+        <v>8.6461289161761403</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>200</v>
+      </c>
+      <c r="B31">
+        <v>865.09011683880897</v>
+      </c>
+      <c r="C31">
+        <v>8.6131844648962606</v>
+      </c>
+      <c r="D31">
+        <v>8.5920922337469801</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>200</v>
+      </c>
+      <c r="B32">
+        <v>872.87170744436401</v>
+      </c>
+      <c r="C32">
+        <v>8.6598235432401705</v>
+      </c>
+      <c r="D32">
+        <v>8.6081381958387109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>200</v>
+      </c>
+      <c r="B33">
+        <v>862.22341081290006</v>
+      </c>
+      <c r="C33">
+        <v>8.6242436631795893</v>
+      </c>
+      <c r="D33">
+        <v>8.6034126379182307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>200</v>
+      </c>
+      <c r="B34">
+        <v>865.65910269048095</v>
+      </c>
+      <c r="C34">
+        <v>8.4875276253762895</v>
+      </c>
+      <c r="D34">
+        <v>8.4515015847925596</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>200</v>
+      </c>
+      <c r="B35">
+        <v>865.52469823296701</v>
+      </c>
+      <c r="C35">
+        <v>8.4655101139901703</v>
+      </c>
+      <c r="D35">
+        <v>8.4484622223485193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>200</v>
+      </c>
+      <c r="B36">
+        <v>869.45948981930405</v>
+      </c>
+      <c r="C36">
+        <v>8.5679777495040295</v>
+      </c>
+      <c r="D36">
+        <v>8.5412020352938001</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f>AVERAGE(B2:B14)</f>
+        <v>868.59680528143099</v>
+      </c>
+      <c r="J36">
+        <f>AVERAGE(C2:C14)</f>
+        <v>8.5170383726369483</v>
+      </c>
+      <c r="K36">
+        <f>AVERAGE(D2:D14)</f>
+        <v>8.4777146964747363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>200</v>
+      </c>
+      <c r="B37">
+        <v>866.60533272977796</v>
+      </c>
+      <c r="C37">
+        <v>8.5325198636936008</v>
+      </c>
+      <c r="D37">
+        <v>8.4777282816185799</v>
+      </c>
+      <c r="H37">
+        <v>100</v>
+      </c>
+      <c r="I37">
+        <f>AVERAGE(B15:B20)</f>
+        <v>864.50872354744445</v>
+      </c>
+      <c r="J37">
+        <f>AVERAGE(C15:C20)</f>
+        <v>8.5108399029720836</v>
+      </c>
+      <c r="K37">
+        <f>AVERAGE(D15:D20)</f>
+        <v>8.4631337772359103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>250</v>
+      </c>
+      <c r="B38">
+        <v>876.695380937506</v>
+      </c>
+      <c r="C38">
+        <v>8.6474010148434104</v>
+      </c>
+      <c r="D38">
+        <v>8.6305758722463306</v>
+      </c>
+      <c r="H38">
+        <v>150</v>
+      </c>
+      <c r="I38">
+        <f>AVERAGE(B21:B26)</f>
+        <v>867.69243748624649</v>
+      </c>
+      <c r="J38">
+        <f>AVERAGE(C21:C26)</f>
+        <v>8.5065736871041562</v>
+      </c>
+      <c r="K38">
+        <f>AVERAGE(D21:D26)</f>
+        <v>8.4880067209300218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>250</v>
+      </c>
+      <c r="B39">
+        <v>874.34344425042502</v>
+      </c>
+      <c r="C39">
+        <v>8.57767008205286</v>
+      </c>
+      <c r="D39">
+        <v>8.5620479615423406</v>
+      </c>
+      <c r="H39">
+        <v>200</v>
+      </c>
+      <c r="I39">
+        <f>AVERAGE(B27:B37)</f>
+        <v>869.87861916746147</v>
+      </c>
+      <c r="J39">
+        <f>AVERAGE(C27:C37)</f>
+        <v>8.924507644622059</v>
+      </c>
+      <c r="K39">
+        <f>AVERAGE(D27:D37)</f>
+        <v>8.7602983661073122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>250</v>
+      </c>
+      <c r="B40">
+        <v>872.07179077317801</v>
+      </c>
+      <c r="C40">
+        <v>8.6892695196565395</v>
+      </c>
+      <c r="D40">
+        <v>8.5905222865733801</v>
+      </c>
+      <c r="H40">
+        <v>250</v>
+      </c>
+      <c r="I40">
+        <f>AVERAGE(B38:B49)</f>
+        <v>872.92868064891434</v>
+      </c>
+      <c r="J40">
+        <f>AVERAGE(C38:C49)</f>
+        <v>8.6878040503803913</v>
+      </c>
+      <c r="K40">
+        <f>AVERAGE(D38:D49)</f>
+        <v>8.6318871728389439</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>250</v>
+      </c>
+      <c r="B41">
+        <v>875.74248869529401</v>
+      </c>
+      <c r="C41">
+        <v>8.5933486002326394</v>
+      </c>
+      <c r="D41">
+        <v>8.5711019456095805</v>
+      </c>
+      <c r="H41">
+        <v>300</v>
+      </c>
+      <c r="I41">
+        <f>AVERAGE(B50:B55)</f>
+        <v>876.73518318668084</v>
+      </c>
+      <c r="J41">
+        <f>AVERAGE(C50:C55)</f>
+        <v>8.9020055818404025</v>
+      </c>
+      <c r="K41">
+        <f>AVERAGE(D50:D55)</f>
+        <v>8.8454565673473855</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>250</v>
+      </c>
+      <c r="B42">
+        <v>875.74977978507604</v>
+      </c>
+      <c r="C42">
+        <v>8.9211197481720106</v>
+      </c>
+      <c r="D42">
+        <v>8.7781689990613199</v>
+      </c>
+      <c r="H42">
+        <v>350</v>
+      </c>
+      <c r="I42">
+        <f>AVERAGE(B56:B60)</f>
+        <v>875.88592828024889</v>
+      </c>
+      <c r="J42">
+        <f>AVERAGE(C56:C60)</f>
+        <v>8.944208153073431</v>
+      </c>
+      <c r="K42">
+        <f>AVERAGE(D56:D60)</f>
+        <v>8.8564938869938317</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>250</v>
+      </c>
+      <c r="B43">
+        <v>881.09991300734396</v>
+      </c>
+      <c r="C43">
+        <v>8.9251868108875705</v>
+      </c>
+      <c r="D43">
+        <v>8.8887196365487604</v>
+      </c>
+      <c r="H43">
+        <v>400</v>
+      </c>
+      <c r="I43">
+        <f>AVERAGE(B61:B65)</f>
+        <v>877.31165631807801</v>
+      </c>
+      <c r="J43">
+        <f>AVERAGE(C61:C65)</f>
+        <v>8.9380696553184933</v>
+      </c>
+      <c r="K43">
+        <f>AVERAGE(D61:D65)</f>
+        <v>8.8740466215667588</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>250</v>
+      </c>
+      <c r="B44">
+        <v>875.32611627929703</v>
+      </c>
+      <c r="C44">
+        <v>8.6726016173911606</v>
+      </c>
+      <c r="D44">
+        <v>8.5639196516240403</v>
+      </c>
+      <c r="H44">
+        <v>500</v>
+      </c>
+      <c r="I44">
+        <f>AVERAGE(B66:B70)</f>
+        <v>880.01154590608837</v>
+      </c>
+      <c r="J44">
+        <f>AVERAGE(C66:C70)</f>
+        <v>9.1312770754327524</v>
+      </c>
+      <c r="K44">
+        <f>AVERAGE(D66:D70)</f>
+        <v>9.0816036739511965</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>250</v>
+      </c>
+      <c r="B45">
+        <v>866.05396389983002</v>
+      </c>
+      <c r="C45">
+        <v>8.6448571900121394</v>
+      </c>
+      <c r="D45">
+        <v>8.5977487473355207</v>
+      </c>
+      <c r="H45">
+        <v>800</v>
+      </c>
+      <c r="I45">
+        <f>AVERAGE(B71:B75)</f>
+        <v>887.3507983904517</v>
+      </c>
+      <c r="J45">
+        <f>AVERAGE(C71:C75)</f>
+        <v>9.6936667644977206</v>
+      </c>
+      <c r="K45">
+        <f>AVERAGE(D71:D75)</f>
+        <v>9.595589112378125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>250</v>
+      </c>
+      <c r="B46">
+        <v>869.11590489477396</v>
+      </c>
+      <c r="C46">
+        <v>8.68798509973767</v>
+      </c>
+      <c r="D46">
+        <v>8.6410442443598097</v>
+      </c>
+      <c r="H46">
+        <v>1000</v>
+      </c>
+      <c r="I46">
+        <f>AVERAGE(B76:B80)</f>
+        <v>891.6587671113441</v>
+      </c>
+      <c r="J46">
+        <f>AVERAGE(C76:C80)</f>
+        <v>9.9813320043823666</v>
+      </c>
+      <c r="K46">
+        <f>AVERAGE(D76:D80)</f>
+        <v>9.8509384267177733</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>250</v>
+      </c>
+      <c r="B47">
+        <v>866.08702807744203</v>
+      </c>
+      <c r="C47">
+        <v>8.6015238535368894</v>
+      </c>
+      <c r="D47">
+        <v>8.57516676340496</v>
+      </c>
+      <c r="H47">
+        <v>1200</v>
+      </c>
+      <c r="I47">
+        <f>AVERAGE(B81:B85)</f>
+        <v>900.24938812404253</v>
+      </c>
+      <c r="J47">
+        <f>AVERAGE(C81:C85)</f>
+        <v>10.309269945284859</v>
+      </c>
+      <c r="K47">
+        <f>AVERAGE(D81:D85)</f>
+        <v>10.121067966635731</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>250</v>
+      </c>
+      <c r="B48">
+        <v>870.89249381537002</v>
+      </c>
+      <c r="C48">
+        <v>8.62456005445347</v>
+      </c>
+      <c r="D48">
+        <v>8.5254010415289496</v>
+      </c>
+      <c r="H48">
+        <v>1500</v>
+      </c>
+      <c r="I48">
+        <f>AVERAGE(B86:B91)</f>
+        <v>906.38195552842501</v>
+      </c>
+      <c r="J48">
+        <f>AVERAGE(C86:C91)</f>
+        <v>11.009189707631734</v>
+      </c>
+      <c r="K48">
+        <f>AVERAGE(D86:D91)</f>
+        <v>10.62306693683845</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>250</v>
+      </c>
+      <c r="B49">
+        <v>871.96586337143594</v>
+      </c>
+      <c r="C49">
+        <v>8.6681250135883303</v>
+      </c>
+      <c r="D49">
+        <v>8.6582289242323398</v>
+      </c>
+      <c r="H49">
+        <v>1800</v>
+      </c>
+      <c r="I49">
+        <f>AVERAGE(B92:B96)</f>
+        <v>911.07578500531531</v>
+      </c>
+      <c r="J49">
+        <f>AVERAGE(C92:C96)</f>
+        <v>11.102242758343101</v>
+      </c>
+      <c r="K49">
+        <f>AVERAGE(D92:D96)</f>
+        <v>10.829623389544</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>300</v>
+      </c>
+      <c r="B50">
+        <v>881.05200521536506</v>
+      </c>
+      <c r="C50">
+        <v>9.2390595331752507</v>
+      </c>
+      <c r="D50">
+        <v>9.0448195767684894</v>
+      </c>
+      <c r="H50">
+        <v>2000</v>
+      </c>
+      <c r="I50">
+        <f>AVERAGE(B97:B102)</f>
+        <v>915.69194746214214</v>
+      </c>
+      <c r="J50">
+        <f>AVERAGE(C97:C102)</f>
+        <v>11.434628992185836</v>
+      </c>
+      <c r="K50">
+        <f>AVERAGE(D97:D102)</f>
+        <v>11.077272612727315</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>300</v>
+      </c>
+      <c r="B51">
+        <v>873.20091870855697</v>
+      </c>
+      <c r="C51">
+        <v>8.8402357054518195</v>
+      </c>
+      <c r="D51">
+        <v>8.8259611558365698</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>300</v>
+      </c>
+      <c r="B52">
+        <v>879.04052030684795</v>
+      </c>
+      <c r="C52">
+        <v>8.7182698525027096</v>
+      </c>
+      <c r="D52">
+        <v>8.6934465097796902</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>300</v>
+      </c>
+      <c r="B53">
+        <v>874.63463998492102</v>
+      </c>
+      <c r="C53">
+        <v>8.8880471979286906</v>
+      </c>
+      <c r="D53">
+        <v>8.8746202439069197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>300</v>
+      </c>
+      <c r="B54">
+        <v>875.55293826994</v>
+      </c>
+      <c r="C54">
+        <v>8.7321942298799105</v>
+      </c>
+      <c r="D54">
+        <v>8.65376710337563</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>300</v>
+      </c>
+      <c r="B55">
+        <v>876.93007663445405</v>
+      </c>
+      <c r="C55">
+        <v>8.9942269721040393</v>
+      </c>
+      <c r="D55">
+        <v>8.9801248144170103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>350</v>
+      </c>
+      <c r="B56">
+        <v>875.02120968072597</v>
+      </c>
+      <c r="C56">
+        <v>8.8632398810289992</v>
+      </c>
+      <c r="D56">
+        <v>8.82165481456253</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>350</v>
+      </c>
+      <c r="B57">
+        <v>879.13827130152697</v>
+      </c>
+      <c r="C57">
+        <v>9.2241409363275704</v>
+      </c>
+      <c r="D57">
+        <v>9.1087237095572107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>350</v>
+      </c>
+      <c r="B58">
+        <v>875.73667685241503</v>
+      </c>
+      <c r="C58">
+        <v>8.7899856501035991</v>
+      </c>
+      <c r="D58">
+        <v>8.7403103690744395</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>350</v>
+      </c>
+      <c r="B59">
+        <v>874.172908991741</v>
+      </c>
+      <c r="C59">
+        <v>8.8428966198762105</v>
+      </c>
+      <c r="D59">
+        <v>8.74486204095885</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>350</v>
+      </c>
+      <c r="B60">
+        <v>875.36057457483503</v>
+      </c>
+      <c r="C60">
+        <v>9.0007776780307793</v>
+      </c>
+      <c r="D60">
+        <v>8.86691850081613</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>400</v>
+      </c>
+      <c r="B61">
+        <v>878.51817930189702</v>
+      </c>
+      <c r="C61">
+        <v>8.8602324171015407</v>
+      </c>
+      <c r="D61">
+        <v>8.8412333573155593</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>400</v>
+      </c>
+      <c r="B62">
+        <v>877.21967540535297</v>
+      </c>
+      <c r="C62">
+        <v>8.9207809981372108</v>
+      </c>
+      <c r="D62">
+        <v>8.8256297471738101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>400</v>
+      </c>
+      <c r="B63">
+        <v>876.88501780435104</v>
+      </c>
+      <c r="C63">
+        <v>9.2701525537207008</v>
+      </c>
+      <c r="D63">
+        <v>9.1207667907470302</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>400</v>
+      </c>
+      <c r="B64">
+        <v>878.60374534347204</v>
+      </c>
+      <c r="C64">
+        <v>8.7919582215920293</v>
+      </c>
+      <c r="D64">
+        <v>8.7883425246558904</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>400</v>
+      </c>
+      <c r="B65">
+        <v>875.33166373531697</v>
+      </c>
+      <c r="C65">
+        <v>8.8472240860409901</v>
+      </c>
+      <c r="D65">
+        <v>8.7942606879415006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>500</v>
+      </c>
+      <c r="B66">
+        <v>878.01741595842395</v>
+      </c>
+      <c r="C66">
+        <v>9.1549521675377203</v>
+      </c>
+      <c r="D66">
+        <v>9.1513786095157794</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>500</v>
+      </c>
+      <c r="B67">
+        <v>879.93692108186201</v>
+      </c>
+      <c r="C67">
+        <v>9.0135627418294302</v>
+      </c>
+      <c r="D67">
+        <v>9.0059562765445804</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>500</v>
+      </c>
+      <c r="B68">
+        <v>878.38481872685395</v>
+      </c>
+      <c r="C68">
+        <v>9.1912108965818309</v>
+      </c>
+      <c r="D68">
+        <v>9.1438836952835398</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>500</v>
+      </c>
+      <c r="B69">
+        <v>880.71560251401695</v>
+      </c>
+      <c r="C69">
+        <v>9.0703386240563493</v>
+      </c>
+      <c r="D69">
+        <v>8.9231528034415799</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>500</v>
+      </c>
+      <c r="B70">
+        <v>883.002971249285</v>
+      </c>
+      <c r="C70">
+        <v>9.2263209471584293</v>
+      </c>
+      <c r="D70">
+        <v>9.1836469849704905</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>800</v>
+      </c>
+      <c r="B71">
+        <v>890.43440793320406</v>
+      </c>
+      <c r="C71">
+        <v>9.6750211714289005</v>
+      </c>
+      <c r="D71">
+        <v>9.6018944585164991</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>800</v>
+      </c>
+      <c r="B72">
+        <v>887.54661687932298</v>
+      </c>
+      <c r="C72">
+        <v>9.4734452696047295</v>
+      </c>
+      <c r="D72">
+        <v>9.35916564036404</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>800</v>
+      </c>
+      <c r="B73">
+        <v>883.17169046676997</v>
+      </c>
+      <c r="C73">
+        <v>9.6309177707978098</v>
+      </c>
+      <c r="D73">
+        <v>9.5389521275396092</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>800</v>
+      </c>
+      <c r="B74">
+        <v>887.69655420131505</v>
+      </c>
+      <c r="C74">
+        <v>9.7613049861166807</v>
+      </c>
+      <c r="D74">
+        <v>9.6054622103826404</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>800</v>
+      </c>
+      <c r="B75">
+        <v>887.90472247164701</v>
+      </c>
+      <c r="C75">
+        <v>9.9276446245404806</v>
+      </c>
+      <c r="D75">
+        <v>9.8724711250878396</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>1000</v>
+      </c>
+      <c r="B76">
+        <v>892.60397606527897</v>
+      </c>
+      <c r="C76">
+        <v>9.8526950499824704</v>
+      </c>
+      <c r="D76">
+        <v>9.6621448315776899</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>1000</v>
+      </c>
+      <c r="B77">
+        <v>896.47955918026298</v>
+      </c>
+      <c r="C77">
+        <v>10.0669606208053</v>
+      </c>
+      <c r="D77">
+        <v>9.9216690729868091</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>1000</v>
+      </c>
+      <c r="B78">
+        <v>893.05322093894995</v>
+      </c>
+      <c r="C78">
+        <v>9.9238022548259703</v>
+      </c>
+      <c r="D78">
+        <v>9.8150754659852701</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>1000</v>
+      </c>
+      <c r="B79">
+        <v>885.049274631152</v>
+      </c>
+      <c r="C79">
+        <v>10.031819781204799</v>
+      </c>
+      <c r="D79">
+        <v>9.8296666070122001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>1000</v>
+      </c>
+      <c r="B80">
+        <v>891.10780474107696</v>
+      </c>
+      <c r="C80">
+        <v>10.0313823150933</v>
+      </c>
+      <c r="D80">
+        <v>10.026136156026899</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>1200</v>
+      </c>
+      <c r="B81">
+        <v>896.48238328326204</v>
+      </c>
+      <c r="C81">
+        <v>10.1917883335566</v>
+      </c>
+      <c r="D81">
+        <v>9.9856918775360199</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>1200</v>
+      </c>
+      <c r="B82">
+        <v>898.26047358638095</v>
+      </c>
+      <c r="C82">
+        <v>10.273806609403801</v>
+      </c>
+      <c r="D82">
+        <v>10.139003749448699</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>1200</v>
+      </c>
+      <c r="B83">
+        <v>904.79398210649299</v>
+      </c>
+      <c r="C83">
+        <v>10.4431224968649</v>
+      </c>
+      <c r="D83">
+        <v>10.3621217265444</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>1200</v>
+      </c>
+      <c r="B84">
+        <v>904.24138728406103</v>
+      </c>
+      <c r="C84">
+        <v>10.632852417888</v>
+      </c>
+      <c r="D84">
+        <v>10.435434165901</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>1200</v>
+      </c>
+      <c r="B85">
+        <v>897.46871436001504</v>
+      </c>
+      <c r="C85">
+        <v>10.004779868710999</v>
+      </c>
+      <c r="D85">
+        <v>9.6830883137485397</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>1500</v>
+      </c>
+      <c r="B86">
+        <v>902.60733547176699</v>
+      </c>
+      <c r="C86">
+        <v>10.645431192883899</v>
+      </c>
+      <c r="D86">
+        <v>10.441199137746199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>1500</v>
+      </c>
+      <c r="B87">
+        <v>900.05343954265504</v>
+      </c>
+      <c r="C87">
+        <v>10.756690152913199</v>
+      </c>
+      <c r="D87">
+        <v>10.259029962058699</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>1500</v>
+      </c>
+      <c r="B88">
+        <v>906.80066227079203</v>
+      </c>
+      <c r="C88">
+        <v>11.186153432294301</v>
+      </c>
+      <c r="D88">
+        <v>10.935572061829699</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>1500</v>
+      </c>
+      <c r="B89">
+        <v>913.64658392430795</v>
+      </c>
+      <c r="C89">
+        <v>11.751585282462999</v>
+      </c>
+      <c r="D89">
+        <v>10.971272145539199</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>1500</v>
+      </c>
+      <c r="B90">
+        <v>912.68174822950004</v>
+      </c>
+      <c r="C90">
+        <v>11.115958322629499</v>
+      </c>
+      <c r="D90">
+        <v>10.9076499663169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>1500</v>
+      </c>
+      <c r="B91">
+        <v>902.50196373152801</v>
+      </c>
+      <c r="C91">
+        <v>10.599319862606499</v>
+      </c>
+      <c r="D91">
+        <v>10.22367834754</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>1800</v>
+      </c>
+      <c r="B92">
+        <v>906.51342297849806</v>
+      </c>
+      <c r="C92">
+        <v>10.968014529570199</v>
+      </c>
+      <c r="D92">
+        <v>10.6671522765131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>1800</v>
+      </c>
+      <c r="B93">
+        <v>910.28293620792203</v>
+      </c>
+      <c r="C93">
+        <v>10.976706941416801</v>
+      </c>
+      <c r="D93">
+        <v>10.754106143305799</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>1800</v>
+      </c>
+      <c r="B94">
+        <v>913.14520674548805</v>
+      </c>
+      <c r="C94">
+        <v>11.489863931763299</v>
+      </c>
+      <c r="D94">
+        <v>11.077940540242301</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>1800</v>
+      </c>
+      <c r="B95">
+        <v>916.07076041897801</v>
+      </c>
+      <c r="C95">
+        <v>11.122702027119701</v>
+      </c>
+      <c r="D95">
+        <v>10.8756536662443</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>1800</v>
+      </c>
+      <c r="B96">
+        <v>909.36659867569006</v>
+      </c>
+      <c r="C96">
+        <v>10.9539263618455</v>
+      </c>
+      <c r="D96">
+        <v>10.7732643214145</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>2000</v>
+      </c>
+      <c r="B97">
+        <v>919.02008319571496</v>
+      </c>
+      <c r="C97">
+        <v>11.6551571466519</v>
+      </c>
+      <c r="D97">
+        <v>11.1272036546998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>2000</v>
+      </c>
+      <c r="B98">
+        <v>916.21409371641198</v>
+      </c>
+      <c r="C98">
+        <v>11.302990263261201</v>
+      </c>
+      <c r="D98">
+        <v>10.944199717647599</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>2000</v>
+      </c>
+      <c r="B99">
+        <v>915.69509412056595</v>
+      </c>
+      <c r="C99">
+        <v>11.5137988256587</v>
+      </c>
+      <c r="D99">
+        <v>11.223407558883901</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>2000</v>
+      </c>
+      <c r="B100">
+        <v>911.39295373916298</v>
+      </c>
+      <c r="C100">
+        <v>11.4880282382584</v>
+      </c>
+      <c r="D100">
+        <v>11.1435612816424</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>2000</v>
+      </c>
+      <c r="B101">
+        <v>914.86251704045401</v>
+      </c>
+      <c r="C101">
+        <v>11.303576553484101</v>
+      </c>
+      <c r="D101">
+        <v>10.9756194380134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>2000</v>
+      </c>
+      <c r="B102">
+        <v>916.96694296054295</v>
+      </c>
+      <c r="C102">
+        <v>11.3442229258007</v>
+      </c>
+      <c r="D102">
+        <v>11.0496440254768</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I83"/>
   <sheetViews>
@@ -23638,11 +28902,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
@@ -25363,7 +30627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -25912,12 +31176,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/实验结果/处理结果/处理结果-ETL版本.xlsx
+++ b/实验结果/处理结果/处理结果-ETL版本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8925" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8925" firstSheet="17" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="17" r:id="rId1"/>
@@ -38,10 +38,11 @@
     <sheet name="3.3-3.34" sheetId="29" r:id="rId24"/>
     <sheet name="7.6-7.75" sheetId="27" r:id="rId25"/>
     <sheet name="7-8.2" sheetId="28" r:id="rId26"/>
-    <sheet name="180-60-e1" sheetId="11" r:id="rId27"/>
-    <sheet name="180-60-e2" sheetId="12" r:id="rId28"/>
-    <sheet name="相同半径" sheetId="13" r:id="rId29"/>
-    <sheet name="Sheet2" sheetId="14" r:id="rId30"/>
+    <sheet name="Sheet1" sheetId="32" r:id="rId27"/>
+    <sheet name="180-60-e1" sheetId="11" r:id="rId28"/>
+    <sheet name="180-60-e2" sheetId="12" r:id="rId29"/>
+    <sheet name="相同半径" sheetId="13" r:id="rId30"/>
+    <sheet name="Sheet2" sheetId="14" r:id="rId31"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -691,7 +692,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1467,28 +1468,13 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="26" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1502,6 +1488,21 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1739,7 +1740,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2008,11 +2008,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1074241696"/>
-        <c:axId val="1074242240"/>
+        <c:axId val="534009424"/>
+        <c:axId val="534012144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1074241696"/>
+        <c:axId val="534009424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2069,12 +2069,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1074242240"/>
+        <c:crossAx val="534012144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1074242240"/>
+        <c:axId val="534012144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2131,7 +2131,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1074241696"/>
+        <c:crossAx val="534009424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2554,11 +2554,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1400168112"/>
-        <c:axId val="1400162128"/>
+        <c:axId val="688053552"/>
+        <c:axId val="688057360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1400168112"/>
+        <c:axId val="688053552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2615,12 +2615,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1400162128"/>
+        <c:crossAx val="688057360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1400162128"/>
+        <c:axId val="688057360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2677,7 +2677,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1400168112"/>
+        <c:crossAx val="688053552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3000,11 +3000,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="918991680"/>
-        <c:axId val="1143155728"/>
+        <c:axId val="689026608"/>
+        <c:axId val="689028784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="918991680"/>
+        <c:axId val="689026608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3061,12 +3061,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1143155728"/>
+        <c:crossAx val="689028784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1143155728"/>
+        <c:axId val="689028784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3123,7 +3123,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="918991680"/>
+        <c:crossAx val="689026608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3187,7 +3187,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3402,11 +3401,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1143161168"/>
-        <c:axId val="1143152464"/>
+        <c:axId val="689019536"/>
+        <c:axId val="689021168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1143161168"/>
+        <c:axId val="689019536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3463,12 +3462,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1143152464"/>
+        <c:crossAx val="689021168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1143152464"/>
+        <c:axId val="689021168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3525,7 +3524,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1143161168"/>
+        <c:crossAx val="689019536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3589,7 +3588,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3664,7 +3662,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3750,11 +3747,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1077658976"/>
-        <c:axId val="1077651360"/>
+        <c:axId val="689027152"/>
+        <c:axId val="689016816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1077658976"/>
+        <c:axId val="689027152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3811,12 +3808,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1077651360"/>
+        <c:crossAx val="689016816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1077651360"/>
+        <c:axId val="689016816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3873,7 +3870,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1077658976"/>
+        <c:crossAx val="689027152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3937,7 +3934,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4012,7 +4008,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4104,11 +4099,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1077653536"/>
-        <c:axId val="1077650816"/>
+        <c:axId val="689023888"/>
+        <c:axId val="689024432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1077653536"/>
+        <c:axId val="689023888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4165,12 +4160,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1077650816"/>
+        <c:crossAx val="689024432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1077650816"/>
+        <c:axId val="689024432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4227,7 +4222,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1077653536"/>
+        <c:crossAx val="689023888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4291,7 +4286,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4366,7 +4360,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4455,11 +4448,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1074255840"/>
-        <c:axId val="1074254752"/>
+        <c:axId val="689017360"/>
+        <c:axId val="689016272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1074255840"/>
+        <c:axId val="689017360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4516,12 +4509,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1074254752"/>
+        <c:crossAx val="689016272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1074254752"/>
+        <c:axId val="689016272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4578,7 +4571,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1074255840"/>
+        <c:crossAx val="689017360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4642,7 +4635,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4717,7 +4709,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4806,11 +4797,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1077652448"/>
-        <c:axId val="1077647552"/>
+        <c:axId val="689027696"/>
+        <c:axId val="689020624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1077652448"/>
+        <c:axId val="689027696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4867,12 +4858,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1077647552"/>
+        <c:crossAx val="689020624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1077647552"/>
+        <c:axId val="689020624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4929,7 +4920,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1077652448"/>
+        <c:crossAx val="689027696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5151,11 +5142,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1077655168"/>
-        <c:axId val="1077649184"/>
+        <c:axId val="689030416"/>
+        <c:axId val="689030960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1077655168"/>
+        <c:axId val="689030416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5212,12 +5203,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1077649184"/>
+        <c:crossAx val="689030960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1077649184"/>
+        <c:axId val="689030960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5274,7 +5265,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1077655168"/>
+        <c:crossAx val="689030416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5496,11 +5487,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1146538736"/>
-        <c:axId val="1146542000"/>
+        <c:axId val="689144944"/>
+        <c:axId val="689149296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1146538736"/>
+        <c:axId val="689144944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5557,12 +5548,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146542000"/>
+        <c:crossAx val="689149296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1146542000"/>
+        <c:axId val="689149296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5619,7 +5610,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146538736"/>
+        <c:crossAx val="689144944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5853,11 +5844,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1146529488"/>
-        <c:axId val="1146536016"/>
+        <c:axId val="689148208"/>
+        <c:axId val="689149840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1146529488"/>
+        <c:axId val="689148208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5914,12 +5905,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146536016"/>
+        <c:crossAx val="689149840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1146536016"/>
+        <c:axId val="689149840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5976,7 +5967,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146529488"/>
+        <c:crossAx val="689148208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6040,7 +6031,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6297,11 +6287,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="918383376"/>
-        <c:axId val="918389904"/>
+        <c:axId val="534014320"/>
+        <c:axId val="534014864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="918383376"/>
+        <c:axId val="534014320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6358,12 +6348,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="918389904"/>
+        <c:crossAx val="534014864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="918389904"/>
+        <c:axId val="534014864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6420,7 +6410,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="918383376"/>
+        <c:crossAx val="534014320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6657,11 +6647,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1146535472"/>
-        <c:axId val="1146531664"/>
+        <c:axId val="689136784"/>
+        <c:axId val="689150384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1146535472"/>
+        <c:axId val="689136784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6718,12 +6708,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146531664"/>
+        <c:crossAx val="689150384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1146531664"/>
+        <c:axId val="689150384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6780,7 +6770,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146535472"/>
+        <c:crossAx val="689136784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7014,11 +7004,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1146534928"/>
-        <c:axId val="1146532208"/>
+        <c:axId val="689137328"/>
+        <c:axId val="689135696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1146534928"/>
+        <c:axId val="689137328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7075,12 +7065,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146532208"/>
+        <c:crossAx val="689135696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1146532208"/>
+        <c:axId val="689135696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7137,7 +7127,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146534928"/>
+        <c:crossAx val="689137328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7377,11 +7367,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1146528400"/>
-        <c:axId val="1146532752"/>
+        <c:axId val="689140048"/>
+        <c:axId val="689140592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1146528400"/>
+        <c:axId val="689140048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7438,12 +7428,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146532752"/>
+        <c:crossAx val="689140592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1146532752"/>
+        <c:axId val="689140592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7500,7 +7490,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146528400"/>
+        <c:crossAx val="689140048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7725,11 +7715,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1146531120"/>
-        <c:axId val="1146540368"/>
+        <c:axId val="689142768"/>
+        <c:axId val="689145488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1146531120"/>
+        <c:axId val="689142768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7786,12 +7776,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146540368"/>
+        <c:crossAx val="689145488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1146540368"/>
+        <c:axId val="689145488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7848,7 +7838,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146531120"/>
+        <c:crossAx val="689142768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8079,11 +8069,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1143149744"/>
-        <c:axId val="1143151920"/>
+        <c:axId val="689143856"/>
+        <c:axId val="689144400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1143149744"/>
+        <c:axId val="689143856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8140,12 +8130,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1143151920"/>
+        <c:crossAx val="689144400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1143151920"/>
+        <c:axId val="689144400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8202,7 +8192,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1143149744"/>
+        <c:crossAx val="689143856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8266,7 +8256,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8351,7 +8340,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -8443,11 +8431,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1143158992"/>
-        <c:axId val="1143153552"/>
+        <c:axId val="708175248"/>
+        <c:axId val="708174704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1143158992"/>
+        <c:axId val="708175248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8504,12 +8492,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1143153552"/>
+        <c:crossAx val="708174704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1143153552"/>
+        <c:axId val="708174704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8566,7 +8554,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1143158992"/>
+        <c:crossAx val="708175248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8630,7 +8618,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8705,7 +8692,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -8791,11 +8777,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="918387184"/>
-        <c:axId val="918390448"/>
+        <c:axId val="400257824"/>
+        <c:axId val="688060624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="918387184"/>
+        <c:axId val="400257824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8852,12 +8838,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="918390448"/>
+        <c:crossAx val="688060624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="918390448"/>
+        <c:axId val="688060624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8914,7 +8900,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="918387184"/>
+        <c:crossAx val="400257824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8978,7 +8964,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9289,11 +9274,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="918385552"/>
-        <c:axId val="918986240"/>
+        <c:axId val="688056272"/>
+        <c:axId val="688054096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="918385552"/>
+        <c:axId val="688056272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9350,12 +9335,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="918986240"/>
+        <c:crossAx val="688054096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="918986240"/>
+        <c:axId val="688054096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9412,7 +9397,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="918385552"/>
+        <c:crossAx val="688056272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9426,7 +9411,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9508,7 +9492,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9583,7 +9566,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -9672,11 +9654,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1077655712"/>
-        <c:axId val="1077654080"/>
+        <c:axId val="688055184"/>
+        <c:axId val="688063888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1077655712"/>
+        <c:axId val="688055184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9733,12 +9715,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1077654080"/>
+        <c:crossAx val="688063888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1077654080"/>
+        <c:axId val="688063888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9795,7 +9777,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1077655712"/>
+        <c:crossAx val="688055184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9859,7 +9841,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9934,7 +9915,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -10023,11 +10003,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="935853024"/>
-        <c:axId val="935855200"/>
+        <c:axId val="688064432"/>
+        <c:axId val="688065520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="935853024"/>
+        <c:axId val="688064432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10084,12 +10064,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="935855200"/>
+        <c:crossAx val="688065520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="935855200"/>
+        <c:axId val="688065520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10146,7 +10126,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="935853024"/>
+        <c:crossAx val="688064432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10210,7 +10190,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10285,7 +10264,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -10371,11 +10349,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="918987872"/>
-        <c:axId val="918994944"/>
+        <c:axId val="688052464"/>
+        <c:axId val="688058448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="918987872"/>
+        <c:axId val="688052464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10432,12 +10410,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="918994944"/>
+        <c:crossAx val="688058448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="918994944"/>
+        <c:axId val="688058448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10494,7 +10472,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="918987872"/>
+        <c:crossAx val="688052464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10558,7 +10536,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10923,11 +10900,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1400164304"/>
-        <c:axId val="1400174640"/>
+        <c:axId val="688062256"/>
+        <c:axId val="688064976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1400164304"/>
+        <c:axId val="688062256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10984,12 +10961,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1400174640"/>
+        <c:crossAx val="688064976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1400174640"/>
+        <c:axId val="688064976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11046,7 +11023,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1400164304"/>
+        <c:crossAx val="688062256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11060,7 +11037,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11507,11 +11483,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1400173552"/>
-        <c:axId val="1400173008"/>
+        <c:axId val="688055728"/>
+        <c:axId val="688050832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1400173552"/>
+        <c:axId val="688055728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11568,12 +11544,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1400173008"/>
+        <c:crossAx val="688050832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1400173008"/>
+        <c:axId val="688050832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11630,7 +11606,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1400173552"/>
+        <c:crossAx val="688055728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -25895,16 +25871,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>204787</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>661987</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26105,16 +26081,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>147637</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>604837</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26721,17 +26697,18 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="表10" displayName="表10" ref="A1:E71" totalsRowShown="0">
-  <autoFilter ref="A1:E71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="表10" displayName="表10" ref="A1:F71" totalsRowShown="0">
+  <autoFilter ref="A1:F71"/>
   <sortState ref="A2:E71">
     <sortCondition ref="A1:A71"/>
   </sortState>
-  <tableColumns count="5">
+  <tableColumns count="6">
     <tableColumn id="1" name="列1"/>
     <tableColumn id="5" name="列5"/>
     <tableColumn id="6" name="列6"/>
     <tableColumn id="7" name="列7"/>
     <tableColumn id="2" name="列2"/>
+    <tableColumn id="3" name="back"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -27252,7 +27229,7 @@
       <c r="B2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="14" t="s">
         <v>189</v>
       </c>
     </row>
@@ -27260,7 +27237,7 @@
       <c r="B3" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="14" t="s">
         <v>190</v>
       </c>
     </row>
@@ -27268,7 +27245,7 @@
       <c r="B4" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="14" t="s">
         <v>191</v>
       </c>
     </row>
@@ -27276,7 +27253,7 @@
       <c r="B5" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="14" t="s">
         <v>192</v>
       </c>
     </row>
@@ -27331,7 +27308,7 @@
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="19"/>
+      <c r="B16" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -28127,7 +28104,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="26.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="15" t="s">
         <v>173</v>
       </c>
     </row>
@@ -28877,7 +28854,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="26.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="15" t="s">
         <v>173</v>
       </c>
     </row>
@@ -29125,7 +29102,7 @@
         <v>1064.34827116676</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="I8:J8" si="5">AVERAGE(D23:D26)</f>
+        <f t="shared" ref="J8" si="5">AVERAGE(D23:D26)</f>
         <v>7.5928202489754533</v>
       </c>
     </row>
@@ -29859,7 +29836,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="26.25" x14ac:dyDescent="0.15">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="15" t="s">
         <v>173</v>
       </c>
     </row>
@@ -30059,7 +30036,7 @@
         <v>1425.7804833293076</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="I6:J6" si="4">AVERAGE(D17:D20)</f>
+        <f t="shared" ref="J6" si="4">AVERAGE(D17:D20)</f>
         <v>9.479778357465289</v>
       </c>
     </row>
@@ -30859,7 +30836,7 @@
       </c>
     </row>
     <row r="49" spans="1:1" ht="26.25" x14ac:dyDescent="0.15">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="15" t="s">
         <v>173</v>
       </c>
     </row>
@@ -35129,15 +35106,15 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K19" sqref="H3:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -35154,7 +35131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -35171,7 +35148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0</v>
       </c>
@@ -35203,7 +35180,7 @@
         <v>6.8498534107498674</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -35235,7 +35212,7 @@
         <v>6.8998501556183154</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0</v>
       </c>
@@ -35266,8 +35243,11 @@
         <f t="shared" si="2"/>
         <v>7.0650797070817362</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M5">
+        <v>6.7819000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>50</v>
       </c>
@@ -35298,8 +35278,12 @@
         <f t="shared" si="3"/>
         <v>7.3609982886746606</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M6">
+        <f>(M5-6.7801)/0.0041</f>
+        <v>0.43902439024396239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>50</v>
       </c>
@@ -35331,7 +35315,7 @@
         <v>7.4616390841210132</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>50</v>
       </c>
@@ -35363,7 +35347,7 @@
         <v>7.6421628488459623</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>50</v>
       </c>
@@ -35395,7 +35379,7 @@
         <v>7.7853419732504348</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>50</v>
       </c>
@@ -35427,7 +35411,7 @@
         <v>8.1079756173278703</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>100</v>
       </c>
@@ -35443,8 +35427,23 @@
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H11">
+        <v>400</v>
+      </c>
+      <c r="I11">
+        <f>AVERAGE(B37:B42)</f>
+        <v>1108.3897686005416</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11:K11" si="8">AVERAGE(C37:C42)</f>
+        <v>8.6017481354801877</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="8"/>
+        <v>8.2748926021617937</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>100</v>
       </c>
@@ -35460,8 +35459,23 @@
       <c r="E12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H12">
+        <v>500</v>
+      </c>
+      <c r="I12">
+        <f>AVERAGE(B43:B47)</f>
+        <v>1109.637018836424</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:K12" si="9">AVERAGE(C43:C47)</f>
+        <v>8.6974813718019881</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="9"/>
+        <v>8.4179611985303691</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>100</v>
       </c>
@@ -35477,11 +35491,23 @@
       <c r="E13">
         <v>2</v>
       </c>
+      <c r="H13">
+        <v>600</v>
+      </c>
+      <c r="I13">
+        <f>AVERAGE(B48:B51)</f>
+        <v>1113.5037290704049</v>
+      </c>
       <c r="J13">
-        <v>6.7819000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+        <f t="shared" ref="J13:K13" si="10">AVERAGE(C48:C51)</f>
+        <v>9.231569775698496</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="10"/>
+        <v>8.8166418381999971</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>100</v>
       </c>
@@ -35497,12 +35523,23 @@
       <c r="E14">
         <v>3</v>
       </c>
+      <c r="H14">
+        <v>700</v>
+      </c>
+      <c r="I14">
+        <f>AVERAGE(B52:B57)</f>
+        <v>1117.1550341827767</v>
+      </c>
       <c r="J14">
-        <f>(J13-6.7801)/0.0041</f>
-        <v>0.43902439024396239</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+        <f t="shared" ref="J14:K14" si="11">AVERAGE(C52:C57)</f>
+        <v>9.5313606532581918</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="11"/>
+        <v>9.0655092076049755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>100</v>
       </c>
@@ -35518,8 +35555,23 @@
       <c r="E15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H15">
+        <v>800</v>
+      </c>
+      <c r="I15">
+        <f>AVERAGE(B58:B62)</f>
+        <v>1119.701246509838</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15:K15" si="12">AVERAGE(C58:C62)</f>
+        <v>9.7452382042422734</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="12"/>
+        <v>9.2013642227305343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>150</v>
       </c>
@@ -35535,8 +35587,23 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H16">
+        <v>900</v>
+      </c>
+      <c r="I16">
+        <f>AVERAGE(B63:B67)</f>
+        <v>1122.48902037823</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16:K16" si="13">AVERAGE(C63:C67)</f>
+        <v>10.11392702893672</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="13"/>
+        <v>9.4003960481587736</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>150</v>
       </c>
@@ -35552,8 +35619,23 @@
       <c r="E17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H17">
+        <v>1000</v>
+      </c>
+      <c r="I17">
+        <f>AVERAGE(B68:B71)</f>
+        <v>1124.5119799402223</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:K17" si="14">AVERAGE(C68:C71)</f>
+        <v>10.258473791011491</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="14"/>
+        <v>9.4885979186510507</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>150</v>
       </c>
@@ -35569,8 +35651,23 @@
       <c r="E18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H18">
+        <v>1500</v>
+      </c>
+      <c r="I18">
+        <f>AVERAGE(B72:B76)</f>
+        <v>1133.96915988867</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18:K18" si="15">AVERAGE(C72:C76)</f>
+        <v>11.325649833765578</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="15"/>
+        <v>10.155822944250925</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>150</v>
       </c>
@@ -35586,8 +35683,23 @@
       <c r="E19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H19">
+        <v>2000</v>
+      </c>
+      <c r="I19">
+        <f>AVERAGE(B77:B81)</f>
+        <v>1145.8768413787379</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19:K19" si="16">AVERAGE(C77:C81)</f>
+        <v>12.380308093030161</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="16"/>
+        <v>10.77610362609774</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>200</v>
       </c>
@@ -35604,7 +35716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>200</v>
       </c>
@@ -35621,7 +35733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>200</v>
       </c>
@@ -35638,7 +35750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>200</v>
       </c>
@@ -35655,7 +35767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>200</v>
       </c>
@@ -35672,7 +35784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>250</v>
       </c>
@@ -35689,7 +35801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>250</v>
       </c>
@@ -35706,7 +35818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>250</v>
       </c>
@@ -35723,7 +35835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>250</v>
       </c>
@@ -35740,7 +35852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>300</v>
       </c>
@@ -35757,7 +35869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>300</v>
       </c>
@@ -35774,7 +35886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>300</v>
       </c>
@@ -35791,7 +35903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>300</v>
       </c>
@@ -36661,47 +36773,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="12.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="10" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="14"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
+      <c r="A2" s="18"/>
       <c r="B2" s="6" t="s">
         <v>161</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="10" t="s">
         <v>163</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="13"/>
       <c r="I2" s="6" t="s">
         <v>166</v>
       </c>
@@ -36716,7 +36828,7 @@
       <c r="C3" s="9">
         <v>100</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="11">
         <v>0</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -36745,7 +36857,7 @@
       <c r="C4" s="9">
         <v>30</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="11">
         <f>C4/(2*B4*PI()/360)</f>
         <v>171.88733853924697</v>
       </c>
@@ -36773,7 +36885,7 @@
       <c r="C5" s="9">
         <v>30</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="11">
         <f t="shared" ref="D5:D24" si="0">C5/(2*B5*PI()/360)</f>
         <v>85.943669269623484</v>
       </c>
@@ -36801,7 +36913,7 @@
       <c r="C6" s="9">
         <v>30</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="11">
         <f t="shared" si="0"/>
         <v>85.943669269623484</v>
       </c>
@@ -36831,7 +36943,7 @@
       <c r="C7" s="9">
         <v>30</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="11">
         <f t="shared" si="0"/>
         <v>85.943669269623484</v>
       </c>
@@ -36861,7 +36973,7 @@
       <c r="C8" s="9">
         <v>30</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="11">
         <f t="shared" si="0"/>
         <v>57.29577951308233</v>
       </c>
@@ -36889,7 +37001,7 @@
       <c r="C9" s="9">
         <v>30</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="11">
         <f t="shared" si="0"/>
         <v>57.29577951308233</v>
       </c>
@@ -36919,7 +37031,7 @@
       <c r="C10" s="9">
         <v>30</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="11">
         <f t="shared" si="0"/>
         <v>57.29577951308233</v>
       </c>
@@ -36949,7 +37061,7 @@
       <c r="C11" s="9">
         <v>30</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="11">
         <f t="shared" si="0"/>
         <v>42.971834634811742</v>
       </c>
@@ -36969,7 +37081,7 @@
       <c r="C12" s="9">
         <v>30</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="11">
         <f t="shared" si="0"/>
         <v>42.971834634811742</v>
       </c>
@@ -36991,7 +37103,7 @@
       <c r="C13" s="9">
         <v>30</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="11">
         <f t="shared" si="0"/>
         <v>42.971834634811742</v>
       </c>
@@ -37015,7 +37127,7 @@
       <c r="C14" s="9">
         <v>30</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="11">
         <f t="shared" si="0"/>
         <v>38.197186342054884</v>
       </c>
@@ -37037,7 +37149,7 @@
       <c r="C15" s="9">
         <v>30</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="11">
         <f t="shared" si="0"/>
         <v>19.098593171027442</v>
       </c>
@@ -37059,7 +37171,7 @@
       <c r="C16" s="9">
         <v>60</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="11">
         <f t="shared" si="0"/>
         <v>171.88733853924697</v>
       </c>
@@ -37081,7 +37193,7 @@
       <c r="C17" s="9">
         <v>60</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="11">
         <f t="shared" si="0"/>
         <v>76.394372684109769</v>
       </c>
@@ -37103,7 +37215,7 @@
       <c r="C18" s="9">
         <v>60</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="11">
         <f t="shared" si="0"/>
         <v>38.197186342054884</v>
       </c>
@@ -37125,7 +37237,7 @@
       <c r="C19" s="9">
         <v>40</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="11">
         <f t="shared" si="0"/>
         <v>38.197186342054884</v>
       </c>
@@ -37147,7 +37259,7 @@
       <c r="C20" s="9">
         <v>60</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="11">
         <f t="shared" si="0"/>
         <v>25.464790894703256</v>
       </c>
@@ -37169,7 +37281,7 @@
       <c r="C21" s="9">
         <v>60</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="11">
         <f t="shared" si="0"/>
         <v>19.098593171027442</v>
       </c>
@@ -37189,7 +37301,7 @@
       <c r="C22" s="9">
         <v>60</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="11">
         <f t="shared" si="0"/>
         <v>19.098593171027442</v>
       </c>
@@ -37211,7 +37323,7 @@
       <c r="C23" s="9">
         <v>60</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="11">
         <f t="shared" si="0"/>
         <v>19.098593171027442</v>
       </c>
@@ -37233,7 +37345,7 @@
       <c r="C24" s="9">
         <v>90</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="11">
         <f t="shared" si="0"/>
         <v>19.098593171027442</v>
       </c>
@@ -37244,7 +37356,7 @@
       <c r="I24" s="9"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="14" t="s">
         <v>172</v>
       </c>
     </row>
@@ -38042,7 +38154,7 @@
       </c>
     </row>
     <row r="37" spans="1:1" ht="26.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="15" t="s">
         <v>173</v>
       </c>
     </row>
@@ -38064,7 +38176,7 @@
   <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -41982,13 +42094,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K20" sqref="H4:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -42005,7 +42117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -42022,7 +42134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0</v>
       </c>
@@ -42039,7 +42151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -42071,7 +42183,7 @@
         <v>6.9297486756679563</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0</v>
       </c>
@@ -42103,7 +42215,7 @@
         <v>6.964765802920307</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0</v>
       </c>
@@ -42135,7 +42247,7 @@
         <v>7.1122971934324859</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>50</v>
       </c>
@@ -42167,7 +42279,7 @@
         <v>7.2981090550582479</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>50</v>
       </c>
@@ -42198,8 +42310,11 @@
         <f t="shared" si="4"/>
         <v>7.5401679343439749</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N8">
+        <v>6.7910000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>50</v>
       </c>
@@ -42230,8 +42345,12 @@
         <f t="shared" si="5"/>
         <v>7.7355719379743109</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N9">
+        <f>(N8-6.7871)/0.0044</f>
+        <v>0.88636363636379101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>50</v>
       </c>
@@ -42263,7 +42382,7 @@
         <v>7.9299566135277528</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>50</v>
       </c>
@@ -42295,7 +42414,7 @@
         <v>8.060290776602109</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>100</v>
       </c>
@@ -42327,7 +42446,7 @@
         <v>8.1491792494428115</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>100</v>
       </c>
@@ -42359,7 +42478,7 @@
         <v>8.4923769978053656</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>100</v>
       </c>
@@ -42375,8 +42494,23 @@
       <c r="E14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H14">
+        <v>600</v>
+      </c>
+      <c r="I14">
+        <f>AVERAGE(B54:B59)</f>
+        <v>1120.8950095643283</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14:K14" si="10">AVERAGE(C54:C59)</f>
+        <v>9.0924131495295537</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="10"/>
+        <v>8.747718494732883</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>100</v>
       </c>
@@ -42392,11 +42526,23 @@
       <c r="E15">
         <v>3</v>
       </c>
+      <c r="H15">
+        <v>700</v>
+      </c>
       <c r="I15">
-        <v>6.7910000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+        <f>AVERAGE(B60:B64)</f>
+        <v>1124.142460515518</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15:K15" si="11">AVERAGE(C60:C64)</f>
+        <v>9.4030648525763532</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="11"/>
+        <v>8.9639459740012981</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>100</v>
       </c>
@@ -42412,9 +42558,20 @@
       <c r="E16">
         <v>4</v>
       </c>
+      <c r="H16">
+        <v>800</v>
+      </c>
       <c r="I16">
-        <f>(I15-6.7871)/0.0044</f>
-        <v>0.88636363636379101</v>
+        <f>AVERAGE(B65:B70)</f>
+        <v>1125.505591458415</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16:K16" si="12">AVERAGE(C65:C70)</f>
+        <v>9.8835977286699226</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="12"/>
+        <v>9.3112840925290143</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
@@ -42433,6 +42590,21 @@
       <c r="E17">
         <v>5</v>
       </c>
+      <c r="H17">
+        <v>900</v>
+      </c>
+      <c r="I17">
+        <f>AVERAGE(B71:B75)</f>
+        <v>1127.5765012067161</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:K17" si="13">AVERAGE(C71:C75)</f>
+        <v>10.127046733082244</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="13"/>
+        <v>9.3725682440530385</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18">
@@ -42450,6 +42622,21 @@
       <c r="E18">
         <v>0</v>
       </c>
+      <c r="H18">
+        <v>1000</v>
+      </c>
+      <c r="I18">
+        <f>AVERAGE(B76:B81)</f>
+        <v>1131.2186023312386</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18:K18" si="14">AVERAGE(C76:C81)</f>
+        <v>10.420419968189718</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="14"/>
+        <v>9.662470612456886</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19">
@@ -42467,6 +42654,21 @@
       <c r="E19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1500</v>
+      </c>
+      <c r="I19">
+        <f>AVERAGE(B82:B88)</f>
+        <v>1141.0585811861872</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19:K19" si="15">AVERAGE(C82:C88)</f>
+        <v>11.500420201798315</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="15"/>
+        <v>10.301383713164615</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20">
@@ -42483,6 +42685,21 @@
       </c>
       <c r="E20">
         <v>2</v>
+      </c>
+      <c r="H20">
+        <v>2000</v>
+      </c>
+      <c r="I20">
+        <f>AVERAGE(B89:B94)</f>
+        <v>1150.8732354972783</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ref="J20:K20" si="16">AVERAGE(C89:C94)</f>
+        <v>12.333995092149481</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="16"/>
+        <v>10.8590462721167</v>
       </c>
       <c r="N20" t="s">
         <v>64</v>
@@ -43775,8 +43992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -43797,7 +44014,7 @@
       <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="14" t="s">
         <v>186</v>
       </c>
     </row>
@@ -44230,7 +44447,7 @@
         <v>1109.5417348532051</v>
       </c>
       <c r="K23">
-        <f t="shared" ref="J23:K23" si="1">AVERAGE(D7:D12)</f>
+        <f t="shared" ref="K23" si="1">AVERAGE(D7:D12)</f>
         <v>7.5963915166781355</v>
       </c>
     </row>
@@ -45239,8 +45456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -46911,7 +47128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -50255,6 +50472,126 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1112.997743198024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>1109.5417348532051</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>250</v>
+      </c>
+      <c r="B5">
+        <v>1111.8191219101416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>300</v>
+      </c>
+      <c r="B6">
+        <v>1116.2762223872032</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>350</v>
+      </c>
+      <c r="B7">
+        <v>1117.649397666404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>400</v>
+      </c>
+      <c r="B8">
+        <v>1119.9562363713001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>500</v>
+      </c>
+      <c r="B9">
+        <v>1125.0875352321898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>800</v>
+      </c>
+      <c r="B10">
+        <v>1137.0173182903759</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11">
+        <v>1145.56151990686</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>1200</v>
+      </c>
+      <c r="B12">
+        <v>1149.670657550836</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>1500</v>
+      </c>
+      <c r="B13">
+        <v>1159.0433681202919</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>1800</v>
+      </c>
+      <c r="B14">
+        <v>1167.2470849369299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>2000</v>
+      </c>
+      <c r="B15">
+        <v>1174.0952553097584</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -51817,7 +52154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K100"/>
   <sheetViews>
@@ -53625,561 +53962,6 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
-  </sheetPr>
-  <dimension ref="A1:L32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1092.6822649999999</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1095.2</v>
-      </c>
-      <c r="F2">
-        <f>(B2+I2)/2</f>
-        <v>1095.8411325</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>50</v>
-      </c>
-      <c r="B3">
-        <v>1094.6340270000001</v>
-      </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-      <c r="E3">
-        <v>1097.5</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F18" si="0">(B3+I3)/2</f>
-        <v>1097.9399100000001</v>
-      </c>
-      <c r="H3">
-        <v>50</v>
-      </c>
-      <c r="I3">
-        <v>1101.245793</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>100</v>
-      </c>
-      <c r="B4">
-        <v>1095.628101</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
-        <v>1199.44</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>1100.13302</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4">
-        <v>1104.637939</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>150</v>
-      </c>
-      <c r="B5">
-        <v>1098.080956</v>
-      </c>
-      <c r="D5">
-        <v>150</v>
-      </c>
-      <c r="E5">
-        <v>1100.98</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>1101.6910385000001</v>
-      </c>
-      <c r="H5">
-        <v>150</v>
-      </c>
-      <c r="I5">
-        <v>1105.301121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>200</v>
-      </c>
-      <c r="B6">
-        <v>1099.5810389999999</v>
-      </c>
-      <c r="D6">
-        <v>200</v>
-      </c>
-      <c r="E6">
-        <v>1103</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>1103.2983245</v>
-      </c>
-      <c r="H6">
-        <v>200</v>
-      </c>
-      <c r="I6">
-        <v>1107.0156099999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>250</v>
-      </c>
-      <c r="B7">
-        <v>1102.0936389999999</v>
-      </c>
-      <c r="D7">
-        <v>250</v>
-      </c>
-      <c r="E7">
-        <v>1105.77</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>1106.3313515</v>
-      </c>
-      <c r="H7">
-        <v>250</v>
-      </c>
-      <c r="I7">
-        <v>1110.569064</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>300</v>
-      </c>
-      <c r="B8">
-        <v>1104.2248669999999</v>
-      </c>
-      <c r="D8">
-        <v>300</v>
-      </c>
-      <c r="E8">
-        <v>1107.68</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>1108.290127</v>
-      </c>
-      <c r="H8">
-        <v>300</v>
-      </c>
-      <c r="I8">
-        <v>1112.3553870000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>350</v>
-      </c>
-      <c r="B9">
-        <v>1105.357422</v>
-      </c>
-      <c r="D9">
-        <v>350</v>
-      </c>
-      <c r="E9">
-        <v>1108.99</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>1109.3453690000001</v>
-      </c>
-      <c r="H9">
-        <v>350</v>
-      </c>
-      <c r="I9">
-        <v>1113.333316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>400</v>
-      </c>
-      <c r="B10">
-        <v>1108.3897689999999</v>
-      </c>
-      <c r="D10">
-        <v>400</v>
-      </c>
-      <c r="E10">
-        <v>1110.56</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>1111.4115859999999</v>
-      </c>
-      <c r="H10">
-        <v>400</v>
-      </c>
-      <c r="I10">
-        <v>1114.433403</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>500</v>
-      </c>
-      <c r="B11">
-        <v>1109.637019</v>
-      </c>
-      <c r="D11">
-        <v>500</v>
-      </c>
-      <c r="E11">
-        <v>1112.1300000000001</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>1112.9975789999999</v>
-      </c>
-      <c r="H11">
-        <v>500</v>
-      </c>
-      <c r="I11">
-        <v>1116.3581389999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>600</v>
-      </c>
-      <c r="B12">
-        <v>1113.503729</v>
-      </c>
-      <c r="D12">
-        <v>600</v>
-      </c>
-      <c r="E12">
-        <v>1116.98</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>1117.1993695000001</v>
-      </c>
-      <c r="H12">
-        <v>600</v>
-      </c>
-      <c r="I12">
-        <v>1120.89501</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>700</v>
-      </c>
-      <c r="B13">
-        <v>1117.1550339999999</v>
-      </c>
-      <c r="D13">
-        <v>700</v>
-      </c>
-      <c r="E13">
-        <v>1119.22</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>1120.6487474999999</v>
-      </c>
-      <c r="H13">
-        <v>700</v>
-      </c>
-      <c r="I13">
-        <v>1124.1424609999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>800</v>
-      </c>
-      <c r="B14">
-        <v>1119.701247</v>
-      </c>
-      <c r="D14">
-        <v>800</v>
-      </c>
-      <c r="E14">
-        <v>1121.77</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>1122.603419</v>
-      </c>
-      <c r="H14">
-        <v>800</v>
-      </c>
-      <c r="I14">
-        <v>1125.5055910000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>900</v>
-      </c>
-      <c r="B15">
-        <v>1122.48902</v>
-      </c>
-      <c r="D15">
-        <v>900</v>
-      </c>
-      <c r="E15">
-        <v>1124.93</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>1125.0327605</v>
-      </c>
-      <c r="H15">
-        <v>900</v>
-      </c>
-      <c r="I15">
-        <v>1127.576501</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>1000</v>
-      </c>
-      <c r="B16">
-        <v>1124.51198</v>
-      </c>
-      <c r="D16">
-        <v>1000</v>
-      </c>
-      <c r="E16">
-        <v>1127.1199999999999</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>1127.8652910000001</v>
-      </c>
-      <c r="H16">
-        <v>1000</v>
-      </c>
-      <c r="I16">
-        <v>1131.2186019999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>1500</v>
-      </c>
-      <c r="B17">
-        <v>1133.9691600000001</v>
-      </c>
-      <c r="D17">
-        <v>1500</v>
-      </c>
-      <c r="E17">
-        <v>1136.8119999999999</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>1137.5138704999999</v>
-      </c>
-      <c r="H17">
-        <v>1500</v>
-      </c>
-      <c r="I17">
-        <v>1141.058581</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>2000</v>
-      </c>
-      <c r="B18">
-        <v>1145.876841</v>
-      </c>
-      <c r="D18">
-        <v>2000</v>
-      </c>
-      <c r="E18">
-        <v>1148.528</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>1149.3750380000001</v>
-      </c>
-      <c r="H18">
-        <v>2000</v>
-      </c>
-      <c r="I18">
-        <v>1152.873235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" t="s">
-        <v>86</v>
-      </c>
-      <c r="H22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" t="s">
-        <v>89</v>
-      </c>
-      <c r="H23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="1">
-        <v>2.5647859999999999E-3</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2.7241589999999999E-3</v>
-      </c>
-      <c r="H24" s="1">
-        <v>2.9144629999999999E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" t="s">
-        <v>96</v>
-      </c>
-      <c r="H29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" t="s">
-        <v>97</v>
-      </c>
-      <c r="H30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="1">
-        <v>2.098058</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1.9556960000000001</v>
-      </c>
-      <c r="H31" s="1">
-        <v>1.9338500000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" t="s">
-        <v>98</v>
-      </c>
-      <c r="H32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="L1" location="目录!A1" display="目录!A1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -54891,7 +54673,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="26.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="15" t="s">
         <v>173</v>
       </c>
     </row>
@@ -54909,6 +54691,561 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1092.6822649999999</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1095.2</v>
+      </c>
+      <c r="F2">
+        <f>(B2+I2)/2</f>
+        <v>1095.8411325</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>1094.6340270000001</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>1097.5</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F18" si="0">(B3+I3)/2</f>
+        <v>1097.9399100000001</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <v>1101.245793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>1095.628101</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>1199.44</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1100.13302</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>1104.637939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>150</v>
+      </c>
+      <c r="B5">
+        <v>1098.080956</v>
+      </c>
+      <c r="D5">
+        <v>150</v>
+      </c>
+      <c r="E5">
+        <v>1100.98</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1101.6910385000001</v>
+      </c>
+      <c r="H5">
+        <v>150</v>
+      </c>
+      <c r="I5">
+        <v>1105.301121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>200</v>
+      </c>
+      <c r="B6">
+        <v>1099.5810389999999</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6">
+        <v>1103</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1103.2983245</v>
+      </c>
+      <c r="H6">
+        <v>200</v>
+      </c>
+      <c r="I6">
+        <v>1107.0156099999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>250</v>
+      </c>
+      <c r="B7">
+        <v>1102.0936389999999</v>
+      </c>
+      <c r="D7">
+        <v>250</v>
+      </c>
+      <c r="E7">
+        <v>1105.77</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1106.3313515</v>
+      </c>
+      <c r="H7">
+        <v>250</v>
+      </c>
+      <c r="I7">
+        <v>1110.569064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>300</v>
+      </c>
+      <c r="B8">
+        <v>1104.2248669999999</v>
+      </c>
+      <c r="D8">
+        <v>300</v>
+      </c>
+      <c r="E8">
+        <v>1107.68</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1108.290127</v>
+      </c>
+      <c r="H8">
+        <v>300</v>
+      </c>
+      <c r="I8">
+        <v>1112.3553870000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>350</v>
+      </c>
+      <c r="B9">
+        <v>1105.357422</v>
+      </c>
+      <c r="D9">
+        <v>350</v>
+      </c>
+      <c r="E9">
+        <v>1108.99</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1109.3453690000001</v>
+      </c>
+      <c r="H9">
+        <v>350</v>
+      </c>
+      <c r="I9">
+        <v>1113.333316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>400</v>
+      </c>
+      <c r="B10">
+        <v>1108.3897689999999</v>
+      </c>
+      <c r="D10">
+        <v>400</v>
+      </c>
+      <c r="E10">
+        <v>1110.56</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1111.4115859999999</v>
+      </c>
+      <c r="H10">
+        <v>400</v>
+      </c>
+      <c r="I10">
+        <v>1114.433403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>500</v>
+      </c>
+      <c r="B11">
+        <v>1109.637019</v>
+      </c>
+      <c r="D11">
+        <v>500</v>
+      </c>
+      <c r="E11">
+        <v>1112.1300000000001</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1112.9975789999999</v>
+      </c>
+      <c r="H11">
+        <v>500</v>
+      </c>
+      <c r="I11">
+        <v>1116.3581389999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>600</v>
+      </c>
+      <c r="B12">
+        <v>1113.503729</v>
+      </c>
+      <c r="D12">
+        <v>600</v>
+      </c>
+      <c r="E12">
+        <v>1116.98</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1117.1993695000001</v>
+      </c>
+      <c r="H12">
+        <v>600</v>
+      </c>
+      <c r="I12">
+        <v>1120.89501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>700</v>
+      </c>
+      <c r="B13">
+        <v>1117.1550339999999</v>
+      </c>
+      <c r="D13">
+        <v>700</v>
+      </c>
+      <c r="E13">
+        <v>1119.22</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1120.6487474999999</v>
+      </c>
+      <c r="H13">
+        <v>700</v>
+      </c>
+      <c r="I13">
+        <v>1124.1424609999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>800</v>
+      </c>
+      <c r="B14">
+        <v>1119.701247</v>
+      </c>
+      <c r="D14">
+        <v>800</v>
+      </c>
+      <c r="E14">
+        <v>1121.77</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1122.603419</v>
+      </c>
+      <c r="H14">
+        <v>800</v>
+      </c>
+      <c r="I14">
+        <v>1125.5055910000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>900</v>
+      </c>
+      <c r="B15">
+        <v>1122.48902</v>
+      </c>
+      <c r="D15">
+        <v>900</v>
+      </c>
+      <c r="E15">
+        <v>1124.93</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1125.0327605</v>
+      </c>
+      <c r="H15">
+        <v>900</v>
+      </c>
+      <c r="I15">
+        <v>1127.576501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>1000</v>
+      </c>
+      <c r="B16">
+        <v>1124.51198</v>
+      </c>
+      <c r="D16">
+        <v>1000</v>
+      </c>
+      <c r="E16">
+        <v>1127.1199999999999</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1127.8652910000001</v>
+      </c>
+      <c r="H16">
+        <v>1000</v>
+      </c>
+      <c r="I16">
+        <v>1131.2186019999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>1500</v>
+      </c>
+      <c r="B17">
+        <v>1133.9691600000001</v>
+      </c>
+      <c r="D17">
+        <v>1500</v>
+      </c>
+      <c r="E17">
+        <v>1136.8119999999999</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1137.5138704999999</v>
+      </c>
+      <c r="H17">
+        <v>1500</v>
+      </c>
+      <c r="I17">
+        <v>1141.058581</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>2000</v>
+      </c>
+      <c r="B18">
+        <v>1145.876841</v>
+      </c>
+      <c r="D18">
+        <v>2000</v>
+      </c>
+      <c r="E18">
+        <v>1148.528</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>1149.3750380000001</v>
+      </c>
+      <c r="H18">
+        <v>2000</v>
+      </c>
+      <c r="I18">
+        <v>1152.873235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>2.5647859999999999E-3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.7241589999999999E-3</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2.9144629999999999E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>2.098058</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.9556960000000001</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1.9338500000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L1" location="目录!A1" display="目录!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -55202,7 +55539,7 @@
         <v>1144.9248570286134</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="I12:J12" si="4">AVERAGE(D19:D21)</f>
+        <f t="shared" ref="J12" si="4">AVERAGE(D19:D21)</f>
         <v>7.9259098408621362</v>
       </c>
     </row>
@@ -55817,7 +56154,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="26.25" x14ac:dyDescent="0.15">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="15" t="s">
         <v>173</v>
       </c>
     </row>
@@ -56629,7 +56966,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="26.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="15" t="s">
         <v>173</v>
       </c>
     </row>
@@ -57003,7 +57340,7 @@
         <v>7.3402893115321906</v>
       </c>
       <c r="J18">
-        <f t="shared" ref="I18:J18" si="2">AVERAGE(D9:D12)</f>
+        <f t="shared" ref="J18" si="2">AVERAGE(D9:D12)</f>
         <v>7.22031303868091</v>
       </c>
     </row>
@@ -57067,7 +57404,7 @@
         <v>7.754448011173225</v>
       </c>
       <c r="J20">
-        <f t="shared" ref="I20:J20" si="4">AVERAGE(D17:D20)</f>
+        <f t="shared" ref="J20" si="4">AVERAGE(D17:D20)</f>
         <v>7.5899243439450679</v>
       </c>
     </row>
@@ -57511,7 +57848,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="26.25" x14ac:dyDescent="0.15">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="15" t="s">
         <v>173</v>
       </c>
     </row>
@@ -58413,7 +58750,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="26.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="15" t="s">
         <v>173</v>
       </c>
     </row>
@@ -58774,7 +59111,7 @@
         <v>1868.4428556308999</v>
       </c>
       <c r="L15">
-        <f t="shared" ref="K15:L15" si="4">AVERAGE(D21:D25)</f>
+        <f t="shared" ref="L15" si="4">AVERAGE(D21:D25)</f>
         <v>12.417765800074202</v>
       </c>
     </row>
@@ -59439,7 +59776,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="26.25" x14ac:dyDescent="0.15">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="15" t="s">
         <v>173</v>
       </c>
     </row>
@@ -59460,7 +59797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="U3" sqref="U3:X12"/>
     </sheetView>
   </sheetViews>
@@ -59470,7 +59807,7 @@
       <c r="B2">
         <v>20</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="16" t="s">
         <v>184</v>
       </c>
       <c r="J2">

--- a/实验结果/处理结果/处理结果-ETL版本.xlsx
+++ b/实验结果/处理结果/处理结果-ETL版本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8925" firstSheet="17" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8925" firstSheet="14" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="17" r:id="rId1"/>
@@ -2008,11 +2008,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="534009424"/>
-        <c:axId val="534012144"/>
+        <c:axId val="-1810794848"/>
+        <c:axId val="-1810794304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="534009424"/>
+        <c:axId val="-1810794848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2069,12 +2069,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534012144"/>
+        <c:crossAx val="-1810794304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="534012144"/>
+        <c:axId val="-1810794304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2131,7 +2131,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534009424"/>
+        <c:crossAx val="-1810794848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2554,11 +2554,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="688053552"/>
-        <c:axId val="688057360"/>
+        <c:axId val="-1804533264"/>
+        <c:axId val="-1804542512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="688053552"/>
+        <c:axId val="-1804533264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2615,12 +2615,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="688057360"/>
+        <c:crossAx val="-1804542512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="688057360"/>
+        <c:axId val="-1804542512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2677,7 +2677,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="688053552"/>
+        <c:crossAx val="-1804533264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3000,11 +3000,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="689026608"/>
-        <c:axId val="689028784"/>
+        <c:axId val="-1804543600"/>
+        <c:axId val="-1804544688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="689026608"/>
+        <c:axId val="-1804543600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3061,12 +3061,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="689028784"/>
+        <c:crossAx val="-1804544688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="689028784"/>
+        <c:axId val="-1804544688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3123,7 +3123,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="689026608"/>
+        <c:crossAx val="-1804543600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3187,6 +3187,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3401,11 +3402,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="689019536"/>
-        <c:axId val="689021168"/>
+        <c:axId val="-1804540880"/>
+        <c:axId val="-1804537616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="689019536"/>
+        <c:axId val="-1804540880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3462,12 +3463,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="689021168"/>
+        <c:crossAx val="-1804537616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="689021168"/>
+        <c:axId val="-1804537616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3524,7 +3525,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="689019536"/>
+        <c:crossAx val="-1804540880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3588,6 +3589,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3662,6 +3664,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3747,11 +3750,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="689027152"/>
-        <c:axId val="689016816"/>
+        <c:axId val="-1725561712"/>
+        <c:axId val="-1725558992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="689027152"/>
+        <c:axId val="-1725561712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3808,12 +3811,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="689016816"/>
+        <c:crossAx val="-1725558992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="689016816"/>
+        <c:axId val="-1725558992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3870,7 +3873,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="689027152"/>
+        <c:crossAx val="-1725561712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3934,6 +3937,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4008,6 +4012,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4099,11 +4104,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="689023888"/>
-        <c:axId val="689024432"/>
+        <c:axId val="-1725568784"/>
+        <c:axId val="-1725561168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="689023888"/>
+        <c:axId val="-1725568784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4160,12 +4165,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="689024432"/>
+        <c:crossAx val="-1725561168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="689024432"/>
+        <c:axId val="-1725561168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4222,7 +4227,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="689023888"/>
+        <c:crossAx val="-1725568784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4286,6 +4291,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4360,6 +4366,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4448,11 +4455,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="689017360"/>
-        <c:axId val="689016272"/>
+        <c:axId val="-1725566064"/>
+        <c:axId val="-1725559536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="689017360"/>
+        <c:axId val="-1725566064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4509,12 +4516,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="689016272"/>
+        <c:crossAx val="-1725559536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="689016272"/>
+        <c:axId val="-1725559536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4571,7 +4578,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="689017360"/>
+        <c:crossAx val="-1725566064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4635,6 +4642,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4709,6 +4717,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4797,11 +4806,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="689027696"/>
-        <c:axId val="689020624"/>
+        <c:axId val="-1725558448"/>
+        <c:axId val="-1725570960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="689027696"/>
+        <c:axId val="-1725558448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4858,12 +4867,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="689020624"/>
+        <c:crossAx val="-1725570960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="689020624"/>
+        <c:axId val="-1725570960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4920,7 +4929,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="689027696"/>
+        <c:crossAx val="-1725558448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5142,11 +5151,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="689030416"/>
-        <c:axId val="689030960"/>
+        <c:axId val="-1725567152"/>
+        <c:axId val="-1725557360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="689030416"/>
+        <c:axId val="-1725567152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5203,12 +5212,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="689030960"/>
+        <c:crossAx val="-1725557360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="689030960"/>
+        <c:axId val="-1725557360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5265,7 +5274,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="689030416"/>
+        <c:crossAx val="-1725567152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5487,11 +5496,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="689144944"/>
-        <c:axId val="689149296"/>
+        <c:axId val="-1725563888"/>
+        <c:axId val="-1725567696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="689144944"/>
+        <c:axId val="-1725563888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5548,12 +5557,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="689149296"/>
+        <c:crossAx val="-1725567696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="689149296"/>
+        <c:axId val="-1725567696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5610,7 +5619,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="689144944"/>
+        <c:crossAx val="-1725563888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5844,11 +5853,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="689148208"/>
-        <c:axId val="689149840"/>
+        <c:axId val="-1725563344"/>
+        <c:axId val="-1725562800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="689148208"/>
+        <c:axId val="-1725563344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5905,12 +5914,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="689149840"/>
+        <c:crossAx val="-1725562800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="689149840"/>
+        <c:axId val="-1725562800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5967,7 +5976,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="689148208"/>
+        <c:crossAx val="-1725563344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6287,11 +6296,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="534014320"/>
-        <c:axId val="534014864"/>
+        <c:axId val="-1810792672"/>
+        <c:axId val="-1810792128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="534014320"/>
+        <c:axId val="-1810792672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6348,12 +6357,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534014864"/>
+        <c:crossAx val="-1810792128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="534014864"/>
+        <c:axId val="-1810792128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6410,7 +6419,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534014320"/>
+        <c:crossAx val="-1810792672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6647,11 +6656,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="689136784"/>
-        <c:axId val="689150384"/>
+        <c:axId val="-1721918480"/>
+        <c:axId val="-1721911952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="689136784"/>
+        <c:axId val="-1721918480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6708,12 +6717,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="689150384"/>
+        <c:crossAx val="-1721911952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="689150384"/>
+        <c:axId val="-1721911952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6770,7 +6779,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="689136784"/>
+        <c:crossAx val="-1721918480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7004,11 +7013,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="689137328"/>
-        <c:axId val="689135696"/>
+        <c:axId val="-1721916848"/>
+        <c:axId val="-1721909232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="689137328"/>
+        <c:axId val="-1721916848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7065,12 +7074,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="689135696"/>
+        <c:crossAx val="-1721909232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="689135696"/>
+        <c:axId val="-1721909232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7127,7 +7136,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="689137328"/>
+        <c:crossAx val="-1721916848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7367,11 +7376,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="689140048"/>
-        <c:axId val="689140592"/>
+        <c:axId val="-1721907600"/>
+        <c:axId val="-1721914128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="689140048"/>
+        <c:axId val="-1721907600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7428,12 +7437,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="689140592"/>
+        <c:crossAx val="-1721914128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="689140592"/>
+        <c:axId val="-1721914128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7490,7 +7499,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="689140048"/>
+        <c:crossAx val="-1721907600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7715,11 +7724,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="689142768"/>
-        <c:axId val="689145488"/>
+        <c:axId val="-1721910320"/>
+        <c:axId val="-1721909776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="689142768"/>
+        <c:axId val="-1721910320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7776,12 +7785,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="689145488"/>
+        <c:crossAx val="-1721909776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="689145488"/>
+        <c:axId val="-1721909776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7838,7 +7847,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="689142768"/>
+        <c:crossAx val="-1721910320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7902,7 +7911,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7977,7 +7985,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -8069,11 +8076,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="689143856"/>
-        <c:axId val="689144400"/>
+        <c:axId val="-1721905968"/>
+        <c:axId val="-1721905424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="689143856"/>
+        <c:axId val="-1721905968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8130,12 +8137,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="689144400"/>
+        <c:crossAx val="-1721905424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="689144400"/>
+        <c:axId val="-1721905424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8192,7 +8199,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="689143856"/>
+        <c:crossAx val="-1721905968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8431,11 +8438,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="708175248"/>
-        <c:axId val="708174704"/>
+        <c:axId val="-1721904880"/>
+        <c:axId val="-1721904336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="708175248"/>
+        <c:axId val="-1721904880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8492,12 +8499,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="708174704"/>
+        <c:crossAx val="-1721904336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="708174704"/>
+        <c:axId val="-1721904336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8554,7 +8561,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="708175248"/>
+        <c:crossAx val="-1721904880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8618,6 +8625,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8692,6 +8700,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -8777,11 +8786,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="400257824"/>
-        <c:axId val="688060624"/>
+        <c:axId val="-41045008"/>
+        <c:axId val="-41049360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="400257824"/>
+        <c:axId val="-41045008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8838,12 +8847,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="688060624"/>
+        <c:crossAx val="-41049360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="688060624"/>
+        <c:axId val="-41049360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8900,7 +8909,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400257824"/>
+        <c:crossAx val="-41045008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8964,6 +8973,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9274,11 +9284,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="688056272"/>
-        <c:axId val="688054096"/>
+        <c:axId val="-41035216"/>
+        <c:axId val="-2034157968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="688056272"/>
+        <c:axId val="-41035216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9335,12 +9345,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="688054096"/>
+        <c:crossAx val="-2034157968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="688054096"/>
+        <c:axId val="-2034157968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9397,7 +9407,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="688056272"/>
+        <c:crossAx val="-41035216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9411,6 +9421,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9492,6 +9503,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9566,6 +9578,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -9654,11 +9667,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="688055184"/>
-        <c:axId val="688063888"/>
+        <c:axId val="-1881950720"/>
+        <c:axId val="-41214032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="688055184"/>
+        <c:axId val="-1881950720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9715,12 +9728,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="688063888"/>
+        <c:crossAx val="-41214032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="688063888"/>
+        <c:axId val="-41214032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9777,7 +9790,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="688055184"/>
+        <c:crossAx val="-1881950720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9841,6 +9854,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9915,6 +9929,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -10003,11 +10018,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="688064432"/>
-        <c:axId val="688065520"/>
+        <c:axId val="-1804532176"/>
+        <c:axId val="-1804531632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="688064432"/>
+        <c:axId val="-1804532176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10064,12 +10079,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="688065520"/>
+        <c:crossAx val="-1804531632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="688065520"/>
+        <c:axId val="-1804531632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10126,7 +10141,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="688064432"/>
+        <c:crossAx val="-1804532176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10190,6 +10205,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10264,6 +10280,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -10349,11 +10366,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="688052464"/>
-        <c:axId val="688058448"/>
+        <c:axId val="-1804530000"/>
+        <c:axId val="-1804531088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="688052464"/>
+        <c:axId val="-1804530000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10410,12 +10427,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="688058448"/>
+        <c:crossAx val="-1804531088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="688058448"/>
+        <c:axId val="-1804531088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10472,7 +10489,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="688052464"/>
+        <c:crossAx val="-1804530000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10900,11 +10917,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="688062256"/>
-        <c:axId val="688064976"/>
+        <c:axId val="-1804535984"/>
+        <c:axId val="-1804539792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="688062256"/>
+        <c:axId val="-1804535984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10961,12 +10978,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="688064976"/>
+        <c:crossAx val="-1804539792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="688064976"/>
+        <c:axId val="-1804539792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11023,7 +11040,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="688062256"/>
+        <c:crossAx val="-1804535984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11483,11 +11500,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="688055728"/>
-        <c:axId val="688050832"/>
+        <c:axId val="-1804534896"/>
+        <c:axId val="-1804538704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="688055728"/>
+        <c:axId val="-1804534896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11544,12 +11561,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="688050832"/>
+        <c:crossAx val="-1804538704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="688050832"/>
+        <c:axId val="-1804538704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11606,7 +11623,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="688055728"/>
+        <c:crossAx val="-1804534896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -26221,16 +26238,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27210,7 +27227,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -31907,7 +31926,7 @@
   <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="L2" sqref="L2:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -35108,8 +35127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K19" sqref="H3:K19"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -36767,7 +36786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -42095,7 +42114,7 @@
   <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K20" sqref="H4:K20"/>
+      <selection activeCell="H4" sqref="H4:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -43992,8 +44011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:K34"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -55263,7 +55282,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="I8" sqref="I8:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -56988,7 +57007,7 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="I16" sqref="I16:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
